--- a/results/end_of_day_charge_levels.xlsx
+++ b/results/end_of_day_charge_levels.xlsx
@@ -454,7 +454,7 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6612923584120468</v>
+        <v>0.6612923584120469</v>
       </c>
     </row>
     <row r="3">
@@ -470,7 +470,7 @@
         <v>36528</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3958056328221244</v>
+        <v>0.3958056328221246</v>
       </c>
     </row>
     <row r="5">
@@ -550,7 +550,7 @@
         <v>36538</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4147975016967796</v>
+        <v>0.4147975016967798</v>
       </c>
     </row>
     <row r="15">
@@ -566,7 +566,7 @@
         <v>36540</v>
       </c>
       <c r="B16" t="n">
-        <v>0.557533689318664</v>
+        <v>0.5575336893186641</v>
       </c>
     </row>
     <row r="17">
@@ -582,7 +582,7 @@
         <v>36542</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3017559711545987</v>
+        <v>0.3017559711545988</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>36543</v>
       </c>
       <c r="B19" t="n">
-        <v>0.461896467559182</v>
+        <v>0.4618964675591821</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>36544</v>
       </c>
       <c r="B20" t="n">
-        <v>2.850005230986529</v>
+        <v>2.85000523098653</v>
       </c>
     </row>
     <row r="21">
@@ -614,7 +614,7 @@
         <v>36546</v>
       </c>
       <c r="B22" t="n">
-        <v>4.798918249471388</v>
+        <v>4.798918249471387</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         <v>36552</v>
       </c>
       <c r="B28" t="n">
-        <v>2.189176824636349</v>
+        <v>2.18917682463635</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>36553</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3992773965095374</v>
+        <v>0.3992773965095375</v>
       </c>
     </row>
     <row r="30">
@@ -710,7 +710,7 @@
         <v>36558</v>
       </c>
       <c r="B34" t="n">
-        <v>0.3452882775978261</v>
+        <v>0.3452882775978262</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         <v>36567</v>
       </c>
       <c r="B43" t="n">
-        <v>1.697768414106345</v>
+        <v>1.697768414106346</v>
       </c>
     </row>
     <row r="44">
@@ -798,7 +798,7 @@
         <v>36569</v>
       </c>
       <c r="B45" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -830,7 +830,7 @@
         <v>36573</v>
       </c>
       <c r="B49" t="n">
-        <v>4.999999999999998</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -854,7 +854,7 @@
         <v>36576</v>
       </c>
       <c r="B52" t="n">
-        <v>4.838484428649335</v>
+        <v>4.838484428649334</v>
       </c>
     </row>
     <row r="53">
@@ -894,7 +894,7 @@
         <v>36581</v>
       </c>
       <c r="B57" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="58">
@@ -950,7 +950,7 @@
         <v>36589</v>
       </c>
       <c r="B64" t="n">
-        <v>4.999999999999998</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="65">
@@ -974,7 +974,7 @@
         <v>36592</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4166285200648883</v>
+        <v>0.4166285200648882</v>
       </c>
     </row>
     <row r="68">
@@ -1006,7 +1006,7 @@
         <v>36596</v>
       </c>
       <c r="B71" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="72">
@@ -1062,7 +1062,7 @@
         <v>36603</v>
       </c>
       <c r="B78" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -1118,7 +1118,7 @@
         <v>36610</v>
       </c>
       <c r="B85" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86">
@@ -1230,7 +1230,7 @@
         <v>36624</v>
       </c>
       <c r="B99" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="100">
@@ -1246,7 +1246,7 @@
         <v>36626</v>
       </c>
       <c r="B101" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="102">
@@ -1294,7 +1294,7 @@
         <v>36632</v>
       </c>
       <c r="B107" t="n">
-        <v>4.999999999999999</v>
+        <v>4.999999999999998</v>
       </c>
     </row>
     <row r="108">
@@ -1374,7 +1374,7 @@
         <v>36642</v>
       </c>
       <c r="B117" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="118">
@@ -1462,7 +1462,7 @@
         <v>36653</v>
       </c>
       <c r="B128" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="129">
@@ -1494,7 +1494,7 @@
         <v>36657</v>
       </c>
       <c r="B132" t="n">
-        <v>4.999999999999998</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133">
@@ -1534,7 +1534,7 @@
         <v>36662</v>
       </c>
       <c r="B137" t="n">
-        <v>5</v>
+        <v>4.999999999999998</v>
       </c>
     </row>
     <row r="138">
@@ -1582,7 +1582,7 @@
         <v>36668</v>
       </c>
       <c r="B143" t="n">
-        <v>5</v>
+        <v>4.999999999999998</v>
       </c>
     </row>
     <row r="144">
@@ -1598,7 +1598,7 @@
         <v>36670</v>
       </c>
       <c r="B145" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="146">
@@ -1606,7 +1606,7 @@
         <v>36671</v>
       </c>
       <c r="B146" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="147">
@@ -1614,7 +1614,7 @@
         <v>36672</v>
       </c>
       <c r="B147" t="n">
-        <v>4.999999999999998</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="148">
@@ -1710,7 +1710,7 @@
         <v>36684</v>
       </c>
       <c r="B159" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160">
@@ -1726,7 +1726,7 @@
         <v>36686</v>
       </c>
       <c r="B161" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="162">
@@ -1758,7 +1758,7 @@
         <v>36690</v>
       </c>
       <c r="B165" t="n">
-        <v>2.535179007384258</v>
+        <v>2.535179007384259</v>
       </c>
     </row>
     <row r="166">
@@ -1766,7 +1766,7 @@
         <v>36691</v>
       </c>
       <c r="B166" t="n">
-        <v>5</v>
+        <v>4.999999999999998</v>
       </c>
     </row>
     <row r="167">
@@ -1782,7 +1782,7 @@
         <v>36693</v>
       </c>
       <c r="B168" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169">
@@ -1814,7 +1814,7 @@
         <v>36697</v>
       </c>
       <c r="B172" t="n">
-        <v>4.999999999999999</v>
+        <v>4.999999999999997</v>
       </c>
     </row>
     <row r="173">
@@ -1830,7 +1830,7 @@
         <v>36699</v>
       </c>
       <c r="B174" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175">
@@ -1846,7 +1846,7 @@
         <v>36701</v>
       </c>
       <c r="B176" t="n">
-        <v>2.258498754016979</v>
+        <v>2.25849875401698</v>
       </c>
     </row>
     <row r="177">
@@ -1910,7 +1910,7 @@
         <v>36709</v>
       </c>
       <c r="B184" t="n">
-        <v>4.999999999999998</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="185">
@@ -1926,7 +1926,7 @@
         <v>36711</v>
       </c>
       <c r="B186" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="187">
@@ -1942,7 +1942,7 @@
         <v>36713</v>
       </c>
       <c r="B188" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="189">
@@ -1950,7 +1950,7 @@
         <v>36714</v>
       </c>
       <c r="B189" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="190">
@@ -1966,7 +1966,7 @@
         <v>36716</v>
       </c>
       <c r="B191" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="192">
@@ -1990,7 +1990,7 @@
         <v>36719</v>
       </c>
       <c r="B194" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195">
@@ -1998,7 +1998,7 @@
         <v>36720</v>
       </c>
       <c r="B195" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196">
@@ -2014,7 +2014,7 @@
         <v>36722</v>
       </c>
       <c r="B197" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="198">
@@ -2030,7 +2030,7 @@
         <v>36724</v>
       </c>
       <c r="B199" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="200">
@@ -2038,7 +2038,7 @@
         <v>36725</v>
       </c>
       <c r="B200" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201">
@@ -2054,7 +2054,7 @@
         <v>36727</v>
       </c>
       <c r="B202" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="203">
@@ -2070,7 +2070,7 @@
         <v>36729</v>
       </c>
       <c r="B204" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="205">
@@ -2078,7 +2078,7 @@
         <v>36730</v>
       </c>
       <c r="B205" t="n">
-        <v>4.999999999999998</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206">
@@ -2086,7 +2086,7 @@
         <v>36731</v>
       </c>
       <c r="B206" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="207">
@@ -2134,7 +2134,7 @@
         <v>36737</v>
       </c>
       <c r="B212" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="213">
@@ -2150,7 +2150,7 @@
         <v>36739</v>
       </c>
       <c r="B214" t="n">
-        <v>4.999999999999998</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="215">
@@ -2182,7 +2182,7 @@
         <v>36743</v>
       </c>
       <c r="B218" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219">
@@ -2198,7 +2198,7 @@
         <v>36745</v>
       </c>
       <c r="B220" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221">
@@ -2222,7 +2222,7 @@
         <v>36748</v>
       </c>
       <c r="B223" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224">
@@ -2278,7 +2278,7 @@
         <v>36755</v>
       </c>
       <c r="B230" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231">
@@ -2294,7 +2294,7 @@
         <v>36757</v>
       </c>
       <c r="B232" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="233">
@@ -2318,7 +2318,7 @@
         <v>36760</v>
       </c>
       <c r="B235" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236">
@@ -2366,7 +2366,7 @@
         <v>36766</v>
       </c>
       <c r="B241" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242">
@@ -2374,7 +2374,7 @@
         <v>36767</v>
       </c>
       <c r="B242" t="n">
-        <v>3.719346064185718</v>
+        <v>3.719346064185719</v>
       </c>
     </row>
     <row r="243">
@@ -2382,7 +2382,7 @@
         <v>36768</v>
       </c>
       <c r="B243" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244">
@@ -2430,7 +2430,7 @@
         <v>36774</v>
       </c>
       <c r="B249" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250">
@@ -2446,7 +2446,7 @@
         <v>36776</v>
       </c>
       <c r="B251" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252">
@@ -2462,7 +2462,7 @@
         <v>36778</v>
       </c>
       <c r="B253" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254">
@@ -2518,7 +2518,7 @@
         <v>36785</v>
       </c>
       <c r="B260" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261">
@@ -2534,7 +2534,7 @@
         <v>36787</v>
       </c>
       <c r="B262" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="263">
@@ -2542,7 +2542,7 @@
         <v>36788</v>
       </c>
       <c r="B263" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="264">
@@ -2550,7 +2550,7 @@
         <v>36789</v>
       </c>
       <c r="B264" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="265">
@@ -2566,7 +2566,7 @@
         <v>36791</v>
       </c>
       <c r="B266" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267">
@@ -2646,7 +2646,7 @@
         <v>36801</v>
       </c>
       <c r="B276" t="n">
-        <v>0.3226857506745073</v>
+        <v>0.3226857506745074</v>
       </c>
     </row>
     <row r="277">
@@ -2662,7 +2662,7 @@
         <v>36803</v>
       </c>
       <c r="B278" t="n">
-        <v>4.745134634369502</v>
+        <v>4.745134634369503</v>
       </c>
     </row>
     <row r="279">
@@ -2694,7 +2694,7 @@
         <v>36807</v>
       </c>
       <c r="B282" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283">
@@ -2718,7 +2718,7 @@
         <v>36810</v>
       </c>
       <c r="B285" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="286">
@@ -2726,7 +2726,7 @@
         <v>36811</v>
       </c>
       <c r="B286" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="287">
@@ -2734,7 +2734,7 @@
         <v>36812</v>
       </c>
       <c r="B287" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="288">
@@ -2798,7 +2798,7 @@
         <v>36820</v>
       </c>
       <c r="B295" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="296">
@@ -2814,7 +2814,7 @@
         <v>36822</v>
       </c>
       <c r="B297" t="n">
-        <v>3.683546258631071</v>
+        <v>3.683546258631072</v>
       </c>
     </row>
     <row r="298">
@@ -2830,7 +2830,7 @@
         <v>36824</v>
       </c>
       <c r="B299" t="n">
-        <v>4.356958194396625</v>
+        <v>4.356958194396624</v>
       </c>
     </row>
     <row r="300">
@@ -2886,7 +2886,7 @@
         <v>36831</v>
       </c>
       <c r="B306" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="307">
@@ -2918,7 +2918,7 @@
         <v>36835</v>
       </c>
       <c r="B310" t="n">
-        <v>4.408428547892323</v>
+        <v>4.408428547892324</v>
       </c>
     </row>
     <row r="311">
@@ -2934,7 +2934,7 @@
         <v>36837</v>
       </c>
       <c r="B312" t="n">
-        <v>0.1694408917987829</v>
+        <v>0.169440891798783</v>
       </c>
     </row>
     <row r="313">
@@ -2966,7 +2966,7 @@
         <v>36841</v>
       </c>
       <c r="B316" t="n">
-        <v>0.4614315677556507</v>
+        <v>0.4614315677556508</v>
       </c>
     </row>
     <row r="317">
@@ -2982,7 +2982,7 @@
         <v>36843</v>
       </c>
       <c r="B318" t="n">
-        <v>4.116536420790201</v>
+        <v>4.116536420790202</v>
       </c>
     </row>
     <row r="319">
@@ -3006,7 +3006,7 @@
         <v>36846</v>
       </c>
       <c r="B321" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="322">
@@ -3014,7 +3014,7 @@
         <v>36847</v>
       </c>
       <c r="B322" t="n">
-        <v>4.535065746685911</v>
+        <v>4.535065746685913</v>
       </c>
     </row>
     <row r="323">
@@ -3030,7 +3030,7 @@
         <v>36849</v>
       </c>
       <c r="B324" t="n">
-        <v>1.144897312399811</v>
+        <v>1.144897312399812</v>
       </c>
     </row>
     <row r="325">
@@ -3190,7 +3190,7 @@
         <v>36869</v>
       </c>
       <c r="B344" t="n">
-        <v>0.2083672219493406</v>
+        <v>0.2083672219493407</v>
       </c>
     </row>
     <row r="345">
@@ -3198,7 +3198,7 @@
         <v>36870</v>
       </c>
       <c r="B345" t="n">
-        <v>1.667840607982241</v>
+        <v>1.667840607982242</v>
       </c>
     </row>
     <row r="346">
@@ -3238,7 +3238,7 @@
         <v>36875</v>
       </c>
       <c r="B350" t="n">
-        <v>0.5181191550943749</v>
+        <v>0.518119155094375</v>
       </c>
     </row>
     <row r="351">
@@ -3286,7 +3286,7 @@
         <v>36881</v>
       </c>
       <c r="B356" t="n">
-        <v>1.432528558735119</v>
+        <v>1.43252855873512</v>
       </c>
     </row>
     <row r="357">
@@ -3294,7 +3294,7 @@
         <v>36882</v>
       </c>
       <c r="B357" t="n">
-        <v>0.05886986454951502</v>
+        <v>0.05886986454951505</v>
       </c>
     </row>
     <row r="358">
@@ -3302,7 +3302,7 @@
         <v>36883</v>
       </c>
       <c r="B358" t="n">
-        <v>1.596528558735119</v>
+        <v>1.59652855873512</v>
       </c>
     </row>
     <row r="359">
@@ -3334,7 +3334,7 @@
         <v>36887</v>
       </c>
       <c r="B362" t="n">
-        <v>1.889049547996696</v>
+        <v>1.889049547996697</v>
       </c>
     </row>
     <row r="363">
@@ -3342,7 +3342,7 @@
         <v>36888</v>
       </c>
       <c r="B363" t="n">
-        <v>2.449658431003875</v>
+        <v>2.449658431003876</v>
       </c>
     </row>
     <row r="364">

--- a/results/end_of_day_charge_levels.xlsx
+++ b/results/end_of_day_charge_levels.xlsx
@@ -470,7 +470,7 @@
         <v>36528</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3958056328221246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>36529</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1613898885714336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>36530</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1087805048860725</v>
+        <v>0.06366381003880003</v>
       </c>
     </row>
     <row r="7">
@@ -510,7 +510,7 @@
         <v>36533</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2714434994611216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -566,7 +566,7 @@
         <v>36540</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5575336893186641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -678,7 +678,7 @@
         <v>36554</v>
       </c>
       <c r="B30" t="n">
-        <v>2.61961158957724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -686,7 +686,7 @@
         <v>36555</v>
       </c>
       <c r="B31" t="n">
-        <v>4.131527751806126</v>
+        <v>3.588460746437567</v>
       </c>
     </row>
     <row r="32">
@@ -710,7 +710,7 @@
         <v>36558</v>
       </c>
       <c r="B34" t="n">
-        <v>0.3452882775978262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -934,7 +934,7 @@
         <v>36587</v>
       </c>
       <c r="B62" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1014,7 +1014,7 @@
         <v>36597</v>
       </c>
       <c r="B72" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
@@ -1022,7 +1022,7 @@
         <v>36598</v>
       </c>
       <c r="B73" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1038,7 +1038,7 @@
         <v>36600</v>
       </c>
       <c r="B75" t="n">
-        <v>5</v>
+        <v>4.154078783986692</v>
       </c>
     </row>
     <row r="76">
@@ -1046,7 +1046,7 @@
         <v>36601</v>
       </c>
       <c r="B76" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1062,7 +1062,7 @@
         <v>36603</v>
       </c>
       <c r="B78" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="79">
@@ -1070,7 +1070,7 @@
         <v>36604</v>
       </c>
       <c r="B79" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1078,7 +1078,7 @@
         <v>36605</v>
       </c>
       <c r="B80" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1086,7 +1086,7 @@
         <v>36606</v>
       </c>
       <c r="B81" t="n">
-        <v>1.825030703966957</v>
+        <v>4.999999999999998</v>
       </c>
     </row>
     <row r="82">
@@ -1094,7 +1094,7 @@
         <v>36607</v>
       </c>
       <c r="B82" t="n">
-        <v>1.765414291084767</v>
+        <v>3.243283972901243</v>
       </c>
     </row>
     <row r="83">
@@ -1102,7 +1102,7 @@
         <v>36608</v>
       </c>
       <c r="B83" t="n">
-        <v>4.480065492322488</v>
+        <v>3.326071396160306</v>
       </c>
     </row>
     <row r="84">
@@ -1110,7 +1110,7 @@
         <v>36609</v>
       </c>
       <c r="B84" t="n">
-        <v>2.967103423383127</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85">
@@ -1118,7 +1118,7 @@
         <v>36610</v>
       </c>
       <c r="B85" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1142,7 +1142,7 @@
         <v>36613</v>
       </c>
       <c r="B88" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1166,7 +1166,7 @@
         <v>36616</v>
       </c>
       <c r="B91" t="n">
-        <v>4.999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -1174,7 +1174,7 @@
         <v>36617</v>
       </c>
       <c r="B92" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -1510,7 +1510,7 @@
         <v>36659</v>
       </c>
       <c r="B134" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -1662,7 +1662,7 @@
         <v>36678</v>
       </c>
       <c r="B153" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -1814,7 +1814,7 @@
         <v>36697</v>
       </c>
       <c r="B172" t="n">
-        <v>4.999999999999997</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173">
@@ -1838,7 +1838,7 @@
         <v>36700</v>
       </c>
       <c r="B175" t="n">
-        <v>5</v>
+        <v>1.942000742333645</v>
       </c>
     </row>
     <row r="176">
@@ -1846,7 +1846,7 @@
         <v>36701</v>
       </c>
       <c r="B176" t="n">
-        <v>2.25849875401698</v>
+        <v>3.950490898271326</v>
       </c>
     </row>
     <row r="177">
@@ -1854,7 +1854,7 @@
         <v>36702</v>
       </c>
       <c r="B177" t="n">
-        <v>2.656930401660337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178">
@@ -1870,7 +1870,7 @@
         <v>36704</v>
       </c>
       <c r="B179" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="180">
@@ -1886,7 +1886,7 @@
         <v>36706</v>
       </c>
       <c r="B181" t="n">
-        <v>5</v>
+        <v>4.145487026351776</v>
       </c>
     </row>
     <row r="182">
@@ -1894,7 +1894,7 @@
         <v>36707</v>
       </c>
       <c r="B182" t="n">
-        <v>4.322434453010724</v>
+        <v>0.2922529296163545</v>
       </c>
     </row>
     <row r="183">
@@ -1902,7 +1902,7 @@
         <v>36708</v>
       </c>
       <c r="B183" t="n">
-        <v>0.284756352717739</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184">
@@ -2566,7 +2566,7 @@
         <v>36791</v>
       </c>
       <c r="B266" t="n">
-        <v>5</v>
+        <v>4.596364078714711</v>
       </c>
     </row>
     <row r="267">
@@ -2574,7 +2574,7 @@
         <v>36792</v>
       </c>
       <c r="B267" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -2582,7 +2582,7 @@
         <v>36793</v>
       </c>
       <c r="B268" t="n">
-        <v>5</v>
+        <v>4.999999999999998</v>
       </c>
     </row>
     <row r="269">
@@ -2822,7 +2822,7 @@
         <v>36823</v>
       </c>
       <c r="B298" t="n">
-        <v>0.8025730305407738</v>
+        <v>0.7132873572634397</v>
       </c>
     </row>
     <row r="299">
@@ -2830,7 +2830,7 @@
         <v>36824</v>
       </c>
       <c r="B299" t="n">
-        <v>4.356958194396624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -2870,7 +2870,7 @@
         <v>36829</v>
       </c>
       <c r="B304" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
@@ -2878,7 +2878,7 @@
         <v>36830</v>
       </c>
       <c r="B305" t="n">
-        <v>2.595872217399236</v>
+        <v>2.454299652530172</v>
       </c>
     </row>
     <row r="306">
@@ -2886,7 +2886,7 @@
         <v>36831</v>
       </c>
       <c r="B306" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -2982,7 +2982,7 @@
         <v>36843</v>
       </c>
       <c r="B318" t="n">
-        <v>4.116536420790202</v>
+        <v>3.115238810587208</v>
       </c>
     </row>
     <row r="319">
@@ -3030,7 +3030,7 @@
         <v>36849</v>
       </c>
       <c r="B324" t="n">
-        <v>1.144897312399812</v>
+        <v>0.6463981650075452</v>
       </c>
     </row>
     <row r="325">
@@ -3038,7 +3038,7 @@
         <v>36850</v>
       </c>
       <c r="B325" t="n">
-        <v>2.391055075323611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
@@ -3110,7 +3110,7 @@
         <v>36859</v>
       </c>
       <c r="B334" t="n">
-        <v>0.1558759839757466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -3126,7 +3126,7 @@
         <v>36861</v>
       </c>
       <c r="B336" t="n">
-        <v>0.6565391915428718</v>
+        <v>0.5056632075671252</v>
       </c>
     </row>
     <row r="337">
@@ -3134,7 +3134,7 @@
         <v>36862</v>
       </c>
       <c r="B337" t="n">
-        <v>0.5178220611193987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -3142,7 +3142,7 @@
         <v>36863</v>
       </c>
       <c r="B338" t="n">
-        <v>0.7884789668474173</v>
+        <v>0.3600015234434402</v>
       </c>
     </row>
     <row r="339">
@@ -3158,7 +3158,7 @@
         <v>36865</v>
       </c>
       <c r="B340" t="n">
-        <v>0.4326335060876109</v>
+        <v>0.392076332707383</v>
       </c>
     </row>
     <row r="341">
@@ -3166,7 +3166,7 @@
         <v>36866</v>
       </c>
       <c r="B341" t="n">
-        <v>0.0416462999228427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -3174,7 +3174,7 @@
         <v>36867</v>
       </c>
       <c r="B342" t="n">
-        <v>0.01564629992284271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -3182,7 +3182,7 @@
         <v>36868</v>
       </c>
       <c r="B343" t="n">
-        <v>0.04055717338022789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -3230,7 +3230,7 @@
         <v>36874</v>
       </c>
       <c r="B349" t="n">
-        <v>0.1637141875419651</v>
+        <v>0.001317988031008764</v>
       </c>
     </row>
     <row r="350">
@@ -3238,7 +3238,7 @@
         <v>36875</v>
       </c>
       <c r="B350" t="n">
-        <v>0.518119155094375</v>
+        <v>0.2894244325588191</v>
       </c>
     </row>
     <row r="351">
@@ -3270,7 +3270,7 @@
         <v>36879</v>
       </c>
       <c r="B354" t="n">
-        <v>0.1360172536034742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
@@ -3286,7 +3286,7 @@
         <v>36881</v>
       </c>
       <c r="B356" t="n">
-        <v>1.43252855873512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
@@ -3302,7 +3302,7 @@
         <v>36883</v>
       </c>
       <c r="B358" t="n">
-        <v>1.59652855873512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -3310,7 +3310,7 @@
         <v>36884</v>
       </c>
       <c r="B359" t="n">
-        <v>1.791000790364842</v>
+        <v>1.449449116031491</v>
       </c>
     </row>
     <row r="360">

--- a/results/end_of_day_charge_levels.xlsx
+++ b/results/end_of_day_charge_levels.xlsx
@@ -454,7 +454,7 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6612923584120469</v>
+        <v>0.6612923584120468</v>
       </c>
     </row>
     <row r="3">
@@ -550,7 +550,7 @@
         <v>36538</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4147975016967798</v>
+        <v>0.4147975016967796</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         <v>36542</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3017559711545988</v>
+        <v>0.3017559711545987</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>36543</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4618964675591821</v>
+        <v>0.461896467559182</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>36544</v>
       </c>
       <c r="B20" t="n">
-        <v>2.85000523098653</v>
+        <v>2.850005230986529</v>
       </c>
     </row>
     <row r="21">
@@ -614,7 +614,7 @@
         <v>36546</v>
       </c>
       <c r="B22" t="n">
-        <v>4.798918249471387</v>
+        <v>4.798918249471388</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         <v>36552</v>
       </c>
       <c r="B28" t="n">
-        <v>2.18917682463635</v>
+        <v>2.189176824636349</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>36553</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3992773965095375</v>
+        <v>0.3992773965095374</v>
       </c>
     </row>
     <row r="30">
@@ -782,7 +782,7 @@
         <v>36567</v>
       </c>
       <c r="B43" t="n">
-        <v>1.697768414106346</v>
+        <v>1.697768414106345</v>
       </c>
     </row>
     <row r="44">
@@ -830,7 +830,7 @@
         <v>36573</v>
       </c>
       <c r="B49" t="n">
-        <v>5</v>
+        <v>4.999999999999998</v>
       </c>
     </row>
     <row r="50">
@@ -854,7 +854,7 @@
         <v>36576</v>
       </c>
       <c r="B52" t="n">
-        <v>4.838484428649334</v>
+        <v>4.838484428649335</v>
       </c>
     </row>
     <row r="53">
@@ -894,7 +894,7 @@
         <v>36581</v>
       </c>
       <c r="B57" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -950,7 +950,7 @@
         <v>36589</v>
       </c>
       <c r="B64" t="n">
-        <v>4.999999999999999</v>
+        <v>4.999999999999998</v>
       </c>
     </row>
     <row r="65">
@@ -974,7 +974,7 @@
         <v>36592</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4166285200648882</v>
+        <v>0.4166285200648883</v>
       </c>
     </row>
     <row r="68">
@@ -1006,7 +1006,7 @@
         <v>36596</v>
       </c>
       <c r="B71" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
@@ -1014,7 +1014,7 @@
         <v>36597</v>
       </c>
       <c r="B72" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="73">
@@ -1038,7 +1038,7 @@
         <v>36600</v>
       </c>
       <c r="B75" t="n">
-        <v>4.154078783986692</v>
+        <v>4.154078783986691</v>
       </c>
     </row>
     <row r="76">
@@ -1054,7 +1054,7 @@
         <v>36602</v>
       </c>
       <c r="B77" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="78">
@@ -1062,7 +1062,7 @@
         <v>36603</v>
       </c>
       <c r="B78" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -1230,7 +1230,7 @@
         <v>36624</v>
       </c>
       <c r="B99" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100">
@@ -1246,7 +1246,7 @@
         <v>36626</v>
       </c>
       <c r="B101" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102">
@@ -1294,7 +1294,7 @@
         <v>36632</v>
       </c>
       <c r="B107" t="n">
-        <v>4.999999999999998</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="108">
@@ -1374,7 +1374,7 @@
         <v>36642</v>
       </c>
       <c r="B117" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118">
@@ -1462,7 +1462,7 @@
         <v>36653</v>
       </c>
       <c r="B128" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129">
@@ -1494,7 +1494,7 @@
         <v>36657</v>
       </c>
       <c r="B132" t="n">
-        <v>5</v>
+        <v>4.999999999999998</v>
       </c>
     </row>
     <row r="133">
@@ -1534,7 +1534,7 @@
         <v>36662</v>
       </c>
       <c r="B137" t="n">
-        <v>4.999999999999998</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138">
@@ -1582,7 +1582,7 @@
         <v>36668</v>
       </c>
       <c r="B143" t="n">
-        <v>4.999999999999998</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144">
@@ -1598,7 +1598,7 @@
         <v>36670</v>
       </c>
       <c r="B145" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146">
@@ -1606,7 +1606,7 @@
         <v>36671</v>
       </c>
       <c r="B146" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147">
@@ -1614,7 +1614,7 @@
         <v>36672</v>
       </c>
       <c r="B147" t="n">
-        <v>4.999999999999999</v>
+        <v>4.999999999999998</v>
       </c>
     </row>
     <row r="148">
@@ -1710,7 +1710,7 @@
         <v>36684</v>
       </c>
       <c r="B159" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="160">
@@ -1726,7 +1726,7 @@
         <v>36686</v>
       </c>
       <c r="B161" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162">
@@ -1758,7 +1758,7 @@
         <v>36690</v>
       </c>
       <c r="B165" t="n">
-        <v>2.535179007384259</v>
+        <v>2.535179007384258</v>
       </c>
     </row>
     <row r="166">
@@ -1766,7 +1766,7 @@
         <v>36691</v>
       </c>
       <c r="B166" t="n">
-        <v>4.999999999999998</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167">
@@ -1782,7 +1782,7 @@
         <v>36693</v>
       </c>
       <c r="B168" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="169">
@@ -1870,7 +1870,7 @@
         <v>36704</v>
       </c>
       <c r="B179" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180">
@@ -1910,7 +1910,7 @@
         <v>36709</v>
       </c>
       <c r="B184" t="n">
-        <v>4.999999999999999</v>
+        <v>4.999999999999998</v>
       </c>
     </row>
     <row r="185">
@@ -1926,7 +1926,7 @@
         <v>36711</v>
       </c>
       <c r="B186" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187">
@@ -1942,7 +1942,7 @@
         <v>36713</v>
       </c>
       <c r="B188" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189">
@@ -1950,7 +1950,7 @@
         <v>36714</v>
       </c>
       <c r="B189" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190">
@@ -1966,7 +1966,7 @@
         <v>36716</v>
       </c>
       <c r="B191" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192">
@@ -1990,7 +1990,7 @@
         <v>36719</v>
       </c>
       <c r="B194" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="195">
@@ -1998,7 +1998,7 @@
         <v>36720</v>
       </c>
       <c r="B195" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="196">
@@ -2014,7 +2014,7 @@
         <v>36722</v>
       </c>
       <c r="B197" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198">
@@ -2030,7 +2030,7 @@
         <v>36724</v>
       </c>
       <c r="B199" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200">
@@ -2038,7 +2038,7 @@
         <v>36725</v>
       </c>
       <c r="B200" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="201">
@@ -2054,7 +2054,7 @@
         <v>36727</v>
       </c>
       <c r="B202" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203">
@@ -2070,7 +2070,7 @@
         <v>36729</v>
       </c>
       <c r="B204" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205">
@@ -2078,7 +2078,7 @@
         <v>36730</v>
       </c>
       <c r="B205" t="n">
-        <v>5</v>
+        <v>4.999999999999998</v>
       </c>
     </row>
     <row r="206">
@@ -2086,7 +2086,7 @@
         <v>36731</v>
       </c>
       <c r="B206" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207">
@@ -2134,7 +2134,7 @@
         <v>36737</v>
       </c>
       <c r="B212" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213">
@@ -2150,7 +2150,7 @@
         <v>36739</v>
       </c>
       <c r="B214" t="n">
-        <v>4.999999999999999</v>
+        <v>4.999999999999998</v>
       </c>
     </row>
     <row r="215">
@@ -2182,7 +2182,7 @@
         <v>36743</v>
       </c>
       <c r="B218" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="219">
@@ -2198,7 +2198,7 @@
         <v>36745</v>
       </c>
       <c r="B220" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="221">
@@ -2222,7 +2222,7 @@
         <v>36748</v>
       </c>
       <c r="B223" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="224">
@@ -2278,7 +2278,7 @@
         <v>36755</v>
       </c>
       <c r="B230" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="231">
@@ -2294,7 +2294,7 @@
         <v>36757</v>
       </c>
       <c r="B232" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233">
@@ -2318,7 +2318,7 @@
         <v>36760</v>
       </c>
       <c r="B235" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="236">
@@ -2366,7 +2366,7 @@
         <v>36766</v>
       </c>
       <c r="B241" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="242">
@@ -2374,7 +2374,7 @@
         <v>36767</v>
       </c>
       <c r="B242" t="n">
-        <v>3.719346064185719</v>
+        <v>3.719346064185718</v>
       </c>
     </row>
     <row r="243">
@@ -2382,7 +2382,7 @@
         <v>36768</v>
       </c>
       <c r="B243" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="244">
@@ -2430,7 +2430,7 @@
         <v>36774</v>
       </c>
       <c r="B249" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="250">
@@ -2446,7 +2446,7 @@
         <v>36776</v>
       </c>
       <c r="B251" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="252">
@@ -2462,7 +2462,7 @@
         <v>36778</v>
       </c>
       <c r="B253" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="254">
@@ -2518,7 +2518,7 @@
         <v>36785</v>
       </c>
       <c r="B260" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="261">
@@ -2534,7 +2534,7 @@
         <v>36787</v>
       </c>
       <c r="B262" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263">
@@ -2542,7 +2542,7 @@
         <v>36788</v>
       </c>
       <c r="B263" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264">
@@ -2550,7 +2550,7 @@
         <v>36789</v>
       </c>
       <c r="B264" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265">
@@ -2582,7 +2582,7 @@
         <v>36793</v>
       </c>
       <c r="B268" t="n">
-        <v>4.999999999999998</v>
+        <v>5</v>
       </c>
     </row>
     <row r="269">
@@ -2646,7 +2646,7 @@
         <v>36801</v>
       </c>
       <c r="B276" t="n">
-        <v>0.3226857506745074</v>
+        <v>0.3226857506745073</v>
       </c>
     </row>
     <row r="277">
@@ -2662,7 +2662,7 @@
         <v>36803</v>
       </c>
       <c r="B278" t="n">
-        <v>4.745134634369503</v>
+        <v>4.745134634369502</v>
       </c>
     </row>
     <row r="279">
@@ -2694,7 +2694,7 @@
         <v>36807</v>
       </c>
       <c r="B282" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="283">
@@ -2718,7 +2718,7 @@
         <v>36810</v>
       </c>
       <c r="B285" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="286">
@@ -2726,7 +2726,7 @@
         <v>36811</v>
       </c>
       <c r="B286" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="287">
@@ -2734,7 +2734,7 @@
         <v>36812</v>
       </c>
       <c r="B287" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="288">
@@ -2798,7 +2798,7 @@
         <v>36820</v>
       </c>
       <c r="B295" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="296">
@@ -2814,7 +2814,7 @@
         <v>36822</v>
       </c>
       <c r="B297" t="n">
-        <v>3.683546258631072</v>
+        <v>3.683546258631071</v>
       </c>
     </row>
     <row r="298">
@@ -2894,7 +2894,7 @@
         <v>36832</v>
       </c>
       <c r="B307" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="308">
@@ -2918,7 +2918,7 @@
         <v>36835</v>
       </c>
       <c r="B310" t="n">
-        <v>4.408428547892324</v>
+        <v>4.408428547892323</v>
       </c>
     </row>
     <row r="311">
@@ -2934,7 +2934,7 @@
         <v>36837</v>
       </c>
       <c r="B312" t="n">
-        <v>0.169440891798783</v>
+        <v>0.1694408917987829</v>
       </c>
     </row>
     <row r="313">
@@ -2966,7 +2966,7 @@
         <v>36841</v>
       </c>
       <c r="B316" t="n">
-        <v>0.4614315677556508</v>
+        <v>0.4614315677556507</v>
       </c>
     </row>
     <row r="317">
@@ -2982,7 +2982,7 @@
         <v>36843</v>
       </c>
       <c r="B318" t="n">
-        <v>3.115238810587208</v>
+        <v>3.115238810587209</v>
       </c>
     </row>
     <row r="319">
@@ -3006,7 +3006,7 @@
         <v>36846</v>
       </c>
       <c r="B321" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="322">
@@ -3014,7 +3014,7 @@
         <v>36847</v>
       </c>
       <c r="B322" t="n">
-        <v>4.535065746685913</v>
+        <v>4.535065746685911</v>
       </c>
     </row>
     <row r="323">
@@ -3030,7 +3030,7 @@
         <v>36849</v>
       </c>
       <c r="B324" t="n">
-        <v>0.6463981650075452</v>
+        <v>0.6463981650075448</v>
       </c>
     </row>
     <row r="325">
@@ -3190,7 +3190,7 @@
         <v>36869</v>
       </c>
       <c r="B344" t="n">
-        <v>0.2083672219493407</v>
+        <v>0.2083672219493406</v>
       </c>
     </row>
     <row r="345">
@@ -3198,7 +3198,7 @@
         <v>36870</v>
       </c>
       <c r="B345" t="n">
-        <v>1.667840607982242</v>
+        <v>1.667840607982241</v>
       </c>
     </row>
     <row r="346">
@@ -3294,7 +3294,7 @@
         <v>36882</v>
       </c>
       <c r="B357" t="n">
-        <v>0.05886986454951505</v>
+        <v>0.05886986454951502</v>
       </c>
     </row>
     <row r="358">
@@ -3334,7 +3334,7 @@
         <v>36887</v>
       </c>
       <c r="B362" t="n">
-        <v>1.889049547996697</v>
+        <v>1.889049547996696</v>
       </c>
     </row>
     <row r="363">
@@ -3342,7 +3342,7 @@
         <v>36888</v>
       </c>
       <c r="B363" t="n">
-        <v>2.449658431003876</v>
+        <v>2.449658431003875</v>
       </c>
     </row>
     <row r="364">

--- a/results/end_of_day_charge_levels.xlsx
+++ b/results/end_of_day_charge_levels.xlsx
@@ -470,7 +470,7 @@
         <v>36528</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3958056328221244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>36529</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1613898885714336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>36530</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1087805048860725</v>
+        <v>0.06366381003880003</v>
       </c>
     </row>
     <row r="7">
@@ -510,7 +510,7 @@
         <v>36533</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2714434994611216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -566,7 +566,7 @@
         <v>36540</v>
       </c>
       <c r="B16" t="n">
-        <v>0.557533689318664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -678,7 +678,7 @@
         <v>36554</v>
       </c>
       <c r="B30" t="n">
-        <v>2.61961158957724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -686,7 +686,7 @@
         <v>36555</v>
       </c>
       <c r="B31" t="n">
-        <v>4.131527751806126</v>
+        <v>3.588460746437567</v>
       </c>
     </row>
     <row r="32">
@@ -710,7 +710,7 @@
         <v>36558</v>
       </c>
       <c r="B34" t="n">
-        <v>0.3452882775978261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -798,7 +798,7 @@
         <v>36569</v>
       </c>
       <c r="B45" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -934,7 +934,7 @@
         <v>36587</v>
       </c>
       <c r="B62" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1022,7 +1022,7 @@
         <v>36598</v>
       </c>
       <c r="B73" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1038,7 +1038,7 @@
         <v>36600</v>
       </c>
       <c r="B75" t="n">
-        <v>5</v>
+        <v>4.154078783986691</v>
       </c>
     </row>
     <row r="76">
@@ -1046,7 +1046,7 @@
         <v>36601</v>
       </c>
       <c r="B76" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1054,7 +1054,7 @@
         <v>36602</v>
       </c>
       <c r="B77" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="78">
@@ -1062,7 +1062,7 @@
         <v>36603</v>
       </c>
       <c r="B78" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -1070,7 +1070,7 @@
         <v>36604</v>
       </c>
       <c r="B79" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1078,7 +1078,7 @@
         <v>36605</v>
       </c>
       <c r="B80" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1086,7 +1086,7 @@
         <v>36606</v>
       </c>
       <c r="B81" t="n">
-        <v>1.825030703966957</v>
+        <v>4.999999999999998</v>
       </c>
     </row>
     <row r="82">
@@ -1094,7 +1094,7 @@
         <v>36607</v>
       </c>
       <c r="B82" t="n">
-        <v>1.765414291084767</v>
+        <v>3.243283972901243</v>
       </c>
     </row>
     <row r="83">
@@ -1102,7 +1102,7 @@
         <v>36608</v>
       </c>
       <c r="B83" t="n">
-        <v>4.480065492322488</v>
+        <v>3.326071396160306</v>
       </c>
     </row>
     <row r="84">
@@ -1110,7 +1110,7 @@
         <v>36609</v>
       </c>
       <c r="B84" t="n">
-        <v>2.967103423383127</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85">
@@ -1118,7 +1118,7 @@
         <v>36610</v>
       </c>
       <c r="B85" t="n">
-        <v>4.999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1142,7 +1142,7 @@
         <v>36613</v>
       </c>
       <c r="B88" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1166,7 +1166,7 @@
         <v>36616</v>
       </c>
       <c r="B91" t="n">
-        <v>4.999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -1174,7 +1174,7 @@
         <v>36617</v>
       </c>
       <c r="B92" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -1510,7 +1510,7 @@
         <v>36659</v>
       </c>
       <c r="B134" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -1662,7 +1662,7 @@
         <v>36678</v>
       </c>
       <c r="B153" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -1814,7 +1814,7 @@
         <v>36697</v>
       </c>
       <c r="B172" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173">
@@ -1830,7 +1830,7 @@
         <v>36699</v>
       </c>
       <c r="B174" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175">
@@ -1838,7 +1838,7 @@
         <v>36700</v>
       </c>
       <c r="B175" t="n">
-        <v>5</v>
+        <v>1.942000742333645</v>
       </c>
     </row>
     <row r="176">
@@ -1846,7 +1846,7 @@
         <v>36701</v>
       </c>
       <c r="B176" t="n">
-        <v>2.258498754016979</v>
+        <v>3.950490898271326</v>
       </c>
     </row>
     <row r="177">
@@ -1854,7 +1854,7 @@
         <v>36702</v>
       </c>
       <c r="B177" t="n">
-        <v>2.656930401660337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178">
@@ -1886,7 +1886,7 @@
         <v>36706</v>
       </c>
       <c r="B181" t="n">
-        <v>5</v>
+        <v>4.145487026351776</v>
       </c>
     </row>
     <row r="182">
@@ -1894,7 +1894,7 @@
         <v>36707</v>
       </c>
       <c r="B182" t="n">
-        <v>4.322434453010724</v>
+        <v>0.2922529296163545</v>
       </c>
     </row>
     <row r="183">
@@ -1902,7 +1902,7 @@
         <v>36708</v>
       </c>
       <c r="B183" t="n">
-        <v>0.284756352717739</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184">
@@ -2566,7 +2566,7 @@
         <v>36791</v>
       </c>
       <c r="B266" t="n">
-        <v>4.999999999999999</v>
+        <v>4.596364078714711</v>
       </c>
     </row>
     <row r="267">
@@ -2574,7 +2574,7 @@
         <v>36792</v>
       </c>
       <c r="B267" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -2822,7 +2822,7 @@
         <v>36823</v>
       </c>
       <c r="B298" t="n">
-        <v>0.8025730305407738</v>
+        <v>0.7132873572634397</v>
       </c>
     </row>
     <row r="299">
@@ -2830,7 +2830,7 @@
         <v>36824</v>
       </c>
       <c r="B299" t="n">
-        <v>4.356958194396625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -2870,7 +2870,7 @@
         <v>36829</v>
       </c>
       <c r="B304" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
@@ -2878,7 +2878,7 @@
         <v>36830</v>
       </c>
       <c r="B305" t="n">
-        <v>2.595872217399236</v>
+        <v>2.454299652530172</v>
       </c>
     </row>
     <row r="306">
@@ -2886,7 +2886,7 @@
         <v>36831</v>
       </c>
       <c r="B306" t="n">
-        <v>4.999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -2894,7 +2894,7 @@
         <v>36832</v>
       </c>
       <c r="B307" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="308">
@@ -2982,7 +2982,7 @@
         <v>36843</v>
       </c>
       <c r="B318" t="n">
-        <v>4.116536420790201</v>
+        <v>3.115238810587209</v>
       </c>
     </row>
     <row r="319">
@@ -3030,7 +3030,7 @@
         <v>36849</v>
       </c>
       <c r="B324" t="n">
-        <v>1.144897312399811</v>
+        <v>0.6463981650075448</v>
       </c>
     </row>
     <row r="325">
@@ -3038,7 +3038,7 @@
         <v>36850</v>
       </c>
       <c r="B325" t="n">
-        <v>2.391055075323611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
@@ -3110,7 +3110,7 @@
         <v>36859</v>
       </c>
       <c r="B334" t="n">
-        <v>0.1558759839757466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -3126,7 +3126,7 @@
         <v>36861</v>
       </c>
       <c r="B336" t="n">
-        <v>0.6565391915428718</v>
+        <v>0.5056632075671252</v>
       </c>
     </row>
     <row r="337">
@@ -3134,7 +3134,7 @@
         <v>36862</v>
       </c>
       <c r="B337" t="n">
-        <v>0.5178220611193987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -3142,7 +3142,7 @@
         <v>36863</v>
       </c>
       <c r="B338" t="n">
-        <v>0.7884789668474173</v>
+        <v>0.3600015234434402</v>
       </c>
     </row>
     <row r="339">
@@ -3158,7 +3158,7 @@
         <v>36865</v>
       </c>
       <c r="B340" t="n">
-        <v>0.4326335060876109</v>
+        <v>0.392076332707383</v>
       </c>
     </row>
     <row r="341">
@@ -3166,7 +3166,7 @@
         <v>36866</v>
       </c>
       <c r="B341" t="n">
-        <v>0.0416462999228427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -3174,7 +3174,7 @@
         <v>36867</v>
       </c>
       <c r="B342" t="n">
-        <v>0.01564629992284271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -3182,7 +3182,7 @@
         <v>36868</v>
       </c>
       <c r="B343" t="n">
-        <v>0.04055717338022789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -3230,7 +3230,7 @@
         <v>36874</v>
       </c>
       <c r="B349" t="n">
-        <v>0.1637141875419651</v>
+        <v>0.001317988031008764</v>
       </c>
     </row>
     <row r="350">
@@ -3238,7 +3238,7 @@
         <v>36875</v>
       </c>
       <c r="B350" t="n">
-        <v>0.5181191550943749</v>
+        <v>0.2894244325588191</v>
       </c>
     </row>
     <row r="351">
@@ -3270,7 +3270,7 @@
         <v>36879</v>
       </c>
       <c r="B354" t="n">
-        <v>0.1360172536034742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
@@ -3286,7 +3286,7 @@
         <v>36881</v>
       </c>
       <c r="B356" t="n">
-        <v>1.432528558735119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
@@ -3302,7 +3302,7 @@
         <v>36883</v>
       </c>
       <c r="B358" t="n">
-        <v>1.596528558735119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -3310,7 +3310,7 @@
         <v>36884</v>
       </c>
       <c r="B359" t="n">
-        <v>1.791000790364842</v>
+        <v>1.449449116031491</v>
       </c>
     </row>
     <row r="360">

--- a/results/end_of_day_charge_levels.xlsx
+++ b/results/end_of_day_charge_levels.xlsx
@@ -454,7 +454,7 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6612923584120468</v>
+        <v>0.6466920752666873</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>36527</v>
       </c>
       <c r="B3" t="n">
-        <v>0.059623308068666</v>
+        <v>0.1781285412312651</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>36528</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.008116694847272454</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         <v>36530</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06366381003880003</v>
+        <v>0.2792480393578958</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>36531</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3652196685519796</v>
+        <v>0.2830623685657599</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>36532</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04996742616246878</v>
+        <v>0.01205925836690369</v>
       </c>
     </row>
     <row r="9">
@@ -518,7 +518,7 @@
         <v>36534</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.02455928155235285</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>36535</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.1786362727474556</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>36536</v>
       </c>
       <c r="B12" t="n">
-        <v>0.550041762273092</v>
+        <v>0.4564972328297493</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>36537</v>
       </c>
       <c r="B13" t="n">
-        <v>0.004601116908458595</v>
+        <v>0.05037649636977957</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>36538</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4147975016967796</v>
+        <v>1.150087190158708</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>36539</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>2.720411860160724</v>
       </c>
     </row>
     <row r="16">
@@ -574,7 +574,7 @@
         <v>36541</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7826639139786733</v>
+        <v>1.313477269125471</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>36542</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3017559711545987</v>
+        <v>0.6493402530349858</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>36543</v>
       </c>
       <c r="B19" t="n">
-        <v>0.461896467559182</v>
+        <v>0.2787236207603832</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>36544</v>
       </c>
       <c r="B20" t="n">
-        <v>2.850005230986529</v>
+        <v>3.577605081321416</v>
       </c>
     </row>
     <row r="21">
@@ -614,7 +614,7 @@
         <v>36546</v>
       </c>
       <c r="B22" t="n">
-        <v>4.798918249471388</v>
+        <v>3.335471910808629</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>36547</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6435353410534845</v>
+        <v>0.7558049085594679</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>36548</v>
       </c>
       <c r="B24" t="n">
-        <v>1.89172556110515</v>
+        <v>2.19372556110515</v>
       </c>
     </row>
     <row r="25">
@@ -654,7 +654,7 @@
         <v>36551</v>
       </c>
       <c r="B27" t="n">
-        <v>2.052538616323845</v>
+        <v>2.125905748582776</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>36552</v>
       </c>
       <c r="B28" t="n">
-        <v>2.189176824636349</v>
+        <v>2.317350895597211</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>36553</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3992773965095374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -686,7 +686,7 @@
         <v>36555</v>
       </c>
       <c r="B31" t="n">
-        <v>3.588460746437567</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -702,7 +702,7 @@
         <v>36557</v>
       </c>
       <c r="B33" t="n">
-        <v>0.3687752225452746</v>
+        <v>0.3537752225452746</v>
       </c>
     </row>
     <row r="34">
@@ -726,7 +726,7 @@
         <v>36560</v>
       </c>
       <c r="B36" t="n">
-        <v>1.462539197539338</v>
+        <v>0.3403636535150025</v>
       </c>
     </row>
     <row r="37">
@@ -742,7 +742,7 @@
         <v>36562</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06067786462378212</v>
+        <v>0.09767786462378213</v>
       </c>
     </row>
     <row r="39">
@@ -766,7 +766,7 @@
         <v>36565</v>
       </c>
       <c r="B41" t="n">
-        <v>4.290096967500113</v>
+        <v>4.826368538307462</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>36566</v>
       </c>
       <c r="B42" t="n">
-        <v>1.712857906740498</v>
+        <v>1.535091466708628</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>36567</v>
       </c>
       <c r="B43" t="n">
-        <v>1.697768414106345</v>
+        <v>1.247292322954824</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>36568</v>
       </c>
       <c r="B44" t="n">
-        <v>2.703474551692285</v>
+        <v>3.137080194166382</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>36569</v>
       </c>
       <c r="B45" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +806,7 @@
         <v>36570</v>
       </c>
       <c r="B46" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +814,7 @@
         <v>36571</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>0.1255725322071804</v>
       </c>
     </row>
     <row r="48">
@@ -830,7 +830,7 @@
         <v>36573</v>
       </c>
       <c r="B49" t="n">
-        <v>4.999999999999998</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -838,7 +838,7 @@
         <v>36574</v>
       </c>
       <c r="B50" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="51">
@@ -846,7 +846,7 @@
         <v>36575</v>
       </c>
       <c r="B51" t="n">
-        <v>2.502364454120514</v>
+        <v>2.690920019497323</v>
       </c>
     </row>
     <row r="52">
@@ -854,7 +854,7 @@
         <v>36576</v>
       </c>
       <c r="B52" t="n">
-        <v>4.838484428649335</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
@@ -926,7 +926,7 @@
         <v>36586</v>
       </c>
       <c r="B61" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="62">
@@ -950,7 +950,7 @@
         <v>36589</v>
       </c>
       <c r="B64" t="n">
-        <v>4.999999999999998</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
@@ -966,7 +966,7 @@
         <v>36591</v>
       </c>
       <c r="B66" t="n">
-        <v>3.106637722051017</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="67">
@@ -974,7 +974,7 @@
         <v>36592</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4166285200648883</v>
+        <v>0.5156285200648882</v>
       </c>
     </row>
     <row r="68">
@@ -982,7 +982,7 @@
         <v>36593</v>
       </c>
       <c r="B68" t="n">
-        <v>1.45114949282424</v>
+        <v>1.624944629042829</v>
       </c>
     </row>
     <row r="69">
@@ -990,7 +990,7 @@
         <v>36594</v>
       </c>
       <c r="B69" t="n">
-        <v>2.759490757454635</v>
+        <v>4.034218173971559</v>
       </c>
     </row>
     <row r="70">
@@ -998,7 +998,7 @@
         <v>36595</v>
       </c>
       <c r="B70" t="n">
-        <v>1.867737728191094</v>
+        <v>1.837428685256278</v>
       </c>
     </row>
     <row r="71">
@@ -1006,7 +1006,7 @@
         <v>36596</v>
       </c>
       <c r="B71" t="n">
-        <v>5</v>
+        <v>3.437573465975591</v>
       </c>
     </row>
     <row r="72">
@@ -1014,7 +1014,7 @@
         <v>36597</v>
       </c>
       <c r="B72" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
@@ -1038,7 +1038,7 @@
         <v>36600</v>
       </c>
       <c r="B75" t="n">
-        <v>4.154078783986691</v>
+        <v>2.840218418339626</v>
       </c>
     </row>
     <row r="76">
@@ -1054,7 +1054,7 @@
         <v>36602</v>
       </c>
       <c r="B77" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
@@ -1086,7 +1086,7 @@
         <v>36606</v>
       </c>
       <c r="B81" t="n">
-        <v>4.999999999999998</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
@@ -1094,7 +1094,7 @@
         <v>36607</v>
       </c>
       <c r="B82" t="n">
-        <v>3.243283972901243</v>
+        <v>4.357385275081653</v>
       </c>
     </row>
     <row r="83">
@@ -1102,7 +1102,7 @@
         <v>36608</v>
       </c>
       <c r="B83" t="n">
-        <v>3.326071396160306</v>
+        <v>2.478425057904969</v>
       </c>
     </row>
     <row r="84">
@@ -1110,7 +1110,7 @@
         <v>36609</v>
       </c>
       <c r="B84" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="85">
@@ -1126,7 +1126,7 @@
         <v>36611</v>
       </c>
       <c r="B86" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
@@ -1134,7 +1134,7 @@
         <v>36612</v>
       </c>
       <c r="B87" t="n">
-        <v>2.445417018975182</v>
+        <v>3.065234955861487</v>
       </c>
     </row>
     <row r="88">
@@ -1158,7 +1158,7 @@
         <v>36615</v>
       </c>
       <c r="B90" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="91">
@@ -1182,7 +1182,7 @@
         <v>36618</v>
       </c>
       <c r="B93" t="n">
-        <v>4.480980874603226</v>
+        <v>4.134562471626321</v>
       </c>
     </row>
     <row r="94">
@@ -1190,7 +1190,7 @@
         <v>36619</v>
       </c>
       <c r="B94" t="n">
-        <v>3.580172807626497</v>
+        <v>4.932602540833704</v>
       </c>
     </row>
     <row r="95">
@@ -1198,7 +1198,7 @@
         <v>36620</v>
       </c>
       <c r="B95" t="n">
-        <v>2.37417902841104</v>
+        <v>2.717070706888844</v>
       </c>
     </row>
     <row r="96">
@@ -1214,7 +1214,7 @@
         <v>36622</v>
       </c>
       <c r="B97" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="98">
@@ -1238,7 +1238,7 @@
         <v>36625</v>
       </c>
       <c r="B100" t="n">
-        <v>3.98751372195797</v>
+        <v>4.443183656811081</v>
       </c>
     </row>
     <row r="101">
@@ -1254,7 +1254,7 @@
         <v>36627</v>
       </c>
       <c r="B102" t="n">
-        <v>1.973395096959228</v>
+        <v>1.748395096959228</v>
       </c>
     </row>
     <row r="103">
@@ -1262,7 +1262,7 @@
         <v>36628</v>
       </c>
       <c r="B103" t="n">
-        <v>3.854291003672147</v>
+        <v>3.595087166888811</v>
       </c>
     </row>
     <row r="104">
@@ -1278,7 +1278,7 @@
         <v>36630</v>
       </c>
       <c r="B105" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="106">
@@ -1294,7 +1294,7 @@
         <v>36632</v>
       </c>
       <c r="B107" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
@@ -1326,7 +1326,7 @@
         <v>36636</v>
       </c>
       <c r="B111" t="n">
-        <v>5</v>
+        <v>4.999999999999998</v>
       </c>
     </row>
     <row r="112">
@@ -1358,7 +1358,7 @@
         <v>36640</v>
       </c>
       <c r="B115" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="116">
@@ -1366,7 +1366,7 @@
         <v>36641</v>
       </c>
       <c r="B116" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117">
@@ -1374,7 +1374,7 @@
         <v>36642</v>
       </c>
       <c r="B117" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="118">
@@ -1382,7 +1382,7 @@
         <v>36643</v>
       </c>
       <c r="B118" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="119">
@@ -1390,7 +1390,7 @@
         <v>36644</v>
       </c>
       <c r="B119" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="120">
@@ -1406,7 +1406,7 @@
         <v>36646</v>
       </c>
       <c r="B121" t="n">
-        <v>4.510137868980221</v>
+        <v>4.496967566312718</v>
       </c>
     </row>
     <row r="122">
@@ -1414,7 +1414,7 @@
         <v>36647</v>
       </c>
       <c r="B122" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="123">
@@ -1486,7 +1486,7 @@
         <v>36656</v>
       </c>
       <c r="B131" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="132">
@@ -1494,7 +1494,7 @@
         <v>36657</v>
       </c>
       <c r="B132" t="n">
-        <v>4.999999999999998</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133">
@@ -1518,7 +1518,7 @@
         <v>36660</v>
       </c>
       <c r="B135" t="n">
-        <v>5</v>
+        <v>4.999999999999998</v>
       </c>
     </row>
     <row r="136">
@@ -1542,7 +1542,7 @@
         <v>36663</v>
       </c>
       <c r="B138" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="139">
@@ -1614,7 +1614,7 @@
         <v>36672</v>
       </c>
       <c r="B147" t="n">
-        <v>4.999999999999998</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="148">
@@ -1694,7 +1694,7 @@
         <v>36682</v>
       </c>
       <c r="B157" t="n">
-        <v>4.759199051761575</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158">
@@ -1726,7 +1726,7 @@
         <v>36686</v>
       </c>
       <c r="B161" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="162">
@@ -1750,7 +1750,7 @@
         <v>36689</v>
       </c>
       <c r="B164" t="n">
-        <v>1.964084540168082</v>
+        <v>2.161084540168082</v>
       </c>
     </row>
     <row r="165">
@@ -1758,7 +1758,7 @@
         <v>36690</v>
       </c>
       <c r="B165" t="n">
-        <v>2.535179007384258</v>
+        <v>2.552179007384258</v>
       </c>
     </row>
     <row r="166">
@@ -1766,7 +1766,7 @@
         <v>36691</v>
       </c>
       <c r="B166" t="n">
-        <v>5</v>
+        <v>4.999999999999998</v>
       </c>
     </row>
     <row r="167">
@@ -1782,7 +1782,7 @@
         <v>36693</v>
       </c>
       <c r="B168" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169">
@@ -1790,7 +1790,7 @@
         <v>36694</v>
       </c>
       <c r="B169" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="170">
@@ -1798,7 +1798,7 @@
         <v>36695</v>
       </c>
       <c r="B170" t="n">
-        <v>3.043266336666568</v>
+        <v>2.813322979402962</v>
       </c>
     </row>
     <row r="171">
@@ -1822,7 +1822,7 @@
         <v>36698</v>
       </c>
       <c r="B173" t="n">
-        <v>5</v>
+        <v>4.999999999999998</v>
       </c>
     </row>
     <row r="174">
@@ -1830,7 +1830,7 @@
         <v>36699</v>
       </c>
       <c r="B174" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="175">
@@ -1838,7 +1838,7 @@
         <v>36700</v>
       </c>
       <c r="B175" t="n">
-        <v>1.942000742333645</v>
+        <v>1.675084540168082</v>
       </c>
     </row>
     <row r="176">
@@ -1846,7 +1846,7 @@
         <v>36701</v>
       </c>
       <c r="B176" t="n">
-        <v>3.950490898271326</v>
+        <v>2.556748441191167</v>
       </c>
     </row>
     <row r="177">
@@ -1878,7 +1878,7 @@
         <v>36705</v>
       </c>
       <c r="B180" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="181">
@@ -1886,7 +1886,7 @@
         <v>36706</v>
       </c>
       <c r="B181" t="n">
-        <v>4.145487026351776</v>
+        <v>3.639723738357388</v>
       </c>
     </row>
     <row r="182">
@@ -1894,7 +1894,7 @@
         <v>36707</v>
       </c>
       <c r="B182" t="n">
-        <v>0.2922529296163545</v>
+        <v>0.1980580145890633</v>
       </c>
     </row>
     <row r="183">
@@ -1902,7 +1902,7 @@
         <v>36708</v>
       </c>
       <c r="B183" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="184">
@@ -1910,7 +1910,7 @@
         <v>36709</v>
       </c>
       <c r="B184" t="n">
-        <v>4.999999999999998</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185">
@@ -1918,7 +1918,7 @@
         <v>36710</v>
       </c>
       <c r="B185" t="n">
-        <v>5</v>
+        <v>4.999999999999998</v>
       </c>
     </row>
     <row r="186">
@@ -1926,7 +1926,7 @@
         <v>36711</v>
       </c>
       <c r="B186" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="187">
@@ -1950,7 +1950,7 @@
         <v>36714</v>
       </c>
       <c r="B189" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="190">
@@ -1974,7 +1974,7 @@
         <v>36717</v>
       </c>
       <c r="B192" t="n">
-        <v>1.237207265218224</v>
+        <v>1.085600489032491</v>
       </c>
     </row>
     <row r="193">
@@ -1990,7 +1990,7 @@
         <v>36719</v>
       </c>
       <c r="B194" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195">
@@ -1998,7 +1998,7 @@
         <v>36720</v>
       </c>
       <c r="B195" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196">
@@ -2006,7 +2006,7 @@
         <v>36721</v>
       </c>
       <c r="B196" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="197">
@@ -2014,7 +2014,7 @@
         <v>36722</v>
       </c>
       <c r="B197" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="198">
@@ -2038,7 +2038,7 @@
         <v>36725</v>
       </c>
       <c r="B200" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201">
@@ -2078,7 +2078,7 @@
         <v>36730</v>
       </c>
       <c r="B205" t="n">
-        <v>4.999999999999998</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206">
@@ -2150,7 +2150,7 @@
         <v>36739</v>
       </c>
       <c r="B214" t="n">
-        <v>4.999999999999998</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215">
@@ -2182,7 +2182,7 @@
         <v>36743</v>
       </c>
       <c r="B218" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219">
@@ -2238,7 +2238,7 @@
         <v>36750</v>
       </c>
       <c r="B225" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="226">
@@ -2246,7 +2246,7 @@
         <v>36751</v>
       </c>
       <c r="B226" t="n">
-        <v>5</v>
+        <v>4.976698289799461</v>
       </c>
     </row>
     <row r="227">
@@ -2254,7 +2254,7 @@
         <v>36752</v>
       </c>
       <c r="B227" t="n">
-        <v>3.107732996707481</v>
+        <v>4.830120437256947</v>
       </c>
     </row>
     <row r="228">
@@ -2262,7 +2262,7 @@
         <v>36753</v>
       </c>
       <c r="B228" t="n">
-        <v>3.177908462768261</v>
+        <v>4.408510935096554</v>
       </c>
     </row>
     <row r="229">
@@ -2302,7 +2302,7 @@
         <v>36758</v>
       </c>
       <c r="B233" t="n">
-        <v>0.164111977500803</v>
+        <v>0.1232850097561245</v>
       </c>
     </row>
     <row r="234">
@@ -2318,7 +2318,7 @@
         <v>36760</v>
       </c>
       <c r="B235" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236">
@@ -2358,7 +2358,7 @@
         <v>36765</v>
       </c>
       <c r="B240" t="n">
-        <v>4.410075120886997</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241">
@@ -2374,7 +2374,7 @@
         <v>36767</v>
       </c>
       <c r="B242" t="n">
-        <v>3.719346064185718</v>
+        <v>4.562036250703845</v>
       </c>
     </row>
     <row r="243">
@@ -2382,7 +2382,7 @@
         <v>36768</v>
       </c>
       <c r="B243" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244">
@@ -2414,7 +2414,7 @@
         <v>36772</v>
       </c>
       <c r="B247" t="n">
-        <v>2.419986095587267</v>
+        <v>2.617719592027496</v>
       </c>
     </row>
     <row r="248">
@@ -2430,7 +2430,7 @@
         <v>36774</v>
       </c>
       <c r="B249" t="n">
-        <v>4.999999999999999</v>
+        <v>4.999999999999998</v>
       </c>
     </row>
     <row r="250">
@@ -2438,7 +2438,7 @@
         <v>36775</v>
       </c>
       <c r="B250" t="n">
-        <v>2.803669442014556</v>
+        <v>2.724626906632113</v>
       </c>
     </row>
     <row r="251">
@@ -2446,7 +2446,7 @@
         <v>36776</v>
       </c>
       <c r="B251" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252">
@@ -2462,7 +2462,7 @@
         <v>36778</v>
       </c>
       <c r="B253" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254">
@@ -2486,7 +2486,7 @@
         <v>36781</v>
       </c>
       <c r="B256" t="n">
-        <v>2.867882476700038</v>
+        <v>2.882687548651024</v>
       </c>
     </row>
     <row r="257">
@@ -2494,7 +2494,7 @@
         <v>36782</v>
       </c>
       <c r="B257" t="n">
-        <v>4.136052217496371</v>
+        <v>3.750026597360309</v>
       </c>
     </row>
     <row r="258">
@@ -2510,7 +2510,7 @@
         <v>36784</v>
       </c>
       <c r="B259" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="260">
@@ -2518,7 +2518,7 @@
         <v>36785</v>
       </c>
       <c r="B260" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261">
@@ -2534,7 +2534,7 @@
         <v>36787</v>
       </c>
       <c r="B262" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="263">
@@ -2558,7 +2558,7 @@
         <v>36790</v>
       </c>
       <c r="B265" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266">
@@ -2566,7 +2566,7 @@
         <v>36791</v>
       </c>
       <c r="B266" t="n">
-        <v>4.596364078714711</v>
+        <v>4.094683208233878</v>
       </c>
     </row>
     <row r="267">
@@ -2582,7 +2582,7 @@
         <v>36793</v>
       </c>
       <c r="B268" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="269">
@@ -2590,7 +2590,7 @@
         <v>36794</v>
       </c>
       <c r="B269" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270">
@@ -2606,7 +2606,7 @@
         <v>36796</v>
       </c>
       <c r="B271" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="272">
@@ -2614,7 +2614,7 @@
         <v>36797</v>
       </c>
       <c r="B272" t="n">
-        <v>2.300314254538993</v>
+        <v>2.230754701885467</v>
       </c>
     </row>
     <row r="273">
@@ -2622,7 +2622,7 @@
         <v>36798</v>
       </c>
       <c r="B273" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="274">
@@ -2630,7 +2630,7 @@
         <v>36799</v>
       </c>
       <c r="B274" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="275">
@@ -2646,7 +2646,7 @@
         <v>36801</v>
       </c>
       <c r="B276" t="n">
-        <v>0.3226857506745073</v>
+        <v>0.6844996766540014</v>
       </c>
     </row>
     <row r="277">
@@ -2662,7 +2662,7 @@
         <v>36803</v>
       </c>
       <c r="B278" t="n">
-        <v>4.745134634369502</v>
+        <v>4.624661574827089</v>
       </c>
     </row>
     <row r="279">
@@ -2670,7 +2670,7 @@
         <v>36804</v>
       </c>
       <c r="B279" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="280">
@@ -2678,7 +2678,7 @@
         <v>36805</v>
       </c>
       <c r="B280" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="281">
@@ -2694,7 +2694,7 @@
         <v>36807</v>
       </c>
       <c r="B282" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283">
@@ -2710,7 +2710,7 @@
         <v>36809</v>
       </c>
       <c r="B284" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="285">
@@ -2734,7 +2734,7 @@
         <v>36812</v>
       </c>
       <c r="B287" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="288">
@@ -2742,7 +2742,7 @@
         <v>36813</v>
       </c>
       <c r="B288" t="n">
-        <v>5</v>
+        <v>4.999999999999998</v>
       </c>
     </row>
     <row r="289">
@@ -2750,7 +2750,7 @@
         <v>36814</v>
       </c>
       <c r="B289" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="290">
@@ -2758,7 +2758,7 @@
         <v>36815</v>
       </c>
       <c r="B290" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="291">
@@ -2774,7 +2774,7 @@
         <v>36817</v>
       </c>
       <c r="B292" t="n">
-        <v>4.305842792303898</v>
+        <v>3.720270564180553</v>
       </c>
     </row>
     <row r="293">
@@ -2782,7 +2782,7 @@
         <v>36818</v>
       </c>
       <c r="B293" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="294">
@@ -2806,7 +2806,7 @@
         <v>36821</v>
       </c>
       <c r="B296" t="n">
-        <v>3.680321610906526</v>
+        <v>4.781491256184114</v>
       </c>
     </row>
     <row r="297">
@@ -2814,7 +2814,7 @@
         <v>36822</v>
       </c>
       <c r="B297" t="n">
-        <v>3.683546258631071</v>
+        <v>3.890777344708895</v>
       </c>
     </row>
     <row r="298">
@@ -2822,7 +2822,7 @@
         <v>36823</v>
       </c>
       <c r="B298" t="n">
-        <v>0.7132873572634397</v>
+        <v>0.3905295135920384</v>
       </c>
     </row>
     <row r="299">
@@ -2838,7 +2838,7 @@
         <v>36825</v>
       </c>
       <c r="B300" t="n">
-        <v>0.1192856732773341</v>
+        <v>0.1152856732773341</v>
       </c>
     </row>
     <row r="301">
@@ -2846,7 +2846,7 @@
         <v>36826</v>
       </c>
       <c r="B301" t="n">
-        <v>3.591054272360362</v>
+        <v>3.781466779390591</v>
       </c>
     </row>
     <row r="302">
@@ -2854,7 +2854,7 @@
         <v>36827</v>
       </c>
       <c r="B302" t="n">
-        <v>5</v>
+        <v>3.987975997351776</v>
       </c>
     </row>
     <row r="303">
@@ -2878,7 +2878,7 @@
         <v>36830</v>
       </c>
       <c r="B305" t="n">
-        <v>2.454299652530172</v>
+        <v>3.00023061163535</v>
       </c>
     </row>
     <row r="306">
@@ -2894,7 +2894,7 @@
         <v>36832</v>
       </c>
       <c r="B307" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="308">
@@ -2902,7 +2902,7 @@
         <v>36833</v>
       </c>
       <c r="B308" t="n">
-        <v>5</v>
+        <v>4.930541655522323</v>
       </c>
     </row>
     <row r="309">
@@ -2910,7 +2910,7 @@
         <v>36834</v>
       </c>
       <c r="B309" t="n">
-        <v>5</v>
+        <v>4.82945830431504</v>
       </c>
     </row>
     <row r="310">
@@ -2918,7 +2918,7 @@
         <v>36835</v>
       </c>
       <c r="B310" t="n">
-        <v>4.408428547892323</v>
+        <v>5</v>
       </c>
     </row>
     <row r="311">
@@ -2926,7 +2926,7 @@
         <v>36836</v>
       </c>
       <c r="B311" t="n">
-        <v>2.917651420098768</v>
+        <v>4.109537616051317</v>
       </c>
     </row>
     <row r="312">
@@ -2934,7 +2934,7 @@
         <v>36837</v>
       </c>
       <c r="B312" t="n">
-        <v>0.1694408917987829</v>
+        <v>0.1935457240585318</v>
       </c>
     </row>
     <row r="313">
@@ -2950,7 +2950,7 @@
         <v>36839</v>
       </c>
       <c r="B314" t="n">
-        <v>3.254444452712067</v>
+        <v>3.150168325100286</v>
       </c>
     </row>
     <row r="315">
@@ -2958,7 +2958,7 @@
         <v>36840</v>
       </c>
       <c r="B315" t="n">
-        <v>0.07596338590854232</v>
+        <v>0.02296338590854233</v>
       </c>
     </row>
     <row r="316">
@@ -2966,7 +2966,7 @@
         <v>36841</v>
       </c>
       <c r="B316" t="n">
-        <v>0.4614315677556507</v>
+        <v>1.231585024249513</v>
       </c>
     </row>
     <row r="317">
@@ -2982,7 +2982,7 @@
         <v>36843</v>
       </c>
       <c r="B318" t="n">
-        <v>3.115238810587209</v>
+        <v>2.74259459609352</v>
       </c>
     </row>
     <row r="319">
@@ -2998,7 +2998,7 @@
         <v>36845</v>
       </c>
       <c r="B320" t="n">
-        <v>5</v>
+        <v>4.557653946089296</v>
       </c>
     </row>
     <row r="321">
@@ -3014,7 +3014,7 @@
         <v>36847</v>
       </c>
       <c r="B322" t="n">
-        <v>4.535065746685911</v>
+        <v>4.641885678864514</v>
       </c>
     </row>
     <row r="323">
@@ -3022,7 +3022,7 @@
         <v>36848</v>
       </c>
       <c r="B323" t="n">
-        <v>5</v>
+        <v>4.623542858366296</v>
       </c>
     </row>
     <row r="324">
@@ -3030,7 +3030,7 @@
         <v>36849</v>
       </c>
       <c r="B324" t="n">
-        <v>0.6463981650075448</v>
+        <v>0.9045241003871237</v>
       </c>
     </row>
     <row r="325">
@@ -3046,7 +3046,7 @@
         <v>36851</v>
       </c>
       <c r="B326" t="n">
-        <v>0.5943630520730818</v>
+        <v>0.5612092702770545</v>
       </c>
     </row>
     <row r="327">
@@ -3054,7 +3054,7 @@
         <v>36852</v>
       </c>
       <c r="B327" t="n">
-        <v>5</v>
+        <v>3.707079793836671</v>
       </c>
     </row>
     <row r="328">
@@ -3062,7 +3062,7 @@
         <v>36853</v>
       </c>
       <c r="B328" t="n">
-        <v>3.744167604732198</v>
+        <v>4.402248636681061</v>
       </c>
     </row>
     <row r="329">
@@ -3094,7 +3094,7 @@
         <v>36857</v>
       </c>
       <c r="B332" t="n">
-        <v>0.1955607768787193</v>
+        <v>0.2408759839757466</v>
       </c>
     </row>
     <row r="333">
@@ -3118,7 +3118,7 @@
         <v>36860</v>
       </c>
       <c r="B335" t="n">
-        <v>0.6198220611193987</v>
+        <v>0.562679266604711</v>
       </c>
     </row>
     <row r="336">
@@ -3126,7 +3126,7 @@
         <v>36861</v>
       </c>
       <c r="B336" t="n">
-        <v>0.5056632075671252</v>
+        <v>0.5186632075671253</v>
       </c>
     </row>
     <row r="337">
@@ -3142,7 +3142,7 @@
         <v>36863</v>
       </c>
       <c r="B338" t="n">
-        <v>0.3600015234434402</v>
+        <v>0.4414928712939433</v>
       </c>
     </row>
     <row r="339">
@@ -3150,7 +3150,7 @@
         <v>36864</v>
       </c>
       <c r="B339" t="n">
-        <v>1.68162993462372</v>
+        <v>2.152401760756345</v>
       </c>
     </row>
     <row r="340">
@@ -3158,7 +3158,7 @@
         <v>36865</v>
       </c>
       <c r="B340" t="n">
-        <v>0.392076332707383</v>
+        <v>0.1894673825025871</v>
       </c>
     </row>
     <row r="341">
@@ -3190,7 +3190,7 @@
         <v>36869</v>
       </c>
       <c r="B344" t="n">
-        <v>0.2083672219493406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
@@ -3198,7 +3198,7 @@
         <v>36870</v>
       </c>
       <c r="B345" t="n">
-        <v>1.667840607982241</v>
+        <v>3.096727410907626</v>
       </c>
     </row>
     <row r="346">
@@ -3206,7 +3206,7 @@
         <v>36871</v>
       </c>
       <c r="B346" t="n">
-        <v>1.116643748855297</v>
+        <v>2.680575245408471</v>
       </c>
     </row>
     <row r="347">
@@ -3214,7 +3214,7 @@
         <v>36872</v>
       </c>
       <c r="B347" t="n">
-        <v>0.4260098091421166</v>
+        <v>0.3153147057440679</v>
       </c>
     </row>
     <row r="348">
@@ -3222,7 +3222,7 @@
         <v>36873</v>
       </c>
       <c r="B348" t="n">
-        <v>3.385426715545751</v>
+        <v>1.928403851722112</v>
       </c>
     </row>
     <row r="349">
@@ -3230,7 +3230,7 @@
         <v>36874</v>
       </c>
       <c r="B349" t="n">
-        <v>0.001317988031008764</v>
+        <v>0.03592429281611044</v>
       </c>
     </row>
     <row r="350">
@@ -3238,7 +3238,7 @@
         <v>36875</v>
       </c>
       <c r="B350" t="n">
-        <v>0.2894244325588191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
@@ -3246,7 +3246,7 @@
         <v>36876</v>
       </c>
       <c r="B351" t="n">
-        <v>0.3601049649019782</v>
+        <v>0.1606947225355558</v>
       </c>
     </row>
     <row r="352">
@@ -3254,7 +3254,7 @@
         <v>36877</v>
       </c>
       <c r="B352" t="n">
-        <v>0.1250022082417895</v>
+        <v>0.450880377995852</v>
       </c>
     </row>
     <row r="353">
@@ -3262,7 +3262,7 @@
         <v>36878</v>
       </c>
       <c r="B353" t="n">
-        <v>1.509385703163791</v>
+        <v>2.86745086343957</v>
       </c>
     </row>
     <row r="354">
@@ -3294,7 +3294,7 @@
         <v>36882</v>
       </c>
       <c r="B357" t="n">
-        <v>0.05886986454951502</v>
+        <v>0.2349863924702057</v>
       </c>
     </row>
     <row r="358">
@@ -3310,7 +3310,7 @@
         <v>36884</v>
       </c>
       <c r="B359" t="n">
-        <v>1.449449116031491</v>
+        <v>1.482432143690734</v>
       </c>
     </row>
     <row r="360">
@@ -3318,7 +3318,7 @@
         <v>36885</v>
       </c>
       <c r="B360" t="n">
-        <v>1.423522999159199</v>
+        <v>1.754996312875319</v>
       </c>
     </row>
     <row r="361">
@@ -3326,7 +3326,7 @@
         <v>36886</v>
       </c>
       <c r="B361" t="n">
-        <v>2.933660475382339</v>
+        <v>2.902617763707542</v>
       </c>
     </row>
     <row r="362">
@@ -3334,7 +3334,7 @@
         <v>36887</v>
       </c>
       <c r="B362" t="n">
-        <v>1.889049547996696</v>
+        <v>1.117834436890867</v>
       </c>
     </row>
     <row r="363">
@@ -3342,7 +3342,7 @@
         <v>36888</v>
       </c>
       <c r="B363" t="n">
-        <v>2.449658431003875</v>
+        <v>3.180780615500789</v>
       </c>
     </row>
     <row r="364">
@@ -3358,7 +3358,7 @@
         <v>36890</v>
       </c>
       <c r="B365" t="n">
-        <v>0.05353113140634157</v>
+        <v>0.002638625277041312</v>
       </c>
     </row>
     <row r="366">

--- a/results/end_of_day_charge_levels.xlsx
+++ b/results/end_of_day_charge_levels.xlsx
@@ -454,7 +454,7 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6612923584120468</v>
+        <v>0.6466920752666873</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>36527</v>
       </c>
       <c r="B3" t="n">
-        <v>0.059623308068666</v>
+        <v>0.1781285412312651</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>36528</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.008116694847272454</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         <v>36530</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06366381003880003</v>
+        <v>0.2792480393578958</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>36531</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3652196685519796</v>
+        <v>0.2830623685657601</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>36532</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04996742616246878</v>
+        <v>0.01205925836690369</v>
       </c>
     </row>
     <row r="9">
@@ -518,7 +518,7 @@
         <v>36534</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.02455928155235285</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>36535</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.1786362727474556</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>36536</v>
       </c>
       <c r="B12" t="n">
-        <v>0.550041762273092</v>
+        <v>0.4564972328297493</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>36537</v>
       </c>
       <c r="B13" t="n">
-        <v>0.004601116908458595</v>
+        <v>0.05037649636977957</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>36538</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4147975016967796</v>
+        <v>1.150087190158708</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>36539</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>2.720411860160724</v>
       </c>
     </row>
     <row r="16">
@@ -574,7 +574,7 @@
         <v>36541</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7826639139786733</v>
+        <v>1.313477269125471</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>36542</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3017559711545987</v>
+        <v>0.6493402530349858</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>36543</v>
       </c>
       <c r="B19" t="n">
-        <v>0.461896467559182</v>
+        <v>0.2787236207603832</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>36544</v>
       </c>
       <c r="B20" t="n">
-        <v>2.850005230986529</v>
+        <v>3.577605081321416</v>
       </c>
     </row>
     <row r="21">
@@ -614,7 +614,7 @@
         <v>36546</v>
       </c>
       <c r="B22" t="n">
-        <v>4.798918249471388</v>
+        <v>3.335471910808629</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>36547</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6435353410534845</v>
+        <v>0.7558049085594679</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>36548</v>
       </c>
       <c r="B24" t="n">
-        <v>1.89172556110515</v>
+        <v>2.19372556110515</v>
       </c>
     </row>
     <row r="25">
@@ -654,7 +654,7 @@
         <v>36551</v>
       </c>
       <c r="B27" t="n">
-        <v>2.052538616323845</v>
+        <v>2.125905748582776</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>36552</v>
       </c>
       <c r="B28" t="n">
-        <v>2.189176824636349</v>
+        <v>2.317350895597211</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>36553</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3992773965095374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -686,7 +686,7 @@
         <v>36555</v>
       </c>
       <c r="B31" t="n">
-        <v>3.588460746437567</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -702,7 +702,7 @@
         <v>36557</v>
       </c>
       <c r="B33" t="n">
-        <v>0.3687752225452746</v>
+        <v>0.3537752225452746</v>
       </c>
     </row>
     <row r="34">
@@ -726,7 +726,7 @@
         <v>36560</v>
       </c>
       <c r="B36" t="n">
-        <v>1.462539197539338</v>
+        <v>0.3403636535150025</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +734,7 @@
         <v>36561</v>
       </c>
       <c r="B37" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -742,7 +742,7 @@
         <v>36562</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06067786462378212</v>
+        <v>0.09767786462378213</v>
       </c>
     </row>
     <row r="39">
@@ -766,7 +766,7 @@
         <v>36565</v>
       </c>
       <c r="B41" t="n">
-        <v>4.290096967500113</v>
+        <v>4.826368538307462</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>36566</v>
       </c>
       <c r="B42" t="n">
-        <v>1.712857906740498</v>
+        <v>1.535091466708628</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>36567</v>
       </c>
       <c r="B43" t="n">
-        <v>1.697768414106345</v>
+        <v>1.247292322954824</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>36568</v>
       </c>
       <c r="B44" t="n">
-        <v>2.703474551692285</v>
+        <v>3.137080194166382</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>36569</v>
       </c>
       <c r="B45" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +806,7 @@
         <v>36570</v>
       </c>
       <c r="B46" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +814,7 @@
         <v>36571</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>0.1255725322071804</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +822,7 @@
         <v>36572</v>
       </c>
       <c r="B48" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="49">
@@ -830,7 +830,7 @@
         <v>36573</v>
       </c>
       <c r="B49" t="n">
-        <v>4.999999999999998</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -846,7 +846,7 @@
         <v>36575</v>
       </c>
       <c r="B51" t="n">
-        <v>2.502364454120514</v>
+        <v>2.690920019497323</v>
       </c>
     </row>
     <row r="52">
@@ -854,7 +854,7 @@
         <v>36576</v>
       </c>
       <c r="B52" t="n">
-        <v>4.838484428649335</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
@@ -910,7 +910,7 @@
         <v>36583</v>
       </c>
       <c r="B59" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="60">
@@ -926,7 +926,7 @@
         <v>36586</v>
       </c>
       <c r="B61" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="62">
@@ -950,7 +950,7 @@
         <v>36589</v>
       </c>
       <c r="B64" t="n">
-        <v>4.999999999999998</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="65">
@@ -966,7 +966,7 @@
         <v>36591</v>
       </c>
       <c r="B66" t="n">
-        <v>3.106637722051017</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="67">
@@ -974,7 +974,7 @@
         <v>36592</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4166285200648883</v>
+        <v>0.5156285200648882</v>
       </c>
     </row>
     <row r="68">
@@ -982,7 +982,7 @@
         <v>36593</v>
       </c>
       <c r="B68" t="n">
-        <v>1.45114949282424</v>
+        <v>1.624944629042829</v>
       </c>
     </row>
     <row r="69">
@@ -990,7 +990,7 @@
         <v>36594</v>
       </c>
       <c r="B69" t="n">
-        <v>2.759490757454635</v>
+        <v>4.03421817397156</v>
       </c>
     </row>
     <row r="70">
@@ -998,7 +998,7 @@
         <v>36595</v>
       </c>
       <c r="B70" t="n">
-        <v>1.867737728191094</v>
+        <v>1.837428685256278</v>
       </c>
     </row>
     <row r="71">
@@ -1006,7 +1006,7 @@
         <v>36596</v>
       </c>
       <c r="B71" t="n">
-        <v>5</v>
+        <v>3.437573465975591</v>
       </c>
     </row>
     <row r="72">
@@ -1014,7 +1014,7 @@
         <v>36597</v>
       </c>
       <c r="B72" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
@@ -1038,7 +1038,7 @@
         <v>36600</v>
       </c>
       <c r="B75" t="n">
-        <v>4.154078783986691</v>
+        <v>2.840218418339626</v>
       </c>
     </row>
     <row r="76">
@@ -1054,7 +1054,7 @@
         <v>36602</v>
       </c>
       <c r="B77" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
@@ -1062,7 +1062,7 @@
         <v>36603</v>
       </c>
       <c r="B78" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="79">
@@ -1086,7 +1086,7 @@
         <v>36606</v>
       </c>
       <c r="B81" t="n">
-        <v>4.999999999999998</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
@@ -1094,7 +1094,7 @@
         <v>36607</v>
       </c>
       <c r="B82" t="n">
-        <v>3.243283972901243</v>
+        <v>4.357385275081653</v>
       </c>
     </row>
     <row r="83">
@@ -1102,7 +1102,7 @@
         <v>36608</v>
       </c>
       <c r="B83" t="n">
-        <v>3.326071396160306</v>
+        <v>2.478425057904969</v>
       </c>
     </row>
     <row r="84">
@@ -1126,7 +1126,7 @@
         <v>36611</v>
       </c>
       <c r="B86" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
@@ -1134,7 +1134,7 @@
         <v>36612</v>
       </c>
       <c r="B87" t="n">
-        <v>2.445417018975182</v>
+        <v>3.065234955861487</v>
       </c>
     </row>
     <row r="88">
@@ -1182,7 +1182,7 @@
         <v>36618</v>
       </c>
       <c r="B93" t="n">
-        <v>4.480980874603226</v>
+        <v>4.134562471626321</v>
       </c>
     </row>
     <row r="94">
@@ -1190,7 +1190,7 @@
         <v>36619</v>
       </c>
       <c r="B94" t="n">
-        <v>3.580172807626497</v>
+        <v>4.932602540833704</v>
       </c>
     </row>
     <row r="95">
@@ -1198,7 +1198,7 @@
         <v>36620</v>
       </c>
       <c r="B95" t="n">
-        <v>2.37417902841104</v>
+        <v>2.717070706888844</v>
       </c>
     </row>
     <row r="96">
@@ -1222,7 +1222,7 @@
         <v>36623</v>
       </c>
       <c r="B98" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="99">
@@ -1238,7 +1238,7 @@
         <v>36625</v>
       </c>
       <c r="B100" t="n">
-        <v>3.98751372195797</v>
+        <v>4.443183656811081</v>
       </c>
     </row>
     <row r="101">
@@ -1254,7 +1254,7 @@
         <v>36627</v>
       </c>
       <c r="B102" t="n">
-        <v>1.973395096959228</v>
+        <v>1.748395096959228</v>
       </c>
     </row>
     <row r="103">
@@ -1262,7 +1262,7 @@
         <v>36628</v>
       </c>
       <c r="B103" t="n">
-        <v>3.854291003672147</v>
+        <v>3.595087166888811</v>
       </c>
     </row>
     <row r="104">
@@ -1294,7 +1294,7 @@
         <v>36632</v>
       </c>
       <c r="B107" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
@@ -1326,7 +1326,7 @@
         <v>36636</v>
       </c>
       <c r="B111" t="n">
-        <v>5</v>
+        <v>4.999999999999997</v>
       </c>
     </row>
     <row r="112">
@@ -1374,7 +1374,7 @@
         <v>36642</v>
       </c>
       <c r="B117" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="118">
@@ -1406,7 +1406,7 @@
         <v>36646</v>
       </c>
       <c r="B121" t="n">
-        <v>4.510137868980221</v>
+        <v>4.496967566312717</v>
       </c>
     </row>
     <row r="122">
@@ -1414,7 +1414,7 @@
         <v>36647</v>
       </c>
       <c r="B122" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="123">
@@ -1470,7 +1470,7 @@
         <v>36654</v>
       </c>
       <c r="B129" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="130">
@@ -1486,7 +1486,7 @@
         <v>36656</v>
       </c>
       <c r="B131" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="132">
@@ -1494,7 +1494,7 @@
         <v>36657</v>
       </c>
       <c r="B132" t="n">
-        <v>4.999999999999998</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="133">
@@ -1566,7 +1566,7 @@
         <v>36666</v>
       </c>
       <c r="B141" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="142">
@@ -1582,7 +1582,7 @@
         <v>36668</v>
       </c>
       <c r="B143" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="144">
@@ -1670,7 +1670,7 @@
         <v>36679</v>
       </c>
       <c r="B154" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="155">
@@ -1694,7 +1694,7 @@
         <v>36682</v>
       </c>
       <c r="B157" t="n">
-        <v>4.759199051761575</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158">
@@ -1710,7 +1710,7 @@
         <v>36684</v>
       </c>
       <c r="B159" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160">
@@ -1726,7 +1726,7 @@
         <v>36686</v>
       </c>
       <c r="B161" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="162">
@@ -1734,7 +1734,7 @@
         <v>36687</v>
       </c>
       <c r="B162" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="163">
@@ -1742,7 +1742,7 @@
         <v>36688</v>
       </c>
       <c r="B163" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164">
@@ -1750,7 +1750,7 @@
         <v>36689</v>
       </c>
       <c r="B164" t="n">
-        <v>1.964084540168082</v>
+        <v>2.161084540168082</v>
       </c>
     </row>
     <row r="165">
@@ -1758,7 +1758,7 @@
         <v>36690</v>
       </c>
       <c r="B165" t="n">
-        <v>2.535179007384258</v>
+        <v>2.552179007384258</v>
       </c>
     </row>
     <row r="166">
@@ -1782,7 +1782,7 @@
         <v>36693</v>
       </c>
       <c r="B168" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169">
@@ -1798,7 +1798,7 @@
         <v>36695</v>
       </c>
       <c r="B170" t="n">
-        <v>3.043266336666568</v>
+        <v>2.813322979402961</v>
       </c>
     </row>
     <row r="171">
@@ -1814,7 +1814,7 @@
         <v>36697</v>
       </c>
       <c r="B172" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="173">
@@ -1822,7 +1822,7 @@
         <v>36698</v>
       </c>
       <c r="B173" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="174">
@@ -1838,7 +1838,7 @@
         <v>36700</v>
       </c>
       <c r="B175" t="n">
-        <v>1.942000742333645</v>
+        <v>1.675084540168082</v>
       </c>
     </row>
     <row r="176">
@@ -1846,7 +1846,7 @@
         <v>36701</v>
       </c>
       <c r="B176" t="n">
-        <v>3.950490898271326</v>
+        <v>2.556748441191167</v>
       </c>
     </row>
     <row r="177">
@@ -1878,7 +1878,7 @@
         <v>36705</v>
       </c>
       <c r="B180" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="181">
@@ -1886,7 +1886,7 @@
         <v>36706</v>
       </c>
       <c r="B181" t="n">
-        <v>4.145487026351776</v>
+        <v>3.639723738357389</v>
       </c>
     </row>
     <row r="182">
@@ -1894,7 +1894,7 @@
         <v>36707</v>
       </c>
       <c r="B182" t="n">
-        <v>0.2922529296163545</v>
+        <v>0.1980580145890633</v>
       </c>
     </row>
     <row r="183">
@@ -1902,7 +1902,7 @@
         <v>36708</v>
       </c>
       <c r="B183" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="184">
@@ -1910,7 +1910,7 @@
         <v>36709</v>
       </c>
       <c r="B184" t="n">
-        <v>4.999999999999998</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185">
@@ -1918,7 +1918,7 @@
         <v>36710</v>
       </c>
       <c r="B185" t="n">
-        <v>5</v>
+        <v>4.999999999999998</v>
       </c>
     </row>
     <row r="186">
@@ -1926,7 +1926,7 @@
         <v>36711</v>
       </c>
       <c r="B186" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="187">
@@ -1934,7 +1934,7 @@
         <v>36712</v>
       </c>
       <c r="B187" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="188">
@@ -1974,7 +1974,7 @@
         <v>36717</v>
       </c>
       <c r="B192" t="n">
-        <v>1.237207265218224</v>
+        <v>1.085600489032491</v>
       </c>
     </row>
     <row r="193">
@@ -1990,7 +1990,7 @@
         <v>36719</v>
       </c>
       <c r="B194" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195">
@@ -1998,7 +1998,7 @@
         <v>36720</v>
       </c>
       <c r="B195" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196">
@@ -2006,7 +2006,7 @@
         <v>36721</v>
       </c>
       <c r="B196" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="197">
@@ -2038,7 +2038,7 @@
         <v>36725</v>
       </c>
       <c r="B200" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201">
@@ -2054,7 +2054,7 @@
         <v>36727</v>
       </c>
       <c r="B202" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="203">
@@ -2078,7 +2078,7 @@
         <v>36730</v>
       </c>
       <c r="B205" t="n">
-        <v>4.999999999999998</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206">
@@ -2086,7 +2086,7 @@
         <v>36731</v>
       </c>
       <c r="B206" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="207">
@@ -2110,7 +2110,7 @@
         <v>36734</v>
       </c>
       <c r="B209" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="210">
@@ -2134,7 +2134,7 @@
         <v>36737</v>
       </c>
       <c r="B212" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="213">
@@ -2150,7 +2150,7 @@
         <v>36739</v>
       </c>
       <c r="B214" t="n">
-        <v>4.999999999999998</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215">
@@ -2166,7 +2166,7 @@
         <v>36741</v>
       </c>
       <c r="B216" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="217">
@@ -2182,7 +2182,7 @@
         <v>36743</v>
       </c>
       <c r="B218" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219">
@@ -2198,7 +2198,7 @@
         <v>36745</v>
       </c>
       <c r="B220" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221">
@@ -2206,7 +2206,7 @@
         <v>36746</v>
       </c>
       <c r="B221" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222">
@@ -2222,7 +2222,7 @@
         <v>36748</v>
       </c>
       <c r="B223" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224">
@@ -2230,7 +2230,7 @@
         <v>36749</v>
       </c>
       <c r="B224" t="n">
-        <v>5</v>
+        <v>4.999999999999998</v>
       </c>
     </row>
     <row r="225">
@@ -2238,7 +2238,7 @@
         <v>36750</v>
       </c>
       <c r="B225" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="226">
@@ -2246,7 +2246,7 @@
         <v>36751</v>
       </c>
       <c r="B226" t="n">
-        <v>5</v>
+        <v>4.976698289799462</v>
       </c>
     </row>
     <row r="227">
@@ -2254,7 +2254,7 @@
         <v>36752</v>
       </c>
       <c r="B227" t="n">
-        <v>3.107732996707481</v>
+        <v>4.830120437256947</v>
       </c>
     </row>
     <row r="228">
@@ -2262,7 +2262,7 @@
         <v>36753</v>
       </c>
       <c r="B228" t="n">
-        <v>3.177908462768261</v>
+        <v>4.408510935096554</v>
       </c>
     </row>
     <row r="229">
@@ -2270,7 +2270,7 @@
         <v>36754</v>
       </c>
       <c r="B229" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="230">
@@ -2286,7 +2286,7 @@
         <v>36756</v>
       </c>
       <c r="B231" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="232">
@@ -2302,7 +2302,7 @@
         <v>36758</v>
       </c>
       <c r="B233" t="n">
-        <v>0.164111977500803</v>
+        <v>0.1232850097561245</v>
       </c>
     </row>
     <row r="234">
@@ -2318,7 +2318,7 @@
         <v>36760</v>
       </c>
       <c r="B235" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236">
@@ -2334,7 +2334,7 @@
         <v>36762</v>
       </c>
       <c r="B237" t="n">
-        <v>5</v>
+        <v>4.999999999999998</v>
       </c>
     </row>
     <row r="238">
@@ -2358,7 +2358,7 @@
         <v>36765</v>
       </c>
       <c r="B240" t="n">
-        <v>4.410075120886997</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241">
@@ -2374,7 +2374,7 @@
         <v>36767</v>
       </c>
       <c r="B242" t="n">
-        <v>3.719346064185718</v>
+        <v>4.562036250703845</v>
       </c>
     </row>
     <row r="243">
@@ -2382,7 +2382,7 @@
         <v>36768</v>
       </c>
       <c r="B243" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244">
@@ -2390,7 +2390,7 @@
         <v>36769</v>
       </c>
       <c r="B244" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="245">
@@ -2414,7 +2414,7 @@
         <v>36772</v>
       </c>
       <c r="B247" t="n">
-        <v>2.419986095587267</v>
+        <v>2.617719592027496</v>
       </c>
     </row>
     <row r="248">
@@ -2430,7 +2430,7 @@
         <v>36774</v>
       </c>
       <c r="B249" t="n">
-        <v>4.999999999999999</v>
+        <v>4.999999999999998</v>
       </c>
     </row>
     <row r="250">
@@ -2438,7 +2438,7 @@
         <v>36775</v>
       </c>
       <c r="B250" t="n">
-        <v>2.803669442014556</v>
+        <v>2.724626906632113</v>
       </c>
     </row>
     <row r="251">
@@ -2446,7 +2446,7 @@
         <v>36776</v>
       </c>
       <c r="B251" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252">
@@ -2462,7 +2462,7 @@
         <v>36778</v>
       </c>
       <c r="B253" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254">
@@ -2486,7 +2486,7 @@
         <v>36781</v>
       </c>
       <c r="B256" t="n">
-        <v>2.867882476700038</v>
+        <v>2.882687548651024</v>
       </c>
     </row>
     <row r="257">
@@ -2494,7 +2494,7 @@
         <v>36782</v>
       </c>
       <c r="B257" t="n">
-        <v>4.136052217496371</v>
+        <v>3.750026597360309</v>
       </c>
     </row>
     <row r="258">
@@ -2502,7 +2502,7 @@
         <v>36783</v>
       </c>
       <c r="B258" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="259">
@@ -2510,7 +2510,7 @@
         <v>36784</v>
       </c>
       <c r="B259" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="260">
@@ -2518,7 +2518,7 @@
         <v>36785</v>
       </c>
       <c r="B260" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261">
@@ -2550,7 +2550,7 @@
         <v>36789</v>
       </c>
       <c r="B264" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="265">
@@ -2558,7 +2558,7 @@
         <v>36790</v>
       </c>
       <c r="B265" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266">
@@ -2566,7 +2566,7 @@
         <v>36791</v>
       </c>
       <c r="B266" t="n">
-        <v>4.596364078714711</v>
+        <v>4.094683208233877</v>
       </c>
     </row>
     <row r="267">
@@ -2590,7 +2590,7 @@
         <v>36794</v>
       </c>
       <c r="B269" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270">
@@ -2614,7 +2614,7 @@
         <v>36797</v>
       </c>
       <c r="B272" t="n">
-        <v>2.300314254538993</v>
+        <v>2.230754701885467</v>
       </c>
     </row>
     <row r="273">
@@ -2622,7 +2622,7 @@
         <v>36798</v>
       </c>
       <c r="B273" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="274">
@@ -2630,7 +2630,7 @@
         <v>36799</v>
       </c>
       <c r="B274" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="275">
@@ -2638,7 +2638,7 @@
         <v>36800</v>
       </c>
       <c r="B275" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="276">
@@ -2646,7 +2646,7 @@
         <v>36801</v>
       </c>
       <c r="B276" t="n">
-        <v>0.3226857506745073</v>
+        <v>0.6844996766540014</v>
       </c>
     </row>
     <row r="277">
@@ -2662,7 +2662,7 @@
         <v>36803</v>
       </c>
       <c r="B278" t="n">
-        <v>4.745134634369502</v>
+        <v>4.624661574827089</v>
       </c>
     </row>
     <row r="279">
@@ -2670,7 +2670,7 @@
         <v>36804</v>
       </c>
       <c r="B279" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="280">
@@ -2678,7 +2678,7 @@
         <v>36805</v>
       </c>
       <c r="B280" t="n">
-        <v>5</v>
+        <v>4.999999999999997</v>
       </c>
     </row>
     <row r="281">
@@ -2686,7 +2686,7 @@
         <v>36806</v>
       </c>
       <c r="B281" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="282">
@@ -2694,7 +2694,7 @@
         <v>36807</v>
       </c>
       <c r="B282" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283">
@@ -2710,7 +2710,7 @@
         <v>36809</v>
       </c>
       <c r="B284" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="285">
@@ -2734,7 +2734,7 @@
         <v>36812</v>
       </c>
       <c r="B287" t="n">
-        <v>4.999999999999999</v>
+        <v>4.999999999999998</v>
       </c>
     </row>
     <row r="288">
@@ -2742,7 +2742,7 @@
         <v>36813</v>
       </c>
       <c r="B288" t="n">
-        <v>5</v>
+        <v>4.999999999999998</v>
       </c>
     </row>
     <row r="289">
@@ -2750,7 +2750,7 @@
         <v>36814</v>
       </c>
       <c r="B289" t="n">
-        <v>5</v>
+        <v>4.999999999999997</v>
       </c>
     </row>
     <row r="290">
@@ -2758,7 +2758,7 @@
         <v>36815</v>
       </c>
       <c r="B290" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="291">
@@ -2766,7 +2766,7 @@
         <v>36816</v>
       </c>
       <c r="B291" t="n">
-        <v>5</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="292">
@@ -2774,7 +2774,7 @@
         <v>36817</v>
       </c>
       <c r="B292" t="n">
-        <v>4.305842792303898</v>
+        <v>3.720270564180553</v>
       </c>
     </row>
     <row r="293">
@@ -2782,7 +2782,7 @@
         <v>36818</v>
       </c>
       <c r="B293" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="294">
@@ -2806,7 +2806,7 @@
         <v>36821</v>
       </c>
       <c r="B296" t="n">
-        <v>3.680321610906526</v>
+        <v>4.781491256184114</v>
       </c>
     </row>
     <row r="297">
@@ -2814,7 +2814,7 @@
         <v>36822</v>
       </c>
       <c r="B297" t="n">
-        <v>3.683546258631071</v>
+        <v>3.890777344708895</v>
       </c>
     </row>
     <row r="298">
@@ -2822,7 +2822,7 @@
         <v>36823</v>
       </c>
       <c r="B298" t="n">
-        <v>0.7132873572634397</v>
+        <v>0.3905295135920384</v>
       </c>
     </row>
     <row r="299">
@@ -2838,7 +2838,7 @@
         <v>36825</v>
       </c>
       <c r="B300" t="n">
-        <v>0.1192856732773341</v>
+        <v>0.1152856732773341</v>
       </c>
     </row>
     <row r="301">
@@ -2846,7 +2846,7 @@
         <v>36826</v>
       </c>
       <c r="B301" t="n">
-        <v>3.591054272360362</v>
+        <v>3.781466779390591</v>
       </c>
     </row>
     <row r="302">
@@ -2854,7 +2854,7 @@
         <v>36827</v>
       </c>
       <c r="B302" t="n">
-        <v>5</v>
+        <v>3.987975997351776</v>
       </c>
     </row>
     <row r="303">
@@ -2878,7 +2878,7 @@
         <v>36830</v>
       </c>
       <c r="B305" t="n">
-        <v>2.454299652530172</v>
+        <v>3.00023061163535</v>
       </c>
     </row>
     <row r="306">
@@ -2894,7 +2894,7 @@
         <v>36832</v>
       </c>
       <c r="B307" t="n">
-        <v>4.999999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="308">
@@ -2902,7 +2902,7 @@
         <v>36833</v>
       </c>
       <c r="B308" t="n">
-        <v>5</v>
+        <v>4.930541655522323</v>
       </c>
     </row>
     <row r="309">
@@ -2910,7 +2910,7 @@
         <v>36834</v>
       </c>
       <c r="B309" t="n">
-        <v>5</v>
+        <v>4.829458304315041</v>
       </c>
     </row>
     <row r="310">
@@ -2918,7 +2918,7 @@
         <v>36835</v>
       </c>
       <c r="B310" t="n">
-        <v>4.408428547892323</v>
+        <v>5</v>
       </c>
     </row>
     <row r="311">
@@ -2926,7 +2926,7 @@
         <v>36836</v>
       </c>
       <c r="B311" t="n">
-        <v>2.917651420098768</v>
+        <v>4.109537616051316</v>
       </c>
     </row>
     <row r="312">
@@ -2934,7 +2934,7 @@
         <v>36837</v>
       </c>
       <c r="B312" t="n">
-        <v>0.1694408917987829</v>
+        <v>0.1935457240585318</v>
       </c>
     </row>
     <row r="313">
@@ -2950,7 +2950,7 @@
         <v>36839</v>
       </c>
       <c r="B314" t="n">
-        <v>3.254444452712067</v>
+        <v>3.150168325100286</v>
       </c>
     </row>
     <row r="315">
@@ -2958,7 +2958,7 @@
         <v>36840</v>
       </c>
       <c r="B315" t="n">
-        <v>0.07596338590854232</v>
+        <v>0.02296338590854233</v>
       </c>
     </row>
     <row r="316">
@@ -2966,7 +2966,7 @@
         <v>36841</v>
       </c>
       <c r="B316" t="n">
-        <v>0.4614315677556507</v>
+        <v>1.231585024249513</v>
       </c>
     </row>
     <row r="317">
@@ -2982,7 +2982,7 @@
         <v>36843</v>
       </c>
       <c r="B318" t="n">
-        <v>3.115238810587209</v>
+        <v>2.74259459609352</v>
       </c>
     </row>
     <row r="319">
@@ -2998,7 +2998,7 @@
         <v>36845</v>
       </c>
       <c r="B320" t="n">
-        <v>5</v>
+        <v>4.557653946089296</v>
       </c>
     </row>
     <row r="321">
@@ -3014,7 +3014,7 @@
         <v>36847</v>
       </c>
       <c r="B322" t="n">
-        <v>4.535065746685911</v>
+        <v>4.641885678864514</v>
       </c>
     </row>
     <row r="323">
@@ -3022,7 +3022,7 @@
         <v>36848</v>
       </c>
       <c r="B323" t="n">
-        <v>5</v>
+        <v>4.623542858366296</v>
       </c>
     </row>
     <row r="324">
@@ -3030,7 +3030,7 @@
         <v>36849</v>
       </c>
       <c r="B324" t="n">
-        <v>0.6463981650075448</v>
+        <v>0.9045241003871236</v>
       </c>
     </row>
     <row r="325">
@@ -3046,7 +3046,7 @@
         <v>36851</v>
       </c>
       <c r="B326" t="n">
-        <v>0.5943630520730818</v>
+        <v>0.5612092702770545</v>
       </c>
     </row>
     <row r="327">
@@ -3054,7 +3054,7 @@
         <v>36852</v>
       </c>
       <c r="B327" t="n">
-        <v>5</v>
+        <v>3.707079793836671</v>
       </c>
     </row>
     <row r="328">
@@ -3062,7 +3062,7 @@
         <v>36853</v>
       </c>
       <c r="B328" t="n">
-        <v>3.744167604732198</v>
+        <v>4.402248636681061</v>
       </c>
     </row>
     <row r="329">
@@ -3094,7 +3094,7 @@
         <v>36857</v>
       </c>
       <c r="B332" t="n">
-        <v>0.1955607768787193</v>
+        <v>0.2408759839757466</v>
       </c>
     </row>
     <row r="333">
@@ -3118,7 +3118,7 @@
         <v>36860</v>
       </c>
       <c r="B335" t="n">
-        <v>0.6198220611193987</v>
+        <v>0.562679266604711</v>
       </c>
     </row>
     <row r="336">
@@ -3126,7 +3126,7 @@
         <v>36861</v>
       </c>
       <c r="B336" t="n">
-        <v>0.5056632075671252</v>
+        <v>0.5186632075671253</v>
       </c>
     </row>
     <row r="337">
@@ -3142,7 +3142,7 @@
         <v>36863</v>
       </c>
       <c r="B338" t="n">
-        <v>0.3600015234434402</v>
+        <v>0.4414928712939434</v>
       </c>
     </row>
     <row r="339">
@@ -3150,7 +3150,7 @@
         <v>36864</v>
       </c>
       <c r="B339" t="n">
-        <v>1.68162993462372</v>
+        <v>2.152401760756345</v>
       </c>
     </row>
     <row r="340">
@@ -3158,7 +3158,7 @@
         <v>36865</v>
       </c>
       <c r="B340" t="n">
-        <v>0.392076332707383</v>
+        <v>0.1894673825025871</v>
       </c>
     </row>
     <row r="341">
@@ -3190,7 +3190,7 @@
         <v>36869</v>
       </c>
       <c r="B344" t="n">
-        <v>0.2083672219493406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
@@ -3198,7 +3198,7 @@
         <v>36870</v>
       </c>
       <c r="B345" t="n">
-        <v>1.667840607982241</v>
+        <v>3.096727410907626</v>
       </c>
     </row>
     <row r="346">
@@ -3206,7 +3206,7 @@
         <v>36871</v>
       </c>
       <c r="B346" t="n">
-        <v>1.116643748855297</v>
+        <v>2.680575245408471</v>
       </c>
     </row>
     <row r="347">
@@ -3214,7 +3214,7 @@
         <v>36872</v>
       </c>
       <c r="B347" t="n">
-        <v>0.4260098091421166</v>
+        <v>0.3153147057440679</v>
       </c>
     </row>
     <row r="348">
@@ -3222,7 +3222,7 @@
         <v>36873</v>
       </c>
       <c r="B348" t="n">
-        <v>3.385426715545751</v>
+        <v>1.928403851722112</v>
       </c>
     </row>
     <row r="349">
@@ -3230,7 +3230,7 @@
         <v>36874</v>
       </c>
       <c r="B349" t="n">
-        <v>0.001317988031008764</v>
+        <v>0.03592429281611044</v>
       </c>
     </row>
     <row r="350">
@@ -3238,7 +3238,7 @@
         <v>36875</v>
       </c>
       <c r="B350" t="n">
-        <v>0.2894244325588191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
@@ -3246,7 +3246,7 @@
         <v>36876</v>
       </c>
       <c r="B351" t="n">
-        <v>0.3601049649019782</v>
+        <v>0.1606947225355558</v>
       </c>
     </row>
     <row r="352">
@@ -3254,7 +3254,7 @@
         <v>36877</v>
       </c>
       <c r="B352" t="n">
-        <v>0.1250022082417895</v>
+        <v>0.450880377995852</v>
       </c>
     </row>
     <row r="353">
@@ -3262,7 +3262,7 @@
         <v>36878</v>
       </c>
       <c r="B353" t="n">
-        <v>1.509385703163791</v>
+        <v>2.86745086343957</v>
       </c>
     </row>
     <row r="354">
@@ -3294,7 +3294,7 @@
         <v>36882</v>
       </c>
       <c r="B357" t="n">
-        <v>0.05886986454951502</v>
+        <v>0.2349863924702057</v>
       </c>
     </row>
     <row r="358">
@@ -3310,7 +3310,7 @@
         <v>36884</v>
       </c>
       <c r="B359" t="n">
-        <v>1.449449116031491</v>
+        <v>1.482432143690734</v>
       </c>
     </row>
     <row r="360">
@@ -3318,7 +3318,7 @@
         <v>36885</v>
       </c>
       <c r="B360" t="n">
-        <v>1.423522999159199</v>
+        <v>1.754996312875319</v>
       </c>
     </row>
     <row r="361">
@@ -3326,7 +3326,7 @@
         <v>36886</v>
       </c>
       <c r="B361" t="n">
-        <v>2.933660475382339</v>
+        <v>2.902617763707542</v>
       </c>
     </row>
     <row r="362">
@@ -3334,7 +3334,7 @@
         <v>36887</v>
       </c>
       <c r="B362" t="n">
-        <v>1.889049547996696</v>
+        <v>1.117834436890867</v>
       </c>
     </row>
     <row r="363">
@@ -3342,7 +3342,7 @@
         <v>36888</v>
       </c>
       <c r="B363" t="n">
-        <v>2.449658431003875</v>
+        <v>3.180780615500789</v>
       </c>
     </row>
     <row r="364">
@@ -3358,7 +3358,7 @@
         <v>36890</v>
       </c>
       <c r="B365" t="n">
-        <v>0.05353113140634157</v>
+        <v>0.002638625277041312</v>
       </c>
     </row>
     <row r="366">

--- a/results/end_of_day_charge_levels.xlsx
+++ b/results/end_of_day_charge_levels.xlsx
@@ -686,7 +686,7 @@
         <v>36555</v>
       </c>
       <c r="B31" t="n">
-        <v>5</v>
+        <v>5.489123092035356</v>
       </c>
     </row>
     <row r="32">
@@ -734,7 +734,7 @@
         <v>36561</v>
       </c>
       <c r="B37" t="n">
-        <v>4.999999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="38">
@@ -750,7 +750,7 @@
         <v>36563</v>
       </c>
       <c r="B39" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="40">
@@ -758,7 +758,7 @@
         <v>36564</v>
       </c>
       <c r="B40" t="n">
-        <v>5</v>
+        <v>5.050701178157575</v>
       </c>
     </row>
     <row r="41">
@@ -798,7 +798,7 @@
         <v>36569</v>
       </c>
       <c r="B45" t="n">
-        <v>4.999999999999999</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +806,7 @@
         <v>36570</v>
       </c>
       <c r="B46" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="47">
@@ -822,7 +822,7 @@
         <v>36572</v>
       </c>
       <c r="B48" t="n">
-        <v>4.999999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="49">
@@ -830,7 +830,7 @@
         <v>36573</v>
       </c>
       <c r="B49" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="50">
@@ -838,7 +838,7 @@
         <v>36574</v>
       </c>
       <c r="B50" t="n">
-        <v>5</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="51">
@@ -854,7 +854,7 @@
         <v>36576</v>
       </c>
       <c r="B52" t="n">
-        <v>5</v>
+        <v>5.515420568095825</v>
       </c>
     </row>
     <row r="53">
@@ -862,7 +862,7 @@
         <v>36577</v>
       </c>
       <c r="B53" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="54">
@@ -870,7 +870,7 @@
         <v>36578</v>
       </c>
       <c r="B54" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="55">
@@ -878,7 +878,7 @@
         <v>36579</v>
       </c>
       <c r="B55" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="56">
@@ -886,7 +886,7 @@
         <v>36580</v>
       </c>
       <c r="B56" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="57">
@@ -894,7 +894,7 @@
         <v>36581</v>
       </c>
       <c r="B57" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="58">
@@ -902,7 +902,7 @@
         <v>36582</v>
       </c>
       <c r="B58" t="n">
-        <v>5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="59">
@@ -910,7 +910,7 @@
         <v>36583</v>
       </c>
       <c r="B59" t="n">
-        <v>4.999999999999999</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="60">
@@ -918,7 +918,7 @@
         <v>36584</v>
       </c>
       <c r="B60" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="61">
@@ -926,7 +926,7 @@
         <v>36586</v>
       </c>
       <c r="B61" t="n">
-        <v>4.999999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="62">
@@ -942,7 +942,7 @@
         <v>36588</v>
       </c>
       <c r="B63" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="64">
@@ -950,7 +950,7 @@
         <v>36589</v>
       </c>
       <c r="B64" t="n">
-        <v>4.999999999999999</v>
+        <v>5.153751091674189</v>
       </c>
     </row>
     <row r="65">
@@ -958,7 +958,7 @@
         <v>36590</v>
       </c>
       <c r="B65" t="n">
-        <v>5</v>
+        <v>5.926472717710796</v>
       </c>
     </row>
     <row r="66">
@@ -966,7 +966,7 @@
         <v>36591</v>
       </c>
       <c r="B66" t="n">
-        <v>4.999999999999999</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="67">
@@ -1014,7 +1014,7 @@
         <v>36597</v>
       </c>
       <c r="B72" t="n">
-        <v>5</v>
+        <v>5.499340825386052</v>
       </c>
     </row>
     <row r="73">
@@ -1030,7 +1030,7 @@
         <v>36599</v>
       </c>
       <c r="B74" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="75">
@@ -1054,7 +1054,7 @@
         <v>36602</v>
       </c>
       <c r="B77" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="78">
@@ -1062,7 +1062,7 @@
         <v>36603</v>
       </c>
       <c r="B78" t="n">
-        <v>4.999999999999999</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="79">
@@ -1086,7 +1086,7 @@
         <v>36606</v>
       </c>
       <c r="B81" t="n">
-        <v>5</v>
+        <v>5.252474683472312</v>
       </c>
     </row>
     <row r="82">
@@ -1110,7 +1110,7 @@
         <v>36609</v>
       </c>
       <c r="B84" t="n">
-        <v>5</v>
+        <v>5.827838763801224</v>
       </c>
     </row>
     <row r="85">
@@ -1126,7 +1126,7 @@
         <v>36611</v>
       </c>
       <c r="B86" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="87">
@@ -1150,7 +1150,7 @@
         <v>36614</v>
       </c>
       <c r="B89" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="90">
@@ -1158,7 +1158,7 @@
         <v>36615</v>
       </c>
       <c r="B90" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="91">
@@ -1206,7 +1206,7 @@
         <v>36621</v>
       </c>
       <c r="B96" t="n">
-        <v>5</v>
+        <v>5.554282823042275</v>
       </c>
     </row>
     <row r="97">
@@ -1214,7 +1214,7 @@
         <v>36622</v>
       </c>
       <c r="B97" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="98">
@@ -1222,7 +1222,7 @@
         <v>36623</v>
       </c>
       <c r="B98" t="n">
-        <v>4.999999999999999</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="99">
@@ -1230,7 +1230,7 @@
         <v>36624</v>
       </c>
       <c r="B99" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="100">
@@ -1246,7 +1246,7 @@
         <v>36626</v>
       </c>
       <c r="B101" t="n">
-        <v>5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="102">
@@ -1270,7 +1270,7 @@
         <v>36629</v>
       </c>
       <c r="B104" t="n">
-        <v>5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="105">
@@ -1278,7 +1278,7 @@
         <v>36630</v>
       </c>
       <c r="B105" t="n">
-        <v>5</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="106">
@@ -1286,7 +1286,7 @@
         <v>36631</v>
       </c>
       <c r="B106" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="107">
@@ -1294,7 +1294,7 @@
         <v>36632</v>
       </c>
       <c r="B107" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="108">
@@ -1302,7 +1302,7 @@
         <v>36633</v>
       </c>
       <c r="B108" t="n">
-        <v>5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="109">
@@ -1310,7 +1310,7 @@
         <v>36634</v>
       </c>
       <c r="B109" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="110">
@@ -1318,7 +1318,7 @@
         <v>36635</v>
       </c>
       <c r="B110" t="n">
-        <v>4.999999999999999</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="111">
@@ -1326,7 +1326,7 @@
         <v>36636</v>
       </c>
       <c r="B111" t="n">
-        <v>4.999999999999997</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="112">
@@ -1334,7 +1334,7 @@
         <v>36637</v>
       </c>
       <c r="B112" t="n">
-        <v>5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="113">
@@ -1342,7 +1342,7 @@
         <v>36638</v>
       </c>
       <c r="B113" t="n">
-        <v>5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="114">
@@ -1350,7 +1350,7 @@
         <v>36639</v>
       </c>
       <c r="B114" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="115">
@@ -1358,7 +1358,7 @@
         <v>36640</v>
       </c>
       <c r="B115" t="n">
-        <v>5</v>
+        <v>6.314639374706645</v>
       </c>
     </row>
     <row r="116">
@@ -1366,7 +1366,7 @@
         <v>36641</v>
       </c>
       <c r="B116" t="n">
-        <v>4.999999999999999</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="117">
@@ -1374,7 +1374,7 @@
         <v>36642</v>
       </c>
       <c r="B117" t="n">
-        <v>4.999999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="118">
@@ -1382,7 +1382,7 @@
         <v>36643</v>
       </c>
       <c r="B118" t="n">
-        <v>5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="119">
@@ -1390,7 +1390,7 @@
         <v>36644</v>
       </c>
       <c r="B119" t="n">
-        <v>5</v>
+        <v>5.247713470174966</v>
       </c>
     </row>
     <row r="120">
@@ -1398,7 +1398,7 @@
         <v>36645</v>
       </c>
       <c r="B120" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="121">
@@ -1414,7 +1414,7 @@
         <v>36647</v>
       </c>
       <c r="B122" t="n">
-        <v>4.999999999999999</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="123">
@@ -1422,7 +1422,7 @@
         <v>36648</v>
       </c>
       <c r="B123" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="124">
@@ -1430,7 +1430,7 @@
         <v>36649</v>
       </c>
       <c r="B124" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="125">
@@ -1438,7 +1438,7 @@
         <v>36650</v>
       </c>
       <c r="B125" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="126">
@@ -1446,7 +1446,7 @@
         <v>36651</v>
       </c>
       <c r="B126" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="127">
@@ -1454,7 +1454,7 @@
         <v>36652</v>
       </c>
       <c r="B127" t="n">
-        <v>5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="128">
@@ -1462,7 +1462,7 @@
         <v>36653</v>
       </c>
       <c r="B128" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="129">
@@ -1470,7 +1470,7 @@
         <v>36654</v>
       </c>
       <c r="B129" t="n">
-        <v>4.999999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="130">
@@ -1478,7 +1478,7 @@
         <v>36655</v>
       </c>
       <c r="B130" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="131">
@@ -1486,7 +1486,7 @@
         <v>36656</v>
       </c>
       <c r="B131" t="n">
-        <v>4.999999999999999</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="132">
@@ -1494,7 +1494,7 @@
         <v>36657</v>
       </c>
       <c r="B132" t="n">
-        <v>4.999999999999999</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="133">
@@ -1502,7 +1502,7 @@
         <v>36658</v>
       </c>
       <c r="B133" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="134">
@@ -1518,7 +1518,7 @@
         <v>36660</v>
       </c>
       <c r="B135" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="136">
@@ -1526,7 +1526,7 @@
         <v>36661</v>
       </c>
       <c r="B136" t="n">
-        <v>5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="137">
@@ -1534,7 +1534,7 @@
         <v>36662</v>
       </c>
       <c r="B137" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="138">
@@ -1542,7 +1542,7 @@
         <v>36663</v>
       </c>
       <c r="B138" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="139">
@@ -1550,7 +1550,7 @@
         <v>36664</v>
       </c>
       <c r="B139" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="140">
@@ -1558,7 +1558,7 @@
         <v>36665</v>
       </c>
       <c r="B140" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="141">
@@ -1566,7 +1566,7 @@
         <v>36666</v>
       </c>
       <c r="B141" t="n">
-        <v>4.999999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="142">
@@ -1574,7 +1574,7 @@
         <v>36667</v>
       </c>
       <c r="B142" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="143">
@@ -1582,7 +1582,7 @@
         <v>36668</v>
       </c>
       <c r="B143" t="n">
-        <v>4.999999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="144">
@@ -1590,7 +1590,7 @@
         <v>36669</v>
       </c>
       <c r="B144" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="145">
@@ -1598,7 +1598,7 @@
         <v>36670</v>
       </c>
       <c r="B145" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="146">
@@ -1606,7 +1606,7 @@
         <v>36671</v>
       </c>
       <c r="B146" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="147">
@@ -1614,7 +1614,7 @@
         <v>36672</v>
       </c>
       <c r="B147" t="n">
-        <v>4.999999999999998</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="148">
@@ -1622,7 +1622,7 @@
         <v>36673</v>
       </c>
       <c r="B148" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="149">
@@ -1630,7 +1630,7 @@
         <v>36674</v>
       </c>
       <c r="B149" t="n">
-        <v>5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="150">
@@ -1638,7 +1638,7 @@
         <v>36675</v>
       </c>
       <c r="B150" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="151">
@@ -1646,7 +1646,7 @@
         <v>36676</v>
       </c>
       <c r="B151" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="152">
@@ -1654,7 +1654,7 @@
         <v>36677</v>
       </c>
       <c r="B152" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="153">
@@ -1670,7 +1670,7 @@
         <v>36679</v>
       </c>
       <c r="B154" t="n">
-        <v>4.999999999999999</v>
+        <v>6.499999999999997</v>
       </c>
     </row>
     <row r="155">
@@ -1678,7 +1678,7 @@
         <v>36680</v>
       </c>
       <c r="B155" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="156">
@@ -1686,7 +1686,7 @@
         <v>36681</v>
       </c>
       <c r="B156" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="157">
@@ -1694,7 +1694,7 @@
         <v>36682</v>
       </c>
       <c r="B157" t="n">
-        <v>5</v>
+        <v>5.910199051761574</v>
       </c>
     </row>
     <row r="158">
@@ -1702,7 +1702,7 @@
         <v>36683</v>
       </c>
       <c r="B158" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="159">
@@ -1710,7 +1710,7 @@
         <v>36684</v>
       </c>
       <c r="B159" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="160">
@@ -1718,7 +1718,7 @@
         <v>36685</v>
       </c>
       <c r="B160" t="n">
-        <v>5</v>
+        <v>5.951949199098629</v>
       </c>
     </row>
     <row r="161">
@@ -1726,7 +1726,7 @@
         <v>36686</v>
       </c>
       <c r="B161" t="n">
-        <v>4.999999999999999</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="162">
@@ -1734,7 +1734,7 @@
         <v>36687</v>
       </c>
       <c r="B162" t="n">
-        <v>4.999999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="163">
@@ -1742,7 +1742,7 @@
         <v>36688</v>
       </c>
       <c r="B163" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="164">
@@ -1766,7 +1766,7 @@
         <v>36691</v>
       </c>
       <c r="B166" t="n">
-        <v>5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="167">
@@ -1774,7 +1774,7 @@
         <v>36692</v>
       </c>
       <c r="B167" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="168">
@@ -1782,7 +1782,7 @@
         <v>36693</v>
       </c>
       <c r="B168" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="169">
@@ -1790,7 +1790,7 @@
         <v>36694</v>
       </c>
       <c r="B169" t="n">
-        <v>5</v>
+        <v>6.181709442732689</v>
       </c>
     </row>
     <row r="170">
@@ -1814,7 +1814,7 @@
         <v>36697</v>
       </c>
       <c r="B172" t="n">
-        <v>4.999999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="173">
@@ -1822,7 +1822,7 @@
         <v>36698</v>
       </c>
       <c r="B173" t="n">
-        <v>4.999999999999999</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="174">
@@ -1830,7 +1830,7 @@
         <v>36699</v>
       </c>
       <c r="B174" t="n">
-        <v>5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="175">
@@ -1854,7 +1854,7 @@
         <v>36702</v>
       </c>
       <c r="B177" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="178">
@@ -1862,7 +1862,7 @@
         <v>36703</v>
       </c>
       <c r="B178" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="179">
@@ -1870,7 +1870,7 @@
         <v>36704</v>
       </c>
       <c r="B179" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="180">
@@ -1878,7 +1878,7 @@
         <v>36705</v>
       </c>
       <c r="B180" t="n">
-        <v>4.999999999999999</v>
+        <v>6.484820466704332</v>
       </c>
     </row>
     <row r="181">
@@ -1902,7 +1902,7 @@
         <v>36708</v>
       </c>
       <c r="B183" t="n">
-        <v>4.999999999999999</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="184">
@@ -1910,7 +1910,7 @@
         <v>36709</v>
       </c>
       <c r="B184" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="185">
@@ -1918,7 +1918,7 @@
         <v>36710</v>
       </c>
       <c r="B185" t="n">
-        <v>4.999999999999998</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="186">
@@ -1926,7 +1926,7 @@
         <v>36711</v>
       </c>
       <c r="B186" t="n">
-        <v>4.999999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="187">
@@ -1934,7 +1934,7 @@
         <v>36712</v>
       </c>
       <c r="B187" t="n">
-        <v>4.999999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="188">
@@ -1942,7 +1942,7 @@
         <v>36713</v>
       </c>
       <c r="B188" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="189">
@@ -1950,7 +1950,7 @@
         <v>36714</v>
       </c>
       <c r="B189" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="190">
@@ -1958,7 +1958,7 @@
         <v>36715</v>
       </c>
       <c r="B190" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="191">
@@ -1966,7 +1966,7 @@
         <v>36716</v>
       </c>
       <c r="B191" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="192">
@@ -1982,7 +1982,7 @@
         <v>36718</v>
       </c>
       <c r="B193" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="194">
@@ -1990,7 +1990,7 @@
         <v>36719</v>
       </c>
       <c r="B194" t="n">
-        <v>5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="195">
@@ -1998,7 +1998,7 @@
         <v>36720</v>
       </c>
       <c r="B195" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="196">
@@ -2006,7 +2006,7 @@
         <v>36721</v>
       </c>
       <c r="B196" t="n">
-        <v>4.999999999999999</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="197">
@@ -2014,7 +2014,7 @@
         <v>36722</v>
       </c>
       <c r="B197" t="n">
-        <v>5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="198">
@@ -2022,7 +2022,7 @@
         <v>36723</v>
       </c>
       <c r="B198" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="199">
@@ -2030,7 +2030,7 @@
         <v>36724</v>
       </c>
       <c r="B199" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="200">
@@ -2038,7 +2038,7 @@
         <v>36725</v>
       </c>
       <c r="B200" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="201">
@@ -2046,7 +2046,7 @@
         <v>36726</v>
       </c>
       <c r="B201" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="202">
@@ -2054,7 +2054,7 @@
         <v>36727</v>
       </c>
       <c r="B202" t="n">
-        <v>4.999999999999999</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="203">
@@ -2062,7 +2062,7 @@
         <v>36728</v>
       </c>
       <c r="B203" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="204">
@@ -2070,7 +2070,7 @@
         <v>36729</v>
       </c>
       <c r="B204" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="205">
@@ -2078,7 +2078,7 @@
         <v>36730</v>
       </c>
       <c r="B205" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="206">
@@ -2086,7 +2086,7 @@
         <v>36731</v>
       </c>
       <c r="B206" t="n">
-        <v>4.999999999999999</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="207">
@@ -2094,7 +2094,7 @@
         <v>36732</v>
       </c>
       <c r="B207" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="208">
@@ -2102,7 +2102,7 @@
         <v>36733</v>
       </c>
       <c r="B208" t="n">
-        <v>5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="209">
@@ -2110,7 +2110,7 @@
         <v>36734</v>
       </c>
       <c r="B209" t="n">
-        <v>4.999999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="210">
@@ -2118,7 +2118,7 @@
         <v>36735</v>
       </c>
       <c r="B210" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="211">
@@ -2126,7 +2126,7 @@
         <v>36736</v>
       </c>
       <c r="B211" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="212">
@@ -2134,7 +2134,7 @@
         <v>36737</v>
       </c>
       <c r="B212" t="n">
-        <v>4.999999999999999</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="213">
@@ -2142,7 +2142,7 @@
         <v>36738</v>
       </c>
       <c r="B213" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="214">
@@ -2150,7 +2150,7 @@
         <v>36739</v>
       </c>
       <c r="B214" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="215">
@@ -2158,7 +2158,7 @@
         <v>36740</v>
       </c>
       <c r="B215" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="216">
@@ -2166,7 +2166,7 @@
         <v>36741</v>
       </c>
       <c r="B216" t="n">
-        <v>4.999999999999999</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="217">
@@ -2174,7 +2174,7 @@
         <v>36742</v>
       </c>
       <c r="B217" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="218">
@@ -2182,7 +2182,7 @@
         <v>36743</v>
       </c>
       <c r="B218" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="219">
@@ -2190,7 +2190,7 @@
         <v>36744</v>
       </c>
       <c r="B219" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="220">
@@ -2198,7 +2198,7 @@
         <v>36745</v>
       </c>
       <c r="B220" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="221">
@@ -2206,7 +2206,7 @@
         <v>36746</v>
       </c>
       <c r="B221" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="222">
@@ -2214,7 +2214,7 @@
         <v>36747</v>
       </c>
       <c r="B222" t="n">
-        <v>5</v>
+        <v>5.563294387660081</v>
       </c>
     </row>
     <row r="223">
@@ -2222,7 +2222,7 @@
         <v>36748</v>
       </c>
       <c r="B223" t="n">
-        <v>5</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="224">
@@ -2230,7 +2230,7 @@
         <v>36749</v>
       </c>
       <c r="B224" t="n">
-        <v>4.999999999999998</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="225">
@@ -2238,7 +2238,7 @@
         <v>36750</v>
       </c>
       <c r="B225" t="n">
-        <v>4.999999999999999</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="226">
@@ -2270,7 +2270,7 @@
         <v>36754</v>
       </c>
       <c r="B229" t="n">
-        <v>4.999999999999999</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="230">
@@ -2278,7 +2278,7 @@
         <v>36755</v>
       </c>
       <c r="B230" t="n">
-        <v>4.999999999999999</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="231">
@@ -2286,7 +2286,7 @@
         <v>36756</v>
       </c>
       <c r="B231" t="n">
-        <v>4.999999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="232">
@@ -2294,7 +2294,7 @@
         <v>36757</v>
       </c>
       <c r="B232" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="233">
@@ -2310,7 +2310,7 @@
         <v>36759</v>
       </c>
       <c r="B234" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="235">
@@ -2318,7 +2318,7 @@
         <v>36760</v>
       </c>
       <c r="B235" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="236">
@@ -2326,7 +2326,7 @@
         <v>36761</v>
       </c>
       <c r="B236" t="n">
-        <v>5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="237">
@@ -2334,7 +2334,7 @@
         <v>36762</v>
       </c>
       <c r="B237" t="n">
-        <v>4.999999999999998</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="238">
@@ -2342,7 +2342,7 @@
         <v>36763</v>
       </c>
       <c r="B238" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="239">
@@ -2350,7 +2350,7 @@
         <v>36764</v>
       </c>
       <c r="B239" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="240">
@@ -2358,7 +2358,7 @@
         <v>36765</v>
       </c>
       <c r="B240" t="n">
-        <v>5</v>
+        <v>5.408541204484123</v>
       </c>
     </row>
     <row r="241">
@@ -2366,7 +2366,7 @@
         <v>36766</v>
       </c>
       <c r="B241" t="n">
-        <v>4.999999999999999</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="242">
@@ -2382,7 +2382,7 @@
         <v>36768</v>
       </c>
       <c r="B243" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="244">
@@ -2390,7 +2390,7 @@
         <v>36769</v>
       </c>
       <c r="B244" t="n">
-        <v>4.999999999999999</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="245">
@@ -2398,7 +2398,7 @@
         <v>36770</v>
       </c>
       <c r="B245" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="246">
@@ -2406,7 +2406,7 @@
         <v>36771</v>
       </c>
       <c r="B246" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="247">
@@ -2422,7 +2422,7 @@
         <v>36773</v>
       </c>
       <c r="B248" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="249">
@@ -2430,7 +2430,7 @@
         <v>36774</v>
       </c>
       <c r="B249" t="n">
-        <v>4.999999999999998</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="250">
@@ -2446,7 +2446,7 @@
         <v>36776</v>
       </c>
       <c r="B251" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="252">
@@ -2454,7 +2454,7 @@
         <v>36777</v>
       </c>
       <c r="B252" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="253">
@@ -2462,7 +2462,7 @@
         <v>36778</v>
       </c>
       <c r="B253" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="254">
@@ -2470,7 +2470,7 @@
         <v>36779</v>
       </c>
       <c r="B254" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="255">
@@ -2478,7 +2478,7 @@
         <v>36780</v>
       </c>
       <c r="B255" t="n">
-        <v>5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="256">
@@ -2502,7 +2502,7 @@
         <v>36783</v>
       </c>
       <c r="B258" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="259">
@@ -2510,7 +2510,7 @@
         <v>36784</v>
       </c>
       <c r="B259" t="n">
-        <v>4.999999999999999</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="260">
@@ -2518,7 +2518,7 @@
         <v>36785</v>
       </c>
       <c r="B260" t="n">
-        <v>5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="261">
@@ -2526,7 +2526,7 @@
         <v>36786</v>
       </c>
       <c r="B261" t="n">
-        <v>5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="262">
@@ -2534,7 +2534,7 @@
         <v>36787</v>
       </c>
       <c r="B262" t="n">
-        <v>5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="263">
@@ -2542,7 +2542,7 @@
         <v>36788</v>
       </c>
       <c r="B263" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="264">
@@ -2550,7 +2550,7 @@
         <v>36789</v>
       </c>
       <c r="B264" t="n">
-        <v>4.999999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="265">
@@ -2558,7 +2558,7 @@
         <v>36790</v>
       </c>
       <c r="B265" t="n">
-        <v>5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="266">
@@ -2582,7 +2582,7 @@
         <v>36793</v>
       </c>
       <c r="B268" t="n">
-        <v>5</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="269">
@@ -2590,7 +2590,7 @@
         <v>36794</v>
       </c>
       <c r="B269" t="n">
-        <v>5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="270">
@@ -2598,7 +2598,7 @@
         <v>36795</v>
       </c>
       <c r="B270" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="271">
@@ -2606,7 +2606,7 @@
         <v>36796</v>
       </c>
       <c r="B271" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="272">
@@ -2622,7 +2622,7 @@
         <v>36798</v>
       </c>
       <c r="B273" t="n">
-        <v>4.999999999999999</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="274">
@@ -2630,7 +2630,7 @@
         <v>36799</v>
       </c>
       <c r="B274" t="n">
-        <v>5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="275">
@@ -2638,7 +2638,7 @@
         <v>36800</v>
       </c>
       <c r="B275" t="n">
-        <v>4.999999999999999</v>
+        <v>5.48692670898187</v>
       </c>
     </row>
     <row r="276">
@@ -2654,7 +2654,7 @@
         <v>36802</v>
       </c>
       <c r="B277" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="278">
@@ -2670,7 +2670,7 @@
         <v>36804</v>
       </c>
       <c r="B279" t="n">
-        <v>4.999999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="280">
@@ -2678,7 +2678,7 @@
         <v>36805</v>
       </c>
       <c r="B280" t="n">
-        <v>4.999999999999997</v>
+        <v>6.499999999999997</v>
       </c>
     </row>
     <row r="281">
@@ -2686,7 +2686,7 @@
         <v>36806</v>
       </c>
       <c r="B281" t="n">
-        <v>4.999999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="282">
@@ -2694,7 +2694,7 @@
         <v>36807</v>
       </c>
       <c r="B282" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="283">
@@ -2702,7 +2702,7 @@
         <v>36808</v>
       </c>
       <c r="B283" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="284">
@@ -2710,7 +2710,7 @@
         <v>36809</v>
       </c>
       <c r="B284" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="285">
@@ -2718,7 +2718,7 @@
         <v>36810</v>
       </c>
       <c r="B285" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="286">
@@ -2726,7 +2726,7 @@
         <v>36811</v>
       </c>
       <c r="B286" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="287">
@@ -2734,7 +2734,7 @@
         <v>36812</v>
       </c>
       <c r="B287" t="n">
-        <v>4.999999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="288">
@@ -2742,7 +2742,7 @@
         <v>36813</v>
       </c>
       <c r="B288" t="n">
-        <v>4.999999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="289">
@@ -2750,7 +2750,7 @@
         <v>36814</v>
       </c>
       <c r="B289" t="n">
-        <v>4.999999999999997</v>
+        <v>6.499999999999997</v>
       </c>
     </row>
     <row r="290">
@@ -2758,7 +2758,7 @@
         <v>36815</v>
       </c>
       <c r="B290" t="n">
-        <v>4.999999999999999</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="291">
@@ -2766,7 +2766,7 @@
         <v>36816</v>
       </c>
       <c r="B291" t="n">
-        <v>4.999999999999999</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="292">
@@ -2782,7 +2782,7 @@
         <v>36818</v>
       </c>
       <c r="B293" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="294">
@@ -2790,7 +2790,7 @@
         <v>36819</v>
       </c>
       <c r="B294" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="295">
@@ -2798,7 +2798,7 @@
         <v>36820</v>
       </c>
       <c r="B295" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="296">
@@ -2894,7 +2894,7 @@
         <v>36832</v>
       </c>
       <c r="B307" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="308">
@@ -2918,7 +2918,7 @@
         <v>36835</v>
       </c>
       <c r="B310" t="n">
-        <v>5</v>
+        <v>6.473722668443644</v>
       </c>
     </row>
     <row r="311">
@@ -2942,7 +2942,7 @@
         <v>36838</v>
       </c>
       <c r="B313" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="314">
@@ -2990,7 +2990,7 @@
         <v>36844</v>
       </c>
       <c r="B319" t="n">
-        <v>5</v>
+        <v>5.717172726039086</v>
       </c>
     </row>
     <row r="320">
@@ -3006,7 +3006,7 @@
         <v>36846</v>
       </c>
       <c r="B321" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="322">

--- a/results/end_of_day_charge_levels.xlsx
+++ b/results/end_of_day_charge_levels.xlsx
@@ -454,7 +454,7 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6466920752666873</v>
+        <v>4.440100183145073</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>36527</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1781285412312651</v>
+        <v>1.40796745380791</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>36528</v>
       </c>
       <c r="B4" t="n">
-        <v>0.008116694847272454</v>
+        <v>0.2834278140253859</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         <v>36530</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2792480393578958</v>
+        <v>1.68056199665889</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>36531</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2830623685657601</v>
+        <v>4.128421909104809</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>36532</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01205925836690369</v>
+        <v>0.4553249358417168</v>
       </c>
     </row>
     <row r="9">
@@ -518,7 +518,7 @@
         <v>36534</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02455928155235285</v>
+        <v>0.519516320674746</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>36535</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1786362727474556</v>
+        <v>1.855198447768904</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>36536</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4564972328297493</v>
+        <v>3.975347609039237</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>36537</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05037649636977957</v>
+        <v>1.4869517395205</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>36538</v>
       </c>
       <c r="B14" t="n">
-        <v>1.150087190158708</v>
+        <v>6.416703095952143</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>36539</v>
       </c>
       <c r="B15" t="n">
-        <v>2.720411860160724</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="16">
@@ -574,7 +574,7 @@
         <v>36541</v>
       </c>
       <c r="B17" t="n">
-        <v>1.313477269125471</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>36542</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6493402530349858</v>
+        <v>4.087033726737183</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>36543</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2787236207603832</v>
+        <v>2.866278166385109</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>36544</v>
       </c>
       <c r="B20" t="n">
-        <v>3.577605081321416</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="21">
@@ -614,7 +614,7 @@
         <v>36546</v>
       </c>
       <c r="B22" t="n">
-        <v>3.335471910808629</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>36547</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7558049085594679</v>
+        <v>4.969719662048238</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>36548</v>
       </c>
       <c r="B24" t="n">
-        <v>2.19372556110515</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>36549</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.03955630905720157</v>
       </c>
     </row>
     <row r="26">
@@ -654,7 +654,7 @@
         <v>36551</v>
       </c>
       <c r="B27" t="n">
-        <v>2.125905748582776</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>36552</v>
       </c>
       <c r="B28" t="n">
-        <v>2.317350895597211</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>36553</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.571024204979276</v>
       </c>
     </row>
     <row r="30">
@@ -686,7 +686,7 @@
         <v>36555</v>
       </c>
       <c r="B31" t="n">
-        <v>5.489123092035356</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="32">
@@ -702,7 +702,7 @@
         <v>36557</v>
       </c>
       <c r="B33" t="n">
-        <v>0.3537752225452746</v>
+        <v>2.34784901907992</v>
       </c>
     </row>
     <row r="34">
@@ -726,7 +726,7 @@
         <v>36560</v>
       </c>
       <c r="B36" t="n">
-        <v>0.3403636535150025</v>
+        <v>5.993399208884106</v>
       </c>
     </row>
     <row r="37">
@@ -742,7 +742,7 @@
         <v>36562</v>
       </c>
       <c r="B38" t="n">
-        <v>0.09767786462378213</v>
+        <v>0.9477375944495543</v>
       </c>
     </row>
     <row r="39">
@@ -758,7 +758,7 @@
         <v>36564</v>
       </c>
       <c r="B40" t="n">
-        <v>5.050701178157575</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>36565</v>
       </c>
       <c r="B41" t="n">
-        <v>4.826368538307462</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>36566</v>
       </c>
       <c r="B42" t="n">
-        <v>1.535091466708628</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>36567</v>
       </c>
       <c r="B43" t="n">
-        <v>1.247292322954824</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>36568</v>
       </c>
       <c r="B44" t="n">
-        <v>3.137080194166382</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>36569</v>
       </c>
       <c r="B45" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="46">
@@ -814,7 +814,7 @@
         <v>36571</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1255725322071804</v>
+        <v>1.068814632458397</v>
       </c>
     </row>
     <row r="48">
@@ -838,7 +838,7 @@
         <v>36574</v>
       </c>
       <c r="B50" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="51">
@@ -846,7 +846,7 @@
         <v>36575</v>
       </c>
       <c r="B51" t="n">
-        <v>2.690920019497323</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="52">
@@ -854,7 +854,7 @@
         <v>36576</v>
       </c>
       <c r="B52" t="n">
-        <v>5.515420568095825</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="53">
@@ -878,7 +878,7 @@
         <v>36579</v>
       </c>
       <c r="B55" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="56">
@@ -902,7 +902,7 @@
         <v>36582</v>
       </c>
       <c r="B58" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="59">
@@ -910,7 +910,7 @@
         <v>36583</v>
       </c>
       <c r="B59" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="60">
@@ -950,7 +950,7 @@
         <v>36589</v>
       </c>
       <c r="B64" t="n">
-        <v>5.153751091674189</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="65">
@@ -958,7 +958,7 @@
         <v>36590</v>
       </c>
       <c r="B65" t="n">
-        <v>5.926472717710796</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="66">
@@ -966,7 +966,7 @@
         <v>36591</v>
       </c>
       <c r="B66" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="67">
@@ -974,7 +974,7 @@
         <v>36592</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5156285200648882</v>
+        <v>3.352989801576352</v>
       </c>
     </row>
     <row r="68">
@@ -982,7 +982,7 @@
         <v>36593</v>
       </c>
       <c r="B68" t="n">
-        <v>1.624944629042829</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="69">
@@ -990,7 +990,7 @@
         <v>36594</v>
       </c>
       <c r="B69" t="n">
-        <v>4.03421817397156</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="70">
@@ -998,7 +998,7 @@
         <v>36595</v>
       </c>
       <c r="B70" t="n">
-        <v>1.837428685256278</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="71">
@@ -1006,7 +1006,7 @@
         <v>36596</v>
       </c>
       <c r="B71" t="n">
-        <v>3.437573465975591</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="72">
@@ -1014,7 +1014,7 @@
         <v>36597</v>
       </c>
       <c r="B72" t="n">
-        <v>5.499340825386052</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="73">
@@ -1038,7 +1038,7 @@
         <v>36600</v>
       </c>
       <c r="B75" t="n">
-        <v>2.840218418339626</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="76">
@@ -1046,7 +1046,7 @@
         <v>36601</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>0.07123952490093571</v>
       </c>
     </row>
     <row r="77">
@@ -1062,7 +1062,7 @@
         <v>36603</v>
       </c>
       <c r="B78" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="79">
@@ -1086,7 +1086,7 @@
         <v>36606</v>
       </c>
       <c r="B81" t="n">
-        <v>5.252474683472312</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="82">
@@ -1094,7 +1094,7 @@
         <v>36607</v>
       </c>
       <c r="B82" t="n">
-        <v>4.357385275081653</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="83">
@@ -1102,7 +1102,7 @@
         <v>36608</v>
       </c>
       <c r="B83" t="n">
-        <v>2.478425057904969</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="84">
@@ -1110,7 +1110,7 @@
         <v>36609</v>
       </c>
       <c r="B84" t="n">
-        <v>5.827838763801224</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="85">
@@ -1134,7 +1134,7 @@
         <v>36612</v>
       </c>
       <c r="B87" t="n">
-        <v>3.065234955861487</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="88">
@@ -1182,7 +1182,7 @@
         <v>36618</v>
       </c>
       <c r="B93" t="n">
-        <v>4.134562471626321</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="94">
@@ -1190,7 +1190,7 @@
         <v>36619</v>
       </c>
       <c r="B94" t="n">
-        <v>4.932602540833704</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="95">
@@ -1198,7 +1198,7 @@
         <v>36620</v>
       </c>
       <c r="B95" t="n">
-        <v>2.717070706888844</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="96">
@@ -1206,7 +1206,7 @@
         <v>36621</v>
       </c>
       <c r="B96" t="n">
-        <v>5.554282823042275</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="97">
@@ -1222,7 +1222,7 @@
         <v>36623</v>
       </c>
       <c r="B98" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="99">
@@ -1238,7 +1238,7 @@
         <v>36625</v>
       </c>
       <c r="B100" t="n">
-        <v>4.443183656811081</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="101">
@@ -1254,7 +1254,7 @@
         <v>36627</v>
       </c>
       <c r="B102" t="n">
-        <v>1.748395096959228</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="103">
@@ -1262,7 +1262,7 @@
         <v>36628</v>
       </c>
       <c r="B103" t="n">
-        <v>3.595087166888811</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="104">
@@ -1270,7 +1270,7 @@
         <v>36629</v>
       </c>
       <c r="B104" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="105">
@@ -1278,7 +1278,7 @@
         <v>36630</v>
       </c>
       <c r="B105" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="106">
@@ -1302,7 +1302,7 @@
         <v>36633</v>
       </c>
       <c r="B108" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="109">
@@ -1326,7 +1326,7 @@
         <v>36636</v>
       </c>
       <c r="B111" t="n">
-        <v>6.499999999999998</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="112">
@@ -1334,7 +1334,7 @@
         <v>36637</v>
       </c>
       <c r="B112" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="113">
@@ -1342,7 +1342,7 @@
         <v>36638</v>
       </c>
       <c r="B113" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="114">
@@ -1358,7 +1358,7 @@
         <v>36640</v>
       </c>
       <c r="B115" t="n">
-        <v>6.314639374706645</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="116">
@@ -1382,7 +1382,7 @@
         <v>36643</v>
       </c>
       <c r="B118" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="119">
@@ -1390,7 +1390,7 @@
         <v>36644</v>
       </c>
       <c r="B119" t="n">
-        <v>5.247713470174966</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="120">
@@ -1406,7 +1406,7 @@
         <v>36646</v>
       </c>
       <c r="B121" t="n">
-        <v>4.496967566312717</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="122">
@@ -1414,7 +1414,7 @@
         <v>36647</v>
       </c>
       <c r="B122" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="123">
@@ -1454,7 +1454,7 @@
         <v>36652</v>
       </c>
       <c r="B127" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="128">
@@ -1470,7 +1470,7 @@
         <v>36654</v>
       </c>
       <c r="B129" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="130">
@@ -1486,7 +1486,7 @@
         <v>36656</v>
       </c>
       <c r="B131" t="n">
-        <v>6.499999999999998</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="132">
@@ -1494,7 +1494,7 @@
         <v>36657</v>
       </c>
       <c r="B132" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="133">
@@ -1526,7 +1526,7 @@
         <v>36661</v>
       </c>
       <c r="B136" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="137">
@@ -1566,7 +1566,7 @@
         <v>36666</v>
       </c>
       <c r="B141" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="142">
@@ -1614,7 +1614,7 @@
         <v>36672</v>
       </c>
       <c r="B147" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="148">
@@ -1670,7 +1670,7 @@
         <v>36679</v>
       </c>
       <c r="B154" t="n">
-        <v>6.499999999999997</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="155">
@@ -1694,7 +1694,7 @@
         <v>36682</v>
       </c>
       <c r="B157" t="n">
-        <v>5.910199051761574</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="158">
@@ -1702,7 +1702,7 @@
         <v>36683</v>
       </c>
       <c r="B158" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="159">
@@ -1718,7 +1718,7 @@
         <v>36685</v>
       </c>
       <c r="B160" t="n">
-        <v>5.951949199098629</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="161">
@@ -1726,7 +1726,7 @@
         <v>36686</v>
       </c>
       <c r="B161" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="162">
@@ -1734,7 +1734,7 @@
         <v>36687</v>
       </c>
       <c r="B162" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="163">
@@ -1750,7 +1750,7 @@
         <v>36689</v>
       </c>
       <c r="B164" t="n">
-        <v>2.161084540168082</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="165">
@@ -1758,7 +1758,7 @@
         <v>36690</v>
       </c>
       <c r="B165" t="n">
-        <v>2.552179007384258</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="166">
@@ -1766,7 +1766,7 @@
         <v>36691</v>
       </c>
       <c r="B166" t="n">
-        <v>6.499999999999999</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="167">
@@ -1790,7 +1790,7 @@
         <v>36694</v>
       </c>
       <c r="B169" t="n">
-        <v>6.181709442732689</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="170">
@@ -1798,7 +1798,7 @@
         <v>36695</v>
       </c>
       <c r="B170" t="n">
-        <v>2.813322979402961</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="171">
@@ -1822,7 +1822,7 @@
         <v>36698</v>
       </c>
       <c r="B173" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="174">
@@ -1830,7 +1830,7 @@
         <v>36699</v>
       </c>
       <c r="B174" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="175">
@@ -1838,7 +1838,7 @@
         <v>36700</v>
       </c>
       <c r="B175" t="n">
-        <v>1.675084540168082</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="176">
@@ -1846,7 +1846,7 @@
         <v>36701</v>
       </c>
       <c r="B176" t="n">
-        <v>2.556748441191167</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="177">
@@ -1878,7 +1878,7 @@
         <v>36705</v>
       </c>
       <c r="B180" t="n">
-        <v>6.484820466704332</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="181">
@@ -1886,7 +1886,7 @@
         <v>36706</v>
       </c>
       <c r="B181" t="n">
-        <v>3.639723738357389</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="182">
@@ -1894,7 +1894,7 @@
         <v>36707</v>
       </c>
       <c r="B182" t="n">
-        <v>0.1980580145890633</v>
+        <v>1.960661683400206</v>
       </c>
     </row>
     <row r="183">
@@ -1902,7 +1902,7 @@
         <v>36708</v>
       </c>
       <c r="B183" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="184">
@@ -1918,7 +1918,7 @@
         <v>36710</v>
       </c>
       <c r="B185" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="186">
@@ -1974,7 +1974,7 @@
         <v>36717</v>
       </c>
       <c r="B192" t="n">
-        <v>1.085600489032491</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="193">
@@ -1990,7 +1990,7 @@
         <v>36719</v>
       </c>
       <c r="B194" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="195">
@@ -2006,7 +2006,7 @@
         <v>36721</v>
       </c>
       <c r="B196" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="197">
@@ -2014,7 +2014,7 @@
         <v>36722</v>
       </c>
       <c r="B197" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="198">
@@ -2054,7 +2054,7 @@
         <v>36727</v>
       </c>
       <c r="B202" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="203">
@@ -2086,7 +2086,7 @@
         <v>36731</v>
       </c>
       <c r="B206" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="207">
@@ -2102,7 +2102,7 @@
         <v>36733</v>
       </c>
       <c r="B208" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="209">
@@ -2134,7 +2134,7 @@
         <v>36737</v>
       </c>
       <c r="B212" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="213">
@@ -2158,7 +2158,7 @@
         <v>36740</v>
       </c>
       <c r="B215" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="216">
@@ -2166,7 +2166,7 @@
         <v>36741</v>
       </c>
       <c r="B216" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="217">
@@ -2182,7 +2182,7 @@
         <v>36743</v>
       </c>
       <c r="B218" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="219">
@@ -2214,7 +2214,7 @@
         <v>36747</v>
       </c>
       <c r="B222" t="n">
-        <v>5.563294387660081</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="223">
@@ -2222,7 +2222,7 @@
         <v>36748</v>
       </c>
       <c r="B223" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="224">
@@ -2238,7 +2238,7 @@
         <v>36750</v>
       </c>
       <c r="B225" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="226">
@@ -2246,7 +2246,7 @@
         <v>36751</v>
       </c>
       <c r="B226" t="n">
-        <v>4.976698289799462</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="227">
@@ -2254,7 +2254,7 @@
         <v>36752</v>
       </c>
       <c r="B227" t="n">
-        <v>4.830120437256947</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="228">
@@ -2262,7 +2262,7 @@
         <v>36753</v>
       </c>
       <c r="B228" t="n">
-        <v>4.408510935096554</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="229">
@@ -2270,7 +2270,7 @@
         <v>36754</v>
       </c>
       <c r="B229" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="230">
@@ -2278,7 +2278,7 @@
         <v>36755</v>
       </c>
       <c r="B230" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="231">
@@ -2302,7 +2302,7 @@
         <v>36758</v>
       </c>
       <c r="B233" t="n">
-        <v>0.1232850097561245</v>
+        <v>1.890602679198921</v>
       </c>
     </row>
     <row r="234">
@@ -2318,7 +2318,7 @@
         <v>36760</v>
       </c>
       <c r="B235" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="236">
@@ -2326,7 +2326,7 @@
         <v>36761</v>
       </c>
       <c r="B236" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="237">
@@ -2334,7 +2334,7 @@
         <v>36762</v>
       </c>
       <c r="B237" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="238">
@@ -2358,7 +2358,7 @@
         <v>36765</v>
       </c>
       <c r="B240" t="n">
-        <v>5.408541204484123</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="241">
@@ -2366,7 +2366,7 @@
         <v>36766</v>
       </c>
       <c r="B241" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="242">
@@ -2374,7 +2374,7 @@
         <v>36767</v>
       </c>
       <c r="B242" t="n">
-        <v>4.562036250703845</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="243">
@@ -2390,7 +2390,7 @@
         <v>36769</v>
       </c>
       <c r="B244" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="245">
@@ -2414,7 +2414,7 @@
         <v>36772</v>
       </c>
       <c r="B247" t="n">
-        <v>2.617719592027496</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="248">
@@ -2430,7 +2430,7 @@
         <v>36774</v>
       </c>
       <c r="B249" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="250">
@@ -2438,7 +2438,7 @@
         <v>36775</v>
       </c>
       <c r="B250" t="n">
-        <v>2.724626906632113</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="251">
@@ -2470,7 +2470,7 @@
         <v>36779</v>
       </c>
       <c r="B254" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="255">
@@ -2486,7 +2486,7 @@
         <v>36781</v>
       </c>
       <c r="B256" t="n">
-        <v>2.882687548651024</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="257">
@@ -2494,7 +2494,7 @@
         <v>36782</v>
       </c>
       <c r="B257" t="n">
-        <v>3.750026597360309</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="258">
@@ -2510,7 +2510,7 @@
         <v>36784</v>
       </c>
       <c r="B259" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="260">
@@ -2518,7 +2518,7 @@
         <v>36785</v>
       </c>
       <c r="B260" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="261">
@@ -2526,7 +2526,7 @@
         <v>36786</v>
       </c>
       <c r="B261" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="262">
@@ -2534,7 +2534,7 @@
         <v>36787</v>
       </c>
       <c r="B262" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="263">
@@ -2558,7 +2558,7 @@
         <v>36790</v>
       </c>
       <c r="B265" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="266">
@@ -2566,7 +2566,7 @@
         <v>36791</v>
       </c>
       <c r="B266" t="n">
-        <v>4.094683208233877</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="267">
@@ -2582,7 +2582,7 @@
         <v>36793</v>
       </c>
       <c r="B268" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="269">
@@ -2590,7 +2590,7 @@
         <v>36794</v>
       </c>
       <c r="B269" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="270">
@@ -2614,7 +2614,7 @@
         <v>36797</v>
       </c>
       <c r="B272" t="n">
-        <v>2.230754701885467</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="273">
@@ -2622,7 +2622,7 @@
         <v>36798</v>
       </c>
       <c r="B273" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="274">
@@ -2630,7 +2630,7 @@
         <v>36799</v>
       </c>
       <c r="B274" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="275">
@@ -2638,7 +2638,7 @@
         <v>36800</v>
       </c>
       <c r="B275" t="n">
-        <v>5.48692670898187</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="276">
@@ -2646,7 +2646,7 @@
         <v>36801</v>
       </c>
       <c r="B276" t="n">
-        <v>0.6844996766540014</v>
+        <v>5.073683838137972</v>
       </c>
     </row>
     <row r="277">
@@ -2662,7 +2662,7 @@
         <v>36803</v>
       </c>
       <c r="B278" t="n">
-        <v>4.624661574827089</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="279">
@@ -2678,7 +2678,7 @@
         <v>36805</v>
       </c>
       <c r="B280" t="n">
-        <v>6.499999999999997</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="281">
@@ -2750,7 +2750,7 @@
         <v>36814</v>
       </c>
       <c r="B289" t="n">
-        <v>6.499999999999997</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="290">
@@ -2758,7 +2758,7 @@
         <v>36815</v>
       </c>
       <c r="B290" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="291">
@@ -2766,7 +2766,7 @@
         <v>36816</v>
       </c>
       <c r="B291" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="292">
@@ -2774,7 +2774,7 @@
         <v>36817</v>
       </c>
       <c r="B292" t="n">
-        <v>3.720270564180553</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="293">
@@ -2806,7 +2806,7 @@
         <v>36821</v>
       </c>
       <c r="B296" t="n">
-        <v>4.781491256184114</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="297">
@@ -2814,7 +2814,7 @@
         <v>36822</v>
       </c>
       <c r="B297" t="n">
-        <v>3.890777344708895</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="298">
@@ -2822,7 +2822,7 @@
         <v>36823</v>
       </c>
       <c r="B298" t="n">
-        <v>0.3905295135920384</v>
+        <v>3.026662865988056</v>
       </c>
     </row>
     <row r="299">
@@ -2838,7 +2838,7 @@
         <v>36825</v>
       </c>
       <c r="B300" t="n">
-        <v>0.1152856732773341</v>
+        <v>0.6477537467150243</v>
       </c>
     </row>
     <row r="301">
@@ -2846,7 +2846,7 @@
         <v>36826</v>
       </c>
       <c r="B301" t="n">
-        <v>3.781466779390591</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="302">
@@ -2854,7 +2854,7 @@
         <v>36827</v>
       </c>
       <c r="B302" t="n">
-        <v>3.987975997351776</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="303">
@@ -2878,7 +2878,7 @@
         <v>36830</v>
       </c>
       <c r="B305" t="n">
-        <v>3.00023061163535</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="306">
@@ -2902,7 +2902,7 @@
         <v>36833</v>
       </c>
       <c r="B308" t="n">
-        <v>4.930541655522323</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="309">
@@ -2910,7 +2910,7 @@
         <v>36834</v>
       </c>
       <c r="B309" t="n">
-        <v>4.829458304315041</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="310">
@@ -2918,7 +2918,7 @@
         <v>36835</v>
       </c>
       <c r="B310" t="n">
-        <v>6.473722668443644</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="311">
@@ -2926,7 +2926,7 @@
         <v>36836</v>
       </c>
       <c r="B311" t="n">
-        <v>4.109537616051316</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="312">
@@ -2934,7 +2934,7 @@
         <v>36837</v>
       </c>
       <c r="B312" t="n">
-        <v>0.1935457240585318</v>
+        <v>1.407960657484884</v>
       </c>
     </row>
     <row r="313">
@@ -2950,7 +2950,7 @@
         <v>36839</v>
       </c>
       <c r="B314" t="n">
-        <v>3.150168325100286</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="315">
@@ -2958,7 +2958,7 @@
         <v>36840</v>
       </c>
       <c r="B315" t="n">
-        <v>0.02296338590854233</v>
+        <v>0.3319019890675889</v>
       </c>
     </row>
     <row r="316">
@@ -2966,7 +2966,7 @@
         <v>36841</v>
       </c>
       <c r="B316" t="n">
-        <v>1.231585024249513</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="317">
@@ -2982,7 +2982,7 @@
         <v>36843</v>
       </c>
       <c r="B318" t="n">
-        <v>2.74259459609352</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="319">
@@ -2990,7 +2990,7 @@
         <v>36844</v>
       </c>
       <c r="B319" t="n">
-        <v>5.717172726039086</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="320">
@@ -2998,7 +2998,7 @@
         <v>36845</v>
       </c>
       <c r="B320" t="n">
-        <v>4.557653946089296</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="321">
@@ -3014,7 +3014,7 @@
         <v>36847</v>
       </c>
       <c r="B322" t="n">
-        <v>4.641885678864514</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="323">
@@ -3022,7 +3022,7 @@
         <v>36848</v>
       </c>
       <c r="B323" t="n">
-        <v>4.623542858366296</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="324">
@@ -3030,7 +3030,7 @@
         <v>36849</v>
       </c>
       <c r="B324" t="n">
-        <v>0.9045241003871236</v>
+        <v>5.858307506162177</v>
       </c>
     </row>
     <row r="325">
@@ -3046,7 +3046,7 @@
         <v>36851</v>
       </c>
       <c r="B326" t="n">
-        <v>0.5612092702770545</v>
+        <v>3.461257251168541</v>
       </c>
     </row>
     <row r="327">
@@ -3054,7 +3054,7 @@
         <v>36852</v>
       </c>
       <c r="B327" t="n">
-        <v>3.707079793836671</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="328">
@@ -3062,7 +3062,7 @@
         <v>36853</v>
       </c>
       <c r="B328" t="n">
-        <v>4.402248636681061</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="329">
@@ -3094,7 +3094,7 @@
         <v>36857</v>
       </c>
       <c r="B332" t="n">
-        <v>0.2408759839757466</v>
+        <v>1.345536494158502</v>
       </c>
     </row>
     <row r="333">
@@ -3118,7 +3118,7 @@
         <v>36860</v>
       </c>
       <c r="B335" t="n">
-        <v>0.562679266604711</v>
+        <v>3.806423631005419</v>
       </c>
     </row>
     <row r="336">
@@ -3126,7 +3126,7 @@
         <v>36861</v>
       </c>
       <c r="B336" t="n">
-        <v>0.5186632075671253</v>
+        <v>3.376627636684773</v>
       </c>
     </row>
     <row r="337">
@@ -3142,7 +3142,7 @@
         <v>36863</v>
       </c>
       <c r="B338" t="n">
-        <v>0.4414928712939434</v>
+        <v>3.474285308570832</v>
       </c>
     </row>
     <row r="339">
@@ -3150,7 +3150,7 @@
         <v>36864</v>
       </c>
       <c r="B339" t="n">
-        <v>2.152401760756345</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="340">
@@ -3158,7 +3158,7 @@
         <v>36865</v>
       </c>
       <c r="B340" t="n">
-        <v>0.1894673825025871</v>
+        <v>1.679956871805953</v>
       </c>
     </row>
     <row r="341">
@@ -3174,7 +3174,7 @@
         <v>36867</v>
       </c>
       <c r="B342" t="n">
-        <v>0</v>
+        <v>0.04394953661963701</v>
       </c>
     </row>
     <row r="343">
@@ -3182,7 +3182,7 @@
         <v>36868</v>
       </c>
       <c r="B343" t="n">
-        <v>0</v>
+        <v>0.009254594323580639</v>
       </c>
     </row>
     <row r="344">
@@ -3190,7 +3190,7 @@
         <v>36869</v>
       </c>
       <c r="B344" t="n">
-        <v>0</v>
+        <v>0.901877600040495</v>
       </c>
     </row>
     <row r="345">
@@ -3198,7 +3198,7 @@
         <v>36870</v>
       </c>
       <c r="B345" t="n">
-        <v>3.096727410907626</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="346">
@@ -3206,7 +3206,7 @@
         <v>36871</v>
       </c>
       <c r="B346" t="n">
-        <v>2.680575245408471</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="347">
@@ -3214,7 +3214,7 @@
         <v>36872</v>
       </c>
       <c r="B347" t="n">
-        <v>0.3153147057440679</v>
+        <v>2.163279334125819</v>
       </c>
     </row>
     <row r="348">
@@ -3222,7 +3222,7 @@
         <v>36873</v>
       </c>
       <c r="B348" t="n">
-        <v>1.928403851722112</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="349">
@@ -3230,7 +3230,7 @@
         <v>36874</v>
       </c>
       <c r="B349" t="n">
-        <v>0.03592429281611044</v>
+        <v>0.5792100530339955</v>
       </c>
     </row>
     <row r="350">
@@ -3238,7 +3238,7 @@
         <v>36875</v>
       </c>
       <c r="B350" t="n">
-        <v>0</v>
+        <v>0.9887473792973076</v>
       </c>
     </row>
     <row r="351">
@@ -3246,7 +3246,7 @@
         <v>36876</v>
       </c>
       <c r="B351" t="n">
-        <v>0.1606947225355558</v>
+        <v>1.709659331524162</v>
       </c>
     </row>
     <row r="352">
@@ -3254,7 +3254,7 @@
         <v>36877</v>
       </c>
       <c r="B352" t="n">
-        <v>0.450880377995852</v>
+        <v>2.731998394250652</v>
       </c>
     </row>
     <row r="353">
@@ -3262,7 +3262,7 @@
         <v>36878</v>
       </c>
       <c r="B353" t="n">
-        <v>2.86745086343957</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="354">
@@ -3294,7 +3294,7 @@
         <v>36882</v>
       </c>
       <c r="B357" t="n">
-        <v>0.2349863924702057</v>
+        <v>2.348734743380373</v>
       </c>
     </row>
     <row r="358">
@@ -3310,7 +3310,7 @@
         <v>36884</v>
       </c>
       <c r="B359" t="n">
-        <v>1.482432143690734</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="360">
@@ -3318,7 +3318,7 @@
         <v>36885</v>
       </c>
       <c r="B360" t="n">
-        <v>1.754996312875319</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="361">
@@ -3326,7 +3326,7 @@
         <v>36886</v>
       </c>
       <c r="B361" t="n">
-        <v>2.902617763707542</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="362">
@@ -3334,7 +3334,7 @@
         <v>36887</v>
       </c>
       <c r="B362" t="n">
-        <v>1.117834436890867</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="363">
@@ -3342,7 +3342,7 @@
         <v>36888</v>
       </c>
       <c r="B363" t="n">
-        <v>3.180780615500789</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="364">
@@ -3358,7 +3358,7 @@
         <v>36890</v>
       </c>
       <c r="B365" t="n">
-        <v>0.002638625277041312</v>
+        <v>0.4279457759219173</v>
       </c>
     </row>
     <row r="366">

--- a/results/end_of_day_charge_levels.xlsx
+++ b/results/end_of_day_charge_levels.xlsx
@@ -454,7 +454,7 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6466920752666873</v>
+        <v>1.753615645817214</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>36527</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1781285412312651</v>
+        <v>0.5938842625794604</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>36528</v>
       </c>
       <c r="B4" t="n">
-        <v>0.008116694847272454</v>
+        <v>0.08971896248424925</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         <v>36530</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2792480393578958</v>
+        <v>0.6979638715554557</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>36531</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2830623685657601</v>
+        <v>1.467659115967847</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>36532</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01205925836690369</v>
+        <v>0.1529104582623473</v>
       </c>
     </row>
     <row r="9">
@@ -518,7 +518,7 @@
         <v>36534</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02455928155235285</v>
+        <v>0.1315652310223139</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>36535</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1786362727474556</v>
+        <v>0.6509388395566055</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>36536</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4564972328297493</v>
+        <v>1.461255188837675</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>36537</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05037649636977957</v>
+        <v>0.4288573366235478</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>36538</v>
       </c>
       <c r="B14" t="n">
-        <v>1.150087190158708</v>
+        <v>2.884960243775851</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>36539</v>
       </c>
       <c r="B15" t="n">
-        <v>2.720411860160724</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="16">
@@ -574,7 +574,7 @@
         <v>36541</v>
       </c>
       <c r="B17" t="n">
-        <v>1.313477269125471</v>
+        <v>3.180824786953745</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>36542</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6493402530349858</v>
+        <v>1.718840042950984</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>36543</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2787236207603832</v>
+        <v>1.019325843492061</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>36544</v>
       </c>
       <c r="B20" t="n">
-        <v>3.577605081321416</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="21">
@@ -614,7 +614,7 @@
         <v>36546</v>
       </c>
       <c r="B22" t="n">
-        <v>3.335471910808629</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>36547</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7558049085594679</v>
+        <v>2.12549077014323</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>36548</v>
       </c>
       <c r="B24" t="n">
-        <v>2.19372556110515</v>
+        <v>4.981274644458361</v>
       </c>
     </row>
     <row r="25">
@@ -654,7 +654,7 @@
         <v>36551</v>
       </c>
       <c r="B27" t="n">
-        <v>2.125905748582776</v>
+        <v>5.58545707656323</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>36552</v>
       </c>
       <c r="B28" t="n">
-        <v>2.317350895597211</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>36553</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.3622973446055163</v>
       </c>
     </row>
     <row r="30">
@@ -686,7 +686,7 @@
         <v>36555</v>
       </c>
       <c r="B31" t="n">
-        <v>5.489123092035356</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="32">
@@ -702,7 +702,7 @@
         <v>36557</v>
       </c>
       <c r="B33" t="n">
-        <v>0.3537752225452746</v>
+        <v>1.011324717773969</v>
       </c>
     </row>
     <row r="34">
@@ -726,7 +726,7 @@
         <v>36560</v>
       </c>
       <c r="B36" t="n">
-        <v>0.3403636535150025</v>
+        <v>2.118445757397316</v>
       </c>
     </row>
     <row r="37">
@@ -742,7 +742,7 @@
         <v>36562</v>
       </c>
       <c r="B38" t="n">
-        <v>0.09767786462378213</v>
+        <v>0.3824128319014202</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>36563</v>
       </c>
       <c r="B39" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="40">
@@ -758,7 +758,7 @@
         <v>36564</v>
       </c>
       <c r="B40" t="n">
-        <v>5.050701178157575</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>36565</v>
       </c>
       <c r="B41" t="n">
-        <v>4.826368538307462</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>36566</v>
       </c>
       <c r="B42" t="n">
-        <v>1.535091466708628</v>
+        <v>4.277220215788186</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>36567</v>
       </c>
       <c r="B43" t="n">
-        <v>1.247292322954824</v>
+        <v>3.988655836925938</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>36568</v>
       </c>
       <c r="B44" t="n">
-        <v>3.137080194166382</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>36569</v>
       </c>
       <c r="B45" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +806,7 @@
         <v>36570</v>
       </c>
       <c r="B46" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +814,7 @@
         <v>36571</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1255725322071804</v>
+        <v>0.3941193393099126</v>
       </c>
     </row>
     <row r="48">
@@ -838,7 +838,7 @@
         <v>36574</v>
       </c>
       <c r="B50" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="51">
@@ -846,7 +846,7 @@
         <v>36575</v>
       </c>
       <c r="B51" t="n">
-        <v>2.690920019497323</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="52">
@@ -854,7 +854,7 @@
         <v>36576</v>
       </c>
       <c r="B52" t="n">
-        <v>5.515420568095825</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="53">
@@ -870,7 +870,7 @@
         <v>36578</v>
       </c>
       <c r="B54" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="55">
@@ -902,7 +902,7 @@
         <v>36582</v>
       </c>
       <c r="B58" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="59">
@@ -910,7 +910,7 @@
         <v>36583</v>
       </c>
       <c r="B59" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="60">
@@ -950,7 +950,7 @@
         <v>36589</v>
       </c>
       <c r="B64" t="n">
-        <v>5.153751091674189</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="65">
@@ -958,7 +958,7 @@
         <v>36590</v>
       </c>
       <c r="B65" t="n">
-        <v>5.926472717710796</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="66">
@@ -966,7 +966,7 @@
         <v>36591</v>
       </c>
       <c r="B66" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="67">
@@ -974,7 +974,7 @@
         <v>36592</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5156285200648882</v>
+        <v>1.480953089049003</v>
       </c>
     </row>
     <row r="68">
@@ -982,7 +982,7 @@
         <v>36593</v>
       </c>
       <c r="B68" t="n">
-        <v>1.624944629042829</v>
+        <v>4.416397235855274</v>
       </c>
     </row>
     <row r="69">
@@ -990,7 +990,7 @@
         <v>36594</v>
       </c>
       <c r="B69" t="n">
-        <v>4.03421817397156</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="70">
@@ -998,7 +998,7 @@
         <v>36595</v>
       </c>
       <c r="B70" t="n">
-        <v>1.837428685256278</v>
+        <v>4.878304752335495</v>
       </c>
     </row>
     <row r="71">
@@ -1006,7 +1006,7 @@
         <v>36596</v>
       </c>
       <c r="B71" t="n">
-        <v>3.437573465975591</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="72">
@@ -1014,7 +1014,7 @@
         <v>36597</v>
       </c>
       <c r="B72" t="n">
-        <v>5.499340825386052</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="73">
@@ -1038,7 +1038,7 @@
         <v>36600</v>
       </c>
       <c r="B75" t="n">
-        <v>2.840218418339626</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="76">
@@ -1046,7 +1046,7 @@
         <v>36601</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>0.004237689235349201</v>
       </c>
     </row>
     <row r="77">
@@ -1062,7 +1062,7 @@
         <v>36603</v>
       </c>
       <c r="B78" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="79">
@@ -1086,7 +1086,7 @@
         <v>36606</v>
       </c>
       <c r="B81" t="n">
-        <v>5.252474683472312</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="82">
@@ -1094,7 +1094,7 @@
         <v>36607</v>
       </c>
       <c r="B82" t="n">
-        <v>4.357385275081653</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="83">
@@ -1102,7 +1102,7 @@
         <v>36608</v>
       </c>
       <c r="B83" t="n">
-        <v>2.478425057904969</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="84">
@@ -1110,7 +1110,7 @@
         <v>36609</v>
       </c>
       <c r="B84" t="n">
-        <v>5.827838763801224</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="85">
@@ -1134,7 +1134,7 @@
         <v>36612</v>
       </c>
       <c r="B87" t="n">
-        <v>3.065234955861487</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="88">
@@ -1182,7 +1182,7 @@
         <v>36618</v>
       </c>
       <c r="B93" t="n">
-        <v>4.134562471626321</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="94">
@@ -1190,7 +1190,7 @@
         <v>36619</v>
       </c>
       <c r="B94" t="n">
-        <v>4.932602540833704</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="95">
@@ -1198,7 +1198,7 @@
         <v>36620</v>
       </c>
       <c r="B95" t="n">
-        <v>2.717070706888844</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="96">
@@ -1206,7 +1206,7 @@
         <v>36621</v>
       </c>
       <c r="B96" t="n">
-        <v>5.554282823042275</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="97">
@@ -1238,7 +1238,7 @@
         <v>36625</v>
       </c>
       <c r="B100" t="n">
-        <v>4.443183656811081</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="101">
@@ -1246,7 +1246,7 @@
         <v>36626</v>
       </c>
       <c r="B101" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="102">
@@ -1254,7 +1254,7 @@
         <v>36627</v>
       </c>
       <c r="B102" t="n">
-        <v>1.748395096959228</v>
+        <v>4.723855562247625</v>
       </c>
     </row>
     <row r="103">
@@ -1262,7 +1262,7 @@
         <v>36628</v>
       </c>
       <c r="B103" t="n">
-        <v>3.595087166888811</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="104">
@@ -1270,7 +1270,7 @@
         <v>36629</v>
       </c>
       <c r="B104" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="105">
@@ -1278,7 +1278,7 @@
         <v>36630</v>
       </c>
       <c r="B105" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="106">
@@ -1286,7 +1286,7 @@
         <v>36631</v>
       </c>
       <c r="B106" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="107">
@@ -1326,7 +1326,7 @@
         <v>36636</v>
       </c>
       <c r="B111" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="112">
@@ -1358,7 +1358,7 @@
         <v>36640</v>
       </c>
       <c r="B115" t="n">
-        <v>6.314639374706645</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="116">
@@ -1366,7 +1366,7 @@
         <v>36641</v>
       </c>
       <c r="B116" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="117">
@@ -1382,7 +1382,7 @@
         <v>36643</v>
       </c>
       <c r="B118" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="119">
@@ -1390,7 +1390,7 @@
         <v>36644</v>
       </c>
       <c r="B119" t="n">
-        <v>5.247713470174966</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="120">
@@ -1406,7 +1406,7 @@
         <v>36646</v>
       </c>
       <c r="B121" t="n">
-        <v>4.496967566312717</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="122">
@@ -1414,7 +1414,7 @@
         <v>36647</v>
       </c>
       <c r="B122" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="123">
@@ -1454,7 +1454,7 @@
         <v>36652</v>
       </c>
       <c r="B127" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="128">
@@ -1486,7 +1486,7 @@
         <v>36656</v>
       </c>
       <c r="B131" t="n">
-        <v>6.499999999999998</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="132">
@@ -1494,7 +1494,7 @@
         <v>36657</v>
       </c>
       <c r="B132" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="133">
@@ -1526,7 +1526,7 @@
         <v>36661</v>
       </c>
       <c r="B136" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="137">
@@ -1614,7 +1614,7 @@
         <v>36672</v>
       </c>
       <c r="B147" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="148">
@@ -1622,7 +1622,7 @@
         <v>36673</v>
       </c>
       <c r="B148" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="149">
@@ -1630,7 +1630,7 @@
         <v>36674</v>
       </c>
       <c r="B149" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="150">
@@ -1654,7 +1654,7 @@
         <v>36677</v>
       </c>
       <c r="B152" t="n">
-        <v>6.5</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="153">
@@ -1670,7 +1670,7 @@
         <v>36679</v>
       </c>
       <c r="B154" t="n">
-        <v>6.499999999999997</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="155">
@@ -1678,7 +1678,7 @@
         <v>36680</v>
       </c>
       <c r="B155" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="156">
@@ -1694,7 +1694,7 @@
         <v>36682</v>
       </c>
       <c r="B157" t="n">
-        <v>5.910199051761574</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="158">
@@ -1718,7 +1718,7 @@
         <v>36685</v>
       </c>
       <c r="B160" t="n">
-        <v>5.951949199098629</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="161">
@@ -1726,7 +1726,7 @@
         <v>36686</v>
       </c>
       <c r="B161" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="162">
@@ -1750,7 +1750,7 @@
         <v>36689</v>
       </c>
       <c r="B164" t="n">
-        <v>2.161084540168082</v>
+        <v>4.690109976028162</v>
       </c>
     </row>
     <row r="165">
@@ -1758,7 +1758,7 @@
         <v>36690</v>
       </c>
       <c r="B165" t="n">
-        <v>2.552179007384258</v>
+        <v>6.296566017072969</v>
       </c>
     </row>
     <row r="166">
@@ -1766,7 +1766,7 @@
         <v>36691</v>
       </c>
       <c r="B166" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="167">
@@ -1790,7 +1790,7 @@
         <v>36694</v>
       </c>
       <c r="B169" t="n">
-        <v>6.181709442732689</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="170">
@@ -1798,7 +1798,7 @@
         <v>36695</v>
       </c>
       <c r="B170" t="n">
-        <v>2.813322979402961</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="171">
@@ -1830,7 +1830,7 @@
         <v>36699</v>
       </c>
       <c r="B174" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="175">
@@ -1838,7 +1838,7 @@
         <v>36700</v>
       </c>
       <c r="B175" t="n">
-        <v>1.675084540168082</v>
+        <v>4.268082920385014</v>
       </c>
     </row>
     <row r="176">
@@ -1846,7 +1846,7 @@
         <v>36701</v>
       </c>
       <c r="B176" t="n">
-        <v>2.556748441191167</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="177">
@@ -1862,7 +1862,7 @@
         <v>36703</v>
       </c>
       <c r="B178" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="179">
@@ -1878,7 +1878,7 @@
         <v>36705</v>
       </c>
       <c r="B180" t="n">
-        <v>6.484820466704332</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="181">
@@ -1886,7 +1886,7 @@
         <v>36706</v>
       </c>
       <c r="B181" t="n">
-        <v>3.639723738357389</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="182">
@@ -1894,7 +1894,7 @@
         <v>36707</v>
       </c>
       <c r="B182" t="n">
-        <v>0.1980580145890633</v>
+        <v>0.786748665424398</v>
       </c>
     </row>
     <row r="183">
@@ -1902,7 +1902,7 @@
         <v>36708</v>
       </c>
       <c r="B183" t="n">
-        <v>6.499999999999999</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="184">
@@ -1926,7 +1926,7 @@
         <v>36711</v>
       </c>
       <c r="B186" t="n">
-        <v>6.5</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="187">
@@ -1950,7 +1950,7 @@
         <v>36714</v>
       </c>
       <c r="B189" t="n">
-        <v>6.5</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="190">
@@ -1974,7 +1974,7 @@
         <v>36717</v>
       </c>
       <c r="B192" t="n">
-        <v>1.085600489032491</v>
+        <v>3.100007243920883</v>
       </c>
     </row>
     <row r="193">
@@ -2006,7 +2006,7 @@
         <v>36721</v>
       </c>
       <c r="B196" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="197">
@@ -2014,7 +2014,7 @@
         <v>36722</v>
       </c>
       <c r="B197" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="198">
@@ -2038,7 +2038,7 @@
         <v>36725</v>
       </c>
       <c r="B200" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="201">
@@ -2054,7 +2054,7 @@
         <v>36727</v>
       </c>
       <c r="B202" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="203">
@@ -2086,7 +2086,7 @@
         <v>36731</v>
       </c>
       <c r="B206" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="207">
@@ -2102,7 +2102,7 @@
         <v>36733</v>
       </c>
       <c r="B208" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="209">
@@ -2134,7 +2134,7 @@
         <v>36737</v>
       </c>
       <c r="B212" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="213">
@@ -2166,7 +2166,7 @@
         <v>36741</v>
       </c>
       <c r="B216" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="217">
@@ -2190,7 +2190,7 @@
         <v>36744</v>
       </c>
       <c r="B219" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="220">
@@ -2214,7 +2214,7 @@
         <v>36747</v>
       </c>
       <c r="B222" t="n">
-        <v>5.563294387660081</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="223">
@@ -2222,7 +2222,7 @@
         <v>36748</v>
       </c>
       <c r="B223" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="224">
@@ -2230,7 +2230,7 @@
         <v>36749</v>
       </c>
       <c r="B224" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="225">
@@ -2238,7 +2238,7 @@
         <v>36750</v>
       </c>
       <c r="B225" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="226">
@@ -2246,7 +2246,7 @@
         <v>36751</v>
       </c>
       <c r="B226" t="n">
-        <v>4.976698289799462</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="227">
@@ -2254,7 +2254,7 @@
         <v>36752</v>
       </c>
       <c r="B227" t="n">
-        <v>4.830120437256947</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="228">
@@ -2262,7 +2262,7 @@
         <v>36753</v>
       </c>
       <c r="B228" t="n">
-        <v>4.408510935096554</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="229">
@@ -2278,7 +2278,7 @@
         <v>36755</v>
       </c>
       <c r="B230" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="231">
@@ -2302,7 +2302,7 @@
         <v>36758</v>
       </c>
       <c r="B233" t="n">
-        <v>0.1232850097561245</v>
+        <v>0.7058389229682076</v>
       </c>
     </row>
     <row r="234">
@@ -2326,7 +2326,7 @@
         <v>36761</v>
       </c>
       <c r="B236" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="237">
@@ -2334,7 +2334,7 @@
         <v>36762</v>
       </c>
       <c r="B237" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="238">
@@ -2358,7 +2358,7 @@
         <v>36765</v>
       </c>
       <c r="B240" t="n">
-        <v>5.408541204484123</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="241">
@@ -2366,7 +2366,7 @@
         <v>36766</v>
       </c>
       <c r="B241" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="242">
@@ -2374,7 +2374,7 @@
         <v>36767</v>
       </c>
       <c r="B242" t="n">
-        <v>4.562036250703845</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="243">
@@ -2390,7 +2390,7 @@
         <v>36769</v>
       </c>
       <c r="B244" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="245">
@@ -2414,7 +2414,7 @@
         <v>36772</v>
       </c>
       <c r="B247" t="n">
-        <v>2.617719592027496</v>
+        <v>6.229902054677925</v>
       </c>
     </row>
     <row r="248">
@@ -2422,7 +2422,7 @@
         <v>36773</v>
       </c>
       <c r="B248" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="249">
@@ -2430,7 +2430,7 @@
         <v>36774</v>
       </c>
       <c r="B249" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="250">
@@ -2438,7 +2438,7 @@
         <v>36775</v>
       </c>
       <c r="B250" t="n">
-        <v>2.724626906632113</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="251">
@@ -2478,7 +2478,7 @@
         <v>36780</v>
       </c>
       <c r="B255" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="256">
@@ -2486,7 +2486,7 @@
         <v>36781</v>
       </c>
       <c r="B256" t="n">
-        <v>2.882687548651024</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="257">
@@ -2494,7 +2494,7 @@
         <v>36782</v>
       </c>
       <c r="B257" t="n">
-        <v>3.750026597360309</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="258">
@@ -2510,7 +2510,7 @@
         <v>36784</v>
       </c>
       <c r="B259" t="n">
-        <v>6.499999999999998</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="260">
@@ -2518,7 +2518,7 @@
         <v>36785</v>
       </c>
       <c r="B260" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="261">
@@ -2526,7 +2526,7 @@
         <v>36786</v>
       </c>
       <c r="B261" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="262">
@@ -2534,7 +2534,7 @@
         <v>36787</v>
       </c>
       <c r="B262" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="263">
@@ -2542,7 +2542,7 @@
         <v>36788</v>
       </c>
       <c r="B263" t="n">
-        <v>6.5</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="264">
@@ -2558,7 +2558,7 @@
         <v>36790</v>
       </c>
       <c r="B265" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="266">
@@ -2566,7 +2566,7 @@
         <v>36791</v>
       </c>
       <c r="B266" t="n">
-        <v>4.094683208233877</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="267">
@@ -2582,7 +2582,7 @@
         <v>36793</v>
       </c>
       <c r="B268" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="269">
@@ -2590,7 +2590,7 @@
         <v>36794</v>
       </c>
       <c r="B269" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="270">
@@ -2614,7 +2614,7 @@
         <v>36797</v>
       </c>
       <c r="B272" t="n">
-        <v>2.230754701885467</v>
+        <v>5.185847319396135</v>
       </c>
     </row>
     <row r="273">
@@ -2622,7 +2622,7 @@
         <v>36798</v>
       </c>
       <c r="B273" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="274">
@@ -2630,7 +2630,7 @@
         <v>36799</v>
       </c>
       <c r="B274" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="275">
@@ -2638,7 +2638,7 @@
         <v>36800</v>
       </c>
       <c r="B275" t="n">
-        <v>5.48692670898187</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="276">
@@ -2646,7 +2646,7 @@
         <v>36801</v>
       </c>
       <c r="B276" t="n">
-        <v>0.6844996766540014</v>
+        <v>2.135796674888989</v>
       </c>
     </row>
     <row r="277">
@@ -2654,7 +2654,7 @@
         <v>36802</v>
       </c>
       <c r="B277" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="278">
@@ -2662,7 +2662,7 @@
         <v>36803</v>
       </c>
       <c r="B278" t="n">
-        <v>4.624661574827089</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="279">
@@ -2678,7 +2678,7 @@
         <v>36805</v>
       </c>
       <c r="B280" t="n">
-        <v>6.499999999999997</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="281">
@@ -2702,7 +2702,7 @@
         <v>36808</v>
       </c>
       <c r="B283" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="284">
@@ -2750,7 +2750,7 @@
         <v>36814</v>
       </c>
       <c r="B289" t="n">
-        <v>6.499999999999997</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="290">
@@ -2766,7 +2766,7 @@
         <v>36816</v>
       </c>
       <c r="B291" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="292">
@@ -2774,7 +2774,7 @@
         <v>36817</v>
       </c>
       <c r="B292" t="n">
-        <v>3.720270564180553</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="293">
@@ -2806,7 +2806,7 @@
         <v>36821</v>
       </c>
       <c r="B296" t="n">
-        <v>4.781491256184114</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="297">
@@ -2814,7 +2814,7 @@
         <v>36822</v>
       </c>
       <c r="B297" t="n">
-        <v>3.890777344708895</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="298">
@@ -2822,7 +2822,7 @@
         <v>36823</v>
       </c>
       <c r="B298" t="n">
-        <v>0.3905295135920384</v>
+        <v>1.080043133289045</v>
       </c>
     </row>
     <row r="299">
@@ -2838,7 +2838,7 @@
         <v>36825</v>
       </c>
       <c r="B300" t="n">
-        <v>0.1152856732773341</v>
+        <v>0.2954278117046721</v>
       </c>
     </row>
     <row r="301">
@@ -2846,7 +2846,7 @@
         <v>36826</v>
       </c>
       <c r="B301" t="n">
-        <v>3.781466779390591</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="302">
@@ -2854,7 +2854,7 @@
         <v>36827</v>
       </c>
       <c r="B302" t="n">
-        <v>3.987975997351776</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="303">
@@ -2878,7 +2878,7 @@
         <v>36830</v>
       </c>
       <c r="B305" t="n">
-        <v>3.00023061163535</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="306">
@@ -2894,7 +2894,7 @@
         <v>36832</v>
       </c>
       <c r="B307" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="308">
@@ -2902,7 +2902,7 @@
         <v>36833</v>
       </c>
       <c r="B308" t="n">
-        <v>4.930541655522323</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="309">
@@ -2910,7 +2910,7 @@
         <v>36834</v>
       </c>
       <c r="B309" t="n">
-        <v>4.829458304315041</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="310">
@@ -2918,7 +2918,7 @@
         <v>36835</v>
       </c>
       <c r="B310" t="n">
-        <v>6.473722668443644</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="311">
@@ -2926,7 +2926,7 @@
         <v>36836</v>
       </c>
       <c r="B311" t="n">
-        <v>4.109537616051316</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="312">
@@ -2934,7 +2934,7 @@
         <v>36837</v>
       </c>
       <c r="B312" t="n">
-        <v>0.1935457240585318</v>
+        <v>0.5655535481938225</v>
       </c>
     </row>
     <row r="313">
@@ -2950,7 +2950,7 @@
         <v>36839</v>
       </c>
       <c r="B314" t="n">
-        <v>3.150168325100286</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="315">
@@ -2958,7 +2958,7 @@
         <v>36840</v>
       </c>
       <c r="B315" t="n">
-        <v>0.02296338590854233</v>
+        <v>0.12609768435889</v>
       </c>
     </row>
     <row r="316">
@@ -2966,7 +2966,7 @@
         <v>36841</v>
       </c>
       <c r="B316" t="n">
-        <v>1.231585024249513</v>
+        <v>2.894319074518304</v>
       </c>
     </row>
     <row r="317">
@@ -2982,7 +2982,7 @@
         <v>36843</v>
       </c>
       <c r="B318" t="n">
-        <v>2.74259459609352</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="319">
@@ -2990,7 +2990,7 @@
         <v>36844</v>
       </c>
       <c r="B319" t="n">
-        <v>5.717172726039086</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="320">
@@ -2998,7 +2998,7 @@
         <v>36845</v>
       </c>
       <c r="B320" t="n">
-        <v>4.557653946089296</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="321">
@@ -3014,7 +3014,7 @@
         <v>36847</v>
       </c>
       <c r="B322" t="n">
-        <v>4.641885678864514</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="323">
@@ -3022,7 +3022,7 @@
         <v>36848</v>
       </c>
       <c r="B323" t="n">
-        <v>4.623542858366296</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="324">
@@ -3030,7 +3030,7 @@
         <v>36849</v>
       </c>
       <c r="B324" t="n">
-        <v>0.9045241003871236</v>
+        <v>2.517149985184387</v>
       </c>
     </row>
     <row r="325">
@@ -3046,7 +3046,7 @@
         <v>36851</v>
       </c>
       <c r="B326" t="n">
-        <v>0.5612092702770545</v>
+        <v>1.49527531128339</v>
       </c>
     </row>
     <row r="327">
@@ -3054,7 +3054,7 @@
         <v>36852</v>
       </c>
       <c r="B327" t="n">
-        <v>3.707079793836671</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="328">
@@ -3062,7 +3062,7 @@
         <v>36853</v>
       </c>
       <c r="B328" t="n">
-        <v>4.402248636681061</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="329">
@@ -3094,7 +3094,7 @@
         <v>36857</v>
       </c>
       <c r="B332" t="n">
-        <v>0.2408759839757466</v>
+        <v>0.6121750266314212</v>
       </c>
     </row>
     <row r="333">
@@ -3118,7 +3118,7 @@
         <v>36860</v>
       </c>
       <c r="B335" t="n">
-        <v>0.562679266604711</v>
+        <v>1.62493110558813</v>
       </c>
     </row>
     <row r="336">
@@ -3126,7 +3126,7 @@
         <v>36861</v>
       </c>
       <c r="B336" t="n">
-        <v>0.5186632075671253</v>
+        <v>1.414834120556524</v>
       </c>
     </row>
     <row r="337">
@@ -3142,7 +3142,7 @@
         <v>36863</v>
       </c>
       <c r="B338" t="n">
-        <v>0.4414928712939434</v>
+        <v>1.311996301264805</v>
       </c>
     </row>
     <row r="339">
@@ -3150,7 +3150,7 @@
         <v>36864</v>
       </c>
       <c r="B339" t="n">
-        <v>2.152401760756345</v>
+        <v>5.458158412429904</v>
       </c>
     </row>
     <row r="340">
@@ -3158,7 +3158,7 @@
         <v>36865</v>
       </c>
       <c r="B340" t="n">
-        <v>0.1894673825025871</v>
+        <v>0.6775531717677326</v>
       </c>
     </row>
     <row r="341">
@@ -3190,7 +3190,7 @@
         <v>36869</v>
       </c>
       <c r="B344" t="n">
-        <v>0</v>
+        <v>0.2553614255186135</v>
       </c>
     </row>
     <row r="345">
@@ -3198,7 +3198,7 @@
         <v>36870</v>
       </c>
       <c r="B345" t="n">
-        <v>3.096727410907626</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="346">
@@ -3206,7 +3206,7 @@
         <v>36871</v>
       </c>
       <c r="B346" t="n">
-        <v>2.680575245408471</v>
+        <v>6.374257854778179</v>
       </c>
     </row>
     <row r="347">
@@ -3214,7 +3214,7 @@
         <v>36872</v>
       </c>
       <c r="B347" t="n">
-        <v>0.3153147057440679</v>
+        <v>0.8837286509344005</v>
       </c>
     </row>
     <row r="348">
@@ -3222,7 +3222,7 @@
         <v>36873</v>
       </c>
       <c r="B348" t="n">
-        <v>1.928403851722112</v>
+        <v>5.851718010260764</v>
       </c>
     </row>
     <row r="349">
@@ -3230,7 +3230,7 @@
         <v>36874</v>
       </c>
       <c r="B349" t="n">
-        <v>0.03592429281611044</v>
+        <v>0.1890045175280796</v>
       </c>
     </row>
     <row r="350">
@@ -3238,7 +3238,7 @@
         <v>36875</v>
       </c>
       <c r="B350" t="n">
-        <v>0</v>
+        <v>0.1673648520848169</v>
       </c>
     </row>
     <row r="351">
@@ -3246,7 +3246,7 @@
         <v>36876</v>
       </c>
       <c r="B351" t="n">
-        <v>0.1606947225355558</v>
+        <v>0.5701308309052584</v>
       </c>
     </row>
     <row r="352">
@@ -3254,7 +3254,7 @@
         <v>36877</v>
       </c>
       <c r="B352" t="n">
-        <v>0.450880377995852</v>
+        <v>1.119553404280457</v>
       </c>
     </row>
     <row r="353">
@@ -3262,7 +3262,7 @@
         <v>36878</v>
       </c>
       <c r="B353" t="n">
-        <v>2.86745086343957</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="354">
@@ -3294,7 +3294,7 @@
         <v>36882</v>
       </c>
       <c r="B357" t="n">
-        <v>0.2349863924702057</v>
+        <v>0.8823503182300594</v>
       </c>
     </row>
     <row r="358">
@@ -3310,7 +3310,7 @@
         <v>36884</v>
       </c>
       <c r="B359" t="n">
-        <v>1.482432143690734</v>
+        <v>4.207756353309422</v>
       </c>
     </row>
     <row r="360">
@@ -3318,7 +3318,7 @@
         <v>36885</v>
       </c>
       <c r="B360" t="n">
-        <v>1.754996312875319</v>
+        <v>5.176431865414199</v>
       </c>
     </row>
     <row r="361">
@@ -3326,7 +3326,7 @@
         <v>36886</v>
       </c>
       <c r="B361" t="n">
-        <v>2.902617763707542</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="362">
@@ -3334,7 +3334,7 @@
         <v>36887</v>
       </c>
       <c r="B362" t="n">
-        <v>1.117834436890867</v>
+        <v>4.381677948207789</v>
       </c>
     </row>
     <row r="363">
@@ -3342,7 +3342,7 @@
         <v>36888</v>
       </c>
       <c r="B363" t="n">
-        <v>3.180780615500789</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="364">
@@ -3358,7 +3358,7 @@
         <v>36890</v>
       </c>
       <c r="B365" t="n">
-        <v>0.002638625277041312</v>
+        <v>0.1210389118372895</v>
       </c>
     </row>
     <row r="366">

--- a/results/end_of_day_charge_levels.xlsx
+++ b/results/end_of_day_charge_levels.xlsx
@@ -454,7 +454,7 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>1.753615645817214</v>
+        <v>1.75323082413364</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>36527</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5938842625794604</v>
+        <v>0.593878134705203</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>36528</v>
       </c>
       <c r="B4" t="n">
-        <v>0.08971896248424925</v>
+        <v>0.08968573812503104</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         <v>36530</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6979638715554557</v>
+        <v>0.697984212789899</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>36531</v>
       </c>
       <c r="B7" t="n">
-        <v>1.467659115967847</v>
+        <v>1.46766230453241</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>36532</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1529104582623473</v>
+        <v>0.1529174153094237</v>
       </c>
     </row>
     <row r="9">
@@ -518,7 +518,7 @@
         <v>36534</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1315652310223139</v>
+        <v>0.13157929771114</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>36535</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6509388395566055</v>
+        <v>0.6509370398033711</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>36536</v>
       </c>
       <c r="B12" t="n">
-        <v>1.461255188837675</v>
+        <v>1.461328053379982</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>36537</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4288573366235478</v>
+        <v>0.4288601029876928</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>36538</v>
       </c>
       <c r="B14" t="n">
-        <v>2.884960243775851</v>
+        <v>2.885157388118126</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>36539</v>
       </c>
       <c r="B15" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="16">
@@ -574,7 +574,7 @@
         <v>36541</v>
       </c>
       <c r="B17" t="n">
-        <v>3.180824786953745</v>
+        <v>3.180972128531454</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>36542</v>
       </c>
       <c r="B18" t="n">
-        <v>1.718840042950984</v>
+        <v>1.719203426536505</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>36543</v>
       </c>
       <c r="B19" t="n">
-        <v>1.019325843492061</v>
+        <v>1.019312221171229</v>
       </c>
     </row>
     <row r="20">
@@ -622,7 +622,7 @@
         <v>36547</v>
       </c>
       <c r="B23" t="n">
-        <v>2.12549077014323</v>
+        <v>2.125499243304335</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>36548</v>
       </c>
       <c r="B24" t="n">
-        <v>4.981274644458361</v>
+        <v>4.98132897624707</v>
       </c>
     </row>
     <row r="25">
@@ -654,7 +654,7 @@
         <v>36551</v>
       </c>
       <c r="B27" t="n">
-        <v>5.58545707656323</v>
+        <v>5.585462082187729</v>
       </c>
     </row>
     <row r="28">
@@ -670,7 +670,7 @@
         <v>36553</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3622973446055163</v>
+        <v>0.3623348664826305</v>
       </c>
     </row>
     <row r="30">
@@ -686,7 +686,7 @@
         <v>36555</v>
       </c>
       <c r="B31" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="32">
@@ -702,7 +702,7 @@
         <v>36557</v>
       </c>
       <c r="B33" t="n">
-        <v>1.011324717773969</v>
+        <v>1.011616799548485</v>
       </c>
     </row>
     <row r="34">
@@ -726,7 +726,7 @@
         <v>36560</v>
       </c>
       <c r="B36" t="n">
-        <v>2.118445757397316</v>
+        <v>2.117756230182099</v>
       </c>
     </row>
     <row r="37">
@@ -742,7 +742,7 @@
         <v>36562</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3824128319014202</v>
+        <v>0.3824165731505474</v>
       </c>
     </row>
     <row r="39">
@@ -774,7 +774,7 @@
         <v>36566</v>
       </c>
       <c r="B42" t="n">
-        <v>4.277220215788186</v>
+        <v>4.279384958374867</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>36567</v>
       </c>
       <c r="B43" t="n">
-        <v>3.988655836925938</v>
+        <v>3.989456209561919</v>
       </c>
     </row>
     <row r="44">
@@ -806,7 +806,7 @@
         <v>36570</v>
       </c>
       <c r="B46" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +814,7 @@
         <v>36571</v>
       </c>
       <c r="B47" t="n">
-        <v>0.3941193393099126</v>
+        <v>0.3941827851409692</v>
       </c>
     </row>
     <row r="48">
@@ -838,7 +838,7 @@
         <v>36574</v>
       </c>
       <c r="B50" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="51">
@@ -846,7 +846,7 @@
         <v>36575</v>
       </c>
       <c r="B51" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="52">
@@ -854,7 +854,7 @@
         <v>36576</v>
       </c>
       <c r="B52" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="53">
@@ -958,7 +958,7 @@
         <v>36590</v>
       </c>
       <c r="B65" t="n">
-        <v>6.5</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="66">
@@ -974,7 +974,7 @@
         <v>36592</v>
       </c>
       <c r="B67" t="n">
-        <v>1.480953089049003</v>
+        <v>1.480927694737103</v>
       </c>
     </row>
     <row r="68">
@@ -982,7 +982,7 @@
         <v>36593</v>
       </c>
       <c r="B68" t="n">
-        <v>4.416397235855274</v>
+        <v>4.416900120215068</v>
       </c>
     </row>
     <row r="69">
@@ -990,7 +990,7 @@
         <v>36594</v>
       </c>
       <c r="B69" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="70">
@@ -998,7 +998,7 @@
         <v>36595</v>
       </c>
       <c r="B70" t="n">
-        <v>4.878304752335495</v>
+        <v>4.878275420122094</v>
       </c>
     </row>
     <row r="71">
@@ -1006,7 +1006,7 @@
         <v>36596</v>
       </c>
       <c r="B71" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="72">
@@ -1046,7 +1046,7 @@
         <v>36601</v>
       </c>
       <c r="B76" t="n">
-        <v>0.004237689235349201</v>
+        <v>0.004237524799288225</v>
       </c>
     </row>
     <row r="77">
@@ -1086,7 +1086,7 @@
         <v>36606</v>
       </c>
       <c r="B81" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="82">
@@ -1094,7 +1094,7 @@
         <v>36607</v>
       </c>
       <c r="B82" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="83">
@@ -1102,7 +1102,7 @@
         <v>36608</v>
       </c>
       <c r="B83" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="84">
@@ -1150,7 +1150,7 @@
         <v>36614</v>
       </c>
       <c r="B89" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="90">
@@ -1158,7 +1158,7 @@
         <v>36615</v>
       </c>
       <c r="B90" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="91">
@@ -1198,7 +1198,7 @@
         <v>36620</v>
       </c>
       <c r="B95" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="96">
@@ -1222,7 +1222,7 @@
         <v>36623</v>
       </c>
       <c r="B98" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="99">
@@ -1246,7 +1246,7 @@
         <v>36626</v>
       </c>
       <c r="B101" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="102">
@@ -1254,7 +1254,7 @@
         <v>36627</v>
       </c>
       <c r="B102" t="n">
-        <v>4.723855562247625</v>
+        <v>4.72393411385799</v>
       </c>
     </row>
     <row r="103">
@@ -1262,7 +1262,7 @@
         <v>36628</v>
       </c>
       <c r="B103" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="104">
@@ -1286,7 +1286,7 @@
         <v>36631</v>
       </c>
       <c r="B106" t="n">
-        <v>6.499999999999999</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="107">
@@ -1318,7 +1318,7 @@
         <v>36635</v>
       </c>
       <c r="B110" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="111">
@@ -1334,7 +1334,7 @@
         <v>36637</v>
       </c>
       <c r="B112" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="113">
@@ -1342,7 +1342,7 @@
         <v>36638</v>
       </c>
       <c r="B113" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="114">
@@ -1358,7 +1358,7 @@
         <v>36640</v>
       </c>
       <c r="B115" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="116">
@@ -1390,7 +1390,7 @@
         <v>36644</v>
       </c>
       <c r="B119" t="n">
-        <v>6.499999999999998</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="120">
@@ -1446,7 +1446,7 @@
         <v>36651</v>
       </c>
       <c r="B126" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="127">
@@ -1486,7 +1486,7 @@
         <v>36656</v>
       </c>
       <c r="B131" t="n">
-        <v>6.499999999999999</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="132">
@@ -1614,7 +1614,7 @@
         <v>36672</v>
       </c>
       <c r="B147" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="148">
@@ -1622,7 +1622,7 @@
         <v>36673</v>
       </c>
       <c r="B148" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="149">
@@ -1630,7 +1630,7 @@
         <v>36674</v>
       </c>
       <c r="B149" t="n">
-        <v>6.5</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="150">
@@ -1638,7 +1638,7 @@
         <v>36675</v>
       </c>
       <c r="B150" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="151">
@@ -1654,7 +1654,7 @@
         <v>36677</v>
       </c>
       <c r="B152" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="153">
@@ -1670,7 +1670,7 @@
         <v>36679</v>
       </c>
       <c r="B154" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="155">
@@ -1678,7 +1678,7 @@
         <v>36680</v>
       </c>
       <c r="B155" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="156">
@@ -1750,7 +1750,7 @@
         <v>36689</v>
       </c>
       <c r="B164" t="n">
-        <v>4.690109976028162</v>
+        <v>4.69029160799869</v>
       </c>
     </row>
     <row r="165">
@@ -1758,7 +1758,7 @@
         <v>36690</v>
       </c>
       <c r="B165" t="n">
-        <v>6.296566017072969</v>
+        <v>6.296751383382669</v>
       </c>
     </row>
     <row r="166">
@@ -1774,7 +1774,7 @@
         <v>36692</v>
       </c>
       <c r="B167" t="n">
-        <v>6.5</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="168">
@@ -1790,7 +1790,7 @@
         <v>36694</v>
       </c>
       <c r="B169" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="170">
@@ -1822,7 +1822,7 @@
         <v>36698</v>
       </c>
       <c r="B173" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="174">
@@ -1838,7 +1838,7 @@
         <v>36700</v>
       </c>
       <c r="B175" t="n">
-        <v>4.268082920385014</v>
+        <v>4.268272615011075</v>
       </c>
     </row>
     <row r="176">
@@ -1862,7 +1862,7 @@
         <v>36703</v>
       </c>
       <c r="B178" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="179">
@@ -1870,7 +1870,7 @@
         <v>36704</v>
       </c>
       <c r="B179" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="180">
@@ -1878,7 +1878,7 @@
         <v>36705</v>
       </c>
       <c r="B180" t="n">
-        <v>6.499999999999998</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="181">
@@ -1886,7 +1886,7 @@
         <v>36706</v>
       </c>
       <c r="B181" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="182">
@@ -1894,7 +1894,7 @@
         <v>36707</v>
       </c>
       <c r="B182" t="n">
-        <v>0.786748665424398</v>
+        <v>0.7867491859389353</v>
       </c>
     </row>
     <row r="183">
@@ -1902,7 +1902,7 @@
         <v>36708</v>
       </c>
       <c r="B183" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="184">
@@ -1918,7 +1918,7 @@
         <v>36710</v>
       </c>
       <c r="B185" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="186">
@@ -1926,7 +1926,7 @@
         <v>36711</v>
       </c>
       <c r="B186" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="187">
@@ -1950,7 +1950,7 @@
         <v>36714</v>
       </c>
       <c r="B189" t="n">
-        <v>6.499999999999998</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="190">
@@ -1974,7 +1974,7 @@
         <v>36717</v>
       </c>
       <c r="B192" t="n">
-        <v>3.100007243920883</v>
+        <v>3.099972594829565</v>
       </c>
     </row>
     <row r="193">
@@ -1982,7 +1982,7 @@
         <v>36718</v>
       </c>
       <c r="B193" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="194">
@@ -1990,7 +1990,7 @@
         <v>36719</v>
       </c>
       <c r="B194" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="195">
@@ -2038,7 +2038,7 @@
         <v>36725</v>
       </c>
       <c r="B200" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="201">
@@ -2054,7 +2054,7 @@
         <v>36727</v>
       </c>
       <c r="B202" t="n">
-        <v>6.5</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="203">
@@ -2134,7 +2134,7 @@
         <v>36737</v>
       </c>
       <c r="B212" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="213">
@@ -2174,7 +2174,7 @@
         <v>36742</v>
       </c>
       <c r="B217" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="218">
@@ -2190,7 +2190,7 @@
         <v>36744</v>
       </c>
       <c r="B219" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="220">
@@ -2198,7 +2198,7 @@
         <v>36745</v>
       </c>
       <c r="B220" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="221">
@@ -2206,7 +2206,7 @@
         <v>36746</v>
       </c>
       <c r="B221" t="n">
-        <v>6.5</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="222">
@@ -2238,7 +2238,7 @@
         <v>36750</v>
       </c>
       <c r="B225" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="226">
@@ -2254,7 +2254,7 @@
         <v>36752</v>
       </c>
       <c r="B227" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="228">
@@ -2270,7 +2270,7 @@
         <v>36754</v>
       </c>
       <c r="B229" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="230">
@@ -2302,7 +2302,7 @@
         <v>36758</v>
       </c>
       <c r="B233" t="n">
-        <v>0.7058389229682076</v>
+        <v>0.7058538671941408</v>
       </c>
     </row>
     <row r="234">
@@ -2374,7 +2374,7 @@
         <v>36767</v>
       </c>
       <c r="B242" t="n">
-        <v>6.5</v>
+        <v>6.499999999999997</v>
       </c>
     </row>
     <row r="243">
@@ -2406,7 +2406,7 @@
         <v>36771</v>
       </c>
       <c r="B246" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="247">
@@ -2414,7 +2414,7 @@
         <v>36772</v>
       </c>
       <c r="B247" t="n">
-        <v>6.229902054677925</v>
+        <v>6.229902799129528</v>
       </c>
     </row>
     <row r="248">
@@ -2430,7 +2430,7 @@
         <v>36774</v>
       </c>
       <c r="B249" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="250">
@@ -2438,7 +2438,7 @@
         <v>36775</v>
       </c>
       <c r="B250" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="251">
@@ -2478,7 +2478,7 @@
         <v>36780</v>
       </c>
       <c r="B255" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="256">
@@ -2510,7 +2510,7 @@
         <v>36784</v>
       </c>
       <c r="B259" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="260">
@@ -2542,7 +2542,7 @@
         <v>36788</v>
       </c>
       <c r="B263" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="264">
@@ -2550,7 +2550,7 @@
         <v>36789</v>
       </c>
       <c r="B264" t="n">
-        <v>6.5</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="265">
@@ -2566,7 +2566,7 @@
         <v>36791</v>
       </c>
       <c r="B266" t="n">
-        <v>6.5</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="267">
@@ -2614,7 +2614,7 @@
         <v>36797</v>
       </c>
       <c r="B272" t="n">
-        <v>5.185847319396135</v>
+        <v>5.18647357844071</v>
       </c>
     </row>
     <row r="273">
@@ -2638,7 +2638,7 @@
         <v>36800</v>
       </c>
       <c r="B275" t="n">
-        <v>6.499999999999999</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="276">
@@ -2646,7 +2646,7 @@
         <v>36801</v>
       </c>
       <c r="B276" t="n">
-        <v>2.135796674888989</v>
+        <v>2.136225066639862</v>
       </c>
     </row>
     <row r="277">
@@ -2686,7 +2686,7 @@
         <v>36806</v>
       </c>
       <c r="B281" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="282">
@@ -2702,7 +2702,7 @@
         <v>36808</v>
       </c>
       <c r="B283" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="284">
@@ -2718,7 +2718,7 @@
         <v>36810</v>
       </c>
       <c r="B285" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="286">
@@ -2726,7 +2726,7 @@
         <v>36811</v>
       </c>
       <c r="B286" t="n">
-        <v>6.5</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="287">
@@ -2742,7 +2742,7 @@
         <v>36813</v>
       </c>
       <c r="B288" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="289">
@@ -2750,7 +2750,7 @@
         <v>36814</v>
       </c>
       <c r="B289" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="290">
@@ -2758,7 +2758,7 @@
         <v>36815</v>
       </c>
       <c r="B290" t="n">
-        <v>6.499999999999999</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="291">
@@ -2774,7 +2774,7 @@
         <v>36817</v>
       </c>
       <c r="B292" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="293">
@@ -2790,7 +2790,7 @@
         <v>36819</v>
       </c>
       <c r="B294" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="295">
@@ -2806,7 +2806,7 @@
         <v>36821</v>
       </c>
       <c r="B296" t="n">
-        <v>6.5</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="297">
@@ -2814,7 +2814,7 @@
         <v>36822</v>
       </c>
       <c r="B297" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="298">
@@ -2822,7 +2822,7 @@
         <v>36823</v>
       </c>
       <c r="B298" t="n">
-        <v>1.080043133289045</v>
+        <v>1.079922354428133</v>
       </c>
     </row>
     <row r="299">
@@ -2838,7 +2838,7 @@
         <v>36825</v>
       </c>
       <c r="B300" t="n">
-        <v>0.2954278117046721</v>
+        <v>0.2954329609967254</v>
       </c>
     </row>
     <row r="301">
@@ -2846,7 +2846,7 @@
         <v>36826</v>
       </c>
       <c r="B301" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="302">
@@ -2894,7 +2894,7 @@
         <v>36832</v>
       </c>
       <c r="B307" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="308">
@@ -2902,7 +2902,7 @@
         <v>36833</v>
       </c>
       <c r="B308" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="309">
@@ -2926,7 +2926,7 @@
         <v>36836</v>
       </c>
       <c r="B311" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="312">
@@ -2934,7 +2934,7 @@
         <v>36837</v>
       </c>
       <c r="B312" t="n">
-        <v>0.5655535481938225</v>
+        <v>0.5649935200846222</v>
       </c>
     </row>
     <row r="313">
@@ -2950,7 +2950,7 @@
         <v>36839</v>
       </c>
       <c r="B314" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="315">
@@ -2958,7 +2958,7 @@
         <v>36840</v>
       </c>
       <c r="B315" t="n">
-        <v>0.12609768435889</v>
+        <v>0.1261379158801073</v>
       </c>
     </row>
     <row r="316">
@@ -2966,7 +2966,7 @@
         <v>36841</v>
       </c>
       <c r="B316" t="n">
-        <v>2.894319074518304</v>
+        <v>2.893638743036341</v>
       </c>
     </row>
     <row r="317">
@@ -3014,7 +3014,7 @@
         <v>36847</v>
       </c>
       <c r="B322" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="323">
@@ -3030,7 +3030,7 @@
         <v>36849</v>
       </c>
       <c r="B324" t="n">
-        <v>2.517149985184387</v>
+        <v>2.517950806855025</v>
       </c>
     </row>
     <row r="325">
@@ -3046,7 +3046,7 @@
         <v>36851</v>
       </c>
       <c r="B326" t="n">
-        <v>1.49527531128339</v>
+        <v>1.495255541802358</v>
       </c>
     </row>
     <row r="327">
@@ -3094,7 +3094,7 @@
         <v>36857</v>
       </c>
       <c r="B332" t="n">
-        <v>0.6121750266314212</v>
+        <v>0.6121332598989789</v>
       </c>
     </row>
     <row r="333">
@@ -3118,7 +3118,7 @@
         <v>36860</v>
       </c>
       <c r="B335" t="n">
-        <v>1.62493110558813</v>
+        <v>1.624900315127488</v>
       </c>
     </row>
     <row r="336">
@@ -3126,7 +3126,7 @@
         <v>36861</v>
       </c>
       <c r="B336" t="n">
-        <v>1.414834120556524</v>
+        <v>1.414514450828</v>
       </c>
     </row>
     <row r="337">
@@ -3142,7 +3142,7 @@
         <v>36863</v>
       </c>
       <c r="B338" t="n">
-        <v>1.311996301264805</v>
+        <v>1.311938891107031</v>
       </c>
     </row>
     <row r="339">
@@ -3150,7 +3150,7 @@
         <v>36864</v>
       </c>
       <c r="B339" t="n">
-        <v>5.458158412429904</v>
+        <v>5.457503252430285</v>
       </c>
     </row>
     <row r="340">
@@ -3158,7 +3158,7 @@
         <v>36865</v>
       </c>
       <c r="B340" t="n">
-        <v>0.6775531717677326</v>
+        <v>0.6774912530848223</v>
       </c>
     </row>
     <row r="341">
@@ -3190,7 +3190,7 @@
         <v>36869</v>
       </c>
       <c r="B344" t="n">
-        <v>0.2553614255186135</v>
+        <v>0.2554484366547911</v>
       </c>
     </row>
     <row r="345">
@@ -3206,7 +3206,7 @@
         <v>36871</v>
       </c>
       <c r="B346" t="n">
-        <v>6.374257854778179</v>
+        <v>6.373802938066352</v>
       </c>
     </row>
     <row r="347">
@@ -3214,7 +3214,7 @@
         <v>36872</v>
       </c>
       <c r="B347" t="n">
-        <v>0.8837286509344005</v>
+        <v>0.8836384728745603</v>
       </c>
     </row>
     <row r="348">
@@ -3222,7 +3222,7 @@
         <v>36873</v>
       </c>
       <c r="B348" t="n">
-        <v>5.851718010260764</v>
+        <v>5.851808341956299</v>
       </c>
     </row>
     <row r="349">
@@ -3230,7 +3230,7 @@
         <v>36874</v>
       </c>
       <c r="B349" t="n">
-        <v>0.1890045175280796</v>
+        <v>0.1890014943191278</v>
       </c>
     </row>
     <row r="350">
@@ -3238,7 +3238,7 @@
         <v>36875</v>
       </c>
       <c r="B350" t="n">
-        <v>0.1673648520848169</v>
+        <v>0.1674215479693945</v>
       </c>
     </row>
     <row r="351">
@@ -3246,7 +3246,7 @@
         <v>36876</v>
       </c>
       <c r="B351" t="n">
-        <v>0.5701308309052584</v>
+        <v>0.5700562775760289</v>
       </c>
     </row>
     <row r="352">
@@ -3254,7 +3254,7 @@
         <v>36877</v>
       </c>
       <c r="B352" t="n">
-        <v>1.119553404280457</v>
+        <v>1.119989480329731</v>
       </c>
     </row>
     <row r="353">
@@ -3262,7 +3262,7 @@
         <v>36878</v>
       </c>
       <c r="B353" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="354">
@@ -3294,7 +3294,7 @@
         <v>36882</v>
       </c>
       <c r="B357" t="n">
-        <v>0.8823503182300594</v>
+        <v>0.8823698774254276</v>
       </c>
     </row>
     <row r="358">
@@ -3310,7 +3310,7 @@
         <v>36884</v>
       </c>
       <c r="B359" t="n">
-        <v>4.207756353309422</v>
+        <v>4.208896489910449</v>
       </c>
     </row>
     <row r="360">
@@ -3318,7 +3318,7 @@
         <v>36885</v>
       </c>
       <c r="B360" t="n">
-        <v>5.176431865414199</v>
+        <v>5.177317777931807</v>
       </c>
     </row>
     <row r="361">
@@ -3326,7 +3326,7 @@
         <v>36886</v>
       </c>
       <c r="B361" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="362">
@@ -3334,7 +3334,7 @@
         <v>36887</v>
       </c>
       <c r="B362" t="n">
-        <v>4.381677948207789</v>
+        <v>4.381479864277414</v>
       </c>
     </row>
     <row r="363">
@@ -3358,7 +3358,7 @@
         <v>36890</v>
       </c>
       <c r="B365" t="n">
-        <v>0.1210389118372895</v>
+        <v>0.1210095868742612</v>
       </c>
     </row>
     <row r="366">

--- a/results/end_of_day_charge_levels.xlsx
+++ b/results/end_of_day_charge_levels.xlsx
@@ -454,7 +454,7 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>1.75323082413364</v>
+        <v>1.761613241209058</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>36527</v>
       </c>
       <c r="B3" t="n">
-        <v>0.593878134705203</v>
+        <v>0.5919845985996208</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>36528</v>
       </c>
       <c r="B4" t="n">
-        <v>0.08968573812503104</v>
+        <v>0.09026532027770591</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         <v>36530</v>
       </c>
       <c r="B6" t="n">
-        <v>0.697984212789899</v>
+        <v>0.6969607949361963</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>36531</v>
       </c>
       <c r="B7" t="n">
-        <v>1.46766230453241</v>
+        <v>1.463101999229971</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>36532</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1529174153094237</v>
+        <v>0.1526614780050928</v>
       </c>
     </row>
     <row r="9">
@@ -518,7 +518,7 @@
         <v>36534</v>
       </c>
       <c r="B10" t="n">
-        <v>0.13157929771114</v>
+        <v>0.1318776644104936</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>36535</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6509370398033711</v>
+        <v>0.6494840946561433</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>36536</v>
       </c>
       <c r="B12" t="n">
-        <v>1.461328053379982</v>
+        <v>1.457919626458243</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>36537</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4288601029876928</v>
+        <v>0.4281735148343131</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>36538</v>
       </c>
       <c r="B14" t="n">
-        <v>2.885157388118126</v>
+        <v>2.887152857021649</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>36539</v>
       </c>
       <c r="B15" t="n">
-        <v>6.5</v>
+        <v>8.833988625089145</v>
       </c>
     </row>
     <row r="16">
@@ -574,7 +574,7 @@
         <v>36541</v>
       </c>
       <c r="B17" t="n">
-        <v>3.180972128531454</v>
+        <v>3.178204203976048</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>36542</v>
       </c>
       <c r="B18" t="n">
-        <v>1.719203426536505</v>
+        <v>1.724465305440395</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>36543</v>
       </c>
       <c r="B19" t="n">
-        <v>1.019312221171229</v>
+        <v>1.022270768065247</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>36544</v>
       </c>
       <c r="B20" t="n">
-        <v>6.5</v>
+        <v>8.309377231247858</v>
       </c>
     </row>
     <row r="21">
@@ -614,7 +614,7 @@
         <v>36546</v>
       </c>
       <c r="B22" t="n">
-        <v>6.5</v>
+        <v>7.695886586059023</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>36547</v>
       </c>
       <c r="B23" t="n">
-        <v>2.125499243304335</v>
+        <v>2.117245224472298</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>36548</v>
       </c>
       <c r="B24" t="n">
-        <v>4.98132897624707</v>
+        <v>4.968900283905088</v>
       </c>
     </row>
     <row r="25">
@@ -654,7 +654,7 @@
         <v>36551</v>
       </c>
       <c r="B27" t="n">
-        <v>5.585462082187729</v>
+        <v>5.564708984318357</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>36552</v>
       </c>
       <c r="B28" t="n">
-        <v>6.5</v>
+        <v>6.546129822740627</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>36553</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3623348664826305</v>
+        <v>0.3601203644862209</v>
       </c>
     </row>
     <row r="30">
@@ -686,7 +686,7 @@
         <v>36555</v>
       </c>
       <c r="B31" t="n">
-        <v>6.5</v>
+        <v>10.91</v>
       </c>
     </row>
     <row r="32">
@@ -702,7 +702,7 @@
         <v>36557</v>
       </c>
       <c r="B33" t="n">
-        <v>1.011616799548485</v>
+        <v>1.014383207618612</v>
       </c>
     </row>
     <row r="34">
@@ -726,7 +726,7 @@
         <v>36560</v>
       </c>
       <c r="B36" t="n">
-        <v>2.117756230182099</v>
+        <v>2.116471896716609</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +734,7 @@
         <v>36561</v>
       </c>
       <c r="B37" t="n">
-        <v>6.5</v>
+        <v>9.486999999999998</v>
       </c>
     </row>
     <row r="38">
@@ -742,7 +742,7 @@
         <v>36562</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3824165731505474</v>
+        <v>0.3803682650801067</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>36563</v>
       </c>
       <c r="B39" t="n">
-        <v>6.499999999999999</v>
+        <v>5.988435593856955</v>
       </c>
     </row>
     <row r="40">
@@ -758,7 +758,7 @@
         <v>36564</v>
       </c>
       <c r="B40" t="n">
-        <v>6.5</v>
+        <v>6.491</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>36565</v>
       </c>
       <c r="B41" t="n">
-        <v>6.5</v>
+        <v>10.7532379827645</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>36566</v>
       </c>
       <c r="B42" t="n">
-        <v>4.279384958374867</v>
+        <v>4.297736765208668</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>36567</v>
       </c>
       <c r="B43" t="n">
-        <v>3.989456209561919</v>
+        <v>3.982351441515012</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>36568</v>
       </c>
       <c r="B44" t="n">
-        <v>6.5</v>
+        <v>5.166047149276534</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>36569</v>
       </c>
       <c r="B45" t="n">
-        <v>6.5</v>
+        <v>5.326737657637537</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +806,7 @@
         <v>36570</v>
       </c>
       <c r="B46" t="n">
-        <v>6.5</v>
+        <v>11.15298587441428</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +814,7 @@
         <v>36571</v>
       </c>
       <c r="B47" t="n">
-        <v>0.3941827851409692</v>
+        <v>0.3938982781151951</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +822,7 @@
         <v>36572</v>
       </c>
       <c r="B48" t="n">
-        <v>6.5</v>
+        <v>10.03243665373797</v>
       </c>
     </row>
     <row r="49">
@@ -830,7 +830,7 @@
         <v>36573</v>
       </c>
       <c r="B49" t="n">
-        <v>6.5</v>
+        <v>7.08405800581858</v>
       </c>
     </row>
     <row r="50">
@@ -838,7 +838,7 @@
         <v>36574</v>
       </c>
       <c r="B50" t="n">
-        <v>6.499999999999999</v>
+        <v>8.018045463217373</v>
       </c>
     </row>
     <row r="51">
@@ -846,7 +846,7 @@
         <v>36575</v>
       </c>
       <c r="B51" t="n">
-        <v>6.5</v>
+        <v>6.973631830760362</v>
       </c>
     </row>
     <row r="52">
@@ -854,7 +854,7 @@
         <v>36576</v>
       </c>
       <c r="B52" t="n">
-        <v>6.499999999999999</v>
+        <v>5.238647863662007</v>
       </c>
     </row>
     <row r="53">
@@ -862,7 +862,7 @@
         <v>36577</v>
       </c>
       <c r="B53" t="n">
-        <v>6.5</v>
+        <v>6.323932513919157</v>
       </c>
     </row>
     <row r="54">
@@ -870,7 +870,7 @@
         <v>36578</v>
       </c>
       <c r="B54" t="n">
-        <v>6.499999999999999</v>
+        <v>7.372963537380875</v>
       </c>
     </row>
     <row r="55">
@@ -878,7 +878,7 @@
         <v>36579</v>
       </c>
       <c r="B55" t="n">
-        <v>6.5</v>
+        <v>4.408298658251478</v>
       </c>
     </row>
     <row r="56">
@@ -886,7 +886,7 @@
         <v>36580</v>
       </c>
       <c r="B56" t="n">
-        <v>6.5</v>
+        <v>4.977344930799317</v>
       </c>
     </row>
     <row r="57">
@@ -894,7 +894,7 @@
         <v>36581</v>
       </c>
       <c r="B57" t="n">
-        <v>6.5</v>
+        <v>6.782291484131204</v>
       </c>
     </row>
     <row r="58">
@@ -902,7 +902,7 @@
         <v>36582</v>
       </c>
       <c r="B58" t="n">
-        <v>6.5</v>
+        <v>5.606081267208938</v>
       </c>
     </row>
     <row r="59">
@@ -910,7 +910,7 @@
         <v>36583</v>
       </c>
       <c r="B59" t="n">
-        <v>6.5</v>
+        <v>5.222046494169011</v>
       </c>
     </row>
     <row r="60">
@@ -918,7 +918,7 @@
         <v>36584</v>
       </c>
       <c r="B60" t="n">
-        <v>6.5</v>
+        <v>6.462</v>
       </c>
     </row>
     <row r="61">
@@ -926,7 +926,7 @@
         <v>36586</v>
       </c>
       <c r="B61" t="n">
-        <v>6.5</v>
+        <v>9.69</v>
       </c>
     </row>
     <row r="62">
@@ -942,7 +942,7 @@
         <v>36588</v>
       </c>
       <c r="B63" t="n">
-        <v>6.5</v>
+        <v>7.552120716150039</v>
       </c>
     </row>
     <row r="64">
@@ -950,7 +950,7 @@
         <v>36589</v>
       </c>
       <c r="B64" t="n">
-        <v>6.499999999999999</v>
+        <v>4.879969991247708</v>
       </c>
     </row>
     <row r="65">
@@ -958,7 +958,7 @@
         <v>36590</v>
       </c>
       <c r="B65" t="n">
-        <v>6.499999999999998</v>
+        <v>5.302690087583295</v>
       </c>
     </row>
     <row r="66">
@@ -966,7 +966,7 @@
         <v>36591</v>
       </c>
       <c r="B66" t="n">
-        <v>6.5</v>
+        <v>8.256598898828393</v>
       </c>
     </row>
     <row r="67">
@@ -974,7 +974,7 @@
         <v>36592</v>
       </c>
       <c r="B67" t="n">
-        <v>1.480927694737103</v>
+        <v>1.467498476229398</v>
       </c>
     </row>
     <row r="68">
@@ -982,7 +982,7 @@
         <v>36593</v>
       </c>
       <c r="B68" t="n">
-        <v>4.416900120215068</v>
+        <v>4.405543305401626</v>
       </c>
     </row>
     <row r="69">
@@ -990,7 +990,7 @@
         <v>36594</v>
       </c>
       <c r="B69" t="n">
-        <v>6.5</v>
+        <v>8.962888631994666</v>
       </c>
     </row>
     <row r="70">
@@ -998,7 +998,7 @@
         <v>36595</v>
       </c>
       <c r="B70" t="n">
-        <v>4.878275420122094</v>
+        <v>4.830815443024694</v>
       </c>
     </row>
     <row r="71">
@@ -1006,7 +1006,7 @@
         <v>36596</v>
       </c>
       <c r="B71" t="n">
-        <v>6.5</v>
+        <v>5.512838639023949</v>
       </c>
     </row>
     <row r="72">
@@ -1014,7 +1014,7 @@
         <v>36597</v>
       </c>
       <c r="B72" t="n">
-        <v>6.5</v>
+        <v>8.685</v>
       </c>
     </row>
     <row r="73">
@@ -1030,7 +1030,7 @@
         <v>36599</v>
       </c>
       <c r="B74" t="n">
-        <v>6.5</v>
+        <v>6.448747302078543</v>
       </c>
     </row>
     <row r="75">
@@ -1038,7 +1038,7 @@
         <v>36600</v>
       </c>
       <c r="B75" t="n">
-        <v>6.5</v>
+        <v>7.623557931850664</v>
       </c>
     </row>
     <row r="76">
@@ -1046,7 +1046,7 @@
         <v>36601</v>
       </c>
       <c r="B76" t="n">
-        <v>0.004237524799288225</v>
+        <v>0.004119785894098463</v>
       </c>
     </row>
     <row r="77">
@@ -1054,7 +1054,7 @@
         <v>36602</v>
       </c>
       <c r="B77" t="n">
-        <v>6.5</v>
+        <v>5.496697910994037</v>
       </c>
     </row>
     <row r="78">
@@ -1062,7 +1062,7 @@
         <v>36603</v>
       </c>
       <c r="B78" t="n">
-        <v>6.5</v>
+        <v>7.009</v>
       </c>
     </row>
     <row r="79">
@@ -1086,7 +1086,7 @@
         <v>36606</v>
       </c>
       <c r="B81" t="n">
-        <v>6.5</v>
+        <v>4.060954937060499</v>
       </c>
     </row>
     <row r="82">
@@ -1094,7 +1094,7 @@
         <v>36607</v>
       </c>
       <c r="B82" t="n">
-        <v>6.499999999999999</v>
+        <v>5.913448352883874</v>
       </c>
     </row>
     <row r="83">
@@ -1102,7 +1102,7 @@
         <v>36608</v>
       </c>
       <c r="B83" t="n">
-        <v>6.5</v>
+        <v>7.020368554756363</v>
       </c>
     </row>
     <row r="84">
@@ -1110,7 +1110,7 @@
         <v>36609</v>
       </c>
       <c r="B84" t="n">
-        <v>6.5</v>
+        <v>12.667</v>
       </c>
     </row>
     <row r="85">
@@ -1126,7 +1126,7 @@
         <v>36611</v>
       </c>
       <c r="B86" t="n">
-        <v>6.5</v>
+        <v>6.627565499538195</v>
       </c>
     </row>
     <row r="87">
@@ -1134,7 +1134,7 @@
         <v>36612</v>
       </c>
       <c r="B87" t="n">
-        <v>6.5</v>
+        <v>8.00512343138886</v>
       </c>
     </row>
     <row r="88">
@@ -1150,7 +1150,7 @@
         <v>36614</v>
       </c>
       <c r="B89" t="n">
-        <v>6.499999999999999</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="90">
@@ -1158,7 +1158,7 @@
         <v>36615</v>
       </c>
       <c r="B90" t="n">
-        <v>6.499999999999999</v>
+        <v>11.748</v>
       </c>
     </row>
     <row r="91">
@@ -1182,7 +1182,7 @@
         <v>36618</v>
       </c>
       <c r="B93" t="n">
-        <v>6.5</v>
+        <v>6.225237460240701</v>
       </c>
     </row>
     <row r="94">
@@ -1190,7 +1190,7 @@
         <v>36619</v>
       </c>
       <c r="B94" t="n">
-        <v>6.5</v>
+        <v>7.967179116584807</v>
       </c>
     </row>
     <row r="95">
@@ -1198,7 +1198,7 @@
         <v>36620</v>
       </c>
       <c r="B95" t="n">
-        <v>6.5</v>
+        <v>5.983718602991887</v>
       </c>
     </row>
     <row r="96">
@@ -1206,7 +1206,7 @@
         <v>36621</v>
       </c>
       <c r="B96" t="n">
-        <v>6.5</v>
+        <v>3.335</v>
       </c>
     </row>
     <row r="97">
@@ -1214,7 +1214,7 @@
         <v>36622</v>
       </c>
       <c r="B97" t="n">
-        <v>6.5</v>
+        <v>3.291020396945952</v>
       </c>
     </row>
     <row r="98">
@@ -1222,7 +1222,7 @@
         <v>36623</v>
       </c>
       <c r="B98" t="n">
-        <v>6.5</v>
+        <v>4.217589553270633</v>
       </c>
     </row>
     <row r="99">
@@ -1230,7 +1230,7 @@
         <v>36624</v>
       </c>
       <c r="B99" t="n">
-        <v>6.5</v>
+        <v>5.556966871432552</v>
       </c>
     </row>
     <row r="100">
@@ -1238,7 +1238,7 @@
         <v>36625</v>
       </c>
       <c r="B100" t="n">
-        <v>6.5</v>
+        <v>6.394145933822813</v>
       </c>
     </row>
     <row r="101">
@@ -1246,7 +1246,7 @@
         <v>36626</v>
       </c>
       <c r="B101" t="n">
-        <v>6.499999999999999</v>
+        <v>7.542572641745293</v>
       </c>
     </row>
     <row r="102">
@@ -1254,7 +1254,7 @@
         <v>36627</v>
       </c>
       <c r="B102" t="n">
-        <v>4.72393411385799</v>
+        <v>4.697821722830087</v>
       </c>
     </row>
     <row r="103">
@@ -1262,7 +1262,7 @@
         <v>36628</v>
       </c>
       <c r="B103" t="n">
-        <v>6.499999999999999</v>
+        <v>4.188408462864027</v>
       </c>
     </row>
     <row r="104">
@@ -1270,7 +1270,7 @@
         <v>36629</v>
       </c>
       <c r="B104" t="n">
-        <v>6.5</v>
+        <v>3.775696467096934</v>
       </c>
     </row>
     <row r="105">
@@ -1278,7 +1278,7 @@
         <v>36630</v>
       </c>
       <c r="B105" t="n">
-        <v>6.5</v>
+        <v>3.3913832644868</v>
       </c>
     </row>
     <row r="106">
@@ -1286,7 +1286,7 @@
         <v>36631</v>
       </c>
       <c r="B106" t="n">
-        <v>6.499999999999998</v>
+        <v>2.637632065606352</v>
       </c>
     </row>
     <row r="107">
@@ -1294,7 +1294,7 @@
         <v>36632</v>
       </c>
       <c r="B107" t="n">
-        <v>6.5</v>
+        <v>4.032574899950845</v>
       </c>
     </row>
     <row r="108">
@@ -1302,7 +1302,7 @@
         <v>36633</v>
       </c>
       <c r="B108" t="n">
-        <v>6.499999999999999</v>
+        <v>2.798</v>
       </c>
     </row>
     <row r="109">
@@ -1310,7 +1310,7 @@
         <v>36634</v>
       </c>
       <c r="B109" t="n">
-        <v>6.5</v>
+        <v>4.92271795161323</v>
       </c>
     </row>
     <row r="110">
@@ -1318,7 +1318,7 @@
         <v>36635</v>
       </c>
       <c r="B110" t="n">
-        <v>6.5</v>
+        <v>2.718622793072087</v>
       </c>
     </row>
     <row r="111">
@@ -1326,7 +1326,7 @@
         <v>36636</v>
       </c>
       <c r="B111" t="n">
-        <v>6.5</v>
+        <v>2.797477680259285</v>
       </c>
     </row>
     <row r="112">
@@ -1334,7 +1334,7 @@
         <v>36637</v>
       </c>
       <c r="B112" t="n">
-        <v>6.5</v>
+        <v>2.96988634202408</v>
       </c>
     </row>
     <row r="113">
@@ -1342,7 +1342,7 @@
         <v>36638</v>
       </c>
       <c r="B113" t="n">
-        <v>6.5</v>
+        <v>4.621094810008643</v>
       </c>
     </row>
     <row r="114">
@@ -1350,7 +1350,7 @@
         <v>36639</v>
       </c>
       <c r="B114" t="n">
-        <v>6.5</v>
+        <v>5.483139319927444</v>
       </c>
     </row>
     <row r="115">
@@ -1358,7 +1358,7 @@
         <v>36640</v>
       </c>
       <c r="B115" t="n">
-        <v>6.499999999999999</v>
+        <v>3.290603874085091</v>
       </c>
     </row>
     <row r="116">
@@ -1366,7 +1366,7 @@
         <v>36641</v>
       </c>
       <c r="B116" t="n">
-        <v>6.5</v>
+        <v>3.711334461614049</v>
       </c>
     </row>
     <row r="117">
@@ -1374,7 +1374,7 @@
         <v>36642</v>
       </c>
       <c r="B117" t="n">
-        <v>6.5</v>
+        <v>2.615</v>
       </c>
     </row>
     <row r="118">
@@ -1382,7 +1382,7 @@
         <v>36643</v>
       </c>
       <c r="B118" t="n">
-        <v>6.5</v>
+        <v>6.108973774315583</v>
       </c>
     </row>
     <row r="119">
@@ -1390,7 +1390,7 @@
         <v>36644</v>
       </c>
       <c r="B119" t="n">
-        <v>6.499999999999999</v>
+        <v>5.304</v>
       </c>
     </row>
     <row r="120">
@@ -1398,7 +1398,7 @@
         <v>36645</v>
       </c>
       <c r="B120" t="n">
-        <v>6.5</v>
+        <v>6.652811962809486</v>
       </c>
     </row>
     <row r="121">
@@ -1406,7 +1406,7 @@
         <v>36646</v>
       </c>
       <c r="B121" t="n">
-        <v>6.5</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="122">
@@ -1414,7 +1414,7 @@
         <v>36647</v>
       </c>
       <c r="B122" t="n">
-        <v>6.5</v>
+        <v>2.382939598883244</v>
       </c>
     </row>
     <row r="123">
@@ -1422,7 +1422,7 @@
         <v>36648</v>
       </c>
       <c r="B123" t="n">
-        <v>6.5</v>
+        <v>2.726474915283803</v>
       </c>
     </row>
     <row r="124">
@@ -1430,7 +1430,7 @@
         <v>36649</v>
       </c>
       <c r="B124" t="n">
-        <v>6.5</v>
+        <v>3.29994396306973</v>
       </c>
     </row>
     <row r="125">
@@ -1438,7 +1438,7 @@
         <v>36650</v>
       </c>
       <c r="B125" t="n">
-        <v>6.5</v>
+        <v>3.098</v>
       </c>
     </row>
     <row r="126">
@@ -1446,7 +1446,7 @@
         <v>36651</v>
       </c>
       <c r="B126" t="n">
-        <v>6.499999999999999</v>
+        <v>2.095599288009516</v>
       </c>
     </row>
     <row r="127">
@@ -1454,7 +1454,7 @@
         <v>36652</v>
       </c>
       <c r="B127" t="n">
-        <v>6.5</v>
+        <v>3.526275221495588</v>
       </c>
     </row>
     <row r="128">
@@ -1462,7 +1462,7 @@
         <v>36653</v>
       </c>
       <c r="B128" t="n">
-        <v>6.5</v>
+        <v>2.158917170693512</v>
       </c>
     </row>
     <row r="129">
@@ -1470,7 +1470,7 @@
         <v>36654</v>
       </c>
       <c r="B129" t="n">
-        <v>6.5</v>
+        <v>2.211</v>
       </c>
     </row>
     <row r="130">
@@ -1478,7 +1478,7 @@
         <v>36655</v>
       </c>
       <c r="B130" t="n">
-        <v>6.5</v>
+        <v>4.60925196915194</v>
       </c>
     </row>
     <row r="131">
@@ -1486,7 +1486,7 @@
         <v>36656</v>
       </c>
       <c r="B131" t="n">
-        <v>6.499999999999998</v>
+        <v>2.145</v>
       </c>
     </row>
     <row r="132">
@@ -1494,7 +1494,7 @@
         <v>36657</v>
       </c>
       <c r="B132" t="n">
-        <v>6.5</v>
+        <v>4.029999999999999</v>
       </c>
     </row>
     <row r="133">
@@ -1502,7 +1502,7 @@
         <v>36658</v>
       </c>
       <c r="B133" t="n">
-        <v>6.5</v>
+        <v>10.993</v>
       </c>
     </row>
     <row r="134">
@@ -1518,7 +1518,7 @@
         <v>36660</v>
       </c>
       <c r="B135" t="n">
-        <v>6.5</v>
+        <v>2.869819130835674</v>
       </c>
     </row>
     <row r="136">
@@ -1526,7 +1526,7 @@
         <v>36661</v>
       </c>
       <c r="B136" t="n">
-        <v>6.5</v>
+        <v>3.734937581804862</v>
       </c>
     </row>
     <row r="137">
@@ -1534,7 +1534,7 @@
         <v>36662</v>
       </c>
       <c r="B137" t="n">
-        <v>6.5</v>
+        <v>2.491344148851118</v>
       </c>
     </row>
     <row r="138">
@@ -1542,7 +1542,7 @@
         <v>36663</v>
       </c>
       <c r="B138" t="n">
-        <v>6.5</v>
+        <v>2.895</v>
       </c>
     </row>
     <row r="139">
@@ -1550,7 +1550,7 @@
         <v>36664</v>
       </c>
       <c r="B139" t="n">
-        <v>6.5</v>
+        <v>4.388658865916103</v>
       </c>
     </row>
     <row r="140">
@@ -1558,7 +1558,7 @@
         <v>36665</v>
       </c>
       <c r="B140" t="n">
-        <v>6.5</v>
+        <v>3.686898583243935</v>
       </c>
     </row>
     <row r="141">
@@ -1566,7 +1566,7 @@
         <v>36666</v>
       </c>
       <c r="B141" t="n">
-        <v>6.5</v>
+        <v>4.734433011283649</v>
       </c>
     </row>
     <row r="142">
@@ -1574,7 +1574,7 @@
         <v>36667</v>
       </c>
       <c r="B142" t="n">
-        <v>6.5</v>
+        <v>3.669</v>
       </c>
     </row>
     <row r="143">
@@ -1582,7 +1582,7 @@
         <v>36668</v>
       </c>
       <c r="B143" t="n">
-        <v>6.5</v>
+        <v>6.107253253852954</v>
       </c>
     </row>
     <row r="144">
@@ -1590,7 +1590,7 @@
         <v>36669</v>
       </c>
       <c r="B144" t="n">
-        <v>6.5</v>
+        <v>4.222244618864764</v>
       </c>
     </row>
     <row r="145">
@@ -1598,7 +1598,7 @@
         <v>36670</v>
       </c>
       <c r="B145" t="n">
-        <v>6.5</v>
+        <v>2.060302057113496</v>
       </c>
     </row>
     <row r="146">
@@ -1606,7 +1606,7 @@
         <v>36671</v>
       </c>
       <c r="B146" t="n">
-        <v>6.5</v>
+        <v>2.525</v>
       </c>
     </row>
     <row r="147">
@@ -1614,7 +1614,7 @@
         <v>36672</v>
       </c>
       <c r="B147" t="n">
-        <v>6.499999999999999</v>
+        <v>5.380804929371994</v>
       </c>
     </row>
     <row r="148">
@@ -1622,7 +1622,7 @@
         <v>36673</v>
       </c>
       <c r="B148" t="n">
-        <v>6.5</v>
+        <v>3.765472912149526</v>
       </c>
     </row>
     <row r="149">
@@ -1630,7 +1630,7 @@
         <v>36674</v>
       </c>
       <c r="B149" t="n">
-        <v>6.499999999999998</v>
+        <v>3.501</v>
       </c>
     </row>
     <row r="150">
@@ -1638,7 +1638,7 @@
         <v>36675</v>
       </c>
       <c r="B150" t="n">
-        <v>6.499999999999999</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="151">
@@ -1646,7 +1646,7 @@
         <v>36676</v>
       </c>
       <c r="B151" t="n">
-        <v>6.5</v>
+        <v>2.838771500773973</v>
       </c>
     </row>
     <row r="152">
@@ -1654,7 +1654,7 @@
         <v>36677</v>
       </c>
       <c r="B152" t="n">
-        <v>6.5</v>
+        <v>6.101000000000001</v>
       </c>
     </row>
     <row r="153">
@@ -1670,7 +1670,7 @@
         <v>36679</v>
       </c>
       <c r="B154" t="n">
-        <v>6.5</v>
+        <v>2.607276051033921</v>
       </c>
     </row>
     <row r="155">
@@ -1678,7 +1678,7 @@
         <v>36680</v>
       </c>
       <c r="B155" t="n">
-        <v>6.5</v>
+        <v>2.277929232915716</v>
       </c>
     </row>
     <row r="156">
@@ -1686,7 +1686,7 @@
         <v>36681</v>
       </c>
       <c r="B156" t="n">
-        <v>6.5</v>
+        <v>7.26644366038177</v>
       </c>
     </row>
     <row r="157">
@@ -1694,7 +1694,7 @@
         <v>36682</v>
       </c>
       <c r="B157" t="n">
-        <v>6.5</v>
+        <v>3.265</v>
       </c>
     </row>
     <row r="158">
@@ -1702,7 +1702,7 @@
         <v>36683</v>
       </c>
       <c r="B158" t="n">
-        <v>6.5</v>
+        <v>4.523553936853068</v>
       </c>
     </row>
     <row r="159">
@@ -1710,7 +1710,7 @@
         <v>36684</v>
       </c>
       <c r="B159" t="n">
-        <v>6.5</v>
+        <v>3.941990861923727</v>
       </c>
     </row>
     <row r="160">
@@ -1718,7 +1718,7 @@
         <v>36685</v>
       </c>
       <c r="B160" t="n">
-        <v>6.5</v>
+        <v>3.528864800949543</v>
       </c>
     </row>
     <row r="161">
@@ -1726,7 +1726,7 @@
         <v>36686</v>
       </c>
       <c r="B161" t="n">
-        <v>6.5</v>
+        <v>5.142201956720797</v>
       </c>
     </row>
     <row r="162">
@@ -1734,7 +1734,7 @@
         <v>36687</v>
       </c>
       <c r="B162" t="n">
-        <v>6.5</v>
+        <v>3.821</v>
       </c>
     </row>
     <row r="163">
@@ -1742,7 +1742,7 @@
         <v>36688</v>
       </c>
       <c r="B163" t="n">
-        <v>6.5</v>
+        <v>7.021000000000001</v>
       </c>
     </row>
     <row r="164">
@@ -1750,7 +1750,7 @@
         <v>36689</v>
       </c>
       <c r="B164" t="n">
-        <v>4.69029160799869</v>
+        <v>4.617621699904802</v>
       </c>
     </row>
     <row r="165">
@@ -1758,7 +1758,7 @@
         <v>36690</v>
       </c>
       <c r="B165" t="n">
-        <v>6.296751383382669</v>
+        <v>4.980086</v>
       </c>
     </row>
     <row r="166">
@@ -1766,7 +1766,7 @@
         <v>36691</v>
       </c>
       <c r="B166" t="n">
-        <v>6.5</v>
+        <v>3.834059506421009</v>
       </c>
     </row>
     <row r="167">
@@ -1774,7 +1774,7 @@
         <v>36692</v>
       </c>
       <c r="B167" t="n">
-        <v>6.499999999999998</v>
+        <v>3.755398846494022</v>
       </c>
     </row>
     <row r="168">
@@ -1782,7 +1782,7 @@
         <v>36693</v>
       </c>
       <c r="B168" t="n">
-        <v>6.5</v>
+        <v>8.265227130293395</v>
       </c>
     </row>
     <row r="169">
@@ -1790,7 +1790,7 @@
         <v>36694</v>
       </c>
       <c r="B169" t="n">
-        <v>6.5</v>
+        <v>4.548458764102713</v>
       </c>
     </row>
     <row r="170">
@@ -1798,7 +1798,7 @@
         <v>36695</v>
       </c>
       <c r="B170" t="n">
-        <v>6.5</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="171">
@@ -1814,7 +1814,7 @@
         <v>36697</v>
       </c>
       <c r="B172" t="n">
-        <v>6.5</v>
+        <v>4.004894304035109</v>
       </c>
     </row>
     <row r="173">
@@ -1822,7 +1822,7 @@
         <v>36698</v>
       </c>
       <c r="B173" t="n">
-        <v>6.5</v>
+        <v>3.558392653269646</v>
       </c>
     </row>
     <row r="174">
@@ -1830,7 +1830,7 @@
         <v>36699</v>
       </c>
       <c r="B174" t="n">
-        <v>6.5</v>
+        <v>9.973539287504863</v>
       </c>
     </row>
     <row r="175">
@@ -1838,7 +1838,7 @@
         <v>36700</v>
       </c>
       <c r="B175" t="n">
-        <v>4.268272615011075</v>
+        <v>4.192845853697283</v>
       </c>
     </row>
     <row r="176">
@@ -1846,7 +1846,7 @@
         <v>36701</v>
       </c>
       <c r="B176" t="n">
-        <v>6.5</v>
+        <v>4.045999999999999</v>
       </c>
     </row>
     <row r="177">
@@ -1854,7 +1854,7 @@
         <v>36702</v>
       </c>
       <c r="B177" t="n">
-        <v>6.5</v>
+        <v>1.975</v>
       </c>
     </row>
     <row r="178">
@@ -1862,7 +1862,7 @@
         <v>36703</v>
       </c>
       <c r="B178" t="n">
-        <v>6.5</v>
+        <v>3.036761204258902</v>
       </c>
     </row>
     <row r="179">
@@ -1870,7 +1870,7 @@
         <v>36704</v>
       </c>
       <c r="B179" t="n">
-        <v>6.499999999999999</v>
+        <v>4.342914889263116</v>
       </c>
     </row>
     <row r="180">
@@ -1878,7 +1878,7 @@
         <v>36705</v>
       </c>
       <c r="B180" t="n">
-        <v>6.499999999999999</v>
+        <v>4.599248917876637</v>
       </c>
     </row>
     <row r="181">
@@ -1886,7 +1886,7 @@
         <v>36706</v>
       </c>
       <c r="B181" t="n">
-        <v>6.499999999999999</v>
+        <v>9.58872656139809</v>
       </c>
     </row>
     <row r="182">
@@ -1894,7 +1894,7 @@
         <v>36707</v>
       </c>
       <c r="B182" t="n">
-        <v>0.7867491859389353</v>
+        <v>0.7728307681239006</v>
       </c>
     </row>
     <row r="183">
@@ -1902,7 +1902,7 @@
         <v>36708</v>
       </c>
       <c r="B183" t="n">
-        <v>6.5</v>
+        <v>3.888945291854755</v>
       </c>
     </row>
     <row r="184">
@@ -1910,7 +1910,7 @@
         <v>36709</v>
       </c>
       <c r="B184" t="n">
-        <v>6.5</v>
+        <v>3.149</v>
       </c>
     </row>
     <row r="185">
@@ -1918,7 +1918,7 @@
         <v>36710</v>
       </c>
       <c r="B185" t="n">
-        <v>6.5</v>
+        <v>3.637999999999999</v>
       </c>
     </row>
     <row r="186">
@@ -1926,7 +1926,7 @@
         <v>36711</v>
       </c>
       <c r="B186" t="n">
-        <v>6.5</v>
+        <v>2.137777138803505</v>
       </c>
     </row>
     <row r="187">
@@ -1934,7 +1934,7 @@
         <v>36712</v>
       </c>
       <c r="B187" t="n">
-        <v>6.5</v>
+        <v>2.434198676500064</v>
       </c>
     </row>
     <row r="188">
@@ -1942,7 +1942,7 @@
         <v>36713</v>
       </c>
       <c r="B188" t="n">
-        <v>6.5</v>
+        <v>2.517398324703565</v>
       </c>
     </row>
     <row r="189">
@@ -1950,7 +1950,7 @@
         <v>36714</v>
       </c>
       <c r="B189" t="n">
-        <v>6.499999999999999</v>
+        <v>2.079012153748208</v>
       </c>
     </row>
     <row r="190">
@@ -1958,7 +1958,7 @@
         <v>36715</v>
       </c>
       <c r="B190" t="n">
-        <v>6.5</v>
+        <v>3.100238712472489</v>
       </c>
     </row>
     <row r="191">
@@ -1966,7 +1966,7 @@
         <v>36716</v>
       </c>
       <c r="B191" t="n">
-        <v>6.5</v>
+        <v>5.401949344457437</v>
       </c>
     </row>
     <row r="192">
@@ -1974,7 +1974,7 @@
         <v>36717</v>
       </c>
       <c r="B192" t="n">
-        <v>3.099972594829565</v>
+        <v>3.065244812457825</v>
       </c>
     </row>
     <row r="193">
@@ -1982,7 +1982,7 @@
         <v>36718</v>
       </c>
       <c r="B193" t="n">
-        <v>6.499999999999999</v>
+        <v>2.860941770991216</v>
       </c>
     </row>
     <row r="194">
@@ -1990,7 +1990,7 @@
         <v>36719</v>
       </c>
       <c r="B194" t="n">
-        <v>6.5</v>
+        <v>2.854033418920856</v>
       </c>
     </row>
     <row r="195">
@@ -1998,7 +1998,7 @@
         <v>36720</v>
       </c>
       <c r="B195" t="n">
-        <v>6.5</v>
+        <v>2.439</v>
       </c>
     </row>
     <row r="196">
@@ -2006,7 +2006,7 @@
         <v>36721</v>
       </c>
       <c r="B196" t="n">
-        <v>6.5</v>
+        <v>2.545934348922384</v>
       </c>
     </row>
     <row r="197">
@@ -2014,7 +2014,7 @@
         <v>36722</v>
       </c>
       <c r="B197" t="n">
-        <v>6.5</v>
+        <v>2.376</v>
       </c>
     </row>
     <row r="198">
@@ -2022,7 +2022,7 @@
         <v>36723</v>
       </c>
       <c r="B198" t="n">
-        <v>6.5</v>
+        <v>1.953</v>
       </c>
     </row>
     <row r="199">
@@ -2030,7 +2030,7 @@
         <v>36724</v>
       </c>
       <c r="B199" t="n">
-        <v>6.5</v>
+        <v>2.267480556514722</v>
       </c>
     </row>
     <row r="200">
@@ -2038,7 +2038,7 @@
         <v>36725</v>
       </c>
       <c r="B200" t="n">
-        <v>6.5</v>
+        <v>2.271474270997951</v>
       </c>
     </row>
     <row r="201">
@@ -2046,7 +2046,7 @@
         <v>36726</v>
       </c>
       <c r="B201" t="n">
-        <v>6.5</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="202">
@@ -2054,7 +2054,7 @@
         <v>36727</v>
       </c>
       <c r="B202" t="n">
-        <v>6.499999999999998</v>
+        <v>3.599860623826811</v>
       </c>
     </row>
     <row r="203">
@@ -2062,7 +2062,7 @@
         <v>36728</v>
       </c>
       <c r="B203" t="n">
-        <v>6.5</v>
+        <v>4.382088030648497</v>
       </c>
     </row>
     <row r="204">
@@ -2070,7 +2070,7 @@
         <v>36729</v>
       </c>
       <c r="B204" t="n">
-        <v>6.5</v>
+        <v>3.858005519411273</v>
       </c>
     </row>
     <row r="205">
@@ -2078,7 +2078,7 @@
         <v>36730</v>
       </c>
       <c r="B205" t="n">
-        <v>6.5</v>
+        <v>3.917671610978068</v>
       </c>
     </row>
     <row r="206">
@@ -2086,7 +2086,7 @@
         <v>36731</v>
       </c>
       <c r="B206" t="n">
-        <v>6.5</v>
+        <v>5.067264008008578</v>
       </c>
     </row>
     <row r="207">
@@ -2094,7 +2094,7 @@
         <v>36732</v>
       </c>
       <c r="B207" t="n">
-        <v>6.5</v>
+        <v>3.381778935480396</v>
       </c>
     </row>
     <row r="208">
@@ -2102,7 +2102,7 @@
         <v>36733</v>
       </c>
       <c r="B208" t="n">
-        <v>6.5</v>
+        <v>2.887</v>
       </c>
     </row>
     <row r="209">
@@ -2110,7 +2110,7 @@
         <v>36734</v>
       </c>
       <c r="B209" t="n">
-        <v>6.5</v>
+        <v>3.704703734263448</v>
       </c>
     </row>
     <row r="210">
@@ -2118,7 +2118,7 @@
         <v>36735</v>
       </c>
       <c r="B210" t="n">
-        <v>6.5</v>
+        <v>3.855697287253109</v>
       </c>
     </row>
     <row r="211">
@@ -2126,7 +2126,7 @@
         <v>36736</v>
       </c>
       <c r="B211" t="n">
-        <v>6.5</v>
+        <v>2.41973743863259</v>
       </c>
     </row>
     <row r="212">
@@ -2134,7 +2134,7 @@
         <v>36737</v>
       </c>
       <c r="B212" t="n">
-        <v>6.499999999999999</v>
+        <v>3.40355580725026</v>
       </c>
     </row>
     <row r="213">
@@ -2142,7 +2142,7 @@
         <v>36738</v>
       </c>
       <c r="B213" t="n">
-        <v>6.5</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="214">
@@ -2150,7 +2150,7 @@
         <v>36739</v>
       </c>
       <c r="B214" t="n">
-        <v>6.5</v>
+        <v>3.441705761817002</v>
       </c>
     </row>
     <row r="215">
@@ -2158,7 +2158,7 @@
         <v>36740</v>
       </c>
       <c r="B215" t="n">
-        <v>6.5</v>
+        <v>2.893</v>
       </c>
     </row>
     <row r="216">
@@ -2166,7 +2166,7 @@
         <v>36741</v>
       </c>
       <c r="B216" t="n">
-        <v>6.5</v>
+        <v>3.019</v>
       </c>
     </row>
     <row r="217">
@@ -2174,7 +2174,7 @@
         <v>36742</v>
       </c>
       <c r="B217" t="n">
-        <v>6.499999999999999</v>
+        <v>2.693000000000001</v>
       </c>
     </row>
     <row r="218">
@@ -2182,7 +2182,7 @@
         <v>36743</v>
       </c>
       <c r="B218" t="n">
-        <v>6.5</v>
+        <v>2.944964031219414</v>
       </c>
     </row>
     <row r="219">
@@ -2190,7 +2190,7 @@
         <v>36744</v>
       </c>
       <c r="B219" t="n">
-        <v>6.5</v>
+        <v>3.331</v>
       </c>
     </row>
     <row r="220">
@@ -2198,7 +2198,7 @@
         <v>36745</v>
       </c>
       <c r="B220" t="n">
-        <v>6.499999999999999</v>
+        <v>3.037287352357633</v>
       </c>
     </row>
     <row r="221">
@@ -2206,7 +2206,7 @@
         <v>36746</v>
       </c>
       <c r="B221" t="n">
-        <v>6.499999999999998</v>
+        <v>6.301427756141774</v>
       </c>
     </row>
     <row r="222">
@@ -2214,7 +2214,7 @@
         <v>36747</v>
       </c>
       <c r="B222" t="n">
-        <v>6.5</v>
+        <v>2.634</v>
       </c>
     </row>
     <row r="223">
@@ -2222,7 +2222,7 @@
         <v>36748</v>
       </c>
       <c r="B223" t="n">
-        <v>6.5</v>
+        <v>2.787871925889192</v>
       </c>
     </row>
     <row r="224">
@@ -2230,7 +2230,7 @@
         <v>36749</v>
       </c>
       <c r="B224" t="n">
-        <v>6.5</v>
+        <v>3.372</v>
       </c>
     </row>
     <row r="225">
@@ -2238,7 +2238,7 @@
         <v>36750</v>
       </c>
       <c r="B225" t="n">
-        <v>6.499999999999999</v>
+        <v>7.204590169485032</v>
       </c>
     </row>
     <row r="226">
@@ -2246,7 +2246,7 @@
         <v>36751</v>
       </c>
       <c r="B226" t="n">
-        <v>6.5</v>
+        <v>4.785</v>
       </c>
     </row>
     <row r="227">
@@ -2254,7 +2254,7 @@
         <v>36752</v>
       </c>
       <c r="B227" t="n">
-        <v>6.5</v>
+        <v>7.278539474661441</v>
       </c>
     </row>
     <row r="228">
@@ -2262,7 +2262,7 @@
         <v>36753</v>
       </c>
       <c r="B228" t="n">
-        <v>6.5</v>
+        <v>3.249</v>
       </c>
     </row>
     <row r="229">
@@ -2270,7 +2270,7 @@
         <v>36754</v>
       </c>
       <c r="B229" t="n">
-        <v>6.5</v>
+        <v>3.626</v>
       </c>
     </row>
     <row r="230">
@@ -2278,7 +2278,7 @@
         <v>36755</v>
       </c>
       <c r="B230" t="n">
-        <v>6.5</v>
+        <v>3.168</v>
       </c>
     </row>
     <row r="231">
@@ -2286,7 +2286,7 @@
         <v>36756</v>
       </c>
       <c r="B231" t="n">
-        <v>6.5</v>
+        <v>2.715</v>
       </c>
     </row>
     <row r="232">
@@ -2294,7 +2294,7 @@
         <v>36757</v>
       </c>
       <c r="B232" t="n">
-        <v>6.5</v>
+        <v>8.494995093109116</v>
       </c>
     </row>
     <row r="233">
@@ -2302,7 +2302,7 @@
         <v>36758</v>
       </c>
       <c r="B233" t="n">
-        <v>0.7058538671941408</v>
+        <v>0.6947941989852841</v>
       </c>
     </row>
     <row r="234">
@@ -2310,7 +2310,7 @@
         <v>36759</v>
       </c>
       <c r="B234" t="n">
-        <v>6.5</v>
+        <v>2.766</v>
       </c>
     </row>
     <row r="235">
@@ -2318,7 +2318,7 @@
         <v>36760</v>
       </c>
       <c r="B235" t="n">
-        <v>6.5</v>
+        <v>6.80184278328598</v>
       </c>
     </row>
     <row r="236">
@@ -2326,7 +2326,7 @@
         <v>36761</v>
       </c>
       <c r="B236" t="n">
-        <v>6.5</v>
+        <v>3.905168380340188</v>
       </c>
     </row>
     <row r="237">
@@ -2334,7 +2334,7 @@
         <v>36762</v>
       </c>
       <c r="B237" t="n">
-        <v>6.5</v>
+        <v>6.031846152659302</v>
       </c>
     </row>
     <row r="238">
@@ -2342,7 +2342,7 @@
         <v>36763</v>
       </c>
       <c r="B238" t="n">
-        <v>6.5</v>
+        <v>3.968</v>
       </c>
     </row>
     <row r="239">
@@ -2350,7 +2350,7 @@
         <v>36764</v>
       </c>
       <c r="B239" t="n">
-        <v>6.5</v>
+        <v>5.880408176492825</v>
       </c>
     </row>
     <row r="240">
@@ -2358,7 +2358,7 @@
         <v>36765</v>
       </c>
       <c r="B240" t="n">
-        <v>6.5</v>
+        <v>3.651945889148166</v>
       </c>
     </row>
     <row r="241">
@@ -2366,7 +2366,7 @@
         <v>36766</v>
       </c>
       <c r="B241" t="n">
-        <v>6.5</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="242">
@@ -2374,7 +2374,7 @@
         <v>36767</v>
       </c>
       <c r="B242" t="n">
-        <v>6.499999999999997</v>
+        <v>2.797</v>
       </c>
     </row>
     <row r="243">
@@ -2382,7 +2382,7 @@
         <v>36768</v>
       </c>
       <c r="B243" t="n">
-        <v>6.5</v>
+        <v>3.117320750501105</v>
       </c>
     </row>
     <row r="244">
@@ -2390,7 +2390,7 @@
         <v>36769</v>
       </c>
       <c r="B244" t="n">
-        <v>6.5</v>
+        <v>3.237778681826236</v>
       </c>
     </row>
     <row r="245">
@@ -2398,7 +2398,7 @@
         <v>36770</v>
       </c>
       <c r="B245" t="n">
-        <v>6.5</v>
+        <v>3.808973793385333</v>
       </c>
     </row>
     <row r="246">
@@ -2406,7 +2406,7 @@
         <v>36771</v>
       </c>
       <c r="B246" t="n">
-        <v>6.499999999999999</v>
+        <v>7.419026268728389</v>
       </c>
     </row>
     <row r="247">
@@ -2414,7 +2414,7 @@
         <v>36772</v>
       </c>
       <c r="B247" t="n">
-        <v>6.229902799129528</v>
+        <v>3.716</v>
       </c>
     </row>
     <row r="248">
@@ -2422,7 +2422,7 @@
         <v>36773</v>
       </c>
       <c r="B248" t="n">
-        <v>6.499999999999999</v>
+        <v>4.824</v>
       </c>
     </row>
     <row r="249">
@@ -2430,7 +2430,7 @@
         <v>36774</v>
       </c>
       <c r="B249" t="n">
-        <v>6.499999999999999</v>
+        <v>5.925834261649912</v>
       </c>
     </row>
     <row r="250">
@@ -2438,7 +2438,7 @@
         <v>36775</v>
       </c>
       <c r="B250" t="n">
-        <v>6.5</v>
+        <v>4.501032570726371</v>
       </c>
     </row>
     <row r="251">
@@ -2446,7 +2446,7 @@
         <v>36776</v>
       </c>
       <c r="B251" t="n">
-        <v>6.5</v>
+        <v>4.336</v>
       </c>
     </row>
     <row r="252">
@@ -2454,7 +2454,7 @@
         <v>36777</v>
       </c>
       <c r="B252" t="n">
-        <v>6.5</v>
+        <v>3.993268370247011</v>
       </c>
     </row>
     <row r="253">
@@ -2462,7 +2462,7 @@
         <v>36778</v>
       </c>
       <c r="B253" t="n">
-        <v>6.5</v>
+        <v>3.688525310257439</v>
       </c>
     </row>
     <row r="254">
@@ -2470,7 +2470,7 @@
         <v>36779</v>
       </c>
       <c r="B254" t="n">
-        <v>6.5</v>
+        <v>4.035731880565836</v>
       </c>
     </row>
     <row r="255">
@@ -2478,7 +2478,7 @@
         <v>36780</v>
       </c>
       <c r="B255" t="n">
-        <v>6.499999999999999</v>
+        <v>5.665234588504529</v>
       </c>
     </row>
     <row r="256">
@@ -2486,7 +2486,7 @@
         <v>36781</v>
       </c>
       <c r="B256" t="n">
-        <v>6.5</v>
+        <v>5.298081695808655</v>
       </c>
     </row>
     <row r="257">
@@ -2494,7 +2494,7 @@
         <v>36782</v>
       </c>
       <c r="B257" t="n">
-        <v>6.5</v>
+        <v>5.412501893541934</v>
       </c>
     </row>
     <row r="258">
@@ -2502,7 +2502,7 @@
         <v>36783</v>
       </c>
       <c r="B258" t="n">
-        <v>6.5</v>
+        <v>4.925089914798103</v>
       </c>
     </row>
     <row r="259">
@@ -2510,7 +2510,7 @@
         <v>36784</v>
       </c>
       <c r="B259" t="n">
-        <v>6.5</v>
+        <v>3.138</v>
       </c>
     </row>
     <row r="260">
@@ -2518,7 +2518,7 @@
         <v>36785</v>
       </c>
       <c r="B260" t="n">
-        <v>6.5</v>
+        <v>3.004</v>
       </c>
     </row>
     <row r="261">
@@ -2526,7 +2526,7 @@
         <v>36786</v>
       </c>
       <c r="B261" t="n">
-        <v>6.5</v>
+        <v>2.966698630463583</v>
       </c>
     </row>
     <row r="262">
@@ -2534,7 +2534,7 @@
         <v>36787</v>
       </c>
       <c r="B262" t="n">
-        <v>6.5</v>
+        <v>3.052</v>
       </c>
     </row>
     <row r="263">
@@ -2542,7 +2542,7 @@
         <v>36788</v>
       </c>
       <c r="B263" t="n">
-        <v>6.5</v>
+        <v>2.979</v>
       </c>
     </row>
     <row r="264">
@@ -2550,7 +2550,7 @@
         <v>36789</v>
       </c>
       <c r="B264" t="n">
-        <v>6.499999999999998</v>
+        <v>3.997437896440418</v>
       </c>
     </row>
     <row r="265">
@@ -2558,7 +2558,7 @@
         <v>36790</v>
       </c>
       <c r="B265" t="n">
-        <v>6.5</v>
+        <v>6.487</v>
       </c>
     </row>
     <row r="266">
@@ -2566,7 +2566,7 @@
         <v>36791</v>
       </c>
       <c r="B266" t="n">
-        <v>6.499999999999998</v>
+        <v>7.754</v>
       </c>
     </row>
     <row r="267">
@@ -2582,7 +2582,7 @@
         <v>36793</v>
       </c>
       <c r="B268" t="n">
-        <v>6.5</v>
+        <v>3.4284263763891</v>
       </c>
     </row>
     <row r="269">
@@ -2590,7 +2590,7 @@
         <v>36794</v>
       </c>
       <c r="B269" t="n">
-        <v>6.5</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="270">
@@ -2598,7 +2598,7 @@
         <v>36795</v>
       </c>
       <c r="B270" t="n">
-        <v>6.5</v>
+        <v>3.538</v>
       </c>
     </row>
     <row r="271">
@@ -2606,7 +2606,7 @@
         <v>36796</v>
       </c>
       <c r="B271" t="n">
-        <v>6.5</v>
+        <v>5.599352248956297</v>
       </c>
     </row>
     <row r="272">
@@ -2614,7 +2614,7 @@
         <v>36797</v>
       </c>
       <c r="B272" t="n">
-        <v>5.18647357844071</v>
+        <v>4.201547573175034</v>
       </c>
     </row>
     <row r="273">
@@ -2622,7 +2622,7 @@
         <v>36798</v>
       </c>
       <c r="B273" t="n">
-        <v>6.5</v>
+        <v>5.877000000000001</v>
       </c>
     </row>
     <row r="274">
@@ -2630,7 +2630,7 @@
         <v>36799</v>
       </c>
       <c r="B274" t="n">
-        <v>6.5</v>
+        <v>6.585154470998251</v>
       </c>
     </row>
     <row r="275">
@@ -2638,7 +2638,7 @@
         <v>36800</v>
       </c>
       <c r="B275" t="n">
-        <v>6.499999999999998</v>
+        <v>6.53092538493486</v>
       </c>
     </row>
     <row r="276">
@@ -2646,7 +2646,7 @@
         <v>36801</v>
       </c>
       <c r="B276" t="n">
-        <v>2.136225066639862</v>
+        <v>2.130013596118428</v>
       </c>
     </row>
     <row r="277">
@@ -2654,7 +2654,7 @@
         <v>36802</v>
       </c>
       <c r="B277" t="n">
-        <v>6.499999999999999</v>
+        <v>7.461516001124807</v>
       </c>
     </row>
     <row r="278">
@@ -2662,7 +2662,7 @@
         <v>36803</v>
       </c>
       <c r="B278" t="n">
-        <v>6.5</v>
+        <v>4.191</v>
       </c>
     </row>
     <row r="279">
@@ -2670,7 +2670,7 @@
         <v>36804</v>
       </c>
       <c r="B279" t="n">
-        <v>6.5</v>
+        <v>3.329</v>
       </c>
     </row>
     <row r="280">
@@ -2678,7 +2678,7 @@
         <v>36805</v>
       </c>
       <c r="B280" t="n">
-        <v>6.5</v>
+        <v>5.980805333134611</v>
       </c>
     </row>
     <row r="281">
@@ -2686,7 +2686,7 @@
         <v>36806</v>
       </c>
       <c r="B281" t="n">
-        <v>6.499999999999999</v>
+        <v>4.609</v>
       </c>
     </row>
     <row r="282">
@@ -2694,7 +2694,7 @@
         <v>36807</v>
       </c>
       <c r="B282" t="n">
-        <v>6.5</v>
+        <v>4.807</v>
       </c>
     </row>
     <row r="283">
@@ -2702,7 +2702,7 @@
         <v>36808</v>
       </c>
       <c r="B283" t="n">
-        <v>6.5</v>
+        <v>3.964</v>
       </c>
     </row>
     <row r="284">
@@ -2710,7 +2710,7 @@
         <v>36809</v>
       </c>
       <c r="B284" t="n">
-        <v>6.5</v>
+        <v>5.699058912561958</v>
       </c>
     </row>
     <row r="285">
@@ -2718,7 +2718,7 @@
         <v>36810</v>
       </c>
       <c r="B285" t="n">
-        <v>6.499999999999999</v>
+        <v>4.503</v>
       </c>
     </row>
     <row r="286">
@@ -2726,7 +2726,7 @@
         <v>36811</v>
       </c>
       <c r="B286" t="n">
-        <v>6.499999999999998</v>
+        <v>4.432568730851585</v>
       </c>
     </row>
     <row r="287">
@@ -2734,7 +2734,7 @@
         <v>36812</v>
       </c>
       <c r="B287" t="n">
-        <v>6.5</v>
+        <v>4.028076065125143</v>
       </c>
     </row>
     <row r="288">
@@ -2742,7 +2742,7 @@
         <v>36813</v>
       </c>
       <c r="B288" t="n">
-        <v>6.499999999999999</v>
+        <v>4.647294408921598</v>
       </c>
     </row>
     <row r="289">
@@ -2750,7 +2750,7 @@
         <v>36814</v>
       </c>
       <c r="B289" t="n">
-        <v>6.499999999999999</v>
+        <v>6.949</v>
       </c>
     </row>
     <row r="290">
@@ -2758,7 +2758,7 @@
         <v>36815</v>
       </c>
       <c r="B290" t="n">
-        <v>6.499999999999998</v>
+        <v>5.446999999999999</v>
       </c>
     </row>
     <row r="291">
@@ -2766,7 +2766,7 @@
         <v>36816</v>
       </c>
       <c r="B291" t="n">
-        <v>6.5</v>
+        <v>5.414347216647496</v>
       </c>
     </row>
     <row r="292">
@@ -2774,7 +2774,7 @@
         <v>36817</v>
       </c>
       <c r="B292" t="n">
-        <v>6.499999999999999</v>
+        <v>4.695658983598448</v>
       </c>
     </row>
     <row r="293">
@@ -2782,7 +2782,7 @@
         <v>36818</v>
       </c>
       <c r="B293" t="n">
-        <v>6.5</v>
+        <v>4.110401880438967</v>
       </c>
     </row>
     <row r="294">
@@ -2790,7 +2790,7 @@
         <v>36819</v>
       </c>
       <c r="B294" t="n">
-        <v>6.499999999999999</v>
+        <v>4.836649010452272</v>
       </c>
     </row>
     <row r="295">
@@ -2798,7 +2798,7 @@
         <v>36820</v>
       </c>
       <c r="B295" t="n">
-        <v>6.5</v>
+        <v>4.95474484012031</v>
       </c>
     </row>
     <row r="296">
@@ -2806,7 +2806,7 @@
         <v>36821</v>
       </c>
       <c r="B296" t="n">
-        <v>6.499999999999998</v>
+        <v>6.142682390752019</v>
       </c>
     </row>
     <row r="297">
@@ -2814,7 +2814,7 @@
         <v>36822</v>
       </c>
       <c r="B297" t="n">
-        <v>6.5</v>
+        <v>7.468</v>
       </c>
     </row>
     <row r="298">
@@ -2822,7 +2822,7 @@
         <v>36823</v>
       </c>
       <c r="B298" t="n">
-        <v>1.079922354428133</v>
+        <v>1.063348393495428</v>
       </c>
     </row>
     <row r="299">
@@ -2838,7 +2838,7 @@
         <v>36825</v>
       </c>
       <c r="B300" t="n">
-        <v>0.2954329609967254</v>
+        <v>0.2943761420542469</v>
       </c>
     </row>
     <row r="301">
@@ -2846,7 +2846,7 @@
         <v>36826</v>
       </c>
       <c r="B301" t="n">
-        <v>6.5</v>
+        <v>5.579169413890433</v>
       </c>
     </row>
     <row r="302">
@@ -2854,7 +2854,7 @@
         <v>36827</v>
       </c>
       <c r="B302" t="n">
-        <v>6.5</v>
+        <v>8.004000000000001</v>
       </c>
     </row>
     <row r="303">
@@ -2878,7 +2878,7 @@
         <v>36830</v>
       </c>
       <c r="B305" t="n">
-        <v>6.499999999999999</v>
+        <v>6.79457499721355</v>
       </c>
     </row>
     <row r="306">
@@ -2894,7 +2894,7 @@
         <v>36832</v>
       </c>
       <c r="B307" t="n">
-        <v>6.5</v>
+        <v>4.227939820192869</v>
       </c>
     </row>
     <row r="308">
@@ -2902,7 +2902,7 @@
         <v>36833</v>
       </c>
       <c r="B308" t="n">
-        <v>6.499999999999999</v>
+        <v>6.138135132345361</v>
       </c>
     </row>
     <row r="309">
@@ -2910,7 +2910,7 @@
         <v>36834</v>
       </c>
       <c r="B309" t="n">
-        <v>6.5</v>
+        <v>4.887</v>
       </c>
     </row>
     <row r="310">
@@ -2918,7 +2918,7 @@
         <v>36835</v>
       </c>
       <c r="B310" t="n">
-        <v>6.5</v>
+        <v>4.649871726109403</v>
       </c>
     </row>
     <row r="311">
@@ -2926,7 +2926,7 @@
         <v>36836</v>
       </c>
       <c r="B311" t="n">
-        <v>6.5</v>
+        <v>8.340999999999999</v>
       </c>
     </row>
     <row r="312">
@@ -2934,7 +2934,7 @@
         <v>36837</v>
       </c>
       <c r="B312" t="n">
-        <v>0.5649935200846222</v>
+        <v>0.5730599518409627</v>
       </c>
     </row>
     <row r="313">
@@ -2942,7 +2942,7 @@
         <v>36838</v>
       </c>
       <c r="B313" t="n">
-        <v>6.5</v>
+        <v>8.458303578996691</v>
       </c>
     </row>
     <row r="314">
@@ -2950,7 +2950,7 @@
         <v>36839</v>
       </c>
       <c r="B314" t="n">
-        <v>6.499999999999999</v>
+        <v>8.487757051508462</v>
       </c>
     </row>
     <row r="315">
@@ -2958,7 +2958,7 @@
         <v>36840</v>
       </c>
       <c r="B315" t="n">
-        <v>0.1261379158801073</v>
+        <v>0.1267443996849951</v>
       </c>
     </row>
     <row r="316">
@@ -2966,7 +2966,7 @@
         <v>36841</v>
       </c>
       <c r="B316" t="n">
-        <v>2.893638743036341</v>
+        <v>2.891485080991422</v>
       </c>
     </row>
     <row r="317">
@@ -2982,7 +2982,7 @@
         <v>36843</v>
       </c>
       <c r="B318" t="n">
-        <v>6.5</v>
+        <v>6.966925754661157</v>
       </c>
     </row>
     <row r="319">
@@ -2990,7 +2990,7 @@
         <v>36844</v>
       </c>
       <c r="B319" t="n">
-        <v>6.5</v>
+        <v>4.468523002785833</v>
       </c>
     </row>
     <row r="320">
@@ -2998,7 +2998,7 @@
         <v>36845</v>
       </c>
       <c r="B320" t="n">
-        <v>6.5</v>
+        <v>5.986999999999999</v>
       </c>
     </row>
     <row r="321">
@@ -3006,7 +3006,7 @@
         <v>36846</v>
       </c>
       <c r="B321" t="n">
-        <v>6.5</v>
+        <v>4.705120974025649</v>
       </c>
     </row>
     <row r="322">
@@ -3014,7 +3014,7 @@
         <v>36847</v>
       </c>
       <c r="B322" t="n">
-        <v>6.499999999999999</v>
+        <v>8.418848373080912</v>
       </c>
     </row>
     <row r="323">
@@ -3022,7 +3022,7 @@
         <v>36848</v>
       </c>
       <c r="B323" t="n">
-        <v>6.5</v>
+        <v>7.647977594469145</v>
       </c>
     </row>
     <row r="324">
@@ -3030,7 +3030,7 @@
         <v>36849</v>
       </c>
       <c r="B324" t="n">
-        <v>2.517950806855025</v>
+        <v>2.529540566308586</v>
       </c>
     </row>
     <row r="325">
@@ -3046,7 +3046,7 @@
         <v>36851</v>
       </c>
       <c r="B326" t="n">
-        <v>1.495255541802358</v>
+        <v>1.493209408810832</v>
       </c>
     </row>
     <row r="327">
@@ -3054,7 +3054,7 @@
         <v>36852</v>
       </c>
       <c r="B327" t="n">
-        <v>6.5</v>
+        <v>6.337999999999999</v>
       </c>
     </row>
     <row r="328">
@@ -3062,7 +3062,7 @@
         <v>36853</v>
       </c>
       <c r="B328" t="n">
-        <v>6.5</v>
+        <v>10.17371373346216</v>
       </c>
     </row>
     <row r="329">
@@ -3094,7 +3094,7 @@
         <v>36857</v>
       </c>
       <c r="B332" t="n">
-        <v>0.6121332598989789</v>
+        <v>0.6112741891946165</v>
       </c>
     </row>
     <row r="333">
@@ -3118,7 +3118,7 @@
         <v>36860</v>
       </c>
       <c r="B335" t="n">
-        <v>1.624900315127488</v>
+        <v>1.628054240519556</v>
       </c>
     </row>
     <row r="336">
@@ -3126,7 +3126,7 @@
         <v>36861</v>
       </c>
       <c r="B336" t="n">
-        <v>1.414514450828</v>
+        <v>1.417151519761687</v>
       </c>
     </row>
     <row r="337">
@@ -3142,7 +3142,7 @@
         <v>36863</v>
       </c>
       <c r="B338" t="n">
-        <v>1.311938891107031</v>
+        <v>1.31090706884663</v>
       </c>
     </row>
     <row r="339">
@@ -3150,7 +3150,7 @@
         <v>36864</v>
       </c>
       <c r="B339" t="n">
-        <v>5.457503252430285</v>
+        <v>5.486251911395063</v>
       </c>
     </row>
     <row r="340">
@@ -3158,7 +3158,7 @@
         <v>36865</v>
       </c>
       <c r="B340" t="n">
-        <v>0.6774912530848223</v>
+        <v>0.6791696317333129</v>
       </c>
     </row>
     <row r="341">
@@ -3190,7 +3190,7 @@
         <v>36869</v>
       </c>
       <c r="B344" t="n">
-        <v>0.2554484366547911</v>
+        <v>0.2584264564409955</v>
       </c>
     </row>
     <row r="345">
@@ -3198,7 +3198,7 @@
         <v>36870</v>
       </c>
       <c r="B345" t="n">
-        <v>6.5</v>
+        <v>7.029428494279804</v>
       </c>
     </row>
     <row r="346">
@@ -3206,7 +3206,7 @@
         <v>36871</v>
       </c>
       <c r="B346" t="n">
-        <v>6.373802938066352</v>
+        <v>6.432650610636871</v>
       </c>
     </row>
     <row r="347">
@@ -3214,7 +3214,7 @@
         <v>36872</v>
       </c>
       <c r="B347" t="n">
-        <v>0.8836384728745603</v>
+        <v>0.8854337137624242</v>
       </c>
     </row>
     <row r="348">
@@ -3222,7 +3222,7 @@
         <v>36873</v>
       </c>
       <c r="B348" t="n">
-        <v>5.851808341956299</v>
+        <v>5.929039963340119</v>
       </c>
     </row>
     <row r="349">
@@ -3230,7 +3230,7 @@
         <v>36874</v>
       </c>
       <c r="B349" t="n">
-        <v>0.1890014943191278</v>
+        <v>0.1887196648467258</v>
       </c>
     </row>
     <row r="350">
@@ -3238,7 +3238,7 @@
         <v>36875</v>
       </c>
       <c r="B350" t="n">
-        <v>0.1674215479693945</v>
+        <v>0.1690994852528138</v>
       </c>
     </row>
     <row r="351">
@@ -3246,7 +3246,7 @@
         <v>36876</v>
       </c>
       <c r="B351" t="n">
-        <v>0.5700562775760289</v>
+        <v>0.5728402243761959</v>
       </c>
     </row>
     <row r="352">
@@ -3254,7 +3254,7 @@
         <v>36877</v>
       </c>
       <c r="B352" t="n">
-        <v>1.119989480329731</v>
+        <v>1.135100862620721</v>
       </c>
     </row>
     <row r="353">
@@ -3262,7 +3262,7 @@
         <v>36878</v>
       </c>
       <c r="B353" t="n">
-        <v>6.499999999999999</v>
+        <v>7.667517268959144</v>
       </c>
     </row>
     <row r="354">
@@ -3294,7 +3294,7 @@
         <v>36882</v>
       </c>
       <c r="B357" t="n">
-        <v>0.8823698774254276</v>
+        <v>0.8842481994722022</v>
       </c>
     </row>
     <row r="358">
@@ -3310,7 +3310,7 @@
         <v>36884</v>
       </c>
       <c r="B359" t="n">
-        <v>4.208896489910449</v>
+        <v>4.276550684756547</v>
       </c>
     </row>
     <row r="360">
@@ -3318,7 +3318,7 @@
         <v>36885</v>
       </c>
       <c r="B360" t="n">
-        <v>5.177317777931807</v>
+        <v>5.239572660613996</v>
       </c>
     </row>
     <row r="361">
@@ -3326,7 +3326,7 @@
         <v>36886</v>
       </c>
       <c r="B361" t="n">
-        <v>6.499999999999999</v>
+        <v>5.619012260768555</v>
       </c>
     </row>
     <row r="362">
@@ -3334,7 +3334,7 @@
         <v>36887</v>
       </c>
       <c r="B362" t="n">
-        <v>4.381479864277414</v>
+        <v>4.395980383100534</v>
       </c>
     </row>
     <row r="363">
@@ -3342,7 +3342,7 @@
         <v>36888</v>
       </c>
       <c r="B363" t="n">
-        <v>6.5</v>
+        <v>7.849316015803696</v>
       </c>
     </row>
     <row r="364">
@@ -3358,7 +3358,7 @@
         <v>36890</v>
       </c>
       <c r="B365" t="n">
-        <v>0.1210095868742612</v>
+        <v>0.1214770649065416</v>
       </c>
     </row>
     <row r="366">

--- a/results/end_of_day_charge_levels.xlsx
+++ b/results/end_of_day_charge_levels.xlsx
@@ -454,7 +454,7 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>1.761613241209058</v>
+        <v>1.761558754488767</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>36527</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5919845985996208</v>
+        <v>0.5919837269039552</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>36528</v>
       </c>
       <c r="B4" t="n">
-        <v>0.09026532027770591</v>
+        <v>0.09026060662080225</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         <v>36530</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6969607949361963</v>
+        <v>0.6969636844637308</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>36531</v>
       </c>
       <c r="B7" t="n">
-        <v>1.463101999229971</v>
+        <v>1.463102453982562</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>36532</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1526614780050928</v>
+        <v>0.1526624679208584</v>
       </c>
     </row>
     <row r="9">
@@ -518,7 +518,7 @@
         <v>36534</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1318776644104936</v>
+        <v>0.1318796712544059</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>36535</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6494840946561433</v>
+        <v>0.6494838447711613</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>36536</v>
       </c>
       <c r="B12" t="n">
-        <v>1.457919626458243</v>
+        <v>1.457929903010341</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>36537</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4281735148343131</v>
+        <v>0.4281739098008951</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>36538</v>
       </c>
       <c r="B14" t="n">
-        <v>2.887152857021649</v>
+        <v>2.887180786484054</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>36539</v>
       </c>
       <c r="B15" t="n">
-        <v>8.833988625089145</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="16">
@@ -574,7 +574,7 @@
         <v>36541</v>
       </c>
       <c r="B17" t="n">
-        <v>3.178204203976048</v>
+        <v>3.178224974659674</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>36542</v>
       </c>
       <c r="B18" t="n">
-        <v>1.724465305440395</v>
+        <v>1.724516863368592</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>36543</v>
       </c>
       <c r="B19" t="n">
-        <v>1.022270768065247</v>
+        <v>1.022268815190919</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>36544</v>
       </c>
       <c r="B20" t="n">
-        <v>8.309377231247858</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -614,7 +614,7 @@
         <v>36546</v>
       </c>
       <c r="B22" t="n">
-        <v>7.695886586059023</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>36547</v>
       </c>
       <c r="B23" t="n">
-        <v>2.117245224472298</v>
+        <v>2.117246429547663</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>36548</v>
       </c>
       <c r="B24" t="n">
-        <v>4.968900283905088</v>
+        <v>4.968907956799848</v>
       </c>
     </row>
     <row r="25">
@@ -654,7 +654,7 @@
         <v>36551</v>
       </c>
       <c r="B27" t="n">
-        <v>5.564708984318357</v>
+        <v>5.56470969881572</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>36552</v>
       </c>
       <c r="B28" t="n">
-        <v>6.546129822740627</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>36553</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3601203644862209</v>
+        <v>0.3601256801955068</v>
       </c>
     </row>
     <row r="30">
@@ -686,7 +686,7 @@
         <v>36555</v>
       </c>
       <c r="B31" t="n">
-        <v>10.91</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="32">
@@ -702,7 +702,7 @@
         <v>36557</v>
       </c>
       <c r="B33" t="n">
-        <v>1.014383207618612</v>
+        <v>1.01442450953996</v>
       </c>
     </row>
     <row r="34">
@@ -726,7 +726,7 @@
         <v>36560</v>
       </c>
       <c r="B36" t="n">
-        <v>2.116471896716609</v>
+        <v>2.116374568009162</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +734,7 @@
         <v>36561</v>
       </c>
       <c r="B37" t="n">
-        <v>9.486999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="38">
@@ -742,7 +742,7 @@
         <v>36562</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3803682650801067</v>
+        <v>0.3803687972247771</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>36563</v>
       </c>
       <c r="B39" t="n">
-        <v>5.988435593856955</v>
+        <v>5.988341035762289</v>
       </c>
     </row>
     <row r="40">
@@ -766,7 +766,7 @@
         <v>36565</v>
       </c>
       <c r="B41" t="n">
-        <v>10.7532379827645</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>36566</v>
       </c>
       <c r="B42" t="n">
-        <v>4.297736765208668</v>
+        <v>4.298043087089617</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>36567</v>
       </c>
       <c r="B43" t="n">
-        <v>3.982351441515012</v>
+        <v>3.982464840635263</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>36568</v>
       </c>
       <c r="B44" t="n">
-        <v>5.166047149276534</v>
+        <v>5.166132682341855</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>36569</v>
       </c>
       <c r="B45" t="n">
-        <v>5.326737657637537</v>
+        <v>5.32674175588443</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +806,7 @@
         <v>36570</v>
       </c>
       <c r="B46" t="n">
-        <v>11.15298587441428</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +814,7 @@
         <v>36571</v>
       </c>
       <c r="B47" t="n">
-        <v>0.3938982781151951</v>
+        <v>0.3939073162291987</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +822,7 @@
         <v>36572</v>
       </c>
       <c r="B48" t="n">
-        <v>10.03243665373797</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="49">
@@ -830,7 +830,7 @@
         <v>36573</v>
       </c>
       <c r="B49" t="n">
-        <v>7.08405800581858</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="50">
@@ -838,7 +838,7 @@
         <v>36574</v>
       </c>
       <c r="B50" t="n">
-        <v>8.018045463217373</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="51">
@@ -846,7 +846,7 @@
         <v>36575</v>
       </c>
       <c r="B51" t="n">
-        <v>6.973631830760362</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="52">
@@ -854,7 +854,7 @@
         <v>36576</v>
       </c>
       <c r="B52" t="n">
-        <v>5.238647863662007</v>
+        <v>5.238711802891488</v>
       </c>
     </row>
     <row r="53">
@@ -862,7 +862,7 @@
         <v>36577</v>
       </c>
       <c r="B53" t="n">
-        <v>6.323932513919157</v>
+        <v>6.32395394990471</v>
       </c>
     </row>
     <row r="54">
@@ -870,7 +870,7 @@
         <v>36578</v>
       </c>
       <c r="B54" t="n">
-        <v>7.372963537380875</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="55">
@@ -878,7 +878,7 @@
         <v>36579</v>
       </c>
       <c r="B55" t="n">
-        <v>4.408298658251478</v>
+        <v>4.408403302277126</v>
       </c>
     </row>
     <row r="56">
@@ -886,7 +886,7 @@
         <v>36580</v>
       </c>
       <c r="B56" t="n">
-        <v>4.977344930799317</v>
+        <v>4.977469535499524</v>
       </c>
     </row>
     <row r="57">
@@ -894,7 +894,7 @@
         <v>36581</v>
       </c>
       <c r="B57" t="n">
-        <v>6.782291484131204</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="58">
@@ -902,7 +902,7 @@
         <v>36582</v>
       </c>
       <c r="B58" t="n">
-        <v>5.606081267208938</v>
+        <v>5.606057259053725</v>
       </c>
     </row>
     <row r="59">
@@ -910,7 +910,7 @@
         <v>36583</v>
       </c>
       <c r="B59" t="n">
-        <v>5.222046494169011</v>
+        <v>5.222092501127499</v>
       </c>
     </row>
     <row r="60">
@@ -926,7 +926,7 @@
         <v>36586</v>
       </c>
       <c r="B61" t="n">
-        <v>9.69</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="62">
@@ -942,7 +942,7 @@
         <v>36588</v>
       </c>
       <c r="B63" t="n">
-        <v>7.552120716150039</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="64">
@@ -950,7 +950,7 @@
         <v>36589</v>
       </c>
       <c r="B64" t="n">
-        <v>4.879969991247708</v>
+        <v>4.880075756792978</v>
       </c>
     </row>
     <row r="65">
@@ -958,7 +958,7 @@
         <v>36590</v>
       </c>
       <c r="B65" t="n">
-        <v>5.302690087583295</v>
+        <v>5.302695159223387</v>
       </c>
     </row>
     <row r="66">
@@ -966,7 +966,7 @@
         <v>36591</v>
       </c>
       <c r="B66" t="n">
-        <v>8.256598898828393</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="67">
@@ -974,7 +974,7 @@
         <v>36592</v>
       </c>
       <c r="B67" t="n">
-        <v>1.467498476229398</v>
+        <v>1.467494900788176</v>
       </c>
     </row>
     <row r="68">
@@ -982,7 +982,7 @@
         <v>36593</v>
       </c>
       <c r="B68" t="n">
-        <v>4.405543305401626</v>
+        <v>4.405614327015656</v>
       </c>
     </row>
     <row r="69">
@@ -990,7 +990,7 @@
         <v>36594</v>
       </c>
       <c r="B69" t="n">
-        <v>8.962888631994666</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="70">
@@ -998,7 +998,7 @@
         <v>36595</v>
       </c>
       <c r="B70" t="n">
-        <v>4.830815443024694</v>
+        <v>4.830811311099026</v>
       </c>
     </row>
     <row r="71">
@@ -1006,7 +1006,7 @@
         <v>36596</v>
       </c>
       <c r="B71" t="n">
-        <v>5.512838639023949</v>
+        <v>5.512838401356478</v>
       </c>
     </row>
     <row r="72">
@@ -1014,7 +1014,7 @@
         <v>36597</v>
       </c>
       <c r="B72" t="n">
-        <v>8.685</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="73">
@@ -1030,7 +1030,7 @@
         <v>36599</v>
       </c>
       <c r="B74" t="n">
-        <v>6.448747302078543</v>
+        <v>6.448747374352511</v>
       </c>
     </row>
     <row r="75">
@@ -1038,7 +1038,7 @@
         <v>36600</v>
       </c>
       <c r="B75" t="n">
-        <v>7.623557931850664</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="76">
@@ -1046,7 +1046,7 @@
         <v>36601</v>
       </c>
       <c r="B76" t="n">
-        <v>0.004119785894098463</v>
+        <v>0.004119762450467856</v>
       </c>
     </row>
     <row r="77">
@@ -1054,7 +1054,7 @@
         <v>36602</v>
       </c>
       <c r="B77" t="n">
-        <v>5.496697910994037</v>
+        <v>5.496698946411588</v>
       </c>
     </row>
     <row r="78">
@@ -1062,7 +1062,7 @@
         <v>36603</v>
       </c>
       <c r="B78" t="n">
-        <v>7.009</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="79">
@@ -1086,7 +1086,7 @@
         <v>36606</v>
       </c>
       <c r="B81" t="n">
-        <v>4.060954937060499</v>
+        <v>4.060976854660392</v>
       </c>
     </row>
     <row r="82">
@@ -1094,7 +1094,7 @@
         <v>36607</v>
       </c>
       <c r="B82" t="n">
-        <v>5.913448352883874</v>
+        <v>5.91344622174625</v>
       </c>
     </row>
     <row r="83">
@@ -1102,7 +1102,7 @@
         <v>36608</v>
       </c>
       <c r="B83" t="n">
-        <v>7.020368554756363</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="84">
@@ -1110,7 +1110,7 @@
         <v>36609</v>
       </c>
       <c r="B84" t="n">
-        <v>12.667</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="85">
@@ -1126,7 +1126,7 @@
         <v>36611</v>
       </c>
       <c r="B86" t="n">
-        <v>6.627565499538195</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="87">
@@ -1134,7 +1134,7 @@
         <v>36612</v>
       </c>
       <c r="B87" t="n">
-        <v>8.00512343138886</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="88">
@@ -1150,7 +1150,7 @@
         <v>36614</v>
       </c>
       <c r="B89" t="n">
-        <v>7.06</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="90">
@@ -1158,7 +1158,7 @@
         <v>36615</v>
       </c>
       <c r="B90" t="n">
-        <v>11.748</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="91">
@@ -1182,7 +1182,7 @@
         <v>36618</v>
       </c>
       <c r="B93" t="n">
-        <v>6.225237460240701</v>
+        <v>6.225259266707055</v>
       </c>
     </row>
     <row r="94">
@@ -1190,7 +1190,7 @@
         <v>36619</v>
       </c>
       <c r="B94" t="n">
-        <v>7.967179116584807</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="95">
@@ -1198,7 +1198,7 @@
         <v>36620</v>
       </c>
       <c r="B95" t="n">
-        <v>5.983718602991887</v>
+        <v>5.983717789340084</v>
       </c>
     </row>
     <row r="96">
@@ -1214,7 +1214,7 @@
         <v>36622</v>
       </c>
       <c r="B97" t="n">
-        <v>3.291020396945952</v>
+        <v>3.291020061837286</v>
       </c>
     </row>
     <row r="98">
@@ -1222,7 +1222,7 @@
         <v>36623</v>
       </c>
       <c r="B98" t="n">
-        <v>4.217589553270633</v>
+        <v>4.217611169551014</v>
       </c>
     </row>
     <row r="99">
@@ -1230,7 +1230,7 @@
         <v>36624</v>
       </c>
       <c r="B99" t="n">
-        <v>5.556966871432552</v>
+        <v>5.556966877270733</v>
       </c>
     </row>
     <row r="100">
@@ -1238,7 +1238,7 @@
         <v>36625</v>
       </c>
       <c r="B100" t="n">
-        <v>6.394145933822813</v>
+        <v>6.394150188952741</v>
       </c>
     </row>
     <row r="101">
@@ -1246,7 +1246,7 @@
         <v>36626</v>
       </c>
       <c r="B101" t="n">
-        <v>7.542572641745293</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="102">
@@ -1254,7 +1254,7 @@
         <v>36627</v>
       </c>
       <c r="B102" t="n">
-        <v>4.697821722830087</v>
+        <v>4.697832763482324</v>
       </c>
     </row>
     <row r="103">
@@ -1262,7 +1262,7 @@
         <v>36628</v>
       </c>
       <c r="B103" t="n">
-        <v>4.188408462864027</v>
+        <v>4.188454769999115</v>
       </c>
     </row>
     <row r="104">
@@ -1270,7 +1270,7 @@
         <v>36629</v>
       </c>
       <c r="B104" t="n">
-        <v>3.775696467096934</v>
+        <v>3.775714817398942</v>
       </c>
     </row>
     <row r="105">
@@ -1278,7 +1278,7 @@
         <v>36630</v>
       </c>
       <c r="B105" t="n">
-        <v>3.3913832644868</v>
+        <v>3.391383260527237</v>
       </c>
     </row>
     <row r="106">
@@ -1286,7 +1286,7 @@
         <v>36631</v>
       </c>
       <c r="B106" t="n">
-        <v>2.637632065606352</v>
+        <v>2.637693465425537</v>
       </c>
     </row>
     <row r="107">
@@ -1294,7 +1294,7 @@
         <v>36632</v>
       </c>
       <c r="B107" t="n">
-        <v>4.032574899950845</v>
+        <v>4.032593290573087</v>
       </c>
     </row>
     <row r="108">
@@ -1310,7 +1310,7 @@
         <v>36634</v>
       </c>
       <c r="B109" t="n">
-        <v>4.92271795161323</v>
+        <v>4.922715759572826</v>
       </c>
     </row>
     <row r="110">
@@ -1318,7 +1318,7 @@
         <v>36635</v>
       </c>
       <c r="B110" t="n">
-        <v>2.718622793072087</v>
+        <v>2.71862046624198</v>
       </c>
     </row>
     <row r="111">
@@ -1326,7 +1326,7 @@
         <v>36636</v>
       </c>
       <c r="B111" t="n">
-        <v>2.797477680259285</v>
+        <v>2.797453808395691</v>
       </c>
     </row>
     <row r="112">
@@ -1334,7 +1334,7 @@
         <v>36637</v>
       </c>
       <c r="B112" t="n">
-        <v>2.96988634202408</v>
+        <v>2.969883720439358</v>
       </c>
     </row>
     <row r="113">
@@ -1342,7 +1342,7 @@
         <v>36638</v>
       </c>
       <c r="B113" t="n">
-        <v>4.621094810008643</v>
+        <v>4.621094795594402</v>
       </c>
     </row>
     <row r="114">
@@ -1350,7 +1350,7 @@
         <v>36639</v>
       </c>
       <c r="B114" t="n">
-        <v>5.483139319927444</v>
+        <v>5.483139325154973</v>
       </c>
     </row>
     <row r="115">
@@ -1358,7 +1358,7 @@
         <v>36640</v>
       </c>
       <c r="B115" t="n">
-        <v>3.290603874085091</v>
+        <v>3.290603201564602</v>
       </c>
     </row>
     <row r="116">
@@ -1366,7 +1366,7 @@
         <v>36641</v>
       </c>
       <c r="B116" t="n">
-        <v>3.711334461614049</v>
+        <v>3.711334384028845</v>
       </c>
     </row>
     <row r="117">
@@ -1382,7 +1382,7 @@
         <v>36643</v>
       </c>
       <c r="B118" t="n">
-        <v>6.108973774315583</v>
+        <v>6.108973764358923</v>
       </c>
     </row>
     <row r="119">
@@ -1398,7 +1398,7 @@
         <v>36645</v>
       </c>
       <c r="B120" t="n">
-        <v>6.652811962809486</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="121">
@@ -1414,7 +1414,7 @@
         <v>36647</v>
       </c>
       <c r="B122" t="n">
-        <v>2.382939598883244</v>
+        <v>2.382939125994121</v>
       </c>
     </row>
     <row r="123">
@@ -1422,7 +1422,7 @@
         <v>36648</v>
       </c>
       <c r="B123" t="n">
-        <v>2.726474915283803</v>
+        <v>2.726473874930035</v>
       </c>
     </row>
     <row r="124">
@@ -1430,7 +1430,7 @@
         <v>36649</v>
       </c>
       <c r="B124" t="n">
-        <v>3.29994396306973</v>
+        <v>3.299973733595619</v>
       </c>
     </row>
     <row r="125">
@@ -1446,7 +1446,7 @@
         <v>36651</v>
       </c>
       <c r="B126" t="n">
-        <v>2.095599288009516</v>
+        <v>2.095591699200098</v>
       </c>
     </row>
     <row r="127">
@@ -1454,7 +1454,7 @@
         <v>36652</v>
       </c>
       <c r="B127" t="n">
-        <v>3.526275221495588</v>
+        <v>3.526268013179531</v>
       </c>
     </row>
     <row r="128">
@@ -1462,7 +1462,7 @@
         <v>36653</v>
       </c>
       <c r="B128" t="n">
-        <v>2.158917170693512</v>
+        <v>2.158913707110504</v>
       </c>
     </row>
     <row r="129">
@@ -1478,7 +1478,7 @@
         <v>36655</v>
       </c>
       <c r="B130" t="n">
-        <v>4.60925196915194</v>
+        <v>4.609251967170532</v>
       </c>
     </row>
     <row r="131">
@@ -1494,7 +1494,7 @@
         <v>36657</v>
       </c>
       <c r="B132" t="n">
-        <v>4.029999999999999</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="133">
@@ -1502,7 +1502,7 @@
         <v>36658</v>
       </c>
       <c r="B133" t="n">
-        <v>10.993</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="134">
@@ -1518,7 +1518,7 @@
         <v>36660</v>
       </c>
       <c r="B135" t="n">
-        <v>2.869819130835674</v>
+        <v>2.869819240579775</v>
       </c>
     </row>
     <row r="136">
@@ -1526,7 +1526,7 @@
         <v>36661</v>
       </c>
       <c r="B136" t="n">
-        <v>3.734937581804862</v>
+        <v>3.734937567817868</v>
       </c>
     </row>
     <row r="137">
@@ -1534,7 +1534,7 @@
         <v>36662</v>
       </c>
       <c r="B137" t="n">
-        <v>2.491344148851118</v>
+        <v>2.49134547154879</v>
       </c>
     </row>
     <row r="138">
@@ -1550,7 +1550,7 @@
         <v>36664</v>
       </c>
       <c r="B139" t="n">
-        <v>4.388658865916103</v>
+        <v>4.388658871918074</v>
       </c>
     </row>
     <row r="140">
@@ -1558,7 +1558,7 @@
         <v>36665</v>
       </c>
       <c r="B140" t="n">
-        <v>3.686898583243935</v>
+        <v>3.686896925165887</v>
       </c>
     </row>
     <row r="141">
@@ -1566,7 +1566,7 @@
         <v>36666</v>
       </c>
       <c r="B141" t="n">
-        <v>4.734433011283649</v>
+        <v>4.734433007363913</v>
       </c>
     </row>
     <row r="142">
@@ -1582,7 +1582,7 @@
         <v>36668</v>
       </c>
       <c r="B143" t="n">
-        <v>6.107253253852954</v>
+        <v>6.107253085287804</v>
       </c>
     </row>
     <row r="144">
@@ -1590,7 +1590,7 @@
         <v>36669</v>
       </c>
       <c r="B144" t="n">
-        <v>4.222244618864764</v>
+        <v>4.222244815083167</v>
       </c>
     </row>
     <row r="145">
@@ -1598,7 +1598,7 @@
         <v>36670</v>
       </c>
       <c r="B145" t="n">
-        <v>2.060302057113496</v>
+        <v>2.060314363227832</v>
       </c>
     </row>
     <row r="146">
@@ -1614,7 +1614,7 @@
         <v>36672</v>
       </c>
       <c r="B147" t="n">
-        <v>5.380804929371994</v>
+        <v>5.380804865201541</v>
       </c>
     </row>
     <row r="148">
@@ -1622,7 +1622,7 @@
         <v>36673</v>
       </c>
       <c r="B148" t="n">
-        <v>3.765472912149526</v>
+        <v>3.765472983211892</v>
       </c>
     </row>
     <row r="149">
@@ -1646,7 +1646,7 @@
         <v>36676</v>
       </c>
       <c r="B151" t="n">
-        <v>2.838771500773973</v>
+        <v>2.838770435334074</v>
       </c>
     </row>
     <row r="152">
@@ -1670,7 +1670,7 @@
         <v>36679</v>
       </c>
       <c r="B154" t="n">
-        <v>2.607276051033921</v>
+        <v>2.607272970993514</v>
       </c>
     </row>
     <row r="155">
@@ -1678,7 +1678,7 @@
         <v>36680</v>
       </c>
       <c r="B155" t="n">
-        <v>2.277929232915716</v>
+        <v>2.277929116089534</v>
       </c>
     </row>
     <row r="156">
@@ -1686,7 +1686,7 @@
         <v>36681</v>
       </c>
       <c r="B156" t="n">
-        <v>7.26644366038177</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="157">
@@ -1702,7 +1702,7 @@
         <v>36683</v>
       </c>
       <c r="B158" t="n">
-        <v>4.523553936853068</v>
+        <v>4.52355392476108</v>
       </c>
     </row>
     <row r="159">
@@ -1710,7 +1710,7 @@
         <v>36684</v>
       </c>
       <c r="B159" t="n">
-        <v>3.941990861923727</v>
+        <v>3.941991032814138</v>
       </c>
     </row>
     <row r="160">
@@ -1718,7 +1718,7 @@
         <v>36685</v>
       </c>
       <c r="B160" t="n">
-        <v>3.528864800949543</v>
+        <v>3.528863767316024</v>
       </c>
     </row>
     <row r="161">
@@ -1726,7 +1726,7 @@
         <v>36686</v>
       </c>
       <c r="B161" t="n">
-        <v>5.142201956720797</v>
+        <v>5.142201415084878</v>
       </c>
     </row>
     <row r="162">
@@ -1742,7 +1742,7 @@
         <v>36688</v>
       </c>
       <c r="B163" t="n">
-        <v>7.021000000000001</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="164">
@@ -1750,7 +1750,7 @@
         <v>36689</v>
       </c>
       <c r="B164" t="n">
-        <v>4.617621699904802</v>
+        <v>4.6176471383699</v>
       </c>
     </row>
     <row r="165">
@@ -1758,7 +1758,7 @@
         <v>36690</v>
       </c>
       <c r="B165" t="n">
-        <v>4.980086</v>
+        <v>4.980085999999999</v>
       </c>
     </row>
     <row r="166">
@@ -1766,7 +1766,7 @@
         <v>36691</v>
       </c>
       <c r="B166" t="n">
-        <v>3.834059506421009</v>
+        <v>3.83405229764475</v>
       </c>
     </row>
     <row r="167">
@@ -1774,7 +1774,7 @@
         <v>36692</v>
       </c>
       <c r="B167" t="n">
-        <v>3.755398846494022</v>
+        <v>3.755396561512751</v>
       </c>
     </row>
     <row r="168">
@@ -1782,7 +1782,7 @@
         <v>36693</v>
       </c>
       <c r="B168" t="n">
-        <v>8.265227130293395</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="169">
@@ -1790,7 +1790,7 @@
         <v>36694</v>
       </c>
       <c r="B169" t="n">
-        <v>4.548458764102713</v>
+        <v>4.548450774204453</v>
       </c>
     </row>
     <row r="170">
@@ -1798,7 +1798,7 @@
         <v>36695</v>
       </c>
       <c r="B170" t="n">
-        <v>6.93</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="171">
@@ -1814,7 +1814,7 @@
         <v>36697</v>
       </c>
       <c r="B172" t="n">
-        <v>4.004894304035109</v>
+        <v>4.004893758146084</v>
       </c>
     </row>
     <row r="173">
@@ -1822,7 +1822,7 @@
         <v>36698</v>
       </c>
       <c r="B173" t="n">
-        <v>3.558392653269646</v>
+        <v>3.55839259377381</v>
       </c>
     </row>
     <row r="174">
@@ -1830,7 +1830,7 @@
         <v>36699</v>
       </c>
       <c r="B174" t="n">
-        <v>9.973539287504863</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="175">
@@ -1838,7 +1838,7 @@
         <v>36700</v>
       </c>
       <c r="B175" t="n">
-        <v>4.192845853697283</v>
+        <v>4.192872431985356</v>
       </c>
     </row>
     <row r="176">
@@ -1862,7 +1862,7 @@
         <v>36703</v>
       </c>
       <c r="B178" t="n">
-        <v>3.036761204258902</v>
+        <v>3.036758246996648</v>
       </c>
     </row>
     <row r="179">
@@ -1870,7 +1870,7 @@
         <v>36704</v>
       </c>
       <c r="B179" t="n">
-        <v>4.342914889263116</v>
+        <v>4.34291492666234</v>
       </c>
     </row>
     <row r="180">
@@ -1878,7 +1878,7 @@
         <v>36705</v>
       </c>
       <c r="B180" t="n">
-        <v>4.599248917876637</v>
+        <v>4.599230432341949</v>
       </c>
     </row>
     <row r="181">
@@ -1886,7 +1886,7 @@
         <v>36706</v>
       </c>
       <c r="B181" t="n">
-        <v>9.58872656139809</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="182">
@@ -1894,7 +1894,7 @@
         <v>36707</v>
       </c>
       <c r="B182" t="n">
-        <v>0.7728307681239006</v>
+        <v>0.772830841700103</v>
       </c>
     </row>
     <row r="183">
@@ -1902,7 +1902,7 @@
         <v>36708</v>
       </c>
       <c r="B183" t="n">
-        <v>3.888945291854755</v>
+        <v>3.888942489696471</v>
       </c>
     </row>
     <row r="184">
@@ -1926,7 +1926,7 @@
         <v>36711</v>
       </c>
       <c r="B186" t="n">
-        <v>2.137777138803505</v>
+        <v>2.137774232794265</v>
       </c>
     </row>
     <row r="187">
@@ -1934,7 +1934,7 @@
         <v>36712</v>
       </c>
       <c r="B187" t="n">
-        <v>2.434198676500064</v>
+        <v>2.434196710964608</v>
       </c>
     </row>
     <row r="188">
@@ -1942,7 +1942,7 @@
         <v>36713</v>
       </c>
       <c r="B188" t="n">
-        <v>2.517398324703565</v>
+        <v>2.517395706758889</v>
       </c>
     </row>
     <row r="189">
@@ -1950,7 +1950,7 @@
         <v>36714</v>
       </c>
       <c r="B189" t="n">
-        <v>2.079012153748208</v>
+        <v>2.079009216220833</v>
       </c>
     </row>
     <row r="190">
@@ -1958,7 +1958,7 @@
         <v>36715</v>
       </c>
       <c r="B190" t="n">
-        <v>3.100238712472489</v>
+        <v>3.10023859300407</v>
       </c>
     </row>
     <row r="191">
@@ -1966,7 +1966,7 @@
         <v>36716</v>
       </c>
       <c r="B191" t="n">
-        <v>5.401949344457437</v>
+        <v>5.401945418251751</v>
       </c>
     </row>
     <row r="192">
@@ -1974,7 +1974,7 @@
         <v>36717</v>
       </c>
       <c r="B192" t="n">
-        <v>3.065244812457825</v>
+        <v>3.065240227726152</v>
       </c>
     </row>
     <row r="193">
@@ -1982,7 +1982,7 @@
         <v>36718</v>
       </c>
       <c r="B193" t="n">
-        <v>2.860941770991216</v>
+        <v>2.860941773364741</v>
       </c>
     </row>
     <row r="194">
@@ -1990,7 +1990,7 @@
         <v>36719</v>
       </c>
       <c r="B194" t="n">
-        <v>2.854033418920856</v>
+        <v>2.854033335068434</v>
       </c>
     </row>
     <row r="195">
@@ -2006,7 +2006,7 @@
         <v>36721</v>
       </c>
       <c r="B196" t="n">
-        <v>2.545934348922384</v>
+        <v>2.545902474463744</v>
       </c>
     </row>
     <row r="197">
@@ -2030,7 +2030,7 @@
         <v>36724</v>
       </c>
       <c r="B199" t="n">
-        <v>2.267480556514722</v>
+        <v>2.267480261862727</v>
       </c>
     </row>
     <row r="200">
@@ -2038,7 +2038,7 @@
         <v>36725</v>
       </c>
       <c r="B200" t="n">
-        <v>2.271474270997951</v>
+        <v>2.271474279235741</v>
       </c>
     </row>
     <row r="201">
@@ -2054,7 +2054,7 @@
         <v>36727</v>
       </c>
       <c r="B202" t="n">
-        <v>3.599860623826811</v>
+        <v>3.599863144752334</v>
       </c>
     </row>
     <row r="203">
@@ -2062,7 +2062,7 @@
         <v>36728</v>
       </c>
       <c r="B203" t="n">
-        <v>4.382088030648497</v>
+        <v>4.382083903612514</v>
       </c>
     </row>
     <row r="204">
@@ -2070,7 +2070,7 @@
         <v>36729</v>
       </c>
       <c r="B204" t="n">
-        <v>3.858005519411273</v>
+        <v>3.858005471466779</v>
       </c>
     </row>
     <row r="205">
@@ -2078,7 +2078,7 @@
         <v>36730</v>
       </c>
       <c r="B205" t="n">
-        <v>3.917671610978068</v>
+        <v>3.917669005343001</v>
       </c>
     </row>
     <row r="206">
@@ -2086,7 +2086,7 @@
         <v>36731</v>
       </c>
       <c r="B206" t="n">
-        <v>5.067264008008578</v>
+        <v>5.067261352392013</v>
       </c>
     </row>
     <row r="207">
@@ -2094,7 +2094,7 @@
         <v>36732</v>
       </c>
       <c r="B207" t="n">
-        <v>3.381778935480396</v>
+        <v>3.381774590711574</v>
       </c>
     </row>
     <row r="208">
@@ -2110,7 +2110,7 @@
         <v>36734</v>
       </c>
       <c r="B209" t="n">
-        <v>3.704703734263448</v>
+        <v>3.704693585016021</v>
       </c>
     </row>
     <row r="210">
@@ -2118,7 +2118,7 @@
         <v>36735</v>
       </c>
       <c r="B210" t="n">
-        <v>3.855697287253109</v>
+        <v>3.855698385891915</v>
       </c>
     </row>
     <row r="211">
@@ -2126,7 +2126,7 @@
         <v>36736</v>
       </c>
       <c r="B211" t="n">
-        <v>2.41973743863259</v>
+        <v>2.419728952906964</v>
       </c>
     </row>
     <row r="212">
@@ -2134,7 +2134,7 @@
         <v>36737</v>
       </c>
       <c r="B212" t="n">
-        <v>3.40355580725026</v>
+        <v>3.403555883463525</v>
       </c>
     </row>
     <row r="213">
@@ -2150,7 +2150,7 @@
         <v>36739</v>
       </c>
       <c r="B214" t="n">
-        <v>3.441705761817002</v>
+        <v>3.441702231035392</v>
       </c>
     </row>
     <row r="215">
@@ -2182,7 +2182,7 @@
         <v>36743</v>
       </c>
       <c r="B218" t="n">
-        <v>2.944964031219414</v>
+        <v>2.944961200832889</v>
       </c>
     </row>
     <row r="219">
@@ -2198,7 +2198,7 @@
         <v>36745</v>
       </c>
       <c r="B220" t="n">
-        <v>3.037287352357633</v>
+        <v>3.037282768944523</v>
       </c>
     </row>
     <row r="221">
@@ -2206,7 +2206,7 @@
         <v>36746</v>
       </c>
       <c r="B221" t="n">
-        <v>6.301427756141774</v>
+        <v>6.3014274375998</v>
       </c>
     </row>
     <row r="222">
@@ -2222,7 +2222,7 @@
         <v>36748</v>
       </c>
       <c r="B223" t="n">
-        <v>2.787871925889192</v>
+        <v>2.787862169939257</v>
       </c>
     </row>
     <row r="224">
@@ -2238,7 +2238,7 @@
         <v>36750</v>
       </c>
       <c r="B225" t="n">
-        <v>7.204590169485032</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="226">
@@ -2254,7 +2254,7 @@
         <v>36752</v>
       </c>
       <c r="B227" t="n">
-        <v>7.278539474661441</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="228">
@@ -2294,7 +2294,7 @@
         <v>36757</v>
       </c>
       <c r="B232" t="n">
-        <v>8.494995093109116</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="233">
@@ -2302,7 +2302,7 @@
         <v>36758</v>
       </c>
       <c r="B233" t="n">
-        <v>0.6947941989852841</v>
+        <v>0.6947963162982242</v>
       </c>
     </row>
     <row r="234">
@@ -2318,7 +2318,7 @@
         <v>36760</v>
       </c>
       <c r="B235" t="n">
-        <v>6.80184278328598</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="236">
@@ -2326,7 +2326,7 @@
         <v>36761</v>
       </c>
       <c r="B236" t="n">
-        <v>3.905168380340188</v>
+        <v>3.905169895513403</v>
       </c>
     </row>
     <row r="237">
@@ -2334,7 +2334,7 @@
         <v>36762</v>
       </c>
       <c r="B237" t="n">
-        <v>6.031846152659302</v>
+        <v>6.031840234613925</v>
       </c>
     </row>
     <row r="238">
@@ -2350,7 +2350,7 @@
         <v>36764</v>
       </c>
       <c r="B239" t="n">
-        <v>5.880408176492825</v>
+        <v>5.880407880586388</v>
       </c>
     </row>
     <row r="240">
@@ -2358,7 +2358,7 @@
         <v>36765</v>
       </c>
       <c r="B240" t="n">
-        <v>3.651945889148166</v>
+        <v>3.651946021168485</v>
       </c>
     </row>
     <row r="241">
@@ -2366,7 +2366,7 @@
         <v>36766</v>
       </c>
       <c r="B241" t="n">
-        <v>6.91</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="242">
@@ -2382,7 +2382,7 @@
         <v>36768</v>
       </c>
       <c r="B243" t="n">
-        <v>3.117320750501105</v>
+        <v>3.117318391450012</v>
       </c>
     </row>
     <row r="244">
@@ -2390,7 +2390,7 @@
         <v>36769</v>
       </c>
       <c r="B244" t="n">
-        <v>3.237778681826236</v>
+        <v>3.237769481965123</v>
       </c>
     </row>
     <row r="245">
@@ -2398,7 +2398,7 @@
         <v>36770</v>
       </c>
       <c r="B245" t="n">
-        <v>3.808973793385333</v>
+        <v>3.808953332721739</v>
       </c>
     </row>
     <row r="246">
@@ -2406,7 +2406,7 @@
         <v>36771</v>
       </c>
       <c r="B246" t="n">
-        <v>7.419026268728389</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="247">
@@ -2430,7 +2430,7 @@
         <v>36774</v>
       </c>
       <c r="B249" t="n">
-        <v>5.925834261649912</v>
+        <v>5.925828472720331</v>
       </c>
     </row>
     <row r="250">
@@ -2438,7 +2438,7 @@
         <v>36775</v>
       </c>
       <c r="B250" t="n">
-        <v>4.501032570726371</v>
+        <v>4.501031576707536</v>
       </c>
     </row>
     <row r="251">
@@ -2454,7 +2454,7 @@
         <v>36777</v>
       </c>
       <c r="B252" t="n">
-        <v>3.993268370247011</v>
+        <v>3.993247719343845</v>
       </c>
     </row>
     <row r="253">
@@ -2462,7 +2462,7 @@
         <v>36778</v>
       </c>
       <c r="B253" t="n">
-        <v>3.688525310257439</v>
+        <v>3.688525376471673</v>
       </c>
     </row>
     <row r="254">
@@ -2470,7 +2470,7 @@
         <v>36779</v>
       </c>
       <c r="B254" t="n">
-        <v>4.035731880565836</v>
+        <v>4.035726662721341</v>
       </c>
     </row>
     <row r="255">
@@ -2478,7 +2478,7 @@
         <v>36780</v>
       </c>
       <c r="B255" t="n">
-        <v>5.665234588504529</v>
+        <v>5.665235111738973</v>
       </c>
     </row>
     <row r="256">
@@ -2486,7 +2486,7 @@
         <v>36781</v>
       </c>
       <c r="B256" t="n">
-        <v>5.298081695808655</v>
+        <v>5.298081596253003</v>
       </c>
     </row>
     <row r="257">
@@ -2494,7 +2494,7 @@
         <v>36782</v>
       </c>
       <c r="B257" t="n">
-        <v>5.412501893541934</v>
+        <v>5.412501893365623</v>
       </c>
     </row>
     <row r="258">
@@ -2502,7 +2502,7 @@
         <v>36783</v>
       </c>
       <c r="B258" t="n">
-        <v>4.925089914798103</v>
+        <v>4.925089908689711</v>
       </c>
     </row>
     <row r="259">
@@ -2526,7 +2526,7 @@
         <v>36786</v>
       </c>
       <c r="B261" t="n">
-        <v>2.966698630463583</v>
+        <v>2.966697812711008</v>
       </c>
     </row>
     <row r="262">
@@ -2550,7 +2550,7 @@
         <v>36789</v>
       </c>
       <c r="B264" t="n">
-        <v>3.997437896440418</v>
+        <v>3.99743789658323</v>
       </c>
     </row>
     <row r="265">
@@ -2558,7 +2558,7 @@
         <v>36790</v>
       </c>
       <c r="B265" t="n">
-        <v>6.487</v>
+        <v>6.486999999999999</v>
       </c>
     </row>
     <row r="266">
@@ -2566,7 +2566,7 @@
         <v>36791</v>
       </c>
       <c r="B266" t="n">
-        <v>7.754</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="267">
@@ -2582,7 +2582,7 @@
         <v>36793</v>
       </c>
       <c r="B268" t="n">
-        <v>3.4284263763891</v>
+        <v>3.428426441679281</v>
       </c>
     </row>
     <row r="269">
@@ -2606,7 +2606,7 @@
         <v>36796</v>
       </c>
       <c r="B271" t="n">
-        <v>5.599352248956297</v>
+        <v>5.59935206615785</v>
       </c>
     </row>
     <row r="272">
@@ -2614,7 +2614,7 @@
         <v>36797</v>
       </c>
       <c r="B272" t="n">
-        <v>4.201547573175034</v>
+        <v>4.201537346740495</v>
       </c>
     </row>
     <row r="273">
@@ -2630,7 +2630,7 @@
         <v>36799</v>
       </c>
       <c r="B274" t="n">
-        <v>6.585154470998251</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="275">
@@ -2638,7 +2638,7 @@
         <v>36800</v>
       </c>
       <c r="B275" t="n">
-        <v>6.53092538493486</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="276">
@@ -2646,7 +2646,7 @@
         <v>36801</v>
       </c>
       <c r="B276" t="n">
-        <v>2.130013596118428</v>
+        <v>2.130074373292783</v>
       </c>
     </row>
     <row r="277">
@@ -2654,7 +2654,7 @@
         <v>36802</v>
       </c>
       <c r="B277" t="n">
-        <v>7.461516001124807</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="278">
@@ -2678,7 +2678,7 @@
         <v>36805</v>
       </c>
       <c r="B280" t="n">
-        <v>5.980805333134611</v>
+        <v>5.980803665281964</v>
       </c>
     </row>
     <row r="281">
@@ -2710,7 +2710,7 @@
         <v>36809</v>
       </c>
       <c r="B284" t="n">
-        <v>5.699058912561958</v>
+        <v>5.69905933106458</v>
       </c>
     </row>
     <row r="285">
@@ -2726,7 +2726,7 @@
         <v>36811</v>
       </c>
       <c r="B286" t="n">
-        <v>4.432568730851585</v>
+        <v>4.432647999285921</v>
       </c>
     </row>
     <row r="287">
@@ -2734,7 +2734,7 @@
         <v>36812</v>
       </c>
       <c r="B287" t="n">
-        <v>4.028076065125143</v>
+        <v>4.028251545873799</v>
       </c>
     </row>
     <row r="288">
@@ -2742,7 +2742,7 @@
         <v>36813</v>
       </c>
       <c r="B288" t="n">
-        <v>4.647294408921598</v>
+        <v>4.64728758074246</v>
       </c>
     </row>
     <row r="289">
@@ -2750,7 +2750,7 @@
         <v>36814</v>
       </c>
       <c r="B289" t="n">
-        <v>6.949</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="290">
@@ -2766,7 +2766,7 @@
         <v>36816</v>
       </c>
       <c r="B291" t="n">
-        <v>5.414347216647496</v>
+        <v>5.414347282875879</v>
       </c>
     </row>
     <row r="292">
@@ -2774,7 +2774,7 @@
         <v>36817</v>
       </c>
       <c r="B292" t="n">
-        <v>4.695658983598448</v>
+        <v>4.69565899973839</v>
       </c>
     </row>
     <row r="293">
@@ -2782,7 +2782,7 @@
         <v>36818</v>
       </c>
       <c r="B293" t="n">
-        <v>4.110401880438967</v>
+        <v>4.11043789376312</v>
       </c>
     </row>
     <row r="294">
@@ -2790,7 +2790,7 @@
         <v>36819</v>
       </c>
       <c r="B294" t="n">
-        <v>4.836649010452272</v>
+        <v>4.836633716931826</v>
       </c>
     </row>
     <row r="295">
@@ -2798,7 +2798,7 @@
         <v>36820</v>
       </c>
       <c r="B295" t="n">
-        <v>4.95474484012031</v>
+        <v>4.954744932823717</v>
       </c>
     </row>
     <row r="296">
@@ -2806,7 +2806,7 @@
         <v>36821</v>
       </c>
       <c r="B296" t="n">
-        <v>6.142682390752019</v>
+        <v>6.142682403681197</v>
       </c>
     </row>
     <row r="297">
@@ -2814,7 +2814,7 @@
         <v>36822</v>
       </c>
       <c r="B297" t="n">
-        <v>7.468</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="298">
@@ -2822,7 +2822,7 @@
         <v>36823</v>
       </c>
       <c r="B298" t="n">
-        <v>1.063348393495428</v>
+        <v>1.063331432994028</v>
       </c>
     </row>
     <row r="299">
@@ -2838,7 +2838,7 @@
         <v>36825</v>
       </c>
       <c r="B300" t="n">
-        <v>0.2943761420542469</v>
+        <v>0.2943768733575121</v>
       </c>
     </row>
     <row r="301">
@@ -2846,7 +2846,7 @@
         <v>36826</v>
       </c>
       <c r="B301" t="n">
-        <v>5.579169413890433</v>
+        <v>5.579170798785707</v>
       </c>
     </row>
     <row r="302">
@@ -2854,7 +2854,7 @@
         <v>36827</v>
       </c>
       <c r="B302" t="n">
-        <v>8.004000000000001</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="303">
@@ -2878,7 +2878,7 @@
         <v>36830</v>
       </c>
       <c r="B305" t="n">
-        <v>6.79457499721355</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="306">
@@ -2894,7 +2894,7 @@
         <v>36832</v>
       </c>
       <c r="B307" t="n">
-        <v>4.227939820192869</v>
+        <v>4.227940181601699</v>
       </c>
     </row>
     <row r="308">
@@ -2902,7 +2902,7 @@
         <v>36833</v>
       </c>
       <c r="B308" t="n">
-        <v>6.138135132345361</v>
+        <v>6.138116428692291</v>
       </c>
     </row>
     <row r="309">
@@ -2918,7 +2918,7 @@
         <v>36835</v>
       </c>
       <c r="B310" t="n">
-        <v>4.649871726109403</v>
+        <v>4.649882740372137</v>
       </c>
     </row>
     <row r="311">
@@ -2926,7 +2926,7 @@
         <v>36836</v>
       </c>
       <c r="B311" t="n">
-        <v>8.340999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="312">
@@ -2934,7 +2934,7 @@
         <v>36837</v>
       </c>
       <c r="B312" t="n">
-        <v>0.5730599518409627</v>
+        <v>0.572980328742442</v>
       </c>
     </row>
     <row r="313">
@@ -2942,7 +2942,7 @@
         <v>36838</v>
       </c>
       <c r="B313" t="n">
-        <v>8.458303578996691</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="314">
@@ -2950,7 +2950,7 @@
         <v>36839</v>
       </c>
       <c r="B314" t="n">
-        <v>8.487757051508462</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="315">
@@ -2958,7 +2958,7 @@
         <v>36840</v>
       </c>
       <c r="B315" t="n">
-        <v>0.1267443996849951</v>
+        <v>0.1267501256858627</v>
       </c>
     </row>
     <row r="316">
@@ -2966,7 +2966,7 @@
         <v>36841</v>
       </c>
       <c r="B316" t="n">
-        <v>2.891485080991422</v>
+        <v>2.891388724667282</v>
       </c>
     </row>
     <row r="317">
@@ -2982,7 +2982,7 @@
         <v>36843</v>
       </c>
       <c r="B318" t="n">
-        <v>6.966925754661157</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="319">
@@ -2990,7 +2990,7 @@
         <v>36844</v>
       </c>
       <c r="B319" t="n">
-        <v>4.468523002785833</v>
+        <v>4.468517086712012</v>
       </c>
     </row>
     <row r="320">
@@ -2998,7 +2998,7 @@
         <v>36845</v>
       </c>
       <c r="B320" t="n">
-        <v>5.986999999999999</v>
+        <v>5.987</v>
       </c>
     </row>
     <row r="321">
@@ -3006,7 +3006,7 @@
         <v>36846</v>
       </c>
       <c r="B321" t="n">
-        <v>4.705120974025649</v>
+        <v>4.705200555553783</v>
       </c>
     </row>
     <row r="322">
@@ -3014,7 +3014,7 @@
         <v>36847</v>
       </c>
       <c r="B322" t="n">
-        <v>8.418848373080912</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="323">
@@ -3022,7 +3022,7 @@
         <v>36848</v>
       </c>
       <c r="B323" t="n">
-        <v>7.647977594469145</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="324">
@@ -3030,7 +3030,7 @@
         <v>36849</v>
       </c>
       <c r="B324" t="n">
-        <v>2.529540566308586</v>
+        <v>2.529653753081088</v>
       </c>
     </row>
     <row r="325">
@@ -3046,7 +3046,7 @@
         <v>36851</v>
       </c>
       <c r="B326" t="n">
-        <v>1.493209408810832</v>
+        <v>1.493206619950081</v>
       </c>
     </row>
     <row r="327">
@@ -3054,7 +3054,7 @@
         <v>36852</v>
       </c>
       <c r="B327" t="n">
-        <v>6.337999999999999</v>
+        <v>6.338</v>
       </c>
     </row>
     <row r="328">
@@ -3062,7 +3062,7 @@
         <v>36853</v>
       </c>
       <c r="B328" t="n">
-        <v>10.17371373346216</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="329">
@@ -3094,7 +3094,7 @@
         <v>36857</v>
       </c>
       <c r="B332" t="n">
-        <v>0.6112741891946165</v>
+        <v>0.611268247079251</v>
       </c>
     </row>
     <row r="333">
@@ -3118,7 +3118,7 @@
         <v>36860</v>
       </c>
       <c r="B335" t="n">
-        <v>1.628054240519556</v>
+        <v>1.628049758908789</v>
       </c>
     </row>
     <row r="336">
@@ -3126,7 +3126,7 @@
         <v>36861</v>
       </c>
       <c r="B336" t="n">
-        <v>1.417151519761687</v>
+        <v>1.417106259361311</v>
       </c>
     </row>
     <row r="337">
@@ -3142,7 +3142,7 @@
         <v>36863</v>
       </c>
       <c r="B338" t="n">
-        <v>1.31090706884663</v>
+        <v>1.310898957190282</v>
       </c>
     </row>
     <row r="339">
@@ -3150,7 +3150,7 @@
         <v>36864</v>
       </c>
       <c r="B339" t="n">
-        <v>5.486251911395063</v>
+        <v>5.486159285185395</v>
       </c>
     </row>
     <row r="340">
@@ -3158,7 +3158,7 @@
         <v>36865</v>
       </c>
       <c r="B340" t="n">
-        <v>0.6791696317333129</v>
+        <v>0.6791608805090072</v>
       </c>
     </row>
     <row r="341">
@@ -3190,7 +3190,7 @@
         <v>36869</v>
       </c>
       <c r="B344" t="n">
-        <v>0.2584264564409955</v>
+        <v>0.2584388000202474</v>
       </c>
     </row>
     <row r="345">
@@ -3198,7 +3198,7 @@
         <v>36870</v>
       </c>
       <c r="B345" t="n">
-        <v>7.029428494279804</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="346">
@@ -3206,7 +3206,7 @@
         <v>36871</v>
       </c>
       <c r="B346" t="n">
-        <v>6.432650610636871</v>
+        <v>6.432585984482005</v>
       </c>
     </row>
     <row r="347">
@@ -3214,7 +3214,7 @@
         <v>36872</v>
       </c>
       <c r="B347" t="n">
-        <v>0.8854337137624242</v>
+        <v>0.8854208533855804</v>
       </c>
     </row>
     <row r="348">
@@ -3222,7 +3222,7 @@
         <v>36873</v>
       </c>
       <c r="B348" t="n">
-        <v>5.929039963340119</v>
+        <v>5.929052910279313</v>
       </c>
     </row>
     <row r="349">
@@ -3230,7 +3230,7 @@
         <v>36874</v>
       </c>
       <c r="B349" t="n">
-        <v>0.1887196648467258</v>
+        <v>0.1887192333028802</v>
       </c>
     </row>
     <row r="350">
@@ -3238,7 +3238,7 @@
         <v>36875</v>
       </c>
       <c r="B350" t="n">
-        <v>0.1690994852528138</v>
+        <v>0.1691075555851096</v>
       </c>
     </row>
     <row r="351">
@@ -3246,7 +3246,7 @@
         <v>36876</v>
       </c>
       <c r="B351" t="n">
-        <v>0.5728402243761959</v>
+        <v>0.5728296657620806</v>
       </c>
     </row>
     <row r="352">
@@ -3254,7 +3254,7 @@
         <v>36877</v>
       </c>
       <c r="B352" t="n">
-        <v>1.135100862620721</v>
+        <v>1.135162555819855</v>
       </c>
     </row>
     <row r="353">
@@ -3262,7 +3262,7 @@
         <v>36878</v>
       </c>
       <c r="B353" t="n">
-        <v>7.667517268959144</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="354">
@@ -3294,7 +3294,7 @@
         <v>36882</v>
       </c>
       <c r="B357" t="n">
-        <v>0.8842481994722022</v>
+        <v>0.8842509689967748</v>
       </c>
     </row>
     <row r="358">
@@ -3310,7 +3310,7 @@
         <v>36884</v>
       </c>
       <c r="B359" t="n">
-        <v>4.276550684756547</v>
+        <v>4.27671206157713</v>
       </c>
     </row>
     <row r="360">
@@ -3318,7 +3318,7 @@
         <v>36885</v>
       </c>
       <c r="B360" t="n">
-        <v>5.239572660613996</v>
+        <v>5.239697994141324</v>
       </c>
     </row>
     <row r="361">
@@ -3326,7 +3326,7 @@
         <v>36886</v>
       </c>
       <c r="B361" t="n">
-        <v>5.619012260768555</v>
+        <v>5.619014616586254</v>
       </c>
     </row>
     <row r="362">
@@ -3334,7 +3334,7 @@
         <v>36887</v>
       </c>
       <c r="B362" t="n">
-        <v>4.395980383100534</v>
+        <v>4.395952214671079</v>
       </c>
     </row>
     <row r="363">
@@ -3342,7 +3342,7 @@
         <v>36888</v>
       </c>
       <c r="B363" t="n">
-        <v>7.849316015803696</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="364">
@@ -3358,7 +3358,7 @@
         <v>36890</v>
       </c>
       <c r="B365" t="n">
-        <v>0.1214770649065416</v>
+        <v>0.1214728879609586</v>
       </c>
     </row>
     <row r="366">

--- a/results/end_of_day_charge_levels.xlsx
+++ b/results/end_of_day_charge_levels.xlsx
@@ -750,7 +750,7 @@
         <v>36563</v>
       </c>
       <c r="B39" t="n">
-        <v>6.499999999999999</v>
+        <v>6.001613091751405</v>
       </c>
     </row>
     <row r="40">
@@ -758,7 +758,7 @@
         <v>36564</v>
       </c>
       <c r="B40" t="n">
-        <v>6.5</v>
+        <v>6.491</v>
       </c>
     </row>
     <row r="41">
@@ -790,7 +790,7 @@
         <v>36568</v>
       </c>
       <c r="B44" t="n">
-        <v>6.5</v>
+        <v>5.180046551487264</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>36569</v>
       </c>
       <c r="B45" t="n">
-        <v>6.5</v>
+        <v>5.327093543970744</v>
       </c>
     </row>
     <row r="46">
@@ -854,7 +854,7 @@
         <v>36576</v>
       </c>
       <c r="B52" t="n">
-        <v>6.499999999999999</v>
+        <v>5.242640594547494</v>
       </c>
     </row>
     <row r="53">
@@ -862,7 +862,7 @@
         <v>36577</v>
       </c>
       <c r="B53" t="n">
-        <v>6.5</v>
+        <v>6.32546949970615</v>
       </c>
     </row>
     <row r="54">
@@ -878,7 +878,7 @@
         <v>36579</v>
       </c>
       <c r="B55" t="n">
-        <v>6.5</v>
+        <v>4.416896219795638</v>
       </c>
     </row>
     <row r="56">
@@ -886,7 +886,7 @@
         <v>36580</v>
       </c>
       <c r="B56" t="n">
-        <v>6.5</v>
+        <v>4.985295114044147</v>
       </c>
     </row>
     <row r="57">
@@ -902,7 +902,7 @@
         <v>36582</v>
       </c>
       <c r="B58" t="n">
-        <v>6.5</v>
+        <v>5.607876193779111</v>
       </c>
     </row>
     <row r="59">
@@ -910,7 +910,7 @@
         <v>36583</v>
       </c>
       <c r="B59" t="n">
-        <v>6.5</v>
+        <v>5.224883744250866</v>
       </c>
     </row>
     <row r="60">
@@ -918,7 +918,7 @@
         <v>36584</v>
       </c>
       <c r="B60" t="n">
-        <v>6.5</v>
+        <v>6.462</v>
       </c>
     </row>
     <row r="61">
@@ -950,7 +950,7 @@
         <v>36589</v>
       </c>
       <c r="B64" t="n">
-        <v>6.499999999999999</v>
+        <v>4.882038890860946</v>
       </c>
     </row>
     <row r="65">
@@ -958,7 +958,7 @@
         <v>36590</v>
       </c>
       <c r="B65" t="n">
-        <v>6.499999999999998</v>
+        <v>5.301645943430302</v>
       </c>
     </row>
     <row r="66">
@@ -1006,7 +1006,7 @@
         <v>36596</v>
       </c>
       <c r="B71" t="n">
-        <v>6.5</v>
+        <v>5.512691675046884</v>
       </c>
     </row>
     <row r="72">
@@ -1030,7 +1030,7 @@
         <v>36599</v>
       </c>
       <c r="B74" t="n">
-        <v>6.5</v>
+        <v>6.447732601969108</v>
       </c>
     </row>
     <row r="75">
@@ -1054,7 +1054,7 @@
         <v>36602</v>
       </c>
       <c r="B77" t="n">
-        <v>6.5</v>
+        <v>5.493014486947958</v>
       </c>
     </row>
     <row r="78">
@@ -1086,7 +1086,7 @@
         <v>36606</v>
       </c>
       <c r="B81" t="n">
-        <v>6.5</v>
+        <v>4.053253894559314</v>
       </c>
     </row>
     <row r="82">
@@ -1094,7 +1094,7 @@
         <v>36607</v>
       </c>
       <c r="B82" t="n">
-        <v>6.499999999999999</v>
+        <v>5.91282359601155</v>
       </c>
     </row>
     <row r="83">
@@ -1182,7 +1182,7 @@
         <v>36618</v>
       </c>
       <c r="B93" t="n">
-        <v>6.5</v>
+        <v>6.223517661429053</v>
       </c>
     </row>
     <row r="94">
@@ -1198,7 +1198,7 @@
         <v>36620</v>
       </c>
       <c r="B95" t="n">
-        <v>6.5</v>
+        <v>5.983257616255213</v>
       </c>
     </row>
     <row r="96">
@@ -1206,7 +1206,7 @@
         <v>36621</v>
       </c>
       <c r="B96" t="n">
-        <v>6.5</v>
+        <v>3.335</v>
       </c>
     </row>
     <row r="97">
@@ -1214,7 +1214,7 @@
         <v>36622</v>
       </c>
       <c r="B97" t="n">
-        <v>6.5</v>
+        <v>3.2910192860222</v>
       </c>
     </row>
     <row r="98">
@@ -1222,7 +1222,7 @@
         <v>36623</v>
       </c>
       <c r="B98" t="n">
-        <v>6.5</v>
+        <v>4.212989154599317</v>
       </c>
     </row>
     <row r="99">
@@ -1230,7 +1230,7 @@
         <v>36624</v>
       </c>
       <c r="B99" t="n">
-        <v>6.5</v>
+        <v>5.556557721086364</v>
       </c>
     </row>
     <row r="100">
@@ -1238,7 +1238,7 @@
         <v>36625</v>
       </c>
       <c r="B100" t="n">
-        <v>6.5</v>
+        <v>6.390895085499244</v>
       </c>
     </row>
     <row r="101">
@@ -1262,7 +1262,7 @@
         <v>36628</v>
       </c>
       <c r="B103" t="n">
-        <v>6.499999999999999</v>
+        <v>4.184269007564974</v>
       </c>
     </row>
     <row r="104">
@@ -1270,7 +1270,7 @@
         <v>36629</v>
       </c>
       <c r="B104" t="n">
-        <v>6.5</v>
+        <v>3.768798404860517</v>
       </c>
     </row>
     <row r="105">
@@ -1278,7 +1278,7 @@
         <v>36630</v>
       </c>
       <c r="B105" t="n">
-        <v>6.5</v>
+        <v>3.391166711702847</v>
       </c>
     </row>
     <row r="106">
@@ -1286,7 +1286,7 @@
         <v>36631</v>
       </c>
       <c r="B106" t="n">
-        <v>6.499999999999998</v>
+        <v>2.633368639603769</v>
       </c>
     </row>
     <row r="107">
@@ -1294,7 +1294,7 @@
         <v>36632</v>
       </c>
       <c r="B107" t="n">
-        <v>6.5</v>
+        <v>4.031269129118354</v>
       </c>
     </row>
     <row r="108">
@@ -1302,7 +1302,7 @@
         <v>36633</v>
       </c>
       <c r="B108" t="n">
-        <v>6.499999999999999</v>
+        <v>2.798</v>
       </c>
     </row>
     <row r="109">
@@ -1310,7 +1310,7 @@
         <v>36634</v>
       </c>
       <c r="B109" t="n">
-        <v>6.5</v>
+        <v>4.922688653510757</v>
       </c>
     </row>
     <row r="110">
@@ -1318,7 +1318,7 @@
         <v>36635</v>
       </c>
       <c r="B110" t="n">
-        <v>6.5</v>
+        <v>2.718567606921198</v>
       </c>
     </row>
     <row r="111">
@@ -1326,7 +1326,7 @@
         <v>36636</v>
       </c>
       <c r="B111" t="n">
-        <v>6.5</v>
+        <v>2.796395348412831</v>
       </c>
     </row>
     <row r="112">
@@ -1334,7 +1334,7 @@
         <v>36637</v>
       </c>
       <c r="B112" t="n">
-        <v>6.5</v>
+        <v>2.96970345753415</v>
       </c>
     </row>
     <row r="113">
@@ -1342,7 +1342,7 @@
         <v>36638</v>
       </c>
       <c r="B113" t="n">
-        <v>6.5</v>
+        <v>4.621063439093168</v>
       </c>
     </row>
     <row r="114">
@@ -1350,7 +1350,7 @@
         <v>36639</v>
       </c>
       <c r="B114" t="n">
-        <v>6.5</v>
+        <v>5.482694263147616</v>
       </c>
     </row>
     <row r="115">
@@ -1358,7 +1358,7 @@
         <v>36640</v>
       </c>
       <c r="B115" t="n">
-        <v>6.499999999999999</v>
+        <v>3.290559822929019</v>
       </c>
     </row>
     <row r="116">
@@ -1366,7 +1366,7 @@
         <v>36641</v>
       </c>
       <c r="B116" t="n">
-        <v>6.5</v>
+        <v>3.711202357991163</v>
       </c>
     </row>
     <row r="117">
@@ -1374,7 +1374,7 @@
         <v>36642</v>
       </c>
       <c r="B117" t="n">
-        <v>6.5</v>
+        <v>2.615</v>
       </c>
     </row>
     <row r="118">
@@ -1382,7 +1382,7 @@
         <v>36643</v>
       </c>
       <c r="B118" t="n">
-        <v>6.5</v>
+        <v>6.107298143348973</v>
       </c>
     </row>
     <row r="119">
@@ -1390,7 +1390,7 @@
         <v>36644</v>
       </c>
       <c r="B119" t="n">
-        <v>6.499999999999999</v>
+        <v>5.303999999999999</v>
       </c>
     </row>
     <row r="120">
@@ -1406,7 +1406,7 @@
         <v>36646</v>
       </c>
       <c r="B121" t="n">
-        <v>6.5</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="122">
@@ -1414,7 +1414,7 @@
         <v>36647</v>
       </c>
       <c r="B122" t="n">
-        <v>6.5</v>
+        <v>2.382897585949476</v>
       </c>
     </row>
     <row r="123">
@@ -1422,7 +1422,7 @@
         <v>36648</v>
       </c>
       <c r="B123" t="n">
-        <v>6.5</v>
+        <v>2.726350900484053</v>
       </c>
     </row>
     <row r="124">
@@ -1430,7 +1430,7 @@
         <v>36649</v>
       </c>
       <c r="B124" t="n">
-        <v>6.5</v>
+        <v>3.296525059359096</v>
       </c>
     </row>
     <row r="125">
@@ -1438,7 +1438,7 @@
         <v>36650</v>
       </c>
       <c r="B125" t="n">
-        <v>6.5</v>
+        <v>3.098</v>
       </c>
     </row>
     <row r="126">
@@ -1446,7 +1446,7 @@
         <v>36651</v>
       </c>
       <c r="B126" t="n">
-        <v>6.499999999999999</v>
+        <v>2.095299261791831</v>
       </c>
     </row>
     <row r="127">
@@ -1454,7 +1454,7 @@
         <v>36652</v>
       </c>
       <c r="B127" t="n">
-        <v>6.5</v>
+        <v>3.52598070963579</v>
       </c>
     </row>
     <row r="128">
@@ -1462,7 +1462,7 @@
         <v>36653</v>
       </c>
       <c r="B128" t="n">
-        <v>6.5</v>
+        <v>2.158755695703205</v>
       </c>
     </row>
     <row r="129">
@@ -1470,7 +1470,7 @@
         <v>36654</v>
       </c>
       <c r="B129" t="n">
-        <v>6.5</v>
+        <v>2.211</v>
       </c>
     </row>
     <row r="130">
@@ -1478,7 +1478,7 @@
         <v>36655</v>
       </c>
       <c r="B130" t="n">
-        <v>6.5</v>
+        <v>4.609178817901248</v>
       </c>
     </row>
     <row r="131">
@@ -1486,7 +1486,7 @@
         <v>36656</v>
       </c>
       <c r="B131" t="n">
-        <v>6.499999999999998</v>
+        <v>2.145</v>
       </c>
     </row>
     <row r="132">
@@ -1494,7 +1494,7 @@
         <v>36657</v>
       </c>
       <c r="B132" t="n">
-        <v>6.5</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="133">
@@ -1518,7 +1518,7 @@
         <v>36660</v>
       </c>
       <c r="B135" t="n">
-        <v>6.5</v>
+        <v>2.869598785692724</v>
       </c>
     </row>
     <row r="136">
@@ -1526,7 +1526,7 @@
         <v>36661</v>
       </c>
       <c r="B136" t="n">
-        <v>6.5</v>
+        <v>3.733926068544354</v>
       </c>
     </row>
     <row r="137">
@@ -1534,7 +1534,7 @@
         <v>36662</v>
       </c>
       <c r="B137" t="n">
-        <v>6.5</v>
+        <v>2.491099629125877</v>
       </c>
     </row>
     <row r="138">
@@ -1542,7 +1542,7 @@
         <v>36663</v>
       </c>
       <c r="B138" t="n">
-        <v>6.5</v>
+        <v>2.895</v>
       </c>
     </row>
     <row r="139">
@@ -1550,7 +1550,7 @@
         <v>36664</v>
       </c>
       <c r="B139" t="n">
-        <v>6.5</v>
+        <v>4.388152686699636</v>
       </c>
     </row>
     <row r="140">
@@ -1558,7 +1558,7 @@
         <v>36665</v>
       </c>
       <c r="B140" t="n">
-        <v>6.5</v>
+        <v>3.686628407119373</v>
       </c>
     </row>
     <row r="141">
@@ -1566,7 +1566,7 @@
         <v>36666</v>
       </c>
       <c r="B141" t="n">
-        <v>6.5</v>
+        <v>4.73440896867808</v>
       </c>
     </row>
     <row r="142">
@@ -1574,7 +1574,7 @@
         <v>36667</v>
       </c>
       <c r="B142" t="n">
-        <v>6.5</v>
+        <v>3.669</v>
       </c>
     </row>
     <row r="143">
@@ -1582,7 +1582,7 @@
         <v>36668</v>
       </c>
       <c r="B143" t="n">
-        <v>6.5</v>
+        <v>6.106486304736308</v>
       </c>
     </row>
     <row r="144">
@@ -1590,7 +1590,7 @@
         <v>36669</v>
       </c>
       <c r="B144" t="n">
-        <v>6.5</v>
+        <v>4.22216473908081</v>
       </c>
     </row>
     <row r="145">
@@ -1598,7 +1598,7 @@
         <v>36670</v>
       </c>
       <c r="B145" t="n">
-        <v>6.5</v>
+        <v>2.058509860869954</v>
       </c>
     </row>
     <row r="146">
@@ -1606,7 +1606,7 @@
         <v>36671</v>
       </c>
       <c r="B146" t="n">
-        <v>6.5</v>
+        <v>2.525</v>
       </c>
     </row>
     <row r="147">
@@ -1614,7 +1614,7 @@
         <v>36672</v>
       </c>
       <c r="B147" t="n">
-        <v>6.499999999999999</v>
+        <v>5.375024692524104</v>
       </c>
     </row>
     <row r="148">
@@ -1622,7 +1622,7 @@
         <v>36673</v>
       </c>
       <c r="B148" t="n">
-        <v>6.5</v>
+        <v>3.765357521821772</v>
       </c>
     </row>
     <row r="149">
@@ -1630,7 +1630,7 @@
         <v>36674</v>
       </c>
       <c r="B149" t="n">
-        <v>6.499999999999998</v>
+        <v>3.501</v>
       </c>
     </row>
     <row r="150">
@@ -1638,7 +1638,7 @@
         <v>36675</v>
       </c>
       <c r="B150" t="n">
-        <v>6.499999999999999</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="151">
@@ -1646,7 +1646,7 @@
         <v>36676</v>
       </c>
       <c r="B151" t="n">
-        <v>6.5</v>
+        <v>2.838500620682117</v>
       </c>
     </row>
     <row r="152">
@@ -1654,7 +1654,7 @@
         <v>36677</v>
       </c>
       <c r="B152" t="n">
-        <v>6.5</v>
+        <v>6.101000000000001</v>
       </c>
     </row>
     <row r="153">
@@ -1670,7 +1670,7 @@
         <v>36679</v>
       </c>
       <c r="B154" t="n">
-        <v>6.5</v>
+        <v>2.602479626523839</v>
       </c>
     </row>
     <row r="155">
@@ -1678,7 +1678,7 @@
         <v>36680</v>
       </c>
       <c r="B155" t="n">
-        <v>6.5</v>
+        <v>2.277165808020566</v>
       </c>
     </row>
     <row r="156">
@@ -1694,7 +1694,7 @@
         <v>36682</v>
       </c>
       <c r="B157" t="n">
-        <v>6.5</v>
+        <v>3.265</v>
       </c>
     </row>
     <row r="158">
@@ -1702,7 +1702,7 @@
         <v>36683</v>
       </c>
       <c r="B158" t="n">
-        <v>6.5</v>
+        <v>4.521706952262554</v>
       </c>
     </row>
     <row r="159">
@@ -1710,7 +1710,7 @@
         <v>36684</v>
       </c>
       <c r="B159" t="n">
-        <v>6.5</v>
+        <v>3.93631822478903</v>
       </c>
     </row>
     <row r="160">
@@ -1718,7 +1718,7 @@
         <v>36685</v>
       </c>
       <c r="B160" t="n">
-        <v>6.5</v>
+        <v>3.528180810152646</v>
       </c>
     </row>
     <row r="161">
@@ -1726,7 +1726,7 @@
         <v>36686</v>
       </c>
       <c r="B161" t="n">
-        <v>6.5</v>
+        <v>5.134845534731742</v>
       </c>
     </row>
     <row r="162">
@@ -1734,7 +1734,7 @@
         <v>36687</v>
       </c>
       <c r="B162" t="n">
-        <v>6.5</v>
+        <v>3.821</v>
       </c>
     </row>
     <row r="163">
@@ -1758,7 +1758,7 @@
         <v>36690</v>
       </c>
       <c r="B165" t="n">
-        <v>6.296751383382669</v>
+        <v>4.980086</v>
       </c>
     </row>
     <row r="166">
@@ -1766,7 +1766,7 @@
         <v>36691</v>
       </c>
       <c r="B166" t="n">
-        <v>6.5</v>
+        <v>3.833214649831274</v>
       </c>
     </row>
     <row r="167">
@@ -1774,7 +1774,7 @@
         <v>36692</v>
       </c>
       <c r="B167" t="n">
-        <v>6.499999999999998</v>
+        <v>3.75232667076972</v>
       </c>
     </row>
     <row r="168">
@@ -1790,7 +1790,7 @@
         <v>36694</v>
       </c>
       <c r="B169" t="n">
-        <v>6.5</v>
+        <v>4.546111837191987</v>
       </c>
     </row>
     <row r="170">
@@ -1814,7 +1814,7 @@
         <v>36697</v>
       </c>
       <c r="B172" t="n">
-        <v>6.5</v>
+        <v>3.996664440276822</v>
       </c>
     </row>
     <row r="173">
@@ -1822,7 +1822,7 @@
         <v>36698</v>
       </c>
       <c r="B173" t="n">
-        <v>6.5</v>
+        <v>3.558384820623041</v>
       </c>
     </row>
     <row r="174">
@@ -1846,7 +1846,7 @@
         <v>36701</v>
       </c>
       <c r="B176" t="n">
-        <v>6.5</v>
+        <v>4.045999999999999</v>
       </c>
     </row>
     <row r="177">
@@ -1854,7 +1854,7 @@
         <v>36702</v>
       </c>
       <c r="B177" t="n">
-        <v>6.5</v>
+        <v>1.975</v>
       </c>
     </row>
     <row r="178">
@@ -1862,7 +1862,7 @@
         <v>36703</v>
       </c>
       <c r="B178" t="n">
-        <v>6.5</v>
+        <v>3.035546272999886</v>
       </c>
     </row>
     <row r="179">
@@ -1870,7 +1870,7 @@
         <v>36704</v>
       </c>
       <c r="B179" t="n">
-        <v>6.499999999999999</v>
+        <v>4.342496770170804</v>
       </c>
     </row>
     <row r="180">
@@ -1878,7 +1878,7 @@
         <v>36705</v>
       </c>
       <c r="B180" t="n">
-        <v>6.499999999999999</v>
+        <v>4.594949431029585</v>
       </c>
     </row>
     <row r="181">
@@ -1902,7 +1902,7 @@
         <v>36708</v>
       </c>
       <c r="B183" t="n">
-        <v>6.5</v>
+        <v>3.88872454095453</v>
       </c>
     </row>
     <row r="184">
@@ -1910,7 +1910,7 @@
         <v>36709</v>
       </c>
       <c r="B184" t="n">
-        <v>6.5</v>
+        <v>3.149</v>
       </c>
     </row>
     <row r="185">
@@ -1918,7 +1918,7 @@
         <v>36710</v>
       </c>
       <c r="B185" t="n">
-        <v>6.5</v>
+        <v>3.637999999999999</v>
       </c>
     </row>
     <row r="186">
@@ -1926,7 +1926,7 @@
         <v>36711</v>
       </c>
       <c r="B186" t="n">
-        <v>6.5</v>
+        <v>2.137549081758495</v>
       </c>
     </row>
     <row r="187">
@@ -1934,7 +1934,7 @@
         <v>36712</v>
       </c>
       <c r="B187" t="n">
-        <v>6.5</v>
+        <v>2.434000696123499</v>
       </c>
     </row>
     <row r="188">
@@ -1942,7 +1942,7 @@
         <v>36713</v>
       </c>
       <c r="B188" t="n">
-        <v>6.5</v>
+        <v>2.517002665493935</v>
       </c>
     </row>
     <row r="189">
@@ -1950,7 +1950,7 @@
         <v>36714</v>
       </c>
       <c r="B189" t="n">
-        <v>6.499999999999999</v>
+        <v>2.078787009878513</v>
       </c>
     </row>
     <row r="190">
@@ -1958,7 +1958,7 @@
         <v>36715</v>
       </c>
       <c r="B190" t="n">
-        <v>6.5</v>
+        <v>3.100181237233242</v>
       </c>
     </row>
     <row r="191">
@@ -1966,7 +1966,7 @@
         <v>36716</v>
       </c>
       <c r="B191" t="n">
-        <v>6.5</v>
+        <v>5.400611909858816</v>
       </c>
     </row>
     <row r="192">
@@ -1982,7 +1982,7 @@
         <v>36718</v>
       </c>
       <c r="B193" t="n">
-        <v>6.499999999999999</v>
+        <v>2.860814873441919</v>
       </c>
     </row>
     <row r="194">
@@ -1990,7 +1990,7 @@
         <v>36719</v>
       </c>
       <c r="B194" t="n">
-        <v>6.5</v>
+        <v>2.853865221582792</v>
       </c>
     </row>
     <row r="195">
@@ -1998,7 +1998,7 @@
         <v>36720</v>
       </c>
       <c r="B195" t="n">
-        <v>6.5</v>
+        <v>2.439</v>
       </c>
     </row>
     <row r="196">
@@ -2006,7 +2006,7 @@
         <v>36721</v>
       </c>
       <c r="B196" t="n">
-        <v>6.5</v>
+        <v>2.544403752610612</v>
       </c>
     </row>
     <row r="197">
@@ -2014,7 +2014,7 @@
         <v>36722</v>
       </c>
       <c r="B197" t="n">
-        <v>6.5</v>
+        <v>2.376</v>
       </c>
     </row>
     <row r="198">
@@ -2022,7 +2022,7 @@
         <v>36723</v>
       </c>
       <c r="B198" t="n">
-        <v>6.5</v>
+        <v>1.953</v>
       </c>
     </row>
     <row r="199">
@@ -2030,7 +2030,7 @@
         <v>36724</v>
       </c>
       <c r="B199" t="n">
-        <v>6.5</v>
+        <v>2.267228905373648</v>
       </c>
     </row>
     <row r="200">
@@ -2038,7 +2038,7 @@
         <v>36725</v>
       </c>
       <c r="B200" t="n">
-        <v>6.5</v>
+        <v>2.271070497519683</v>
       </c>
     </row>
     <row r="201">
@@ -2046,7 +2046,7 @@
         <v>36726</v>
       </c>
       <c r="B201" t="n">
-        <v>6.5</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="202">
@@ -2054,7 +2054,7 @@
         <v>36727</v>
       </c>
       <c r="B202" t="n">
-        <v>6.499999999999998</v>
+        <v>3.5959518021042</v>
       </c>
     </row>
     <row r="203">
@@ -2062,7 +2062,7 @@
         <v>36728</v>
       </c>
       <c r="B203" t="n">
-        <v>6.5</v>
+        <v>4.381814385033317</v>
       </c>
     </row>
     <row r="204">
@@ -2070,7 +2070,7 @@
         <v>36729</v>
       </c>
       <c r="B204" t="n">
-        <v>6.5</v>
+        <v>3.855125107721157</v>
       </c>
     </row>
     <row r="205">
@@ -2078,7 +2078,7 @@
         <v>36730</v>
       </c>
       <c r="B205" t="n">
-        <v>6.5</v>
+        <v>3.915982978422686</v>
       </c>
     </row>
     <row r="206">
@@ -2086,7 +2086,7 @@
         <v>36731</v>
       </c>
       <c r="B206" t="n">
-        <v>6.5</v>
+        <v>5.067156759376449</v>
       </c>
     </row>
     <row r="207">
@@ -2094,7 +2094,7 @@
         <v>36732</v>
       </c>
       <c r="B207" t="n">
-        <v>6.5</v>
+        <v>3.381407334492144</v>
       </c>
     </row>
     <row r="208">
@@ -2102,7 +2102,7 @@
         <v>36733</v>
       </c>
       <c r="B208" t="n">
-        <v>6.5</v>
+        <v>2.887</v>
       </c>
     </row>
     <row r="209">
@@ -2110,7 +2110,7 @@
         <v>36734</v>
       </c>
       <c r="B209" t="n">
-        <v>6.5</v>
+        <v>3.703713761963026</v>
       </c>
     </row>
     <row r="210">
@@ -2118,7 +2118,7 @@
         <v>36735</v>
       </c>
       <c r="B210" t="n">
-        <v>6.5</v>
+        <v>3.849738191829139</v>
       </c>
     </row>
     <row r="211">
@@ -2126,7 +2126,7 @@
         <v>36736</v>
       </c>
       <c r="B211" t="n">
-        <v>6.5</v>
+        <v>2.418964346731651</v>
       </c>
     </row>
     <row r="212">
@@ -2134,7 +2134,7 @@
         <v>36737</v>
       </c>
       <c r="B212" t="n">
-        <v>6.499999999999999</v>
+        <v>3.403498979560506</v>
       </c>
     </row>
     <row r="213">
@@ -2142,7 +2142,7 @@
         <v>36738</v>
       </c>
       <c r="B213" t="n">
-        <v>6.5</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="214">
@@ -2150,7 +2150,7 @@
         <v>36739</v>
       </c>
       <c r="B214" t="n">
-        <v>6.5</v>
+        <v>3.439901785604669</v>
       </c>
     </row>
     <row r="215">
@@ -2158,7 +2158,7 @@
         <v>36740</v>
       </c>
       <c r="B215" t="n">
-        <v>6.5</v>
+        <v>2.893</v>
       </c>
     </row>
     <row r="216">
@@ -2166,7 +2166,7 @@
         <v>36741</v>
       </c>
       <c r="B216" t="n">
-        <v>6.5</v>
+        <v>3.019</v>
       </c>
     </row>
     <row r="217">
@@ -2174,7 +2174,7 @@
         <v>36742</v>
       </c>
       <c r="B217" t="n">
-        <v>6.499999999999999</v>
+        <v>2.693000000000001</v>
       </c>
     </row>
     <row r="218">
@@ -2182,7 +2182,7 @@
         <v>36743</v>
       </c>
       <c r="B218" t="n">
-        <v>6.5</v>
+        <v>2.944844096865218</v>
       </c>
     </row>
     <row r="219">
@@ -2190,7 +2190,7 @@
         <v>36744</v>
       </c>
       <c r="B219" t="n">
-        <v>6.5</v>
+        <v>3.331</v>
       </c>
     </row>
     <row r="220">
@@ -2198,7 +2198,7 @@
         <v>36745</v>
       </c>
       <c r="B220" t="n">
-        <v>6.499999999999999</v>
+        <v>3.036624696647573</v>
       </c>
     </row>
     <row r="221">
@@ -2206,7 +2206,7 @@
         <v>36746</v>
       </c>
       <c r="B221" t="n">
-        <v>6.499999999999998</v>
+        <v>6.301374513035061</v>
       </c>
     </row>
     <row r="222">
@@ -2214,7 +2214,7 @@
         <v>36747</v>
       </c>
       <c r="B222" t="n">
-        <v>6.5</v>
+        <v>2.634</v>
       </c>
     </row>
     <row r="223">
@@ -2222,7 +2222,7 @@
         <v>36748</v>
       </c>
       <c r="B223" t="n">
-        <v>6.5</v>
+        <v>2.787634460886159</v>
       </c>
     </row>
     <row r="224">
@@ -2230,7 +2230,7 @@
         <v>36749</v>
       </c>
       <c r="B224" t="n">
-        <v>6.5</v>
+        <v>3.372</v>
       </c>
     </row>
     <row r="225">
@@ -2246,7 +2246,7 @@
         <v>36751</v>
       </c>
       <c r="B226" t="n">
-        <v>6.5</v>
+        <v>4.785</v>
       </c>
     </row>
     <row r="227">
@@ -2262,7 +2262,7 @@
         <v>36753</v>
       </c>
       <c r="B228" t="n">
-        <v>6.5</v>
+        <v>3.249</v>
       </c>
     </row>
     <row r="229">
@@ -2270,7 +2270,7 @@
         <v>36754</v>
       </c>
       <c r="B229" t="n">
-        <v>6.5</v>
+        <v>3.626</v>
       </c>
     </row>
     <row r="230">
@@ -2278,7 +2278,7 @@
         <v>36755</v>
       </c>
       <c r="B230" t="n">
-        <v>6.5</v>
+        <v>3.168</v>
       </c>
     </row>
     <row r="231">
@@ -2286,7 +2286,7 @@
         <v>36756</v>
       </c>
       <c r="B231" t="n">
-        <v>6.5</v>
+        <v>2.715</v>
       </c>
     </row>
     <row r="232">
@@ -2310,7 +2310,7 @@
         <v>36759</v>
       </c>
       <c r="B234" t="n">
-        <v>6.5</v>
+        <v>2.766</v>
       </c>
     </row>
     <row r="235">
@@ -2326,7 +2326,7 @@
         <v>36761</v>
       </c>
       <c r="B236" t="n">
-        <v>6.5</v>
+        <v>3.899223157068549</v>
       </c>
     </row>
     <row r="237">
@@ -2334,7 +2334,7 @@
         <v>36762</v>
       </c>
       <c r="B237" t="n">
-        <v>6.5</v>
+        <v>6.03094585578769</v>
       </c>
     </row>
     <row r="238">
@@ -2342,7 +2342,7 @@
         <v>36763</v>
       </c>
       <c r="B238" t="n">
-        <v>6.5</v>
+        <v>3.968</v>
       </c>
     </row>
     <row r="239">
@@ -2350,7 +2350,7 @@
         <v>36764</v>
       </c>
       <c r="B239" t="n">
-        <v>6.5</v>
+        <v>5.878382118723782</v>
       </c>
     </row>
     <row r="240">
@@ -2358,7 +2358,7 @@
         <v>36765</v>
       </c>
       <c r="B240" t="n">
-        <v>6.5</v>
+        <v>3.648384166768749</v>
       </c>
     </row>
     <row r="241">
@@ -2374,7 +2374,7 @@
         <v>36767</v>
       </c>
       <c r="B242" t="n">
-        <v>6.499999999999997</v>
+        <v>2.797</v>
       </c>
     </row>
     <row r="243">
@@ -2382,7 +2382,7 @@
         <v>36768</v>
       </c>
       <c r="B243" t="n">
-        <v>6.5</v>
+        <v>3.117223096324448</v>
       </c>
     </row>
     <row r="244">
@@ -2390,7 +2390,7 @@
         <v>36769</v>
       </c>
       <c r="B244" t="n">
-        <v>6.5</v>
+        <v>3.237908246603894</v>
       </c>
     </row>
     <row r="245">
@@ -2398,7 +2398,7 @@
         <v>36770</v>
       </c>
       <c r="B245" t="n">
-        <v>6.5</v>
+        <v>3.809397353122729</v>
       </c>
     </row>
     <row r="246">
@@ -2414,7 +2414,7 @@
         <v>36772</v>
       </c>
       <c r="B247" t="n">
-        <v>6.229902799129528</v>
+        <v>3.716</v>
       </c>
     </row>
     <row r="248">
@@ -2422,7 +2422,7 @@
         <v>36773</v>
       </c>
       <c r="B248" t="n">
-        <v>6.499999999999999</v>
+        <v>4.824</v>
       </c>
     </row>
     <row r="249">
@@ -2430,7 +2430,7 @@
         <v>36774</v>
       </c>
       <c r="B249" t="n">
-        <v>6.499999999999999</v>
+        <v>5.925528234541262</v>
       </c>
     </row>
     <row r="250">
@@ -2438,7 +2438,7 @@
         <v>36775</v>
       </c>
       <c r="B250" t="n">
-        <v>6.5</v>
+        <v>4.500809397958678</v>
       </c>
     </row>
     <row r="251">
@@ -2446,7 +2446,7 @@
         <v>36776</v>
       </c>
       <c r="B251" t="n">
-        <v>6.5</v>
+        <v>4.336</v>
       </c>
     </row>
     <row r="252">
@@ -2454,7 +2454,7 @@
         <v>36777</v>
       </c>
       <c r="B252" t="n">
-        <v>6.5</v>
+        <v>3.993845343996571</v>
       </c>
     </row>
     <row r="253">
@@ -2462,7 +2462,7 @@
         <v>36778</v>
       </c>
       <c r="B253" t="n">
-        <v>6.5</v>
+        <v>3.685960438041121</v>
       </c>
     </row>
     <row r="254">
@@ -2470,7 +2470,7 @@
         <v>36779</v>
       </c>
       <c r="B254" t="n">
-        <v>6.5</v>
+        <v>4.035933215900355</v>
       </c>
     </row>
     <row r="255">
@@ -2478,7 +2478,7 @@
         <v>36780</v>
       </c>
       <c r="B255" t="n">
-        <v>6.499999999999999</v>
+        <v>5.665006245683011</v>
       </c>
     </row>
     <row r="256">
@@ -2486,7 +2486,7 @@
         <v>36781</v>
       </c>
       <c r="B256" t="n">
-        <v>6.5</v>
+        <v>5.295846697997722</v>
       </c>
     </row>
     <row r="257">
@@ -2494,7 +2494,7 @@
         <v>36782</v>
       </c>
       <c r="B257" t="n">
-        <v>6.5</v>
+        <v>5.412316621281295</v>
       </c>
     </row>
     <row r="258">
@@ -2502,7 +2502,7 @@
         <v>36783</v>
       </c>
       <c r="B258" t="n">
-        <v>6.5</v>
+        <v>4.923563581961506</v>
       </c>
     </row>
     <row r="259">
@@ -2510,7 +2510,7 @@
         <v>36784</v>
       </c>
       <c r="B259" t="n">
-        <v>6.5</v>
+        <v>3.138</v>
       </c>
     </row>
     <row r="260">
@@ -2518,7 +2518,7 @@
         <v>36785</v>
       </c>
       <c r="B260" t="n">
-        <v>6.5</v>
+        <v>3.004</v>
       </c>
     </row>
     <row r="261">
@@ -2526,7 +2526,7 @@
         <v>36786</v>
       </c>
       <c r="B261" t="n">
-        <v>6.5</v>
+        <v>2.96674026275348</v>
       </c>
     </row>
     <row r="262">
@@ -2534,7 +2534,7 @@
         <v>36787</v>
       </c>
       <c r="B262" t="n">
-        <v>6.5</v>
+        <v>3.052</v>
       </c>
     </row>
     <row r="263">
@@ -2542,7 +2542,7 @@
         <v>36788</v>
       </c>
       <c r="B263" t="n">
-        <v>6.5</v>
+        <v>2.979</v>
       </c>
     </row>
     <row r="264">
@@ -2550,7 +2550,7 @@
         <v>36789</v>
       </c>
       <c r="B264" t="n">
-        <v>6.499999999999998</v>
+        <v>3.997110127993469</v>
       </c>
     </row>
     <row r="265">
@@ -2558,7 +2558,7 @@
         <v>36790</v>
       </c>
       <c r="B265" t="n">
-        <v>6.5</v>
+        <v>6.487</v>
       </c>
     </row>
     <row r="266">
@@ -2582,7 +2582,7 @@
         <v>36793</v>
       </c>
       <c r="B268" t="n">
-        <v>6.5</v>
+        <v>3.428282221400732</v>
       </c>
     </row>
     <row r="269">
@@ -2590,7 +2590,7 @@
         <v>36794</v>
       </c>
       <c r="B269" t="n">
-        <v>6.5</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="270">
@@ -2598,7 +2598,7 @@
         <v>36795</v>
       </c>
       <c r="B270" t="n">
-        <v>6.5</v>
+        <v>3.538</v>
       </c>
     </row>
     <row r="271">
@@ -2606,7 +2606,7 @@
         <v>36796</v>
       </c>
       <c r="B271" t="n">
-        <v>6.5</v>
+        <v>5.599293838991882</v>
       </c>
     </row>
     <row r="272">
@@ -2614,7 +2614,7 @@
         <v>36797</v>
       </c>
       <c r="B272" t="n">
-        <v>5.18647357844071</v>
+        <v>4.202272471268873</v>
       </c>
     </row>
     <row r="273">
@@ -2622,7 +2622,7 @@
         <v>36798</v>
       </c>
       <c r="B273" t="n">
-        <v>6.5</v>
+        <v>5.877000000000001</v>
       </c>
     </row>
     <row r="274">
@@ -2662,7 +2662,7 @@
         <v>36803</v>
       </c>
       <c r="B278" t="n">
-        <v>6.5</v>
+        <v>4.191</v>
       </c>
     </row>
     <row r="279">
@@ -2670,7 +2670,7 @@
         <v>36804</v>
       </c>
       <c r="B279" t="n">
-        <v>6.5</v>
+        <v>3.329</v>
       </c>
     </row>
     <row r="280">
@@ -2678,7 +2678,7 @@
         <v>36805</v>
       </c>
       <c r="B280" t="n">
-        <v>6.5</v>
+        <v>5.980884090163888</v>
       </c>
     </row>
     <row r="281">
@@ -2686,7 +2686,7 @@
         <v>36806</v>
       </c>
       <c r="B281" t="n">
-        <v>6.499999999999999</v>
+        <v>4.608999999999999</v>
       </c>
     </row>
     <row r="282">
@@ -2694,7 +2694,7 @@
         <v>36807</v>
       </c>
       <c r="B282" t="n">
-        <v>6.5</v>
+        <v>4.807</v>
       </c>
     </row>
     <row r="283">
@@ -2702,7 +2702,7 @@
         <v>36808</v>
       </c>
       <c r="B283" t="n">
-        <v>6.5</v>
+        <v>3.964</v>
       </c>
     </row>
     <row r="284">
@@ -2710,7 +2710,7 @@
         <v>36809</v>
       </c>
       <c r="B284" t="n">
-        <v>6.5</v>
+        <v>5.698776219969703</v>
       </c>
     </row>
     <row r="285">
@@ -2718,7 +2718,7 @@
         <v>36810</v>
       </c>
       <c r="B285" t="n">
-        <v>6.499999999999999</v>
+        <v>4.503</v>
       </c>
     </row>
     <row r="286">
@@ -2726,7 +2726,7 @@
         <v>36811</v>
       </c>
       <c r="B286" t="n">
-        <v>6.499999999999998</v>
+        <v>4.438578038393056</v>
       </c>
     </row>
     <row r="287">
@@ -2734,7 +2734,7 @@
         <v>36812</v>
       </c>
       <c r="B287" t="n">
-        <v>6.5</v>
+        <v>4.036204293551966</v>
       </c>
     </row>
     <row r="288">
@@ -2742,7 +2742,7 @@
         <v>36813</v>
       </c>
       <c r="B288" t="n">
-        <v>6.499999999999999</v>
+        <v>4.648124313599697</v>
       </c>
     </row>
     <row r="289">
@@ -2758,7 +2758,7 @@
         <v>36815</v>
       </c>
       <c r="B290" t="n">
-        <v>6.499999999999998</v>
+        <v>5.446999999999999</v>
       </c>
     </row>
     <row r="291">
@@ -2766,7 +2766,7 @@
         <v>36816</v>
       </c>
       <c r="B291" t="n">
-        <v>6.5</v>
+        <v>5.413875016794361</v>
       </c>
     </row>
     <row r="292">
@@ -2774,7 +2774,7 @@
         <v>36817</v>
       </c>
       <c r="B292" t="n">
-        <v>6.499999999999999</v>
+        <v>4.695445226975006</v>
       </c>
     </row>
     <row r="293">
@@ -2782,7 +2782,7 @@
         <v>36818</v>
       </c>
       <c r="B293" t="n">
-        <v>6.5</v>
+        <v>4.111944365501063</v>
       </c>
     </row>
     <row r="294">
@@ -2790,7 +2790,7 @@
         <v>36819</v>
       </c>
       <c r="B294" t="n">
-        <v>6.499999999999999</v>
+        <v>4.838742409796261</v>
       </c>
     </row>
     <row r="295">
@@ -2798,7 +2798,7 @@
         <v>36820</v>
       </c>
       <c r="B295" t="n">
-        <v>6.5</v>
+        <v>4.954659635722962</v>
       </c>
     </row>
     <row r="296">
@@ -2806,7 +2806,7 @@
         <v>36821</v>
       </c>
       <c r="B296" t="n">
-        <v>6.499999999999998</v>
+        <v>6.142604617888133</v>
       </c>
     </row>
     <row r="297">
@@ -2846,7 +2846,7 @@
         <v>36826</v>
       </c>
       <c r="B301" t="n">
-        <v>6.5</v>
+        <v>5.57533324085217</v>
       </c>
     </row>
     <row r="302">
@@ -2894,7 +2894,7 @@
         <v>36832</v>
       </c>
       <c r="B307" t="n">
-        <v>6.5</v>
+        <v>4.228388099962972</v>
       </c>
     </row>
     <row r="308">
@@ -2902,7 +2902,7 @@
         <v>36833</v>
       </c>
       <c r="B308" t="n">
-        <v>6.499999999999999</v>
+        <v>6.141401323980609</v>
       </c>
     </row>
     <row r="309">
@@ -2910,7 +2910,7 @@
         <v>36834</v>
       </c>
       <c r="B309" t="n">
-        <v>6.5</v>
+        <v>4.887</v>
       </c>
     </row>
     <row r="310">
@@ -2918,7 +2918,7 @@
         <v>36835</v>
       </c>
       <c r="B310" t="n">
-        <v>6.5</v>
+        <v>4.651408124903043</v>
       </c>
     </row>
     <row r="311">
@@ -2990,7 +2990,7 @@
         <v>36844</v>
       </c>
       <c r="B319" t="n">
-        <v>6.5</v>
+        <v>4.474096581856786</v>
       </c>
     </row>
     <row r="320">
@@ -2998,7 +2998,7 @@
         <v>36845</v>
       </c>
       <c r="B320" t="n">
-        <v>6.5</v>
+        <v>5.987</v>
       </c>
     </row>
     <row r="321">
@@ -3006,7 +3006,7 @@
         <v>36846</v>
       </c>
       <c r="B321" t="n">
-        <v>6.5</v>
+        <v>4.716738263096357</v>
       </c>
     </row>
     <row r="322">
@@ -3054,7 +3054,7 @@
         <v>36852</v>
       </c>
       <c r="B327" t="n">
-        <v>6.5</v>
+        <v>6.338</v>
       </c>
     </row>
     <row r="328">
@@ -3326,7 +3326,7 @@
         <v>36886</v>
       </c>
       <c r="B361" t="n">
-        <v>6.499999999999999</v>
+        <v>5.620187224147601</v>
       </c>
     </row>
     <row r="362">

--- a/results/end_of_day_charge_levels.xlsx
+++ b/results/end_of_day_charge_levels.xlsx
@@ -454,7 +454,7 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>1.761558754488767</v>
+        <v>1.75323082413364</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>36527</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5919837269039552</v>
+        <v>0.593878134705203</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>36528</v>
       </c>
       <c r="B4" t="n">
-        <v>0.09026060662080225</v>
+        <v>0.08968573812503104</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         <v>36530</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6969636844637308</v>
+        <v>0.697984212789899</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>36531</v>
       </c>
       <c r="B7" t="n">
-        <v>1.463102453982562</v>
+        <v>1.46766230453241</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>36532</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1526624679208584</v>
+        <v>0.1529174153094237</v>
       </c>
     </row>
     <row r="9">
@@ -518,7 +518,7 @@
         <v>36534</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1318796712544059</v>
+        <v>0.13157929771114</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>36535</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6494838447711613</v>
+        <v>0.6509370398033711</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>36536</v>
       </c>
       <c r="B12" t="n">
-        <v>1.457929903010341</v>
+        <v>1.461328053379982</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>36537</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4281739098008951</v>
+        <v>0.4288601029876928</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>36538</v>
       </c>
       <c r="B14" t="n">
-        <v>2.887180786484054</v>
+        <v>2.885157388118126</v>
       </c>
     </row>
     <row r="15">
@@ -574,7 +574,7 @@
         <v>36541</v>
       </c>
       <c r="B17" t="n">
-        <v>3.178224974659674</v>
+        <v>3.180972128531454</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>36542</v>
       </c>
       <c r="B18" t="n">
-        <v>1.724516863368592</v>
+        <v>1.719203426536505</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>36543</v>
       </c>
       <c r="B19" t="n">
-        <v>1.022268815190919</v>
+        <v>1.019312221171229</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>36544</v>
       </c>
       <c r="B20" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="21">
@@ -622,7 +622,7 @@
         <v>36547</v>
       </c>
       <c r="B23" t="n">
-        <v>2.117246429547663</v>
+        <v>2.125499243304335</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>36548</v>
       </c>
       <c r="B24" t="n">
-        <v>4.968907956799848</v>
+        <v>4.98132897624707</v>
       </c>
     </row>
     <row r="25">
@@ -654,7 +654,7 @@
         <v>36551</v>
       </c>
       <c r="B27" t="n">
-        <v>5.56470969881572</v>
+        <v>5.585462082187729</v>
       </c>
     </row>
     <row r="28">
@@ -670,7 +670,7 @@
         <v>36553</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3601256801955068</v>
+        <v>0.3623348664826305</v>
       </c>
     </row>
     <row r="30">
@@ -702,7 +702,7 @@
         <v>36557</v>
       </c>
       <c r="B33" t="n">
-        <v>1.01442450953996</v>
+        <v>1.011616799548485</v>
       </c>
     </row>
     <row r="34">
@@ -726,7 +726,7 @@
         <v>36560</v>
       </c>
       <c r="B36" t="n">
-        <v>2.116374568009162</v>
+        <v>2.117756230182099</v>
       </c>
     </row>
     <row r="37">
@@ -742,7 +742,7 @@
         <v>36562</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3803687972247771</v>
+        <v>0.3824165731505474</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>36563</v>
       </c>
       <c r="B39" t="n">
-        <v>5.988341035762289</v>
+        <v>6.001613091751405</v>
       </c>
     </row>
     <row r="40">
@@ -774,7 +774,7 @@
         <v>36566</v>
       </c>
       <c r="B42" t="n">
-        <v>4.298043087089617</v>
+        <v>4.279384958374867</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>36567</v>
       </c>
       <c r="B43" t="n">
-        <v>3.982464840635263</v>
+        <v>3.989456209561919</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>36568</v>
       </c>
       <c r="B44" t="n">
-        <v>5.166132682341855</v>
+        <v>5.180046551487264</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>36569</v>
       </c>
       <c r="B45" t="n">
-        <v>5.32674175588443</v>
+        <v>5.327093543970744</v>
       </c>
     </row>
     <row r="46">
@@ -814,7 +814,7 @@
         <v>36571</v>
       </c>
       <c r="B47" t="n">
-        <v>0.3939073162291987</v>
+        <v>0.3941827851409692</v>
       </c>
     </row>
     <row r="48">
@@ -838,7 +838,7 @@
         <v>36574</v>
       </c>
       <c r="B50" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="51">
@@ -854,7 +854,7 @@
         <v>36576</v>
       </c>
       <c r="B52" t="n">
-        <v>5.238711802891488</v>
+        <v>5.242640594547494</v>
       </c>
     </row>
     <row r="53">
@@ -862,7 +862,7 @@
         <v>36577</v>
       </c>
       <c r="B53" t="n">
-        <v>6.32395394990471</v>
+        <v>6.32546949970615</v>
       </c>
     </row>
     <row r="54">
@@ -870,7 +870,7 @@
         <v>36578</v>
       </c>
       <c r="B54" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="55">
@@ -878,7 +878,7 @@
         <v>36579</v>
       </c>
       <c r="B55" t="n">
-        <v>4.408403302277126</v>
+        <v>4.416896219795638</v>
       </c>
     </row>
     <row r="56">
@@ -886,7 +886,7 @@
         <v>36580</v>
       </c>
       <c r="B56" t="n">
-        <v>4.977469535499524</v>
+        <v>4.985295114044147</v>
       </c>
     </row>
     <row r="57">
@@ -902,7 +902,7 @@
         <v>36582</v>
       </c>
       <c r="B58" t="n">
-        <v>5.606057259053725</v>
+        <v>5.607876193779111</v>
       </c>
     </row>
     <row r="59">
@@ -910,7 +910,7 @@
         <v>36583</v>
       </c>
       <c r="B59" t="n">
-        <v>5.222092501127499</v>
+        <v>5.224883744250866</v>
       </c>
     </row>
     <row r="60">
@@ -950,7 +950,7 @@
         <v>36589</v>
       </c>
       <c r="B64" t="n">
-        <v>4.880075756792978</v>
+        <v>4.882038890860946</v>
       </c>
     </row>
     <row r="65">
@@ -958,7 +958,7 @@
         <v>36590</v>
       </c>
       <c r="B65" t="n">
-        <v>5.302695159223387</v>
+        <v>5.301645943430302</v>
       </c>
     </row>
     <row r="66">
@@ -974,7 +974,7 @@
         <v>36592</v>
       </c>
       <c r="B67" t="n">
-        <v>1.467494900788176</v>
+        <v>1.480927694737103</v>
       </c>
     </row>
     <row r="68">
@@ -982,7 +982,7 @@
         <v>36593</v>
       </c>
       <c r="B68" t="n">
-        <v>4.405614327015656</v>
+        <v>4.416900120215068</v>
       </c>
     </row>
     <row r="69">
@@ -998,7 +998,7 @@
         <v>36595</v>
       </c>
       <c r="B70" t="n">
-        <v>4.830811311099026</v>
+        <v>4.878275420122094</v>
       </c>
     </row>
     <row r="71">
@@ -1006,7 +1006,7 @@
         <v>36596</v>
       </c>
       <c r="B71" t="n">
-        <v>5.512838401356478</v>
+        <v>5.512691675046884</v>
       </c>
     </row>
     <row r="72">
@@ -1014,7 +1014,7 @@
         <v>36597</v>
       </c>
       <c r="B72" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="73">
@@ -1030,7 +1030,7 @@
         <v>36599</v>
       </c>
       <c r="B74" t="n">
-        <v>6.448747374352511</v>
+        <v>6.447732601969108</v>
       </c>
     </row>
     <row r="75">
@@ -1046,7 +1046,7 @@
         <v>36601</v>
       </c>
       <c r="B76" t="n">
-        <v>0.004119762450467856</v>
+        <v>0.004237524799288225</v>
       </c>
     </row>
     <row r="77">
@@ -1054,7 +1054,7 @@
         <v>36602</v>
       </c>
       <c r="B77" t="n">
-        <v>5.496698946411588</v>
+        <v>5.493014486947958</v>
       </c>
     </row>
     <row r="78">
@@ -1086,7 +1086,7 @@
         <v>36606</v>
       </c>
       <c r="B81" t="n">
-        <v>4.060976854660392</v>
+        <v>4.053253894559314</v>
       </c>
     </row>
     <row r="82">
@@ -1094,7 +1094,7 @@
         <v>36607</v>
       </c>
       <c r="B82" t="n">
-        <v>5.91344622174625</v>
+        <v>5.91282359601155</v>
       </c>
     </row>
     <row r="83">
@@ -1110,7 +1110,7 @@
         <v>36609</v>
       </c>
       <c r="B84" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="85">
@@ -1134,7 +1134,7 @@
         <v>36612</v>
       </c>
       <c r="B87" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="88">
@@ -1150,7 +1150,7 @@
         <v>36614</v>
       </c>
       <c r="B89" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="90">
@@ -1158,7 +1158,7 @@
         <v>36615</v>
       </c>
       <c r="B90" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="91">
@@ -1182,7 +1182,7 @@
         <v>36618</v>
       </c>
       <c r="B93" t="n">
-        <v>6.225259266707055</v>
+        <v>6.223517661429053</v>
       </c>
     </row>
     <row r="94">
@@ -1198,7 +1198,7 @@
         <v>36620</v>
       </c>
       <c r="B95" t="n">
-        <v>5.983717789340084</v>
+        <v>5.983257616255213</v>
       </c>
     </row>
     <row r="96">
@@ -1214,7 +1214,7 @@
         <v>36622</v>
       </c>
       <c r="B97" t="n">
-        <v>3.291020061837286</v>
+        <v>3.2910192860222</v>
       </c>
     </row>
     <row r="98">
@@ -1222,7 +1222,7 @@
         <v>36623</v>
       </c>
       <c r="B98" t="n">
-        <v>4.217611169551014</v>
+        <v>4.212989154599317</v>
       </c>
     </row>
     <row r="99">
@@ -1230,7 +1230,7 @@
         <v>36624</v>
       </c>
       <c r="B99" t="n">
-        <v>5.556966877270733</v>
+        <v>5.556557721086364</v>
       </c>
     </row>
     <row r="100">
@@ -1238,7 +1238,7 @@
         <v>36625</v>
       </c>
       <c r="B100" t="n">
-        <v>6.394150188952741</v>
+        <v>6.390895085499244</v>
       </c>
     </row>
     <row r="101">
@@ -1254,7 +1254,7 @@
         <v>36627</v>
       </c>
       <c r="B102" t="n">
-        <v>4.697832763482324</v>
+        <v>4.72393411385799</v>
       </c>
     </row>
     <row r="103">
@@ -1262,7 +1262,7 @@
         <v>36628</v>
       </c>
       <c r="B103" t="n">
-        <v>4.188454769999115</v>
+        <v>4.184269007564974</v>
       </c>
     </row>
     <row r="104">
@@ -1270,7 +1270,7 @@
         <v>36629</v>
       </c>
       <c r="B104" t="n">
-        <v>3.775714817398942</v>
+        <v>3.768798404860517</v>
       </c>
     </row>
     <row r="105">
@@ -1278,7 +1278,7 @@
         <v>36630</v>
       </c>
       <c r="B105" t="n">
-        <v>3.391383260527237</v>
+        <v>3.391166711702847</v>
       </c>
     </row>
     <row r="106">
@@ -1286,7 +1286,7 @@
         <v>36631</v>
       </c>
       <c r="B106" t="n">
-        <v>2.637693465425537</v>
+        <v>2.633368639603769</v>
       </c>
     </row>
     <row r="107">
@@ -1294,7 +1294,7 @@
         <v>36632</v>
       </c>
       <c r="B107" t="n">
-        <v>4.032593290573087</v>
+        <v>4.031269129118354</v>
       </c>
     </row>
     <row r="108">
@@ -1310,7 +1310,7 @@
         <v>36634</v>
       </c>
       <c r="B109" t="n">
-        <v>4.922715759572826</v>
+        <v>4.922688653510757</v>
       </c>
     </row>
     <row r="110">
@@ -1318,7 +1318,7 @@
         <v>36635</v>
       </c>
       <c r="B110" t="n">
-        <v>2.71862046624198</v>
+        <v>2.718567606921198</v>
       </c>
     </row>
     <row r="111">
@@ -1326,7 +1326,7 @@
         <v>36636</v>
       </c>
       <c r="B111" t="n">
-        <v>2.797453808395691</v>
+        <v>2.796395348412831</v>
       </c>
     </row>
     <row r="112">
@@ -1334,7 +1334,7 @@
         <v>36637</v>
       </c>
       <c r="B112" t="n">
-        <v>2.969883720439358</v>
+        <v>2.96970345753415</v>
       </c>
     </row>
     <row r="113">
@@ -1342,7 +1342,7 @@
         <v>36638</v>
       </c>
       <c r="B113" t="n">
-        <v>4.621094795594402</v>
+        <v>4.621063439093168</v>
       </c>
     </row>
     <row r="114">
@@ -1350,7 +1350,7 @@
         <v>36639</v>
       </c>
       <c r="B114" t="n">
-        <v>5.483139325154973</v>
+        <v>5.482694263147616</v>
       </c>
     </row>
     <row r="115">
@@ -1358,7 +1358,7 @@
         <v>36640</v>
       </c>
       <c r="B115" t="n">
-        <v>3.290603201564602</v>
+        <v>3.290559822929019</v>
       </c>
     </row>
     <row r="116">
@@ -1366,7 +1366,7 @@
         <v>36641</v>
       </c>
       <c r="B116" t="n">
-        <v>3.711334384028845</v>
+        <v>3.711202357991163</v>
       </c>
     </row>
     <row r="117">
@@ -1382,7 +1382,7 @@
         <v>36643</v>
       </c>
       <c r="B118" t="n">
-        <v>6.108973764358923</v>
+        <v>6.107298143348973</v>
       </c>
     </row>
     <row r="119">
@@ -1390,7 +1390,7 @@
         <v>36644</v>
       </c>
       <c r="B119" t="n">
-        <v>5.304</v>
+        <v>5.303999999999999</v>
       </c>
     </row>
     <row r="120">
@@ -1414,7 +1414,7 @@
         <v>36647</v>
       </c>
       <c r="B122" t="n">
-        <v>2.382939125994121</v>
+        <v>2.382897585949476</v>
       </c>
     </row>
     <row r="123">
@@ -1422,7 +1422,7 @@
         <v>36648</v>
       </c>
       <c r="B123" t="n">
-        <v>2.726473874930035</v>
+        <v>2.726350900484053</v>
       </c>
     </row>
     <row r="124">
@@ -1430,7 +1430,7 @@
         <v>36649</v>
       </c>
       <c r="B124" t="n">
-        <v>3.299973733595619</v>
+        <v>3.296525059359096</v>
       </c>
     </row>
     <row r="125">
@@ -1446,7 +1446,7 @@
         <v>36651</v>
       </c>
       <c r="B126" t="n">
-        <v>2.095591699200098</v>
+        <v>2.095299261791831</v>
       </c>
     </row>
     <row r="127">
@@ -1454,7 +1454,7 @@
         <v>36652</v>
       </c>
       <c r="B127" t="n">
-        <v>3.526268013179531</v>
+        <v>3.52598070963579</v>
       </c>
     </row>
     <row r="128">
@@ -1462,7 +1462,7 @@
         <v>36653</v>
       </c>
       <c r="B128" t="n">
-        <v>2.158913707110504</v>
+        <v>2.158755695703205</v>
       </c>
     </row>
     <row r="129">
@@ -1478,7 +1478,7 @@
         <v>36655</v>
       </c>
       <c r="B130" t="n">
-        <v>4.609251967170532</v>
+        <v>4.609178817901248</v>
       </c>
     </row>
     <row r="131">
@@ -1518,7 +1518,7 @@
         <v>36660</v>
       </c>
       <c r="B135" t="n">
-        <v>2.869819240579775</v>
+        <v>2.869598785692724</v>
       </c>
     </row>
     <row r="136">
@@ -1526,7 +1526,7 @@
         <v>36661</v>
       </c>
       <c r="B136" t="n">
-        <v>3.734937567817868</v>
+        <v>3.733926068544354</v>
       </c>
     </row>
     <row r="137">
@@ -1534,7 +1534,7 @@
         <v>36662</v>
       </c>
       <c r="B137" t="n">
-        <v>2.49134547154879</v>
+        <v>2.491099629125877</v>
       </c>
     </row>
     <row r="138">
@@ -1550,7 +1550,7 @@
         <v>36664</v>
       </c>
       <c r="B139" t="n">
-        <v>4.388658871918074</v>
+        <v>4.388152686699636</v>
       </c>
     </row>
     <row r="140">
@@ -1558,7 +1558,7 @@
         <v>36665</v>
       </c>
       <c r="B140" t="n">
-        <v>3.686896925165887</v>
+        <v>3.686628407119373</v>
       </c>
     </row>
     <row r="141">
@@ -1566,7 +1566,7 @@
         <v>36666</v>
       </c>
       <c r="B141" t="n">
-        <v>4.734433007363913</v>
+        <v>4.73440896867808</v>
       </c>
     </row>
     <row r="142">
@@ -1582,7 +1582,7 @@
         <v>36668</v>
       </c>
       <c r="B143" t="n">
-        <v>6.107253085287804</v>
+        <v>6.106486304736308</v>
       </c>
     </row>
     <row r="144">
@@ -1590,7 +1590,7 @@
         <v>36669</v>
       </c>
       <c r="B144" t="n">
-        <v>4.222244815083167</v>
+        <v>4.22216473908081</v>
       </c>
     </row>
     <row r="145">
@@ -1598,7 +1598,7 @@
         <v>36670</v>
       </c>
       <c r="B145" t="n">
-        <v>2.060314363227832</v>
+        <v>2.058509860869954</v>
       </c>
     </row>
     <row r="146">
@@ -1614,7 +1614,7 @@
         <v>36672</v>
       </c>
       <c r="B147" t="n">
-        <v>5.380804865201541</v>
+        <v>5.375024692524104</v>
       </c>
     </row>
     <row r="148">
@@ -1622,7 +1622,7 @@
         <v>36673</v>
       </c>
       <c r="B148" t="n">
-        <v>3.765472983211892</v>
+        <v>3.765357521821772</v>
       </c>
     </row>
     <row r="149">
@@ -1646,7 +1646,7 @@
         <v>36676</v>
       </c>
       <c r="B151" t="n">
-        <v>2.838770435334074</v>
+        <v>2.838500620682117</v>
       </c>
     </row>
     <row r="152">
@@ -1670,7 +1670,7 @@
         <v>36679</v>
       </c>
       <c r="B154" t="n">
-        <v>2.607272970993514</v>
+        <v>2.602479626523839</v>
       </c>
     </row>
     <row r="155">
@@ -1678,7 +1678,7 @@
         <v>36680</v>
       </c>
       <c r="B155" t="n">
-        <v>2.277929116089534</v>
+        <v>2.277165808020566</v>
       </c>
     </row>
     <row r="156">
@@ -1686,7 +1686,7 @@
         <v>36681</v>
       </c>
       <c r="B156" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="157">
@@ -1702,7 +1702,7 @@
         <v>36683</v>
       </c>
       <c r="B158" t="n">
-        <v>4.52355392476108</v>
+        <v>4.521706952262554</v>
       </c>
     </row>
     <row r="159">
@@ -1710,7 +1710,7 @@
         <v>36684</v>
       </c>
       <c r="B159" t="n">
-        <v>3.941991032814138</v>
+        <v>3.93631822478903</v>
       </c>
     </row>
     <row r="160">
@@ -1718,7 +1718,7 @@
         <v>36685</v>
       </c>
       <c r="B160" t="n">
-        <v>3.528863767316024</v>
+        <v>3.528180810152646</v>
       </c>
     </row>
     <row r="161">
@@ -1726,7 +1726,7 @@
         <v>36686</v>
       </c>
       <c r="B161" t="n">
-        <v>5.142201415084878</v>
+        <v>5.134845534731742</v>
       </c>
     </row>
     <row r="162">
@@ -1750,7 +1750,7 @@
         <v>36689</v>
       </c>
       <c r="B164" t="n">
-        <v>4.6176471383699</v>
+        <v>4.69029160799869</v>
       </c>
     </row>
     <row r="165">
@@ -1758,7 +1758,7 @@
         <v>36690</v>
       </c>
       <c r="B165" t="n">
-        <v>4.980085999999999</v>
+        <v>4.980086</v>
       </c>
     </row>
     <row r="166">
@@ -1766,7 +1766,7 @@
         <v>36691</v>
       </c>
       <c r="B166" t="n">
-        <v>3.83405229764475</v>
+        <v>3.833214649831274</v>
       </c>
     </row>
     <row r="167">
@@ -1774,7 +1774,7 @@
         <v>36692</v>
       </c>
       <c r="B167" t="n">
-        <v>3.755396561512751</v>
+        <v>3.75232667076972</v>
       </c>
     </row>
     <row r="168">
@@ -1790,7 +1790,7 @@
         <v>36694</v>
       </c>
       <c r="B169" t="n">
-        <v>4.548450774204453</v>
+        <v>4.546111837191987</v>
       </c>
     </row>
     <row r="170">
@@ -1814,7 +1814,7 @@
         <v>36697</v>
       </c>
       <c r="B172" t="n">
-        <v>4.004893758146084</v>
+        <v>3.996664440276822</v>
       </c>
     </row>
     <row r="173">
@@ -1822,7 +1822,7 @@
         <v>36698</v>
       </c>
       <c r="B173" t="n">
-        <v>3.55839259377381</v>
+        <v>3.558384820623041</v>
       </c>
     </row>
     <row r="174">
@@ -1838,7 +1838,7 @@
         <v>36700</v>
       </c>
       <c r="B175" t="n">
-        <v>4.192872431985356</v>
+        <v>4.268272615011075</v>
       </c>
     </row>
     <row r="176">
@@ -1862,7 +1862,7 @@
         <v>36703</v>
       </c>
       <c r="B178" t="n">
-        <v>3.036758246996648</v>
+        <v>3.035546272999886</v>
       </c>
     </row>
     <row r="179">
@@ -1870,7 +1870,7 @@
         <v>36704</v>
       </c>
       <c r="B179" t="n">
-        <v>4.34291492666234</v>
+        <v>4.342496770170804</v>
       </c>
     </row>
     <row r="180">
@@ -1878,7 +1878,7 @@
         <v>36705</v>
       </c>
       <c r="B180" t="n">
-        <v>4.599230432341949</v>
+        <v>4.594949431029585</v>
       </c>
     </row>
     <row r="181">
@@ -1886,7 +1886,7 @@
         <v>36706</v>
       </c>
       <c r="B181" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="182">
@@ -1894,7 +1894,7 @@
         <v>36707</v>
       </c>
       <c r="B182" t="n">
-        <v>0.772830841700103</v>
+        <v>0.7867491859389353</v>
       </c>
     </row>
     <row r="183">
@@ -1902,7 +1902,7 @@
         <v>36708</v>
       </c>
       <c r="B183" t="n">
-        <v>3.888942489696471</v>
+        <v>3.88872454095453</v>
       </c>
     </row>
     <row r="184">
@@ -1926,7 +1926,7 @@
         <v>36711</v>
       </c>
       <c r="B186" t="n">
-        <v>2.137774232794265</v>
+        <v>2.137549081758495</v>
       </c>
     </row>
     <row r="187">
@@ -1934,7 +1934,7 @@
         <v>36712</v>
       </c>
       <c r="B187" t="n">
-        <v>2.434196710964608</v>
+        <v>2.434000696123499</v>
       </c>
     </row>
     <row r="188">
@@ -1942,7 +1942,7 @@
         <v>36713</v>
       </c>
       <c r="B188" t="n">
-        <v>2.517395706758889</v>
+        <v>2.517002665493935</v>
       </c>
     </row>
     <row r="189">
@@ -1950,7 +1950,7 @@
         <v>36714</v>
       </c>
       <c r="B189" t="n">
-        <v>2.079009216220833</v>
+        <v>2.078787009878513</v>
       </c>
     </row>
     <row r="190">
@@ -1958,7 +1958,7 @@
         <v>36715</v>
       </c>
       <c r="B190" t="n">
-        <v>3.10023859300407</v>
+        <v>3.100181237233242</v>
       </c>
     </row>
     <row r="191">
@@ -1966,7 +1966,7 @@
         <v>36716</v>
       </c>
       <c r="B191" t="n">
-        <v>5.401945418251751</v>
+        <v>5.400611909858816</v>
       </c>
     </row>
     <row r="192">
@@ -1974,7 +1974,7 @@
         <v>36717</v>
       </c>
       <c r="B192" t="n">
-        <v>3.065240227726152</v>
+        <v>3.099972594829565</v>
       </c>
     </row>
     <row r="193">
@@ -1982,7 +1982,7 @@
         <v>36718</v>
       </c>
       <c r="B193" t="n">
-        <v>2.860941773364741</v>
+        <v>2.860814873441919</v>
       </c>
     </row>
     <row r="194">
@@ -1990,7 +1990,7 @@
         <v>36719</v>
       </c>
       <c r="B194" t="n">
-        <v>2.854033335068434</v>
+        <v>2.853865221582792</v>
       </c>
     </row>
     <row r="195">
@@ -2006,7 +2006,7 @@
         <v>36721</v>
       </c>
       <c r="B196" t="n">
-        <v>2.545902474463744</v>
+        <v>2.544403752610612</v>
       </c>
     </row>
     <row r="197">
@@ -2030,7 +2030,7 @@
         <v>36724</v>
       </c>
       <c r="B199" t="n">
-        <v>2.267480261862727</v>
+        <v>2.267228905373648</v>
       </c>
     </row>
     <row r="200">
@@ -2038,7 +2038,7 @@
         <v>36725</v>
       </c>
       <c r="B200" t="n">
-        <v>2.271474279235741</v>
+        <v>2.271070497519683</v>
       </c>
     </row>
     <row r="201">
@@ -2054,7 +2054,7 @@
         <v>36727</v>
       </c>
       <c r="B202" t="n">
-        <v>3.599863144752334</v>
+        <v>3.5959518021042</v>
       </c>
     </row>
     <row r="203">
@@ -2062,7 +2062,7 @@
         <v>36728</v>
       </c>
       <c r="B203" t="n">
-        <v>4.382083903612514</v>
+        <v>4.381814385033317</v>
       </c>
     </row>
     <row r="204">
@@ -2070,7 +2070,7 @@
         <v>36729</v>
       </c>
       <c r="B204" t="n">
-        <v>3.858005471466779</v>
+        <v>3.855125107721157</v>
       </c>
     </row>
     <row r="205">
@@ -2078,7 +2078,7 @@
         <v>36730</v>
       </c>
       <c r="B205" t="n">
-        <v>3.917669005343001</v>
+        <v>3.915982978422686</v>
       </c>
     </row>
     <row r="206">
@@ -2086,7 +2086,7 @@
         <v>36731</v>
       </c>
       <c r="B206" t="n">
-        <v>5.067261352392013</v>
+        <v>5.067156759376449</v>
       </c>
     </row>
     <row r="207">
@@ -2094,7 +2094,7 @@
         <v>36732</v>
       </c>
       <c r="B207" t="n">
-        <v>3.381774590711574</v>
+        <v>3.381407334492144</v>
       </c>
     </row>
     <row r="208">
@@ -2110,7 +2110,7 @@
         <v>36734</v>
       </c>
       <c r="B209" t="n">
-        <v>3.704693585016021</v>
+        <v>3.703713761963026</v>
       </c>
     </row>
     <row r="210">
@@ -2118,7 +2118,7 @@
         <v>36735</v>
       </c>
       <c r="B210" t="n">
-        <v>3.855698385891915</v>
+        <v>3.849738191829139</v>
       </c>
     </row>
     <row r="211">
@@ -2126,7 +2126,7 @@
         <v>36736</v>
       </c>
       <c r="B211" t="n">
-        <v>2.419728952906964</v>
+        <v>2.418964346731651</v>
       </c>
     </row>
     <row r="212">
@@ -2134,7 +2134,7 @@
         <v>36737</v>
       </c>
       <c r="B212" t="n">
-        <v>3.403555883463525</v>
+        <v>3.403498979560506</v>
       </c>
     </row>
     <row r="213">
@@ -2150,7 +2150,7 @@
         <v>36739</v>
       </c>
       <c r="B214" t="n">
-        <v>3.441702231035392</v>
+        <v>3.439901785604669</v>
       </c>
     </row>
     <row r="215">
@@ -2182,7 +2182,7 @@
         <v>36743</v>
       </c>
       <c r="B218" t="n">
-        <v>2.944961200832889</v>
+        <v>2.944844096865218</v>
       </c>
     </row>
     <row r="219">
@@ -2198,7 +2198,7 @@
         <v>36745</v>
       </c>
       <c r="B220" t="n">
-        <v>3.037282768944523</v>
+        <v>3.036624696647573</v>
       </c>
     </row>
     <row r="221">
@@ -2206,7 +2206,7 @@
         <v>36746</v>
       </c>
       <c r="B221" t="n">
-        <v>6.3014274375998</v>
+        <v>6.301374513035061</v>
       </c>
     </row>
     <row r="222">
@@ -2222,7 +2222,7 @@
         <v>36748</v>
       </c>
       <c r="B223" t="n">
-        <v>2.787862169939257</v>
+        <v>2.787634460886159</v>
       </c>
     </row>
     <row r="224">
@@ -2238,7 +2238,7 @@
         <v>36750</v>
       </c>
       <c r="B225" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="226">
@@ -2254,7 +2254,7 @@
         <v>36752</v>
       </c>
       <c r="B227" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="228">
@@ -2302,7 +2302,7 @@
         <v>36758</v>
       </c>
       <c r="B233" t="n">
-        <v>0.6947963162982242</v>
+        <v>0.7058538671941408</v>
       </c>
     </row>
     <row r="234">
@@ -2326,7 +2326,7 @@
         <v>36761</v>
       </c>
       <c r="B236" t="n">
-        <v>3.905169895513403</v>
+        <v>3.899223157068549</v>
       </c>
     </row>
     <row r="237">
@@ -2334,7 +2334,7 @@
         <v>36762</v>
       </c>
       <c r="B237" t="n">
-        <v>6.031840234613925</v>
+        <v>6.03094585578769</v>
       </c>
     </row>
     <row r="238">
@@ -2350,7 +2350,7 @@
         <v>36764</v>
       </c>
       <c r="B239" t="n">
-        <v>5.880407880586388</v>
+        <v>5.878382118723782</v>
       </c>
     </row>
     <row r="240">
@@ -2358,7 +2358,7 @@
         <v>36765</v>
       </c>
       <c r="B240" t="n">
-        <v>3.651946021168485</v>
+        <v>3.648384166768749</v>
       </c>
     </row>
     <row r="241">
@@ -2382,7 +2382,7 @@
         <v>36768</v>
       </c>
       <c r="B243" t="n">
-        <v>3.117318391450012</v>
+        <v>3.117223096324448</v>
       </c>
     </row>
     <row r="244">
@@ -2390,7 +2390,7 @@
         <v>36769</v>
       </c>
       <c r="B244" t="n">
-        <v>3.237769481965123</v>
+        <v>3.237908246603894</v>
       </c>
     </row>
     <row r="245">
@@ -2398,7 +2398,7 @@
         <v>36770</v>
       </c>
       <c r="B245" t="n">
-        <v>3.808953332721739</v>
+        <v>3.809397353122729</v>
       </c>
     </row>
     <row r="246">
@@ -2406,7 +2406,7 @@
         <v>36771</v>
       </c>
       <c r="B246" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="247">
@@ -2430,7 +2430,7 @@
         <v>36774</v>
       </c>
       <c r="B249" t="n">
-        <v>5.925828472720331</v>
+        <v>5.925528234541262</v>
       </c>
     </row>
     <row r="250">
@@ -2438,7 +2438,7 @@
         <v>36775</v>
       </c>
       <c r="B250" t="n">
-        <v>4.501031576707536</v>
+        <v>4.500809397958678</v>
       </c>
     </row>
     <row r="251">
@@ -2454,7 +2454,7 @@
         <v>36777</v>
       </c>
       <c r="B252" t="n">
-        <v>3.993247719343845</v>
+        <v>3.993845343996571</v>
       </c>
     </row>
     <row r="253">
@@ -2462,7 +2462,7 @@
         <v>36778</v>
       </c>
       <c r="B253" t="n">
-        <v>3.688525376471673</v>
+        <v>3.685960438041121</v>
       </c>
     </row>
     <row r="254">
@@ -2470,7 +2470,7 @@
         <v>36779</v>
       </c>
       <c r="B254" t="n">
-        <v>4.035726662721341</v>
+        <v>4.035933215900355</v>
       </c>
     </row>
     <row r="255">
@@ -2478,7 +2478,7 @@
         <v>36780</v>
       </c>
       <c r="B255" t="n">
-        <v>5.665235111738973</v>
+        <v>5.665006245683011</v>
       </c>
     </row>
     <row r="256">
@@ -2486,7 +2486,7 @@
         <v>36781</v>
       </c>
       <c r="B256" t="n">
-        <v>5.298081596253003</v>
+        <v>5.295846697997722</v>
       </c>
     </row>
     <row r="257">
@@ -2494,7 +2494,7 @@
         <v>36782</v>
       </c>
       <c r="B257" t="n">
-        <v>5.412501893365623</v>
+        <v>5.412316621281295</v>
       </c>
     </row>
     <row r="258">
@@ -2502,7 +2502,7 @@
         <v>36783</v>
       </c>
       <c r="B258" t="n">
-        <v>4.925089908689711</v>
+        <v>4.923563581961506</v>
       </c>
     </row>
     <row r="259">
@@ -2526,7 +2526,7 @@
         <v>36786</v>
       </c>
       <c r="B261" t="n">
-        <v>2.966697812711008</v>
+        <v>2.96674026275348</v>
       </c>
     </row>
     <row r="262">
@@ -2550,7 +2550,7 @@
         <v>36789</v>
       </c>
       <c r="B264" t="n">
-        <v>3.99743789658323</v>
+        <v>3.997110127993469</v>
       </c>
     </row>
     <row r="265">
@@ -2558,7 +2558,7 @@
         <v>36790</v>
       </c>
       <c r="B265" t="n">
-        <v>6.486999999999999</v>
+        <v>6.487</v>
       </c>
     </row>
     <row r="266">
@@ -2566,7 +2566,7 @@
         <v>36791</v>
       </c>
       <c r="B266" t="n">
-        <v>6.499999999999999</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="267">
@@ -2582,7 +2582,7 @@
         <v>36793</v>
       </c>
       <c r="B268" t="n">
-        <v>3.428426441679281</v>
+        <v>3.428282221400732</v>
       </c>
     </row>
     <row r="269">
@@ -2606,7 +2606,7 @@
         <v>36796</v>
       </c>
       <c r="B271" t="n">
-        <v>5.59935206615785</v>
+        <v>5.599293838991882</v>
       </c>
     </row>
     <row r="272">
@@ -2614,7 +2614,7 @@
         <v>36797</v>
       </c>
       <c r="B272" t="n">
-        <v>4.201537346740495</v>
+        <v>4.202272471268873</v>
       </c>
     </row>
     <row r="273">
@@ -2638,7 +2638,7 @@
         <v>36800</v>
       </c>
       <c r="B275" t="n">
-        <v>6.499999999999999</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="276">
@@ -2646,7 +2646,7 @@
         <v>36801</v>
       </c>
       <c r="B276" t="n">
-        <v>2.130074373292783</v>
+        <v>2.136225066639862</v>
       </c>
     </row>
     <row r="277">
@@ -2678,7 +2678,7 @@
         <v>36805</v>
       </c>
       <c r="B280" t="n">
-        <v>5.980803665281964</v>
+        <v>5.980884090163888</v>
       </c>
     </row>
     <row r="281">
@@ -2686,7 +2686,7 @@
         <v>36806</v>
       </c>
       <c r="B281" t="n">
-        <v>4.609</v>
+        <v>4.608999999999999</v>
       </c>
     </row>
     <row r="282">
@@ -2710,7 +2710,7 @@
         <v>36809</v>
       </c>
       <c r="B284" t="n">
-        <v>5.69905933106458</v>
+        <v>5.698776219969703</v>
       </c>
     </row>
     <row r="285">
@@ -2726,7 +2726,7 @@
         <v>36811</v>
       </c>
       <c r="B286" t="n">
-        <v>4.432647999285921</v>
+        <v>4.438578038393056</v>
       </c>
     </row>
     <row r="287">
@@ -2734,7 +2734,7 @@
         <v>36812</v>
       </c>
       <c r="B287" t="n">
-        <v>4.028251545873799</v>
+        <v>4.036204293551966</v>
       </c>
     </row>
     <row r="288">
@@ -2742,7 +2742,7 @@
         <v>36813</v>
       </c>
       <c r="B288" t="n">
-        <v>4.64728758074246</v>
+        <v>4.648124313599697</v>
       </c>
     </row>
     <row r="289">
@@ -2750,7 +2750,7 @@
         <v>36814</v>
       </c>
       <c r="B289" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="290">
@@ -2766,7 +2766,7 @@
         <v>36816</v>
       </c>
       <c r="B291" t="n">
-        <v>5.414347282875879</v>
+        <v>5.413875016794361</v>
       </c>
     </row>
     <row r="292">
@@ -2774,7 +2774,7 @@
         <v>36817</v>
       </c>
       <c r="B292" t="n">
-        <v>4.69565899973839</v>
+        <v>4.695445226975006</v>
       </c>
     </row>
     <row r="293">
@@ -2782,7 +2782,7 @@
         <v>36818</v>
       </c>
       <c r="B293" t="n">
-        <v>4.11043789376312</v>
+        <v>4.111944365501063</v>
       </c>
     </row>
     <row r="294">
@@ -2790,7 +2790,7 @@
         <v>36819</v>
       </c>
       <c r="B294" t="n">
-        <v>4.836633716931826</v>
+        <v>4.838742409796261</v>
       </c>
     </row>
     <row r="295">
@@ -2798,7 +2798,7 @@
         <v>36820</v>
       </c>
       <c r="B295" t="n">
-        <v>4.954744932823717</v>
+        <v>4.954659635722962</v>
       </c>
     </row>
     <row r="296">
@@ -2806,7 +2806,7 @@
         <v>36821</v>
       </c>
       <c r="B296" t="n">
-        <v>6.142682403681197</v>
+        <v>6.142604617888133</v>
       </c>
     </row>
     <row r="297">
@@ -2822,7 +2822,7 @@
         <v>36823</v>
       </c>
       <c r="B298" t="n">
-        <v>1.063331432994028</v>
+        <v>1.079922354428133</v>
       </c>
     </row>
     <row r="299">
@@ -2838,7 +2838,7 @@
         <v>36825</v>
       </c>
       <c r="B300" t="n">
-        <v>0.2943768733575121</v>
+        <v>0.2954329609967254</v>
       </c>
     </row>
     <row r="301">
@@ -2846,7 +2846,7 @@
         <v>36826</v>
       </c>
       <c r="B301" t="n">
-        <v>5.579170798785707</v>
+        <v>5.57533324085217</v>
       </c>
     </row>
     <row r="302">
@@ -2878,7 +2878,7 @@
         <v>36830</v>
       </c>
       <c r="B305" t="n">
-        <v>6.499999999999998</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="306">
@@ -2894,7 +2894,7 @@
         <v>36832</v>
       </c>
       <c r="B307" t="n">
-        <v>4.227940181601699</v>
+        <v>4.228388099962972</v>
       </c>
     </row>
     <row r="308">
@@ -2902,7 +2902,7 @@
         <v>36833</v>
       </c>
       <c r="B308" t="n">
-        <v>6.138116428692291</v>
+        <v>6.141401323980609</v>
       </c>
     </row>
     <row r="309">
@@ -2918,7 +2918,7 @@
         <v>36835</v>
       </c>
       <c r="B310" t="n">
-        <v>4.649882740372137</v>
+        <v>4.651408124903043</v>
       </c>
     </row>
     <row r="311">
@@ -2934,7 +2934,7 @@
         <v>36837</v>
       </c>
       <c r="B312" t="n">
-        <v>0.572980328742442</v>
+        <v>0.5649935200846222</v>
       </c>
     </row>
     <row r="313">
@@ -2942,7 +2942,7 @@
         <v>36838</v>
       </c>
       <c r="B313" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="314">
@@ -2950,7 +2950,7 @@
         <v>36839</v>
       </c>
       <c r="B314" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="315">
@@ -2958,7 +2958,7 @@
         <v>36840</v>
       </c>
       <c r="B315" t="n">
-        <v>0.1267501256858627</v>
+        <v>0.1261379158801073</v>
       </c>
     </row>
     <row r="316">
@@ -2966,7 +2966,7 @@
         <v>36841</v>
       </c>
       <c r="B316" t="n">
-        <v>2.891388724667282</v>
+        <v>2.893638743036341</v>
       </c>
     </row>
     <row r="317">
@@ -2982,7 +2982,7 @@
         <v>36843</v>
       </c>
       <c r="B318" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="319">
@@ -2990,7 +2990,7 @@
         <v>36844</v>
       </c>
       <c r="B319" t="n">
-        <v>4.468517086712012</v>
+        <v>4.474096581856786</v>
       </c>
     </row>
     <row r="320">
@@ -3006,7 +3006,7 @@
         <v>36846</v>
       </c>
       <c r="B321" t="n">
-        <v>4.705200555553783</v>
+        <v>4.716738263096357</v>
       </c>
     </row>
     <row r="322">
@@ -3014,7 +3014,7 @@
         <v>36847</v>
       </c>
       <c r="B322" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="323">
@@ -3030,7 +3030,7 @@
         <v>36849</v>
       </c>
       <c r="B324" t="n">
-        <v>2.529653753081088</v>
+        <v>2.517950806855025</v>
       </c>
     </row>
     <row r="325">
@@ -3046,7 +3046,7 @@
         <v>36851</v>
       </c>
       <c r="B326" t="n">
-        <v>1.493206619950081</v>
+        <v>1.495255541802358</v>
       </c>
     </row>
     <row r="327">
@@ -3094,7 +3094,7 @@
         <v>36857</v>
       </c>
       <c r="B332" t="n">
-        <v>0.611268247079251</v>
+        <v>0.6121332598989789</v>
       </c>
     </row>
     <row r="333">
@@ -3118,7 +3118,7 @@
         <v>36860</v>
       </c>
       <c r="B335" t="n">
-        <v>1.628049758908789</v>
+        <v>1.624900315127488</v>
       </c>
     </row>
     <row r="336">
@@ -3126,7 +3126,7 @@
         <v>36861</v>
       </c>
       <c r="B336" t="n">
-        <v>1.417106259361311</v>
+        <v>1.414514450828</v>
       </c>
     </row>
     <row r="337">
@@ -3142,7 +3142,7 @@
         <v>36863</v>
       </c>
       <c r="B338" t="n">
-        <v>1.310898957190282</v>
+        <v>1.311938891107031</v>
       </c>
     </row>
     <row r="339">
@@ -3150,7 +3150,7 @@
         <v>36864</v>
       </c>
       <c r="B339" t="n">
-        <v>5.486159285185395</v>
+        <v>5.457503252430285</v>
       </c>
     </row>
     <row r="340">
@@ -3158,7 +3158,7 @@
         <v>36865</v>
       </c>
       <c r="B340" t="n">
-        <v>0.6791608805090072</v>
+        <v>0.6774912530848223</v>
       </c>
     </row>
     <row r="341">
@@ -3190,7 +3190,7 @@
         <v>36869</v>
       </c>
       <c r="B344" t="n">
-        <v>0.2584388000202474</v>
+        <v>0.2554484366547911</v>
       </c>
     </row>
     <row r="345">
@@ -3206,7 +3206,7 @@
         <v>36871</v>
       </c>
       <c r="B346" t="n">
-        <v>6.432585984482005</v>
+        <v>6.373802938066352</v>
       </c>
     </row>
     <row r="347">
@@ -3214,7 +3214,7 @@
         <v>36872</v>
       </c>
       <c r="B347" t="n">
-        <v>0.8854208533855804</v>
+        <v>0.8836384728745603</v>
       </c>
     </row>
     <row r="348">
@@ -3222,7 +3222,7 @@
         <v>36873</v>
       </c>
       <c r="B348" t="n">
-        <v>5.929052910279313</v>
+        <v>5.851808341956299</v>
       </c>
     </row>
     <row r="349">
@@ -3230,7 +3230,7 @@
         <v>36874</v>
       </c>
       <c r="B349" t="n">
-        <v>0.1887192333028802</v>
+        <v>0.1890014943191278</v>
       </c>
     </row>
     <row r="350">
@@ -3238,7 +3238,7 @@
         <v>36875</v>
       </c>
       <c r="B350" t="n">
-        <v>0.1691075555851096</v>
+        <v>0.1674215479693945</v>
       </c>
     </row>
     <row r="351">
@@ -3246,7 +3246,7 @@
         <v>36876</v>
       </c>
       <c r="B351" t="n">
-        <v>0.5728296657620806</v>
+        <v>0.5700562775760289</v>
       </c>
     </row>
     <row r="352">
@@ -3254,7 +3254,7 @@
         <v>36877</v>
       </c>
       <c r="B352" t="n">
-        <v>1.135162555819855</v>
+        <v>1.119989480329731</v>
       </c>
     </row>
     <row r="353">
@@ -3262,7 +3262,7 @@
         <v>36878</v>
       </c>
       <c r="B353" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="354">
@@ -3294,7 +3294,7 @@
         <v>36882</v>
       </c>
       <c r="B357" t="n">
-        <v>0.8842509689967748</v>
+        <v>0.8823698774254276</v>
       </c>
     </row>
     <row r="358">
@@ -3310,7 +3310,7 @@
         <v>36884</v>
       </c>
       <c r="B359" t="n">
-        <v>4.27671206157713</v>
+        <v>4.208896489910449</v>
       </c>
     </row>
     <row r="360">
@@ -3318,7 +3318,7 @@
         <v>36885</v>
       </c>
       <c r="B360" t="n">
-        <v>5.239697994141324</v>
+        <v>5.177317777931807</v>
       </c>
     </row>
     <row r="361">
@@ -3326,7 +3326,7 @@
         <v>36886</v>
       </c>
       <c r="B361" t="n">
-        <v>5.619014616586254</v>
+        <v>5.620187224147601</v>
       </c>
     </row>
     <row r="362">
@@ -3334,7 +3334,7 @@
         <v>36887</v>
       </c>
       <c r="B362" t="n">
-        <v>4.395952214671079</v>
+        <v>4.381479864277414</v>
       </c>
     </row>
     <row r="363">
@@ -3358,7 +3358,7 @@
         <v>36890</v>
       </c>
       <c r="B365" t="n">
-        <v>0.1214728879609586</v>
+        <v>0.1210095868742612</v>
       </c>
     </row>
     <row r="366">

--- a/results/end_of_day_charge_levels.xlsx
+++ b/results/end_of_day_charge_levels.xlsx
@@ -454,7 +454,7 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>1.75323082413364</v>
+        <v>1.761558754488767</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>36527</v>
       </c>
       <c r="B3" t="n">
-        <v>0.593878134705203</v>
+        <v>0.5919837269039552</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>36528</v>
       </c>
       <c r="B4" t="n">
-        <v>0.08968573812503104</v>
+        <v>0.09026060662080225</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         <v>36530</v>
       </c>
       <c r="B6" t="n">
-        <v>0.697984212789899</v>
+        <v>0.6969636844637308</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>36531</v>
       </c>
       <c r="B7" t="n">
-        <v>1.46766230453241</v>
+        <v>1.463102453982562</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>36532</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1529174153094237</v>
+        <v>0.1526624679208584</v>
       </c>
     </row>
     <row r="9">
@@ -518,7 +518,7 @@
         <v>36534</v>
       </c>
       <c r="B10" t="n">
-        <v>0.13157929771114</v>
+        <v>0.1318796712544059</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>36535</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6509370398033711</v>
+        <v>0.6494838447711613</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>36536</v>
       </c>
       <c r="B12" t="n">
-        <v>1.461328053379982</v>
+        <v>1.457929903010341</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>36537</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4288601029876928</v>
+        <v>0.4281739098008951</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>36538</v>
       </c>
       <c r="B14" t="n">
-        <v>2.885157388118126</v>
+        <v>2.887180786484054</v>
       </c>
     </row>
     <row r="15">
@@ -574,7 +574,7 @@
         <v>36541</v>
       </c>
       <c r="B17" t="n">
-        <v>3.180972128531454</v>
+        <v>3.178224974659674</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>36542</v>
       </c>
       <c r="B18" t="n">
-        <v>1.719203426536505</v>
+        <v>1.724516863368592</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>36543</v>
       </c>
       <c r="B19" t="n">
-        <v>1.019312221171229</v>
+        <v>1.022268815190919</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>36544</v>
       </c>
       <c r="B20" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -622,7 +622,7 @@
         <v>36547</v>
       </c>
       <c r="B23" t="n">
-        <v>2.125499243304335</v>
+        <v>2.117246429547663</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>36548</v>
       </c>
       <c r="B24" t="n">
-        <v>4.98132897624707</v>
+        <v>4.968907956799848</v>
       </c>
     </row>
     <row r="25">
@@ -654,7 +654,7 @@
         <v>36551</v>
       </c>
       <c r="B27" t="n">
-        <v>5.585462082187729</v>
+        <v>5.56470969881572</v>
       </c>
     </row>
     <row r="28">
@@ -670,7 +670,7 @@
         <v>36553</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3623348664826305</v>
+        <v>0.3601256801955068</v>
       </c>
     </row>
     <row r="30">
@@ -702,7 +702,7 @@
         <v>36557</v>
       </c>
       <c r="B33" t="n">
-        <v>1.011616799548485</v>
+        <v>1.01442450953996</v>
       </c>
     </row>
     <row r="34">
@@ -726,7 +726,7 @@
         <v>36560</v>
       </c>
       <c r="B36" t="n">
-        <v>2.117756230182099</v>
+        <v>2.116374568009162</v>
       </c>
     </row>
     <row r="37">
@@ -742,7 +742,7 @@
         <v>36562</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3824165731505474</v>
+        <v>0.3803687972247771</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>36563</v>
       </c>
       <c r="B39" t="n">
-        <v>6.001613091751405</v>
+        <v>5.988341035762289</v>
       </c>
     </row>
     <row r="40">
@@ -774,7 +774,7 @@
         <v>36566</v>
       </c>
       <c r="B42" t="n">
-        <v>4.279384958374867</v>
+        <v>4.298043087089617</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>36567</v>
       </c>
       <c r="B43" t="n">
-        <v>3.989456209561919</v>
+        <v>3.982464840635263</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>36568</v>
       </c>
       <c r="B44" t="n">
-        <v>5.180046551487264</v>
+        <v>5.166132682341855</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>36569</v>
       </c>
       <c r="B45" t="n">
-        <v>5.327093543970744</v>
+        <v>5.32674175588443</v>
       </c>
     </row>
     <row r="46">
@@ -814,7 +814,7 @@
         <v>36571</v>
       </c>
       <c r="B47" t="n">
-        <v>0.3941827851409692</v>
+        <v>0.3939073162291987</v>
       </c>
     </row>
     <row r="48">
@@ -838,7 +838,7 @@
         <v>36574</v>
       </c>
       <c r="B50" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="51">
@@ -854,7 +854,7 @@
         <v>36576</v>
       </c>
       <c r="B52" t="n">
-        <v>5.242640594547494</v>
+        <v>5.238711802891488</v>
       </c>
     </row>
     <row r="53">
@@ -862,7 +862,7 @@
         <v>36577</v>
       </c>
       <c r="B53" t="n">
-        <v>6.32546949970615</v>
+        <v>6.32395394990471</v>
       </c>
     </row>
     <row r="54">
@@ -870,7 +870,7 @@
         <v>36578</v>
       </c>
       <c r="B54" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="55">
@@ -878,7 +878,7 @@
         <v>36579</v>
       </c>
       <c r="B55" t="n">
-        <v>4.416896219795638</v>
+        <v>4.408403302277126</v>
       </c>
     </row>
     <row r="56">
@@ -886,7 +886,7 @@
         <v>36580</v>
       </c>
       <c r="B56" t="n">
-        <v>4.985295114044147</v>
+        <v>4.977469535499524</v>
       </c>
     </row>
     <row r="57">
@@ -902,7 +902,7 @@
         <v>36582</v>
       </c>
       <c r="B58" t="n">
-        <v>5.607876193779111</v>
+        <v>5.606057259053725</v>
       </c>
     </row>
     <row r="59">
@@ -910,7 +910,7 @@
         <v>36583</v>
       </c>
       <c r="B59" t="n">
-        <v>5.224883744250866</v>
+        <v>5.222092501127499</v>
       </c>
     </row>
     <row r="60">
@@ -950,7 +950,7 @@
         <v>36589</v>
       </c>
       <c r="B64" t="n">
-        <v>4.882038890860946</v>
+        <v>4.880075756792978</v>
       </c>
     </row>
     <row r="65">
@@ -958,7 +958,7 @@
         <v>36590</v>
       </c>
       <c r="B65" t="n">
-        <v>5.301645943430302</v>
+        <v>5.302695159223387</v>
       </c>
     </row>
     <row r="66">
@@ -974,7 +974,7 @@
         <v>36592</v>
       </c>
       <c r="B67" t="n">
-        <v>1.480927694737103</v>
+        <v>1.467494900788176</v>
       </c>
     </row>
     <row r="68">
@@ -982,7 +982,7 @@
         <v>36593</v>
       </c>
       <c r="B68" t="n">
-        <v>4.416900120215068</v>
+        <v>4.405614327015656</v>
       </c>
     </row>
     <row r="69">
@@ -998,7 +998,7 @@
         <v>36595</v>
       </c>
       <c r="B70" t="n">
-        <v>4.878275420122094</v>
+        <v>4.830811311099026</v>
       </c>
     </row>
     <row r="71">
@@ -1006,7 +1006,7 @@
         <v>36596</v>
       </c>
       <c r="B71" t="n">
-        <v>5.512691675046884</v>
+        <v>5.512838401356478</v>
       </c>
     </row>
     <row r="72">
@@ -1014,7 +1014,7 @@
         <v>36597</v>
       </c>
       <c r="B72" t="n">
-        <v>6.5</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="73">
@@ -1030,7 +1030,7 @@
         <v>36599</v>
       </c>
       <c r="B74" t="n">
-        <v>6.447732601969108</v>
+        <v>6.448747374352511</v>
       </c>
     </row>
     <row r="75">
@@ -1046,7 +1046,7 @@
         <v>36601</v>
       </c>
       <c r="B76" t="n">
-        <v>0.004237524799288225</v>
+        <v>0.004119762450467856</v>
       </c>
     </row>
     <row r="77">
@@ -1054,7 +1054,7 @@
         <v>36602</v>
       </c>
       <c r="B77" t="n">
-        <v>5.493014486947958</v>
+        <v>5.496698946411588</v>
       </c>
     </row>
     <row r="78">
@@ -1086,7 +1086,7 @@
         <v>36606</v>
       </c>
       <c r="B81" t="n">
-        <v>4.053253894559314</v>
+        <v>4.060976854660392</v>
       </c>
     </row>
     <row r="82">
@@ -1094,7 +1094,7 @@
         <v>36607</v>
       </c>
       <c r="B82" t="n">
-        <v>5.91282359601155</v>
+        <v>5.91344622174625</v>
       </c>
     </row>
     <row r="83">
@@ -1110,7 +1110,7 @@
         <v>36609</v>
       </c>
       <c r="B84" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="85">
@@ -1134,7 +1134,7 @@
         <v>36612</v>
       </c>
       <c r="B87" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="88">
@@ -1150,7 +1150,7 @@
         <v>36614</v>
       </c>
       <c r="B89" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="90">
@@ -1158,7 +1158,7 @@
         <v>36615</v>
       </c>
       <c r="B90" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="91">
@@ -1182,7 +1182,7 @@
         <v>36618</v>
       </c>
       <c r="B93" t="n">
-        <v>6.223517661429053</v>
+        <v>6.225259266707055</v>
       </c>
     </row>
     <row r="94">
@@ -1198,7 +1198,7 @@
         <v>36620</v>
       </c>
       <c r="B95" t="n">
-        <v>5.983257616255213</v>
+        <v>5.983717789340084</v>
       </c>
     </row>
     <row r="96">
@@ -1214,7 +1214,7 @@
         <v>36622</v>
       </c>
       <c r="B97" t="n">
-        <v>3.2910192860222</v>
+        <v>3.291020061837286</v>
       </c>
     </row>
     <row r="98">
@@ -1222,7 +1222,7 @@
         <v>36623</v>
       </c>
       <c r="B98" t="n">
-        <v>4.212989154599317</v>
+        <v>4.217611169551014</v>
       </c>
     </row>
     <row r="99">
@@ -1230,7 +1230,7 @@
         <v>36624</v>
       </c>
       <c r="B99" t="n">
-        <v>5.556557721086364</v>
+        <v>5.556966877270733</v>
       </c>
     </row>
     <row r="100">
@@ -1238,7 +1238,7 @@
         <v>36625</v>
       </c>
       <c r="B100" t="n">
-        <v>6.390895085499244</v>
+        <v>6.394150188952741</v>
       </c>
     </row>
     <row r="101">
@@ -1254,7 +1254,7 @@
         <v>36627</v>
       </c>
       <c r="B102" t="n">
-        <v>4.72393411385799</v>
+        <v>4.697832763482324</v>
       </c>
     </row>
     <row r="103">
@@ -1262,7 +1262,7 @@
         <v>36628</v>
       </c>
       <c r="B103" t="n">
-        <v>4.184269007564974</v>
+        <v>4.188454769999115</v>
       </c>
     </row>
     <row r="104">
@@ -1270,7 +1270,7 @@
         <v>36629</v>
       </c>
       <c r="B104" t="n">
-        <v>3.768798404860517</v>
+        <v>3.775714817398942</v>
       </c>
     </row>
     <row r="105">
@@ -1278,7 +1278,7 @@
         <v>36630</v>
       </c>
       <c r="B105" t="n">
-        <v>3.391166711702847</v>
+        <v>3.391383260527237</v>
       </c>
     </row>
     <row r="106">
@@ -1286,7 +1286,7 @@
         <v>36631</v>
       </c>
       <c r="B106" t="n">
-        <v>2.633368639603769</v>
+        <v>2.637693465425537</v>
       </c>
     </row>
     <row r="107">
@@ -1294,7 +1294,7 @@
         <v>36632</v>
       </c>
       <c r="B107" t="n">
-        <v>4.031269129118354</v>
+        <v>4.032593290573087</v>
       </c>
     </row>
     <row r="108">
@@ -1310,7 +1310,7 @@
         <v>36634</v>
       </c>
       <c r="B109" t="n">
-        <v>4.922688653510757</v>
+        <v>4.922715759572826</v>
       </c>
     </row>
     <row r="110">
@@ -1318,7 +1318,7 @@
         <v>36635</v>
       </c>
       <c r="B110" t="n">
-        <v>2.718567606921198</v>
+        <v>2.71862046624198</v>
       </c>
     </row>
     <row r="111">
@@ -1326,7 +1326,7 @@
         <v>36636</v>
       </c>
       <c r="B111" t="n">
-        <v>2.796395348412831</v>
+        <v>2.797453808395691</v>
       </c>
     </row>
     <row r="112">
@@ -1334,7 +1334,7 @@
         <v>36637</v>
       </c>
       <c r="B112" t="n">
-        <v>2.96970345753415</v>
+        <v>2.969883720439358</v>
       </c>
     </row>
     <row r="113">
@@ -1342,7 +1342,7 @@
         <v>36638</v>
       </c>
       <c r="B113" t="n">
-        <v>4.621063439093168</v>
+        <v>4.621094795594402</v>
       </c>
     </row>
     <row r="114">
@@ -1350,7 +1350,7 @@
         <v>36639</v>
       </c>
       <c r="B114" t="n">
-        <v>5.482694263147616</v>
+        <v>5.483139325154973</v>
       </c>
     </row>
     <row r="115">
@@ -1358,7 +1358,7 @@
         <v>36640</v>
       </c>
       <c r="B115" t="n">
-        <v>3.290559822929019</v>
+        <v>3.290603201564602</v>
       </c>
     </row>
     <row r="116">
@@ -1366,7 +1366,7 @@
         <v>36641</v>
       </c>
       <c r="B116" t="n">
-        <v>3.711202357991163</v>
+        <v>3.711334384028845</v>
       </c>
     </row>
     <row r="117">
@@ -1382,7 +1382,7 @@
         <v>36643</v>
       </c>
       <c r="B118" t="n">
-        <v>6.107298143348973</v>
+        <v>6.108973764358923</v>
       </c>
     </row>
     <row r="119">
@@ -1390,7 +1390,7 @@
         <v>36644</v>
       </c>
       <c r="B119" t="n">
-        <v>5.303999999999999</v>
+        <v>5.304</v>
       </c>
     </row>
     <row r="120">
@@ -1414,7 +1414,7 @@
         <v>36647</v>
       </c>
       <c r="B122" t="n">
-        <v>2.382897585949476</v>
+        <v>2.382939125994121</v>
       </c>
     </row>
     <row r="123">
@@ -1422,7 +1422,7 @@
         <v>36648</v>
       </c>
       <c r="B123" t="n">
-        <v>2.726350900484053</v>
+        <v>2.726473874930035</v>
       </c>
     </row>
     <row r="124">
@@ -1430,7 +1430,7 @@
         <v>36649</v>
       </c>
       <c r="B124" t="n">
-        <v>3.296525059359096</v>
+        <v>3.299973733595619</v>
       </c>
     </row>
     <row r="125">
@@ -1446,7 +1446,7 @@
         <v>36651</v>
       </c>
       <c r="B126" t="n">
-        <v>2.095299261791831</v>
+        <v>2.095591699200098</v>
       </c>
     </row>
     <row r="127">
@@ -1454,7 +1454,7 @@
         <v>36652</v>
       </c>
       <c r="B127" t="n">
-        <v>3.52598070963579</v>
+        <v>3.526268013179531</v>
       </c>
     </row>
     <row r="128">
@@ -1462,7 +1462,7 @@
         <v>36653</v>
       </c>
       <c r="B128" t="n">
-        <v>2.158755695703205</v>
+        <v>2.158913707110504</v>
       </c>
     </row>
     <row r="129">
@@ -1478,7 +1478,7 @@
         <v>36655</v>
       </c>
       <c r="B130" t="n">
-        <v>4.609178817901248</v>
+        <v>4.609251967170532</v>
       </c>
     </row>
     <row r="131">
@@ -1518,7 +1518,7 @@
         <v>36660</v>
       </c>
       <c r="B135" t="n">
-        <v>2.869598785692724</v>
+        <v>2.869819240579775</v>
       </c>
     </row>
     <row r="136">
@@ -1526,7 +1526,7 @@
         <v>36661</v>
       </c>
       <c r="B136" t="n">
-        <v>3.733926068544354</v>
+        <v>3.734937567817868</v>
       </c>
     </row>
     <row r="137">
@@ -1534,7 +1534,7 @@
         <v>36662</v>
       </c>
       <c r="B137" t="n">
-        <v>2.491099629125877</v>
+        <v>2.49134547154879</v>
       </c>
     </row>
     <row r="138">
@@ -1550,7 +1550,7 @@
         <v>36664</v>
       </c>
       <c r="B139" t="n">
-        <v>4.388152686699636</v>
+        <v>4.388658871918074</v>
       </c>
     </row>
     <row r="140">
@@ -1558,7 +1558,7 @@
         <v>36665</v>
       </c>
       <c r="B140" t="n">
-        <v>3.686628407119373</v>
+        <v>3.686896925165887</v>
       </c>
     </row>
     <row r="141">
@@ -1566,7 +1566,7 @@
         <v>36666</v>
       </c>
       <c r="B141" t="n">
-        <v>4.73440896867808</v>
+        <v>4.734433007363913</v>
       </c>
     </row>
     <row r="142">
@@ -1582,7 +1582,7 @@
         <v>36668</v>
       </c>
       <c r="B143" t="n">
-        <v>6.106486304736308</v>
+        <v>6.107253085287804</v>
       </c>
     </row>
     <row r="144">
@@ -1590,7 +1590,7 @@
         <v>36669</v>
       </c>
       <c r="B144" t="n">
-        <v>4.22216473908081</v>
+        <v>4.222244815083167</v>
       </c>
     </row>
     <row r="145">
@@ -1598,7 +1598,7 @@
         <v>36670</v>
       </c>
       <c r="B145" t="n">
-        <v>2.058509860869954</v>
+        <v>2.060314363227832</v>
       </c>
     </row>
     <row r="146">
@@ -1614,7 +1614,7 @@
         <v>36672</v>
       </c>
       <c r="B147" t="n">
-        <v>5.375024692524104</v>
+        <v>5.380804865201541</v>
       </c>
     </row>
     <row r="148">
@@ -1622,7 +1622,7 @@
         <v>36673</v>
       </c>
       <c r="B148" t="n">
-        <v>3.765357521821772</v>
+        <v>3.765472983211892</v>
       </c>
     </row>
     <row r="149">
@@ -1646,7 +1646,7 @@
         <v>36676</v>
       </c>
       <c r="B151" t="n">
-        <v>2.838500620682117</v>
+        <v>2.838770435334074</v>
       </c>
     </row>
     <row r="152">
@@ -1670,7 +1670,7 @@
         <v>36679</v>
       </c>
       <c r="B154" t="n">
-        <v>2.602479626523839</v>
+        <v>2.607272970993514</v>
       </c>
     </row>
     <row r="155">
@@ -1678,7 +1678,7 @@
         <v>36680</v>
       </c>
       <c r="B155" t="n">
-        <v>2.277165808020566</v>
+        <v>2.277929116089534</v>
       </c>
     </row>
     <row r="156">
@@ -1686,7 +1686,7 @@
         <v>36681</v>
       </c>
       <c r="B156" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="157">
@@ -1702,7 +1702,7 @@
         <v>36683</v>
       </c>
       <c r="B158" t="n">
-        <v>4.521706952262554</v>
+        <v>4.52355392476108</v>
       </c>
     </row>
     <row r="159">
@@ -1710,7 +1710,7 @@
         <v>36684</v>
       </c>
       <c r="B159" t="n">
-        <v>3.93631822478903</v>
+        <v>3.941991032814138</v>
       </c>
     </row>
     <row r="160">
@@ -1718,7 +1718,7 @@
         <v>36685</v>
       </c>
       <c r="B160" t="n">
-        <v>3.528180810152646</v>
+        <v>3.528863767316024</v>
       </c>
     </row>
     <row r="161">
@@ -1726,7 +1726,7 @@
         <v>36686</v>
       </c>
       <c r="B161" t="n">
-        <v>5.134845534731742</v>
+        <v>5.142201415084878</v>
       </c>
     </row>
     <row r="162">
@@ -1750,7 +1750,7 @@
         <v>36689</v>
       </c>
       <c r="B164" t="n">
-        <v>4.69029160799869</v>
+        <v>4.6176471383699</v>
       </c>
     </row>
     <row r="165">
@@ -1758,7 +1758,7 @@
         <v>36690</v>
       </c>
       <c r="B165" t="n">
-        <v>4.980086</v>
+        <v>4.980085999999999</v>
       </c>
     </row>
     <row r="166">
@@ -1766,7 +1766,7 @@
         <v>36691</v>
       </c>
       <c r="B166" t="n">
-        <v>3.833214649831274</v>
+        <v>3.83405229764475</v>
       </c>
     </row>
     <row r="167">
@@ -1774,7 +1774,7 @@
         <v>36692</v>
       </c>
       <c r="B167" t="n">
-        <v>3.75232667076972</v>
+        <v>3.755396561512751</v>
       </c>
     </row>
     <row r="168">
@@ -1790,7 +1790,7 @@
         <v>36694</v>
       </c>
       <c r="B169" t="n">
-        <v>4.546111837191987</v>
+        <v>4.548450774204453</v>
       </c>
     </row>
     <row r="170">
@@ -1814,7 +1814,7 @@
         <v>36697</v>
       </c>
       <c r="B172" t="n">
-        <v>3.996664440276822</v>
+        <v>4.004893758146084</v>
       </c>
     </row>
     <row r="173">
@@ -1822,7 +1822,7 @@
         <v>36698</v>
       </c>
       <c r="B173" t="n">
-        <v>3.558384820623041</v>
+        <v>3.55839259377381</v>
       </c>
     </row>
     <row r="174">
@@ -1838,7 +1838,7 @@
         <v>36700</v>
       </c>
       <c r="B175" t="n">
-        <v>4.268272615011075</v>
+        <v>4.192872431985356</v>
       </c>
     </row>
     <row r="176">
@@ -1862,7 +1862,7 @@
         <v>36703</v>
       </c>
       <c r="B178" t="n">
-        <v>3.035546272999886</v>
+        <v>3.036758246996648</v>
       </c>
     </row>
     <row r="179">
@@ -1870,7 +1870,7 @@
         <v>36704</v>
       </c>
       <c r="B179" t="n">
-        <v>4.342496770170804</v>
+        <v>4.34291492666234</v>
       </c>
     </row>
     <row r="180">
@@ -1878,7 +1878,7 @@
         <v>36705</v>
       </c>
       <c r="B180" t="n">
-        <v>4.594949431029585</v>
+        <v>4.599230432341949</v>
       </c>
     </row>
     <row r="181">
@@ -1886,7 +1886,7 @@
         <v>36706</v>
       </c>
       <c r="B181" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="182">
@@ -1894,7 +1894,7 @@
         <v>36707</v>
       </c>
       <c r="B182" t="n">
-        <v>0.7867491859389353</v>
+        <v>0.772830841700103</v>
       </c>
     </row>
     <row r="183">
@@ -1902,7 +1902,7 @@
         <v>36708</v>
       </c>
       <c r="B183" t="n">
-        <v>3.88872454095453</v>
+        <v>3.888942489696471</v>
       </c>
     </row>
     <row r="184">
@@ -1926,7 +1926,7 @@
         <v>36711</v>
       </c>
       <c r="B186" t="n">
-        <v>2.137549081758495</v>
+        <v>2.137774232794265</v>
       </c>
     </row>
     <row r="187">
@@ -1934,7 +1934,7 @@
         <v>36712</v>
       </c>
       <c r="B187" t="n">
-        <v>2.434000696123499</v>
+        <v>2.434196710964608</v>
       </c>
     </row>
     <row r="188">
@@ -1942,7 +1942,7 @@
         <v>36713</v>
       </c>
       <c r="B188" t="n">
-        <v>2.517002665493935</v>
+        <v>2.517395706758889</v>
       </c>
     </row>
     <row r="189">
@@ -1950,7 +1950,7 @@
         <v>36714</v>
       </c>
       <c r="B189" t="n">
-        <v>2.078787009878513</v>
+        <v>2.079009216220833</v>
       </c>
     </row>
     <row r="190">
@@ -1958,7 +1958,7 @@
         <v>36715</v>
       </c>
       <c r="B190" t="n">
-        <v>3.100181237233242</v>
+        <v>3.10023859300407</v>
       </c>
     </row>
     <row r="191">
@@ -1966,7 +1966,7 @@
         <v>36716</v>
       </c>
       <c r="B191" t="n">
-        <v>5.400611909858816</v>
+        <v>5.401945418251751</v>
       </c>
     </row>
     <row r="192">
@@ -1974,7 +1974,7 @@
         <v>36717</v>
       </c>
       <c r="B192" t="n">
-        <v>3.099972594829565</v>
+        <v>3.065240227726152</v>
       </c>
     </row>
     <row r="193">
@@ -1982,7 +1982,7 @@
         <v>36718</v>
       </c>
       <c r="B193" t="n">
-        <v>2.860814873441919</v>
+        <v>2.860941773364741</v>
       </c>
     </row>
     <row r="194">
@@ -1990,7 +1990,7 @@
         <v>36719</v>
       </c>
       <c r="B194" t="n">
-        <v>2.853865221582792</v>
+        <v>2.854033335068434</v>
       </c>
     </row>
     <row r="195">
@@ -2006,7 +2006,7 @@
         <v>36721</v>
       </c>
       <c r="B196" t="n">
-        <v>2.544403752610612</v>
+        <v>2.545902474463744</v>
       </c>
     </row>
     <row r="197">
@@ -2030,7 +2030,7 @@
         <v>36724</v>
       </c>
       <c r="B199" t="n">
-        <v>2.267228905373648</v>
+        <v>2.267480261862727</v>
       </c>
     </row>
     <row r="200">
@@ -2038,7 +2038,7 @@
         <v>36725</v>
       </c>
       <c r="B200" t="n">
-        <v>2.271070497519683</v>
+        <v>2.271474279235741</v>
       </c>
     </row>
     <row r="201">
@@ -2054,7 +2054,7 @@
         <v>36727</v>
       </c>
       <c r="B202" t="n">
-        <v>3.5959518021042</v>
+        <v>3.599863144752334</v>
       </c>
     </row>
     <row r="203">
@@ -2062,7 +2062,7 @@
         <v>36728</v>
       </c>
       <c r="B203" t="n">
-        <v>4.381814385033317</v>
+        <v>4.382083903612514</v>
       </c>
     </row>
     <row r="204">
@@ -2070,7 +2070,7 @@
         <v>36729</v>
       </c>
       <c r="B204" t="n">
-        <v>3.855125107721157</v>
+        <v>3.858005471466779</v>
       </c>
     </row>
     <row r="205">
@@ -2078,7 +2078,7 @@
         <v>36730</v>
       </c>
       <c r="B205" t="n">
-        <v>3.915982978422686</v>
+        <v>3.917669005343001</v>
       </c>
     </row>
     <row r="206">
@@ -2086,7 +2086,7 @@
         <v>36731</v>
       </c>
       <c r="B206" t="n">
-        <v>5.067156759376449</v>
+        <v>5.067261352392013</v>
       </c>
     </row>
     <row r="207">
@@ -2094,7 +2094,7 @@
         <v>36732</v>
       </c>
       <c r="B207" t="n">
-        <v>3.381407334492144</v>
+        <v>3.381774590711574</v>
       </c>
     </row>
     <row r="208">
@@ -2110,7 +2110,7 @@
         <v>36734</v>
       </c>
       <c r="B209" t="n">
-        <v>3.703713761963026</v>
+        <v>3.704693585016021</v>
       </c>
     </row>
     <row r="210">
@@ -2118,7 +2118,7 @@
         <v>36735</v>
       </c>
       <c r="B210" t="n">
-        <v>3.849738191829139</v>
+        <v>3.855698385891915</v>
       </c>
     </row>
     <row r="211">
@@ -2126,7 +2126,7 @@
         <v>36736</v>
       </c>
       <c r="B211" t="n">
-        <v>2.418964346731651</v>
+        <v>2.419728952906964</v>
       </c>
     </row>
     <row r="212">
@@ -2134,7 +2134,7 @@
         <v>36737</v>
       </c>
       <c r="B212" t="n">
-        <v>3.403498979560506</v>
+        <v>3.403555883463525</v>
       </c>
     </row>
     <row r="213">
@@ -2150,7 +2150,7 @@
         <v>36739</v>
       </c>
       <c r="B214" t="n">
-        <v>3.439901785604669</v>
+        <v>3.441702231035392</v>
       </c>
     </row>
     <row r="215">
@@ -2182,7 +2182,7 @@
         <v>36743</v>
       </c>
       <c r="B218" t="n">
-        <v>2.944844096865218</v>
+        <v>2.944961200832889</v>
       </c>
     </row>
     <row r="219">
@@ -2198,7 +2198,7 @@
         <v>36745</v>
       </c>
       <c r="B220" t="n">
-        <v>3.036624696647573</v>
+        <v>3.037282768944523</v>
       </c>
     </row>
     <row r="221">
@@ -2206,7 +2206,7 @@
         <v>36746</v>
       </c>
       <c r="B221" t="n">
-        <v>6.301374513035061</v>
+        <v>6.3014274375998</v>
       </c>
     </row>
     <row r="222">
@@ -2222,7 +2222,7 @@
         <v>36748</v>
       </c>
       <c r="B223" t="n">
-        <v>2.787634460886159</v>
+        <v>2.787862169939257</v>
       </c>
     </row>
     <row r="224">
@@ -2238,7 +2238,7 @@
         <v>36750</v>
       </c>
       <c r="B225" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="226">
@@ -2254,7 +2254,7 @@
         <v>36752</v>
       </c>
       <c r="B227" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="228">
@@ -2302,7 +2302,7 @@
         <v>36758</v>
       </c>
       <c r="B233" t="n">
-        <v>0.7058538671941408</v>
+        <v>0.6947963162982242</v>
       </c>
     </row>
     <row r="234">
@@ -2326,7 +2326,7 @@
         <v>36761</v>
       </c>
       <c r="B236" t="n">
-        <v>3.899223157068549</v>
+        <v>3.905169895513403</v>
       </c>
     </row>
     <row r="237">
@@ -2334,7 +2334,7 @@
         <v>36762</v>
       </c>
       <c r="B237" t="n">
-        <v>6.03094585578769</v>
+        <v>6.031840234613925</v>
       </c>
     </row>
     <row r="238">
@@ -2350,7 +2350,7 @@
         <v>36764</v>
       </c>
       <c r="B239" t="n">
-        <v>5.878382118723782</v>
+        <v>5.880407880586388</v>
       </c>
     </row>
     <row r="240">
@@ -2358,7 +2358,7 @@
         <v>36765</v>
       </c>
       <c r="B240" t="n">
-        <v>3.648384166768749</v>
+        <v>3.651946021168485</v>
       </c>
     </row>
     <row r="241">
@@ -2382,7 +2382,7 @@
         <v>36768</v>
       </c>
       <c r="B243" t="n">
-        <v>3.117223096324448</v>
+        <v>3.117318391450012</v>
       </c>
     </row>
     <row r="244">
@@ -2390,7 +2390,7 @@
         <v>36769</v>
       </c>
       <c r="B244" t="n">
-        <v>3.237908246603894</v>
+        <v>3.237769481965123</v>
       </c>
     </row>
     <row r="245">
@@ -2398,7 +2398,7 @@
         <v>36770</v>
       </c>
       <c r="B245" t="n">
-        <v>3.809397353122729</v>
+        <v>3.808953332721739</v>
       </c>
     </row>
     <row r="246">
@@ -2406,7 +2406,7 @@
         <v>36771</v>
       </c>
       <c r="B246" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="247">
@@ -2430,7 +2430,7 @@
         <v>36774</v>
       </c>
       <c r="B249" t="n">
-        <v>5.925528234541262</v>
+        <v>5.925828472720331</v>
       </c>
     </row>
     <row r="250">
@@ -2438,7 +2438,7 @@
         <v>36775</v>
       </c>
       <c r="B250" t="n">
-        <v>4.500809397958678</v>
+        <v>4.501031576707536</v>
       </c>
     </row>
     <row r="251">
@@ -2454,7 +2454,7 @@
         <v>36777</v>
       </c>
       <c r="B252" t="n">
-        <v>3.993845343996571</v>
+        <v>3.993247719343845</v>
       </c>
     </row>
     <row r="253">
@@ -2462,7 +2462,7 @@
         <v>36778</v>
       </c>
       <c r="B253" t="n">
-        <v>3.685960438041121</v>
+        <v>3.688525376471673</v>
       </c>
     </row>
     <row r="254">
@@ -2470,7 +2470,7 @@
         <v>36779</v>
       </c>
       <c r="B254" t="n">
-        <v>4.035933215900355</v>
+        <v>4.035726662721341</v>
       </c>
     </row>
     <row r="255">
@@ -2478,7 +2478,7 @@
         <v>36780</v>
       </c>
       <c r="B255" t="n">
-        <v>5.665006245683011</v>
+        <v>5.665235111738973</v>
       </c>
     </row>
     <row r="256">
@@ -2486,7 +2486,7 @@
         <v>36781</v>
       </c>
       <c r="B256" t="n">
-        <v>5.295846697997722</v>
+        <v>5.298081596253003</v>
       </c>
     </row>
     <row r="257">
@@ -2494,7 +2494,7 @@
         <v>36782</v>
       </c>
       <c r="B257" t="n">
-        <v>5.412316621281295</v>
+        <v>5.412501893365623</v>
       </c>
     </row>
     <row r="258">
@@ -2502,7 +2502,7 @@
         <v>36783</v>
       </c>
       <c r="B258" t="n">
-        <v>4.923563581961506</v>
+        <v>4.925089908689711</v>
       </c>
     </row>
     <row r="259">
@@ -2526,7 +2526,7 @@
         <v>36786</v>
       </c>
       <c r="B261" t="n">
-        <v>2.96674026275348</v>
+        <v>2.966697812711008</v>
       </c>
     </row>
     <row r="262">
@@ -2550,7 +2550,7 @@
         <v>36789</v>
       </c>
       <c r="B264" t="n">
-        <v>3.997110127993469</v>
+        <v>3.99743789658323</v>
       </c>
     </row>
     <row r="265">
@@ -2558,7 +2558,7 @@
         <v>36790</v>
       </c>
       <c r="B265" t="n">
-        <v>6.487</v>
+        <v>6.486999999999999</v>
       </c>
     </row>
     <row r="266">
@@ -2566,7 +2566,7 @@
         <v>36791</v>
       </c>
       <c r="B266" t="n">
-        <v>6.499999999999998</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="267">
@@ -2582,7 +2582,7 @@
         <v>36793</v>
       </c>
       <c r="B268" t="n">
-        <v>3.428282221400732</v>
+        <v>3.428426441679281</v>
       </c>
     </row>
     <row r="269">
@@ -2606,7 +2606,7 @@
         <v>36796</v>
       </c>
       <c r="B271" t="n">
-        <v>5.599293838991882</v>
+        <v>5.59935206615785</v>
       </c>
     </row>
     <row r="272">
@@ -2614,7 +2614,7 @@
         <v>36797</v>
       </c>
       <c r="B272" t="n">
-        <v>4.202272471268873</v>
+        <v>4.201537346740495</v>
       </c>
     </row>
     <row r="273">
@@ -2638,7 +2638,7 @@
         <v>36800</v>
       </c>
       <c r="B275" t="n">
-        <v>6.499999999999998</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="276">
@@ -2646,7 +2646,7 @@
         <v>36801</v>
       </c>
       <c r="B276" t="n">
-        <v>2.136225066639862</v>
+        <v>2.130074373292783</v>
       </c>
     </row>
     <row r="277">
@@ -2678,7 +2678,7 @@
         <v>36805</v>
       </c>
       <c r="B280" t="n">
-        <v>5.980884090163888</v>
+        <v>5.980803665281964</v>
       </c>
     </row>
     <row r="281">
@@ -2686,7 +2686,7 @@
         <v>36806</v>
       </c>
       <c r="B281" t="n">
-        <v>4.608999999999999</v>
+        <v>4.609</v>
       </c>
     </row>
     <row r="282">
@@ -2710,7 +2710,7 @@
         <v>36809</v>
       </c>
       <c r="B284" t="n">
-        <v>5.698776219969703</v>
+        <v>5.69905933106458</v>
       </c>
     </row>
     <row r="285">
@@ -2726,7 +2726,7 @@
         <v>36811</v>
       </c>
       <c r="B286" t="n">
-        <v>4.438578038393056</v>
+        <v>4.432647999285921</v>
       </c>
     </row>
     <row r="287">
@@ -2734,7 +2734,7 @@
         <v>36812</v>
       </c>
       <c r="B287" t="n">
-        <v>4.036204293551966</v>
+        <v>4.028251545873799</v>
       </c>
     </row>
     <row r="288">
@@ -2742,7 +2742,7 @@
         <v>36813</v>
       </c>
       <c r="B288" t="n">
-        <v>4.648124313599697</v>
+        <v>4.64728758074246</v>
       </c>
     </row>
     <row r="289">
@@ -2750,7 +2750,7 @@
         <v>36814</v>
       </c>
       <c r="B289" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="290">
@@ -2766,7 +2766,7 @@
         <v>36816</v>
       </c>
       <c r="B291" t="n">
-        <v>5.413875016794361</v>
+        <v>5.414347282875879</v>
       </c>
     </row>
     <row r="292">
@@ -2774,7 +2774,7 @@
         <v>36817</v>
       </c>
       <c r="B292" t="n">
-        <v>4.695445226975006</v>
+        <v>4.69565899973839</v>
       </c>
     </row>
     <row r="293">
@@ -2782,7 +2782,7 @@
         <v>36818</v>
       </c>
       <c r="B293" t="n">
-        <v>4.111944365501063</v>
+        <v>4.11043789376312</v>
       </c>
     </row>
     <row r="294">
@@ -2790,7 +2790,7 @@
         <v>36819</v>
       </c>
       <c r="B294" t="n">
-        <v>4.838742409796261</v>
+        <v>4.836633716931826</v>
       </c>
     </row>
     <row r="295">
@@ -2798,7 +2798,7 @@
         <v>36820</v>
       </c>
       <c r="B295" t="n">
-        <v>4.954659635722962</v>
+        <v>4.954744932823717</v>
       </c>
     </row>
     <row r="296">
@@ -2806,7 +2806,7 @@
         <v>36821</v>
       </c>
       <c r="B296" t="n">
-        <v>6.142604617888133</v>
+        <v>6.142682403681197</v>
       </c>
     </row>
     <row r="297">
@@ -2822,7 +2822,7 @@
         <v>36823</v>
       </c>
       <c r="B298" t="n">
-        <v>1.079922354428133</v>
+        <v>1.063331432994028</v>
       </c>
     </row>
     <row r="299">
@@ -2838,7 +2838,7 @@
         <v>36825</v>
       </c>
       <c r="B300" t="n">
-        <v>0.2954329609967254</v>
+        <v>0.2943768733575121</v>
       </c>
     </row>
     <row r="301">
@@ -2846,7 +2846,7 @@
         <v>36826</v>
       </c>
       <c r="B301" t="n">
-        <v>5.57533324085217</v>
+        <v>5.579170798785707</v>
       </c>
     </row>
     <row r="302">
@@ -2878,7 +2878,7 @@
         <v>36830</v>
       </c>
       <c r="B305" t="n">
-        <v>6.499999999999999</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="306">
@@ -2894,7 +2894,7 @@
         <v>36832</v>
       </c>
       <c r="B307" t="n">
-        <v>4.228388099962972</v>
+        <v>4.227940181601699</v>
       </c>
     </row>
     <row r="308">
@@ -2902,7 +2902,7 @@
         <v>36833</v>
       </c>
       <c r="B308" t="n">
-        <v>6.141401323980609</v>
+        <v>6.138116428692291</v>
       </c>
     </row>
     <row r="309">
@@ -2918,7 +2918,7 @@
         <v>36835</v>
       </c>
       <c r="B310" t="n">
-        <v>4.651408124903043</v>
+        <v>4.649882740372137</v>
       </c>
     </row>
     <row r="311">
@@ -2934,7 +2934,7 @@
         <v>36837</v>
       </c>
       <c r="B312" t="n">
-        <v>0.5649935200846222</v>
+        <v>0.572980328742442</v>
       </c>
     </row>
     <row r="313">
@@ -2942,7 +2942,7 @@
         <v>36838</v>
       </c>
       <c r="B313" t="n">
-        <v>6.5</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="314">
@@ -2950,7 +2950,7 @@
         <v>36839</v>
       </c>
       <c r="B314" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="315">
@@ -2958,7 +2958,7 @@
         <v>36840</v>
       </c>
       <c r="B315" t="n">
-        <v>0.1261379158801073</v>
+        <v>0.1267501256858627</v>
       </c>
     </row>
     <row r="316">
@@ -2966,7 +2966,7 @@
         <v>36841</v>
       </c>
       <c r="B316" t="n">
-        <v>2.893638743036341</v>
+        <v>2.891388724667282</v>
       </c>
     </row>
     <row r="317">
@@ -2982,7 +2982,7 @@
         <v>36843</v>
       </c>
       <c r="B318" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="319">
@@ -2990,7 +2990,7 @@
         <v>36844</v>
       </c>
       <c r="B319" t="n">
-        <v>4.474096581856786</v>
+        <v>4.468517086712012</v>
       </c>
     </row>
     <row r="320">
@@ -3006,7 +3006,7 @@
         <v>36846</v>
       </c>
       <c r="B321" t="n">
-        <v>4.716738263096357</v>
+        <v>4.705200555553783</v>
       </c>
     </row>
     <row r="322">
@@ -3014,7 +3014,7 @@
         <v>36847</v>
       </c>
       <c r="B322" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="323">
@@ -3030,7 +3030,7 @@
         <v>36849</v>
       </c>
       <c r="B324" t="n">
-        <v>2.517950806855025</v>
+        <v>2.529653753081088</v>
       </c>
     </row>
     <row r="325">
@@ -3046,7 +3046,7 @@
         <v>36851</v>
       </c>
       <c r="B326" t="n">
-        <v>1.495255541802358</v>
+        <v>1.493206619950081</v>
       </c>
     </row>
     <row r="327">
@@ -3094,7 +3094,7 @@
         <v>36857</v>
       </c>
       <c r="B332" t="n">
-        <v>0.6121332598989789</v>
+        <v>0.611268247079251</v>
       </c>
     </row>
     <row r="333">
@@ -3118,7 +3118,7 @@
         <v>36860</v>
       </c>
       <c r="B335" t="n">
-        <v>1.624900315127488</v>
+        <v>1.628049758908789</v>
       </c>
     </row>
     <row r="336">
@@ -3126,7 +3126,7 @@
         <v>36861</v>
       </c>
       <c r="B336" t="n">
-        <v>1.414514450828</v>
+        <v>1.417106259361311</v>
       </c>
     </row>
     <row r="337">
@@ -3142,7 +3142,7 @@
         <v>36863</v>
       </c>
       <c r="B338" t="n">
-        <v>1.311938891107031</v>
+        <v>1.310898957190282</v>
       </c>
     </row>
     <row r="339">
@@ -3150,7 +3150,7 @@
         <v>36864</v>
       </c>
       <c r="B339" t="n">
-        <v>5.457503252430285</v>
+        <v>5.486159285185395</v>
       </c>
     </row>
     <row r="340">
@@ -3158,7 +3158,7 @@
         <v>36865</v>
       </c>
       <c r="B340" t="n">
-        <v>0.6774912530848223</v>
+        <v>0.6791608805090072</v>
       </c>
     </row>
     <row r="341">
@@ -3190,7 +3190,7 @@
         <v>36869</v>
       </c>
       <c r="B344" t="n">
-        <v>0.2554484366547911</v>
+        <v>0.2584388000202474</v>
       </c>
     </row>
     <row r="345">
@@ -3206,7 +3206,7 @@
         <v>36871</v>
       </c>
       <c r="B346" t="n">
-        <v>6.373802938066352</v>
+        <v>6.432585984482005</v>
       </c>
     </row>
     <row r="347">
@@ -3214,7 +3214,7 @@
         <v>36872</v>
       </c>
       <c r="B347" t="n">
-        <v>0.8836384728745603</v>
+        <v>0.8854208533855804</v>
       </c>
     </row>
     <row r="348">
@@ -3222,7 +3222,7 @@
         <v>36873</v>
       </c>
       <c r="B348" t="n">
-        <v>5.851808341956299</v>
+        <v>5.929052910279313</v>
       </c>
     </row>
     <row r="349">
@@ -3230,7 +3230,7 @@
         <v>36874</v>
       </c>
       <c r="B349" t="n">
-        <v>0.1890014943191278</v>
+        <v>0.1887192333028802</v>
       </c>
     </row>
     <row r="350">
@@ -3238,7 +3238,7 @@
         <v>36875</v>
       </c>
       <c r="B350" t="n">
-        <v>0.1674215479693945</v>
+        <v>0.1691075555851096</v>
       </c>
     </row>
     <row r="351">
@@ -3246,7 +3246,7 @@
         <v>36876</v>
       </c>
       <c r="B351" t="n">
-        <v>0.5700562775760289</v>
+        <v>0.5728296657620806</v>
       </c>
     </row>
     <row r="352">
@@ -3254,7 +3254,7 @@
         <v>36877</v>
       </c>
       <c r="B352" t="n">
-        <v>1.119989480329731</v>
+        <v>1.135162555819855</v>
       </c>
     </row>
     <row r="353">
@@ -3262,7 +3262,7 @@
         <v>36878</v>
       </c>
       <c r="B353" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="354">
@@ -3294,7 +3294,7 @@
         <v>36882</v>
       </c>
       <c r="B357" t="n">
-        <v>0.8823698774254276</v>
+        <v>0.8842509689967748</v>
       </c>
     </row>
     <row r="358">
@@ -3310,7 +3310,7 @@
         <v>36884</v>
       </c>
       <c r="B359" t="n">
-        <v>4.208896489910449</v>
+        <v>4.27671206157713</v>
       </c>
     </row>
     <row r="360">
@@ -3318,7 +3318,7 @@
         <v>36885</v>
       </c>
       <c r="B360" t="n">
-        <v>5.177317777931807</v>
+        <v>5.239697994141324</v>
       </c>
     </row>
     <row r="361">
@@ -3326,7 +3326,7 @@
         <v>36886</v>
       </c>
       <c r="B361" t="n">
-        <v>5.620187224147601</v>
+        <v>5.619014616586254</v>
       </c>
     </row>
     <row r="362">
@@ -3334,7 +3334,7 @@
         <v>36887</v>
       </c>
       <c r="B362" t="n">
-        <v>4.381479864277414</v>
+        <v>4.395952214671079</v>
       </c>
     </row>
     <row r="363">
@@ -3358,7 +3358,7 @@
         <v>36890</v>
       </c>
       <c r="B365" t="n">
-        <v>0.1210095868742612</v>
+        <v>0.1214728879609586</v>
       </c>
     </row>
     <row r="366">

--- a/results/end_of_day_charge_levels.xlsx
+++ b/results/end_of_day_charge_levels.xlsx
@@ -454,7 +454,7 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>1.761558754488767</v>
+        <v>3.482348989805499</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>36527</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5919837269039552</v>
+        <v>0.5939821982748007</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>36528</v>
       </c>
       <c r="B4" t="n">
-        <v>0.09026060662080225</v>
+        <v>0.1787725437720784</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         <v>36530</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6969636844637308</v>
+        <v>0.7841200422851822</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>36531</v>
       </c>
       <c r="B7" t="n">
-        <v>1.463102453982562</v>
+        <v>1.318510836461359</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>36532</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1526624679208584</v>
+        <v>0.1756779144095936</v>
       </c>
     </row>
     <row r="9">
@@ -518,7 +518,7 @@
         <v>36534</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1318796712544059</v>
+        <v>0.1486630427779785</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>36535</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6494838447711613</v>
+        <v>0.9515216054800762</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>36536</v>
       </c>
       <c r="B12" t="n">
-        <v>1.457929903010341</v>
+        <v>1.693579904040872</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>36537</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4281739098008951</v>
+        <v>0.3741567931620162</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>36538</v>
       </c>
       <c r="B14" t="n">
-        <v>2.887180786484054</v>
+        <v>3.93529301874345</v>
       </c>
     </row>
     <row r="15">
@@ -574,7 +574,7 @@
         <v>36541</v>
       </c>
       <c r="B17" t="n">
-        <v>3.178224974659674</v>
+        <v>5.353682604527974</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>36542</v>
       </c>
       <c r="B18" t="n">
-        <v>1.724516863368592</v>
+        <v>2.877518103721018</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>36543</v>
       </c>
       <c r="B19" t="n">
-        <v>1.022268815190919</v>
+        <v>1.669461797329997</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>36544</v>
       </c>
       <c r="B20" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="21">
@@ -622,7 +622,7 @@
         <v>36547</v>
       </c>
       <c r="B23" t="n">
-        <v>2.117246429547663</v>
+        <v>2.125559411564146</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>36548</v>
       </c>
       <c r="B24" t="n">
-        <v>4.968907956799848</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="25">
@@ -654,7 +654,7 @@
         <v>36551</v>
       </c>
       <c r="B27" t="n">
-        <v>5.56470969881572</v>
+        <v>5.400214361826349</v>
       </c>
     </row>
     <row r="28">
@@ -670,7 +670,7 @@
         <v>36553</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3601256801955068</v>
+        <v>0.4986255515263168</v>
       </c>
     </row>
     <row r="30">
@@ -702,7 +702,7 @@
         <v>36557</v>
       </c>
       <c r="B33" t="n">
-        <v>1.01442450953996</v>
+        <v>1.792015634746304</v>
       </c>
     </row>
     <row r="34">
@@ -726,7 +726,7 @@
         <v>36560</v>
       </c>
       <c r="B36" t="n">
-        <v>2.116374568009162</v>
+        <v>3.89775253188588</v>
       </c>
     </row>
     <row r="37">
@@ -742,7 +742,7 @@
         <v>36562</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3803687972247771</v>
+        <v>0.3530208979946936</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>36563</v>
       </c>
       <c r="B39" t="n">
-        <v>5.988341035762289</v>
+        <v>5.760201912306312</v>
       </c>
     </row>
     <row r="40">
@@ -766,7 +766,7 @@
         <v>36565</v>
       </c>
       <c r="B41" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>36566</v>
       </c>
       <c r="B42" t="n">
-        <v>4.298043087089617</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>36567</v>
       </c>
       <c r="B43" t="n">
-        <v>3.982464840635263</v>
+        <v>5.414250277978089</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>36568</v>
       </c>
       <c r="B44" t="n">
-        <v>5.166132682341855</v>
+        <v>5.026999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>36569</v>
       </c>
       <c r="B45" t="n">
-        <v>5.32674175588443</v>
+        <v>5.303212650665537</v>
       </c>
     </row>
     <row r="46">
@@ -814,7 +814,7 @@
         <v>36571</v>
       </c>
       <c r="B47" t="n">
-        <v>0.3939073162291987</v>
+        <v>0.4375367244749534</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +822,7 @@
         <v>36572</v>
       </c>
       <c r="B48" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="49">
@@ -846,7 +846,7 @@
         <v>36575</v>
       </c>
       <c r="B51" t="n">
-        <v>6.5</v>
+        <v>6.484100331550565</v>
       </c>
     </row>
     <row r="52">
@@ -854,7 +854,7 @@
         <v>36576</v>
       </c>
       <c r="B52" t="n">
-        <v>5.238711802891488</v>
+        <v>5.097680846555768</v>
       </c>
     </row>
     <row r="53">
@@ -862,7 +862,7 @@
         <v>36577</v>
       </c>
       <c r="B53" t="n">
-        <v>6.32395394990471</v>
+        <v>6.225089203605497</v>
       </c>
     </row>
     <row r="54">
@@ -878,7 +878,7 @@
         <v>36579</v>
       </c>
       <c r="B55" t="n">
-        <v>4.408403302277126</v>
+        <v>4.029067331865691</v>
       </c>
     </row>
     <row r="56">
@@ -886,7 +886,7 @@
         <v>36580</v>
       </c>
       <c r="B56" t="n">
-        <v>4.977469535499524</v>
+        <v>4.547268589337191</v>
       </c>
     </row>
     <row r="57">
@@ -902,7 +902,7 @@
         <v>36582</v>
       </c>
       <c r="B58" t="n">
-        <v>5.606057259053725</v>
+        <v>5.499711517047056</v>
       </c>
     </row>
     <row r="59">
@@ -910,7 +910,7 @@
         <v>36583</v>
       </c>
       <c r="B59" t="n">
-        <v>5.222092501127499</v>
+        <v>4.995085587254854</v>
       </c>
     </row>
     <row r="60">
@@ -942,7 +942,7 @@
         <v>36588</v>
       </c>
       <c r="B63" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="64">
@@ -950,7 +950,7 @@
         <v>36589</v>
       </c>
       <c r="B64" t="n">
-        <v>4.880075756792978</v>
+        <v>4.698048341903998</v>
       </c>
     </row>
     <row r="65">
@@ -958,7 +958,7 @@
         <v>36590</v>
       </c>
       <c r="B65" t="n">
-        <v>5.302695159223387</v>
+        <v>5.317409417923939</v>
       </c>
     </row>
     <row r="66">
@@ -974,7 +974,7 @@
         <v>36592</v>
       </c>
       <c r="B67" t="n">
-        <v>1.467494900788176</v>
+        <v>1.457078661254154</v>
       </c>
     </row>
     <row r="68">
@@ -982,7 +982,7 @@
         <v>36593</v>
       </c>
       <c r="B68" t="n">
-        <v>4.405614327015656</v>
+        <v>5.620508647115468</v>
       </c>
     </row>
     <row r="69">
@@ -998,7 +998,7 @@
         <v>36595</v>
       </c>
       <c r="B70" t="n">
-        <v>4.830811311099026</v>
+        <v>4.859855301003842</v>
       </c>
     </row>
     <row r="71">
@@ -1006,7 +1006,7 @@
         <v>36596</v>
       </c>
       <c r="B71" t="n">
-        <v>5.512838401356478</v>
+        <v>5.516783532822492</v>
       </c>
     </row>
     <row r="72">
@@ -1014,7 +1014,7 @@
         <v>36597</v>
       </c>
       <c r="B72" t="n">
-        <v>6.499999999999998</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="73">
@@ -1030,7 +1030,7 @@
         <v>36599</v>
       </c>
       <c r="B74" t="n">
-        <v>6.448747374352511</v>
+        <v>6.457530397434904</v>
       </c>
     </row>
     <row r="75">
@@ -1038,7 +1038,7 @@
         <v>36600</v>
       </c>
       <c r="B75" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="76">
@@ -1046,7 +1046,7 @@
         <v>36601</v>
       </c>
       <c r="B76" t="n">
-        <v>0.004119762450467856</v>
+        <v>0.0004552003226372253</v>
       </c>
     </row>
     <row r="77">
@@ -1054,7 +1054,7 @@
         <v>36602</v>
       </c>
       <c r="B77" t="n">
-        <v>5.496698946411588</v>
+        <v>5.529482295016688</v>
       </c>
     </row>
     <row r="78">
@@ -1086,7 +1086,7 @@
         <v>36606</v>
       </c>
       <c r="B81" t="n">
-        <v>4.060976854660392</v>
+        <v>4.142959289606121</v>
       </c>
     </row>
     <row r="82">
@@ -1094,7 +1094,7 @@
         <v>36607</v>
       </c>
       <c r="B82" t="n">
-        <v>5.91344622174625</v>
+        <v>5.928645290553336</v>
       </c>
     </row>
     <row r="83">
@@ -1110,7 +1110,7 @@
         <v>36609</v>
       </c>
       <c r="B84" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="85">
@@ -1134,7 +1134,7 @@
         <v>36612</v>
       </c>
       <c r="B87" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="88">
@@ -1158,7 +1158,7 @@
         <v>36615</v>
       </c>
       <c r="B90" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="91">
@@ -1182,7 +1182,7 @@
         <v>36618</v>
       </c>
       <c r="B93" t="n">
-        <v>6.225259266707055</v>
+        <v>6.266090575450711</v>
       </c>
     </row>
     <row r="94">
@@ -1190,7 +1190,7 @@
         <v>36619</v>
       </c>
       <c r="B94" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="95">
@@ -1198,7 +1198,7 @@
         <v>36620</v>
       </c>
       <c r="B95" t="n">
-        <v>5.983717789340084</v>
+        <v>5.997310702749264</v>
       </c>
     </row>
     <row r="96">
@@ -1206,7 +1206,7 @@
         <v>36621</v>
       </c>
       <c r="B96" t="n">
-        <v>3.335</v>
+        <v>3.35367344315597</v>
       </c>
     </row>
     <row r="97">
@@ -1214,7 +1214,7 @@
         <v>36622</v>
       </c>
       <c r="B97" t="n">
-        <v>3.291020061837286</v>
+        <v>3.34038315947642</v>
       </c>
     </row>
     <row r="98">
@@ -1222,7 +1222,7 @@
         <v>36623</v>
       </c>
       <c r="B98" t="n">
-        <v>4.217611169551014</v>
+        <v>4.240060214322597</v>
       </c>
     </row>
     <row r="99">
@@ -1230,7 +1230,7 @@
         <v>36624</v>
       </c>
       <c r="B99" t="n">
-        <v>5.556966877270733</v>
+        <v>5.564115419570578</v>
       </c>
     </row>
     <row r="100">
@@ -1238,7 +1238,7 @@
         <v>36625</v>
       </c>
       <c r="B100" t="n">
-        <v>6.394150188952741</v>
+        <v>6.430805260877962</v>
       </c>
     </row>
     <row r="101">
@@ -1246,7 +1246,7 @@
         <v>36626</v>
       </c>
       <c r="B101" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="102">
@@ -1254,7 +1254,7 @@
         <v>36627</v>
       </c>
       <c r="B102" t="n">
-        <v>4.697832763482324</v>
+        <v>4.444094262294353</v>
       </c>
     </row>
     <row r="103">
@@ -1262,7 +1262,7 @@
         <v>36628</v>
       </c>
       <c r="B103" t="n">
-        <v>4.188454769999115</v>
+        <v>4.329089485110405</v>
       </c>
     </row>
     <row r="104">
@@ -1270,7 +1270,7 @@
         <v>36629</v>
       </c>
       <c r="B104" t="n">
-        <v>3.775714817398942</v>
+        <v>3.841268872011488</v>
       </c>
     </row>
     <row r="105">
@@ -1278,7 +1278,7 @@
         <v>36630</v>
       </c>
       <c r="B105" t="n">
-        <v>3.391383260527237</v>
+        <v>3.753316010902441</v>
       </c>
     </row>
     <row r="106">
@@ -1286,7 +1286,7 @@
         <v>36631</v>
       </c>
       <c r="B106" t="n">
-        <v>2.637693465425537</v>
+        <v>2.790175071217396</v>
       </c>
     </row>
     <row r="107">
@@ -1294,7 +1294,7 @@
         <v>36632</v>
       </c>
       <c r="B107" t="n">
-        <v>4.032593290573087</v>
+        <v>4.054293792608973</v>
       </c>
     </row>
     <row r="108">
@@ -1302,7 +1302,7 @@
         <v>36633</v>
       </c>
       <c r="B108" t="n">
-        <v>2.798</v>
+        <v>2.800111773260663</v>
       </c>
     </row>
     <row r="109">
@@ -1310,7 +1310,7 @@
         <v>36634</v>
       </c>
       <c r="B109" t="n">
-        <v>4.922715759572826</v>
+        <v>4.928321161636886</v>
       </c>
     </row>
     <row r="110">
@@ -1318,7 +1318,7 @@
         <v>36635</v>
       </c>
       <c r="B110" t="n">
-        <v>2.71862046624198</v>
+        <v>2.726801169935925</v>
       </c>
     </row>
     <row r="111">
@@ -1326,7 +1326,7 @@
         <v>36636</v>
       </c>
       <c r="B111" t="n">
-        <v>2.797453808395691</v>
+        <v>2.781033672285324</v>
       </c>
     </row>
     <row r="112">
@@ -1334,7 +1334,7 @@
         <v>36637</v>
       </c>
       <c r="B112" t="n">
-        <v>2.969883720439358</v>
+        <v>2.98213555106399</v>
       </c>
     </row>
     <row r="113">
@@ -1342,7 +1342,7 @@
         <v>36638</v>
       </c>
       <c r="B113" t="n">
-        <v>4.621094795594402</v>
+        <v>4.623672319037814</v>
       </c>
     </row>
     <row r="114">
@@ -1350,7 +1350,7 @@
         <v>36639</v>
       </c>
       <c r="B114" t="n">
-        <v>5.483139325154973</v>
+        <v>5.486792233441708</v>
       </c>
     </row>
     <row r="115">
@@ -1358,7 +1358,7 @@
         <v>36640</v>
       </c>
       <c r="B115" t="n">
-        <v>3.290603201564602</v>
+        <v>3.294402771793062</v>
       </c>
     </row>
     <row r="116">
@@ -1366,7 +1366,7 @@
         <v>36641</v>
       </c>
       <c r="B116" t="n">
-        <v>3.711334384028845</v>
+        <v>3.715000812953462</v>
       </c>
     </row>
     <row r="117">
@@ -1374,7 +1374,7 @@
         <v>36642</v>
       </c>
       <c r="B117" t="n">
-        <v>2.615</v>
+        <v>2.697150850640135</v>
       </c>
     </row>
     <row r="118">
@@ -1382,7 +1382,7 @@
         <v>36643</v>
       </c>
       <c r="B118" t="n">
-        <v>6.108973764358923</v>
+        <v>6.124263506452217</v>
       </c>
     </row>
     <row r="119">
@@ -1398,7 +1398,7 @@
         <v>36645</v>
       </c>
       <c r="B120" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="121">
@@ -1414,7 +1414,7 @@
         <v>36647</v>
       </c>
       <c r="B122" t="n">
-        <v>2.382939125994121</v>
+        <v>2.385768781888107</v>
       </c>
     </row>
     <row r="123">
@@ -1422,7 +1422,7 @@
         <v>36648</v>
       </c>
       <c r="B123" t="n">
-        <v>2.726473874930035</v>
+        <v>2.900922217242044</v>
       </c>
     </row>
     <row r="124">
@@ -1430,7 +1430,7 @@
         <v>36649</v>
       </c>
       <c r="B124" t="n">
-        <v>3.299973733595619</v>
+        <v>3.956918321491744</v>
       </c>
     </row>
     <row r="125">
@@ -1438,7 +1438,7 @@
         <v>36650</v>
       </c>
       <c r="B125" t="n">
-        <v>3.098</v>
+        <v>3.133443785737484</v>
       </c>
     </row>
     <row r="126">
@@ -1446,7 +1446,7 @@
         <v>36651</v>
       </c>
       <c r="B126" t="n">
-        <v>2.095591699200098</v>
+        <v>2.160950805344855</v>
       </c>
     </row>
     <row r="127">
@@ -1454,7 +1454,7 @@
         <v>36652</v>
       </c>
       <c r="B127" t="n">
-        <v>3.526268013179531</v>
+        <v>3.554783951666789</v>
       </c>
     </row>
     <row r="128">
@@ -1462,7 +1462,7 @@
         <v>36653</v>
       </c>
       <c r="B128" t="n">
-        <v>2.158913707110504</v>
+        <v>2.203319340469809</v>
       </c>
     </row>
     <row r="129">
@@ -1470,7 +1470,7 @@
         <v>36654</v>
       </c>
       <c r="B129" t="n">
-        <v>2.211</v>
+        <v>2.228301575519852</v>
       </c>
     </row>
     <row r="130">
@@ -1478,7 +1478,7 @@
         <v>36655</v>
       </c>
       <c r="B130" t="n">
-        <v>4.609251967170532</v>
+        <v>4.611624575733951</v>
       </c>
     </row>
     <row r="131">
@@ -1502,7 +1502,7 @@
         <v>36658</v>
       </c>
       <c r="B133" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="134">
@@ -1518,7 +1518,7 @@
         <v>36660</v>
       </c>
       <c r="B135" t="n">
-        <v>2.869819240579775</v>
+        <v>2.873020349958904</v>
       </c>
     </row>
     <row r="136">
@@ -1526,7 +1526,7 @@
         <v>36661</v>
       </c>
       <c r="B136" t="n">
-        <v>3.734937567817868</v>
+        <v>3.743631453394304</v>
       </c>
     </row>
     <row r="137">
@@ -1534,7 +1534,7 @@
         <v>36662</v>
       </c>
       <c r="B137" t="n">
-        <v>2.49134547154879</v>
+        <v>2.500259375682356</v>
       </c>
     </row>
     <row r="138">
@@ -1550,7 +1550,7 @@
         <v>36664</v>
       </c>
       <c r="B139" t="n">
-        <v>4.388658871918074</v>
+        <v>4.404593641582451</v>
       </c>
     </row>
     <row r="140">
@@ -1558,7 +1558,7 @@
         <v>36665</v>
       </c>
       <c r="B140" t="n">
-        <v>3.686896925165887</v>
+        <v>3.6945722927549</v>
       </c>
     </row>
     <row r="141">
@@ -1566,7 +1566,7 @@
         <v>36666</v>
       </c>
       <c r="B141" t="n">
-        <v>4.734433007363913</v>
+        <v>4.735394096404427</v>
       </c>
     </row>
     <row r="142">
@@ -1582,7 +1582,7 @@
         <v>36668</v>
       </c>
       <c r="B143" t="n">
-        <v>6.107253085287804</v>
+        <v>6.116260705760675</v>
       </c>
     </row>
     <row r="144">
@@ -1590,7 +1590,7 @@
         <v>36669</v>
       </c>
       <c r="B144" t="n">
-        <v>4.222244815083167</v>
+        <v>4.224734424148056</v>
       </c>
     </row>
     <row r="145">
@@ -1598,7 +1598,7 @@
         <v>36670</v>
       </c>
       <c r="B145" t="n">
-        <v>2.060314363227832</v>
+        <v>2.074169925417232</v>
       </c>
     </row>
     <row r="146">
@@ -1614,7 +1614,7 @@
         <v>36672</v>
       </c>
       <c r="B147" t="n">
-        <v>5.380804865201541</v>
+        <v>5.431770991041236</v>
       </c>
     </row>
     <row r="148">
@@ -1622,7 +1622,7 @@
         <v>36673</v>
       </c>
       <c r="B148" t="n">
-        <v>3.765472983211892</v>
+        <v>3.768535976591019</v>
       </c>
     </row>
     <row r="149">
@@ -1638,7 +1638,7 @@
         <v>36675</v>
       </c>
       <c r="B150" t="n">
-        <v>1.93</v>
+        <v>1.937485631417888</v>
       </c>
     </row>
     <row r="151">
@@ -1646,7 +1646,7 @@
         <v>36676</v>
       </c>
       <c r="B151" t="n">
-        <v>2.838770435334074</v>
+        <v>2.84944020329459</v>
       </c>
     </row>
     <row r="152">
@@ -1670,7 +1670,7 @@
         <v>36679</v>
       </c>
       <c r="B154" t="n">
-        <v>2.607272970993514</v>
+        <v>2.666470629004098</v>
       </c>
     </row>
     <row r="155">
@@ -1678,7 +1678,7 @@
         <v>36680</v>
       </c>
       <c r="B155" t="n">
-        <v>2.277929116089534</v>
+        <v>2.297823757118602</v>
       </c>
     </row>
     <row r="156">
@@ -1686,7 +1686,7 @@
         <v>36681</v>
       </c>
       <c r="B156" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="157">
@@ -1694,7 +1694,7 @@
         <v>36682</v>
       </c>
       <c r="B157" t="n">
-        <v>3.265</v>
+        <v>3.269206640059825</v>
       </c>
     </row>
     <row r="158">
@@ -1702,7 +1702,7 @@
         <v>36683</v>
       </c>
       <c r="B158" t="n">
-        <v>4.52355392476108</v>
+        <v>4.535307556310289</v>
       </c>
     </row>
     <row r="159">
@@ -1710,7 +1710,7 @@
         <v>36684</v>
       </c>
       <c r="B159" t="n">
-        <v>3.941991032814138</v>
+        <v>3.97439832329526</v>
       </c>
     </row>
     <row r="160">
@@ -1718,7 +1718,7 @@
         <v>36685</v>
       </c>
       <c r="B160" t="n">
-        <v>3.528863767316024</v>
+        <v>3.539931704914867</v>
       </c>
     </row>
     <row r="161">
@@ -1726,7 +1726,7 @@
         <v>36686</v>
       </c>
       <c r="B161" t="n">
-        <v>5.142201415084878</v>
+        <v>5.186696026090332</v>
       </c>
     </row>
     <row r="162">
@@ -1734,7 +1734,7 @@
         <v>36687</v>
       </c>
       <c r="B162" t="n">
-        <v>3.821</v>
+        <v>3.820999999999999</v>
       </c>
     </row>
     <row r="163">
@@ -1750,7 +1750,7 @@
         <v>36689</v>
       </c>
       <c r="B164" t="n">
-        <v>4.6176471383699</v>
+        <v>4.499473394265671</v>
       </c>
     </row>
     <row r="165">
@@ -1758,7 +1758,7 @@
         <v>36690</v>
       </c>
       <c r="B165" t="n">
-        <v>4.980085999999999</v>
+        <v>4.980086</v>
       </c>
     </row>
     <row r="166">
@@ -1766,7 +1766,7 @@
         <v>36691</v>
       </c>
       <c r="B166" t="n">
-        <v>3.83405229764475</v>
+        <v>3.883899396748658</v>
       </c>
     </row>
     <row r="167">
@@ -1774,7 +1774,7 @@
         <v>36692</v>
       </c>
       <c r="B167" t="n">
-        <v>3.755396561512751</v>
+        <v>3.797475309517413</v>
       </c>
     </row>
     <row r="168">
@@ -1782,7 +1782,7 @@
         <v>36693</v>
       </c>
       <c r="B168" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="169">
@@ -1790,7 +1790,7 @@
         <v>36694</v>
       </c>
       <c r="B169" t="n">
-        <v>4.548450774204453</v>
+        <v>4.659590293646032</v>
       </c>
     </row>
     <row r="170">
@@ -1814,7 +1814,7 @@
         <v>36697</v>
       </c>
       <c r="B172" t="n">
-        <v>4.004893758146084</v>
+        <v>4.057203457947383</v>
       </c>
     </row>
     <row r="173">
@@ -1822,7 +1822,7 @@
         <v>36698</v>
       </c>
       <c r="B173" t="n">
-        <v>3.55839259377381</v>
+        <v>3.559301886205658</v>
       </c>
     </row>
     <row r="174">
@@ -1838,7 +1838,7 @@
         <v>36700</v>
       </c>
       <c r="B175" t="n">
-        <v>4.192872431985356</v>
+        <v>4.06053877916131</v>
       </c>
     </row>
     <row r="176">
@@ -1854,7 +1854,7 @@
         <v>36702</v>
       </c>
       <c r="B177" t="n">
-        <v>1.975</v>
+        <v>1.977847132182449</v>
       </c>
     </row>
     <row r="178">
@@ -1862,7 +1862,7 @@
         <v>36703</v>
       </c>
       <c r="B178" t="n">
-        <v>3.036758246996648</v>
+        <v>3.06440149215584</v>
       </c>
     </row>
     <row r="179">
@@ -1870,7 +1870,7 @@
         <v>36704</v>
       </c>
       <c r="B179" t="n">
-        <v>4.34291492666234</v>
+        <v>4.358804172504891</v>
       </c>
     </row>
     <row r="180">
@@ -1878,7 +1878,7 @@
         <v>36705</v>
       </c>
       <c r="B180" t="n">
-        <v>4.599230432341949</v>
+        <v>4.725608266079051</v>
       </c>
     </row>
     <row r="181">
@@ -1894,7 +1894,7 @@
         <v>36707</v>
       </c>
       <c r="B182" t="n">
-        <v>0.772830841700103</v>
+        <v>0.7025937990392521</v>
       </c>
     </row>
     <row r="183">
@@ -1902,7 +1902,7 @@
         <v>36708</v>
       </c>
       <c r="B183" t="n">
-        <v>3.888942489696471</v>
+        <v>3.907454292182719</v>
       </c>
     </row>
     <row r="184">
@@ -1926,7 +1926,7 @@
         <v>36711</v>
       </c>
       <c r="B186" t="n">
-        <v>2.137774232794265</v>
+        <v>2.156810401851028</v>
       </c>
     </row>
     <row r="187">
@@ -1934,7 +1934,7 @@
         <v>36712</v>
       </c>
       <c r="B187" t="n">
-        <v>2.434196710964608</v>
+        <v>2.449842426296927</v>
       </c>
     </row>
     <row r="188">
@@ -1942,7 +1942,7 @@
         <v>36713</v>
       </c>
       <c r="B188" t="n">
-        <v>2.517395706758889</v>
+        <v>2.551482864201977</v>
       </c>
     </row>
     <row r="189">
@@ -1950,7 +1950,7 @@
         <v>36714</v>
       </c>
       <c r="B189" t="n">
-        <v>2.079009216220833</v>
+        <v>2.097719169211556</v>
       </c>
     </row>
     <row r="190">
@@ -1958,7 +1958,7 @@
         <v>36715</v>
       </c>
       <c r="B190" t="n">
-        <v>3.10023859300407</v>
+        <v>3.118449267297686</v>
       </c>
     </row>
     <row r="191">
@@ -1966,7 +1966,7 @@
         <v>36716</v>
       </c>
       <c r="B191" t="n">
-        <v>5.401945418251751</v>
+        <v>5.469840180837463</v>
       </c>
     </row>
     <row r="192">
@@ -1974,7 +1974,7 @@
         <v>36717</v>
       </c>
       <c r="B192" t="n">
-        <v>3.065240227726152</v>
+        <v>2.576400956613839</v>
       </c>
     </row>
     <row r="193">
@@ -1982,7 +1982,7 @@
         <v>36718</v>
       </c>
       <c r="B193" t="n">
-        <v>2.860941773364741</v>
+        <v>2.8672681825118</v>
       </c>
     </row>
     <row r="194">
@@ -1990,7 +1990,7 @@
         <v>36719</v>
       </c>
       <c r="B194" t="n">
-        <v>2.854033335068434</v>
+        <v>2.883469998208677</v>
       </c>
     </row>
     <row r="195">
@@ -1998,7 +1998,7 @@
         <v>36720</v>
       </c>
       <c r="B195" t="n">
-        <v>2.439</v>
+        <v>2.483283177307979</v>
       </c>
     </row>
     <row r="196">
@@ -2006,7 +2006,7 @@
         <v>36721</v>
       </c>
       <c r="B196" t="n">
-        <v>2.545902474463744</v>
+        <v>2.693451033385674</v>
       </c>
     </row>
     <row r="197">
@@ -2030,7 +2030,7 @@
         <v>36724</v>
       </c>
       <c r="B199" t="n">
-        <v>2.267480261862727</v>
+        <v>2.278244330028381</v>
       </c>
     </row>
     <row r="200">
@@ -2038,7 +2038,7 @@
         <v>36725</v>
       </c>
       <c r="B200" t="n">
-        <v>2.271474279235741</v>
+        <v>2.274546462543622</v>
       </c>
     </row>
     <row r="201">
@@ -2046,7 +2046,7 @@
         <v>36726</v>
       </c>
       <c r="B201" t="n">
-        <v>3.09</v>
+        <v>3.09264035658502</v>
       </c>
     </row>
     <row r="202">
@@ -2054,7 +2054,7 @@
         <v>36727</v>
       </c>
       <c r="B202" t="n">
-        <v>3.599863144752334</v>
+        <v>3.639056858182664</v>
       </c>
     </row>
     <row r="203">
@@ -2062,7 +2062,7 @@
         <v>36728</v>
       </c>
       <c r="B203" t="n">
-        <v>4.382083903612514</v>
+        <v>4.40822746913291</v>
       </c>
     </row>
     <row r="204">
@@ -2070,7 +2070,7 @@
         <v>36729</v>
       </c>
       <c r="B204" t="n">
-        <v>3.858005471466779</v>
+        <v>3.875602829435755</v>
       </c>
     </row>
     <row r="205">
@@ -2078,7 +2078,7 @@
         <v>36730</v>
       </c>
       <c r="B205" t="n">
-        <v>3.917669005343001</v>
+        <v>3.927595021149252</v>
       </c>
     </row>
     <row r="206">
@@ -2086,7 +2086,7 @@
         <v>36731</v>
       </c>
       <c r="B206" t="n">
-        <v>5.067261352392013</v>
+        <v>5.078306628907443</v>
       </c>
     </row>
     <row r="207">
@@ -2094,7 +2094,7 @@
         <v>36732</v>
       </c>
       <c r="B207" t="n">
-        <v>3.381774590711574</v>
+        <v>3.406717172066451</v>
       </c>
     </row>
     <row r="208">
@@ -2102,7 +2102,7 @@
         <v>36733</v>
       </c>
       <c r="B208" t="n">
-        <v>2.887</v>
+        <v>2.896840821824942</v>
       </c>
     </row>
     <row r="209">
@@ -2110,7 +2110,7 @@
         <v>36734</v>
       </c>
       <c r="B209" t="n">
-        <v>3.704693585016021</v>
+        <v>3.761397947594192</v>
       </c>
     </row>
     <row r="210">
@@ -2118,7 +2118,7 @@
         <v>36735</v>
       </c>
       <c r="B210" t="n">
-        <v>3.855698385891915</v>
+        <v>3.877138252717915</v>
       </c>
     </row>
     <row r="211">
@@ -2126,7 +2126,7 @@
         <v>36736</v>
       </c>
       <c r="B211" t="n">
-        <v>2.419728952906964</v>
+        <v>2.467841419919617</v>
       </c>
     </row>
     <row r="212">
@@ -2134,7 +2134,7 @@
         <v>36737</v>
       </c>
       <c r="B212" t="n">
-        <v>3.403555883463525</v>
+        <v>3.405207164584978</v>
       </c>
     </row>
     <row r="213">
@@ -2150,7 +2150,7 @@
         <v>36739</v>
       </c>
       <c r="B214" t="n">
-        <v>3.441702231035392</v>
+        <v>3.474576189717189</v>
       </c>
     </row>
     <row r="215">
@@ -2158,7 +2158,7 @@
         <v>36740</v>
       </c>
       <c r="B215" t="n">
-        <v>2.893</v>
+        <v>2.929492517356402</v>
       </c>
     </row>
     <row r="216">
@@ -2166,7 +2166,7 @@
         <v>36741</v>
       </c>
       <c r="B216" t="n">
-        <v>3.019</v>
+        <v>3.021376331171378</v>
       </c>
     </row>
     <row r="217">
@@ -2182,7 +2182,7 @@
         <v>36743</v>
       </c>
       <c r="B218" t="n">
-        <v>2.944961200832889</v>
+        <v>2.973271501973443</v>
       </c>
     </row>
     <row r="219">
@@ -2198,7 +2198,7 @@
         <v>36745</v>
       </c>
       <c r="B220" t="n">
-        <v>3.037282768944523</v>
+        <v>3.059986030082742</v>
       </c>
     </row>
     <row r="221">
@@ -2206,7 +2206,7 @@
         <v>36746</v>
       </c>
       <c r="B221" t="n">
-        <v>6.3014274375998</v>
+        <v>6.303099719243935</v>
       </c>
     </row>
     <row r="222">
@@ -2222,7 +2222,7 @@
         <v>36748</v>
       </c>
       <c r="B223" t="n">
-        <v>2.787862169939257</v>
+        <v>2.81897862233745</v>
       </c>
     </row>
     <row r="224">
@@ -2246,7 +2246,7 @@
         <v>36751</v>
       </c>
       <c r="B226" t="n">
-        <v>4.785</v>
+        <v>4.787536791780327</v>
       </c>
     </row>
     <row r="227">
@@ -2254,7 +2254,7 @@
         <v>36752</v>
       </c>
       <c r="B227" t="n">
-        <v>6.499999999999999</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="228">
@@ -2278,7 +2278,7 @@
         <v>36755</v>
       </c>
       <c r="B230" t="n">
-        <v>3.168</v>
+        <v>3.20187813464231</v>
       </c>
     </row>
     <row r="231">
@@ -2286,7 +2286,7 @@
         <v>36756</v>
       </c>
       <c r="B231" t="n">
-        <v>2.715</v>
+        <v>2.722579613413622</v>
       </c>
     </row>
     <row r="232">
@@ -2302,7 +2302,7 @@
         <v>36758</v>
       </c>
       <c r="B233" t="n">
-        <v>0.6947963162982242</v>
+        <v>0.6507432051934863</v>
       </c>
     </row>
     <row r="234">
@@ -2310,7 +2310,7 @@
         <v>36759</v>
       </c>
       <c r="B234" t="n">
-        <v>2.766</v>
+        <v>2.775760616119213</v>
       </c>
     </row>
     <row r="235">
@@ -2318,7 +2318,7 @@
         <v>36760</v>
       </c>
       <c r="B235" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="236">
@@ -2326,7 +2326,7 @@
         <v>36761</v>
       </c>
       <c r="B236" t="n">
-        <v>3.905169895513403</v>
+        <v>3.882191955244699</v>
       </c>
     </row>
     <row r="237">
@@ -2334,7 +2334,7 @@
         <v>36762</v>
       </c>
       <c r="B237" t="n">
-        <v>6.031840234613925</v>
+        <v>6.050946388965793</v>
       </c>
     </row>
     <row r="238">
@@ -2350,7 +2350,7 @@
         <v>36764</v>
       </c>
       <c r="B239" t="n">
-        <v>5.880407880586388</v>
+        <v>5.895235244805091</v>
       </c>
     </row>
     <row r="240">
@@ -2358,7 +2358,7 @@
         <v>36765</v>
       </c>
       <c r="B240" t="n">
-        <v>3.651946021168485</v>
+        <v>3.675019200140734</v>
       </c>
     </row>
     <row r="241">
@@ -2382,7 +2382,7 @@
         <v>36768</v>
       </c>
       <c r="B243" t="n">
-        <v>3.117318391450012</v>
+        <v>3.122890841112186</v>
       </c>
     </row>
     <row r="244">
@@ -2390,7 +2390,7 @@
         <v>36769</v>
       </c>
       <c r="B244" t="n">
-        <v>3.237769481965123</v>
+        <v>3.269067487186914</v>
       </c>
     </row>
     <row r="245">
@@ -2398,7 +2398,7 @@
         <v>36770</v>
       </c>
       <c r="B245" t="n">
-        <v>3.808953332721739</v>
+        <v>3.800038408098172</v>
       </c>
     </row>
     <row r="246">
@@ -2430,7 +2430,7 @@
         <v>36774</v>
       </c>
       <c r="B249" t="n">
-        <v>5.925828472720331</v>
+        <v>5.923352665266925</v>
       </c>
     </row>
     <row r="250">
@@ -2438,7 +2438,7 @@
         <v>36775</v>
       </c>
       <c r="B250" t="n">
-        <v>4.501031576707536</v>
+        <v>4.504185425350189</v>
       </c>
     </row>
     <row r="251">
@@ -2454,7 +2454,7 @@
         <v>36777</v>
       </c>
       <c r="B252" t="n">
-        <v>3.993247719343845</v>
+        <v>3.961189355916409</v>
       </c>
     </row>
     <row r="253">
@@ -2462,7 +2462,7 @@
         <v>36778</v>
       </c>
       <c r="B253" t="n">
-        <v>3.688525376471673</v>
+        <v>3.708388431824222</v>
       </c>
     </row>
     <row r="254">
@@ -2470,7 +2470,7 @@
         <v>36779</v>
       </c>
       <c r="B254" t="n">
-        <v>4.035726662721341</v>
+        <v>4.032320486113242</v>
       </c>
     </row>
     <row r="255">
@@ -2478,7 +2478,7 @@
         <v>36780</v>
       </c>
       <c r="B255" t="n">
-        <v>5.665235111738973</v>
+        <v>5.668948372913846</v>
       </c>
     </row>
     <row r="256">
@@ -2486,7 +2486,7 @@
         <v>36781</v>
       </c>
       <c r="B256" t="n">
-        <v>5.298081596253003</v>
+        <v>5.313965722661988</v>
       </c>
     </row>
     <row r="257">
@@ -2494,7 +2494,7 @@
         <v>36782</v>
       </c>
       <c r="B257" t="n">
-        <v>5.412501893365623</v>
+        <v>5.414962283654043</v>
       </c>
     </row>
     <row r="258">
@@ -2502,7 +2502,7 @@
         <v>36783</v>
       </c>
       <c r="B258" t="n">
-        <v>4.925089908689711</v>
+        <v>4.938279358912932</v>
       </c>
     </row>
     <row r="259">
@@ -2526,7 +2526,7 @@
         <v>36786</v>
       </c>
       <c r="B261" t="n">
-        <v>2.966697812711008</v>
+        <v>2.965820220510496</v>
       </c>
     </row>
     <row r="262">
@@ -2550,7 +2550,7 @@
         <v>36789</v>
       </c>
       <c r="B264" t="n">
-        <v>3.99743789658323</v>
+        <v>4.000642888941043</v>
       </c>
     </row>
     <row r="265">
@@ -2558,7 +2558,7 @@
         <v>36790</v>
       </c>
       <c r="B265" t="n">
-        <v>6.486999999999999</v>
+        <v>6.487</v>
       </c>
     </row>
     <row r="266">
@@ -2582,7 +2582,7 @@
         <v>36793</v>
       </c>
       <c r="B268" t="n">
-        <v>3.428426441679281</v>
+        <v>3.433262077113389</v>
       </c>
     </row>
     <row r="269">
@@ -2606,7 +2606,7 @@
         <v>36796</v>
       </c>
       <c r="B271" t="n">
-        <v>5.59935206615785</v>
+        <v>5.601631384301907</v>
       </c>
     </row>
     <row r="272">
@@ -2614,7 +2614,7 @@
         <v>36797</v>
       </c>
       <c r="B272" t="n">
-        <v>4.201537346740495</v>
+        <v>4.155676777726699</v>
       </c>
     </row>
     <row r="273">
@@ -2630,7 +2630,7 @@
         <v>36799</v>
       </c>
       <c r="B274" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="275">
@@ -2646,7 +2646,7 @@
         <v>36801</v>
       </c>
       <c r="B276" t="n">
-        <v>2.130074373292783</v>
+        <v>2.665994505509937</v>
       </c>
     </row>
     <row r="277">
@@ -2654,7 +2654,7 @@
         <v>36802</v>
       </c>
       <c r="B277" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="278">
@@ -2678,7 +2678,7 @@
         <v>36805</v>
       </c>
       <c r="B280" t="n">
-        <v>5.980803665281964</v>
+        <v>5.97753167274886</v>
       </c>
     </row>
     <row r="281">
@@ -2710,7 +2710,7 @@
         <v>36809</v>
       </c>
       <c r="B284" t="n">
-        <v>5.69905933106458</v>
+        <v>5.703563001319333</v>
       </c>
     </row>
     <row r="285">
@@ -2726,7 +2726,7 @@
         <v>36811</v>
       </c>
       <c r="B286" t="n">
-        <v>4.432647999285921</v>
+        <v>4.130171188472344</v>
       </c>
     </row>
     <row r="287">
@@ -2734,7 +2734,7 @@
         <v>36812</v>
       </c>
       <c r="B287" t="n">
-        <v>4.028251545873799</v>
+        <v>3.979376841269981</v>
       </c>
     </row>
     <row r="288">
@@ -2742,7 +2742,7 @@
         <v>36813</v>
       </c>
       <c r="B288" t="n">
-        <v>4.64728758074246</v>
+        <v>4.629</v>
       </c>
     </row>
     <row r="289">
@@ -2766,7 +2766,7 @@
         <v>36816</v>
       </c>
       <c r="B291" t="n">
-        <v>5.414347282875879</v>
+        <v>5.42179388203824</v>
       </c>
     </row>
     <row r="292">
@@ -2774,7 +2774,7 @@
         <v>36817</v>
       </c>
       <c r="B292" t="n">
-        <v>4.69565899973839</v>
+        <v>4.698182615127211</v>
       </c>
     </row>
     <row r="293">
@@ -2782,7 +2782,7 @@
         <v>36818</v>
       </c>
       <c r="B293" t="n">
-        <v>4.11043789376312</v>
+        <v>3.956811922265544</v>
       </c>
     </row>
     <row r="294">
@@ -2790,7 +2790,7 @@
         <v>36819</v>
       </c>
       <c r="B294" t="n">
-        <v>4.836633716931826</v>
+        <v>4.781000000000001</v>
       </c>
     </row>
     <row r="295">
@@ -2798,7 +2798,7 @@
         <v>36820</v>
       </c>
       <c r="B295" t="n">
-        <v>4.954744932823717</v>
+        <v>4.95573484196952</v>
       </c>
     </row>
     <row r="296">
@@ -2806,7 +2806,7 @@
         <v>36821</v>
       </c>
       <c r="B296" t="n">
-        <v>6.142682403681197</v>
+        <v>6.144293155325782</v>
       </c>
     </row>
     <row r="297">
@@ -2822,7 +2822,7 @@
         <v>36823</v>
       </c>
       <c r="B298" t="n">
-        <v>1.063331432994028</v>
+        <v>1.661967129383016</v>
       </c>
     </row>
     <row r="299">
@@ -2838,7 +2838,7 @@
         <v>36825</v>
       </c>
       <c r="B300" t="n">
-        <v>0.2943768733575121</v>
+        <v>0.3089782068105625</v>
       </c>
     </row>
     <row r="301">
@@ -2846,7 +2846,7 @@
         <v>36826</v>
       </c>
       <c r="B301" t="n">
-        <v>5.579170798785707</v>
+        <v>5.600021172889898</v>
       </c>
     </row>
     <row r="302">
@@ -2878,7 +2878,7 @@
         <v>36830</v>
       </c>
       <c r="B305" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="306">
@@ -2894,7 +2894,7 @@
         <v>36832</v>
       </c>
       <c r="B307" t="n">
-        <v>4.227940181601699</v>
+        <v>4.211021686749636</v>
       </c>
     </row>
     <row r="308">
@@ -2902,7 +2902,7 @@
         <v>36833</v>
       </c>
       <c r="B308" t="n">
-        <v>6.138116428692291</v>
+        <v>6.029553531137053</v>
       </c>
     </row>
     <row r="309">
@@ -2918,7 +2918,7 @@
         <v>36835</v>
       </c>
       <c r="B310" t="n">
-        <v>4.649882740372137</v>
+        <v>4.523713895038066</v>
       </c>
     </row>
     <row r="311">
@@ -2934,7 +2934,7 @@
         <v>36837</v>
       </c>
       <c r="B312" t="n">
-        <v>0.572980328742442</v>
+        <v>1.236806364415852</v>
       </c>
     </row>
     <row r="313">
@@ -2942,7 +2942,7 @@
         <v>36838</v>
       </c>
       <c r="B313" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="314">
@@ -2950,7 +2950,7 @@
         <v>36839</v>
       </c>
       <c r="B314" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="315">
@@ -2958,7 +2958,7 @@
         <v>36840</v>
       </c>
       <c r="B315" t="n">
-        <v>0.1267501256858627</v>
+        <v>0.1883518090069483</v>
       </c>
     </row>
     <row r="316">
@@ -2966,7 +2966,7 @@
         <v>36841</v>
       </c>
       <c r="B316" t="n">
-        <v>2.891388724667282</v>
+        <v>4.322736804501601</v>
       </c>
     </row>
     <row r="317">
@@ -2982,7 +2982,7 @@
         <v>36843</v>
       </c>
       <c r="B318" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="319">
@@ -2990,7 +2990,7 @@
         <v>36844</v>
       </c>
       <c r="B319" t="n">
-        <v>4.468517086712012</v>
+        <v>4.388999999999999</v>
       </c>
     </row>
     <row r="320">
@@ -3006,7 +3006,7 @@
         <v>36846</v>
       </c>
       <c r="B321" t="n">
-        <v>4.705200555553783</v>
+        <v>4.364380624273964</v>
       </c>
     </row>
     <row r="322">
@@ -3030,7 +3030,7 @@
         <v>36849</v>
       </c>
       <c r="B324" t="n">
-        <v>2.529653753081088</v>
+        <v>4.965522844246165</v>
       </c>
     </row>
     <row r="325">
@@ -3046,7 +3046,7 @@
         <v>36851</v>
       </c>
       <c r="B326" t="n">
-        <v>1.493206619950081</v>
+        <v>1.942722061327985</v>
       </c>
     </row>
     <row r="327">
@@ -3094,7 +3094,7 @@
         <v>36857</v>
       </c>
       <c r="B332" t="n">
-        <v>0.611268247079251</v>
+        <v>0.7003624338485166</v>
       </c>
     </row>
     <row r="333">
@@ -3118,7 +3118,7 @@
         <v>36860</v>
       </c>
       <c r="B335" t="n">
-        <v>1.628049758908789</v>
+        <v>2.498588468567455</v>
       </c>
     </row>
     <row r="336">
@@ -3126,7 +3126,7 @@
         <v>36861</v>
       </c>
       <c r="B336" t="n">
-        <v>1.417106259361311</v>
+        <v>2.346040822774272</v>
       </c>
     </row>
     <row r="337">
@@ -3142,7 +3142,7 @@
         <v>36863</v>
       </c>
       <c r="B338" t="n">
-        <v>1.310898957190282</v>
+        <v>1.853397710108198</v>
       </c>
     </row>
     <row r="339">
@@ -3150,7 +3150,7 @@
         <v>36864</v>
       </c>
       <c r="B339" t="n">
-        <v>5.486159285185395</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="340">
@@ -3158,7 +3158,7 @@
         <v>36865</v>
       </c>
       <c r="B340" t="n">
-        <v>0.6791608805090072</v>
+        <v>1.2206362167419</v>
       </c>
     </row>
     <row r="341">
@@ -3190,7 +3190,7 @@
         <v>36869</v>
       </c>
       <c r="B344" t="n">
-        <v>0.2584388000202474</v>
+        <v>0.6071662295395066</v>
       </c>
     </row>
     <row r="345">
@@ -3206,7 +3206,7 @@
         <v>36871</v>
       </c>
       <c r="B346" t="n">
-        <v>6.432585984482005</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="347">
@@ -3214,7 +3214,7 @@
         <v>36872</v>
       </c>
       <c r="B347" t="n">
-        <v>0.8854208533855804</v>
+        <v>1.065799303721288</v>
       </c>
     </row>
     <row r="348">
@@ -3222,7 +3222,7 @@
         <v>36873</v>
       </c>
       <c r="B348" t="n">
-        <v>5.929052910279313</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="349">
@@ -3230,7 +3230,7 @@
         <v>36874</v>
       </c>
       <c r="B349" t="n">
-        <v>0.1887192333028802</v>
+        <v>0.1702288650014592</v>
       </c>
     </row>
     <row r="350">
@@ -3238,7 +3238,7 @@
         <v>36875</v>
       </c>
       <c r="B350" t="n">
-        <v>0.1691075555851096</v>
+        <v>0.3950979468413691</v>
       </c>
     </row>
     <row r="351">
@@ -3246,7 +3246,7 @@
         <v>36876</v>
       </c>
       <c r="B351" t="n">
-        <v>0.5728296657620806</v>
+        <v>1.170362770642413</v>
       </c>
     </row>
     <row r="352">
@@ -3254,7 +3254,7 @@
         <v>36877</v>
       </c>
       <c r="B352" t="n">
-        <v>1.135162555819855</v>
+        <v>2.953463132366322</v>
       </c>
     </row>
     <row r="353">
@@ -3262,7 +3262,7 @@
         <v>36878</v>
       </c>
       <c r="B353" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="354">
@@ -3294,7 +3294,7 @@
         <v>36882</v>
       </c>
       <c r="B357" t="n">
-        <v>0.8842509689967748</v>
+        <v>1.405362648734788</v>
       </c>
     </row>
     <row r="358">
@@ -3310,7 +3310,7 @@
         <v>36884</v>
       </c>
       <c r="B359" t="n">
-        <v>4.27671206157713</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="360">
@@ -3318,7 +3318,7 @@
         <v>36885</v>
       </c>
       <c r="B360" t="n">
-        <v>5.239697994141324</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="361">
@@ -3326,7 +3326,7 @@
         <v>36886</v>
       </c>
       <c r="B361" t="n">
-        <v>5.619014616586254</v>
+        <v>5.588586941297038</v>
       </c>
     </row>
     <row r="362">
@@ -3334,7 +3334,7 @@
         <v>36887</v>
       </c>
       <c r="B362" t="n">
-        <v>4.395952214671079</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="363">
@@ -3358,7 +3358,7 @@
         <v>36890</v>
       </c>
       <c r="B365" t="n">
-        <v>0.1214728879609586</v>
+        <v>0.1790005274505555</v>
       </c>
     </row>
     <row r="366">

--- a/results/end_of_day_charge_levels.xlsx
+++ b/results/end_of_day_charge_levels.xlsx
@@ -454,7 +454,7 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>3.482348989805499</v>
+        <v>1.605982525823344</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>36527</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5939821982748007</v>
+        <v>0.5330476534700397</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>36528</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1787725437720784</v>
+        <v>0.0916910589638706</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         <v>36530</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7841200422851822</v>
+        <v>0.6344765447378493</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>36531</v>
       </c>
       <c r="B7" t="n">
-        <v>1.318510836461359</v>
+        <v>1.283787880932521</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>36532</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1756779144095936</v>
+        <v>0.1298143359505849</v>
       </c>
     </row>
     <row r="9">
@@ -518,7 +518,7 @@
         <v>36534</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1486630427779785</v>
+        <v>0.126871433736816</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>36535</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9515216054800762</v>
+        <v>0.5701775747175443</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>36536</v>
       </c>
       <c r="B12" t="n">
-        <v>1.693579904040872</v>
+        <v>1.310271955338907</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>36537</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3741567931620162</v>
+        <v>0.3663928257902206</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>36538</v>
       </c>
       <c r="B14" t="n">
-        <v>3.93529301874345</v>
+        <v>2.615465871047163</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>36539</v>
       </c>
       <c r="B15" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -574,7 +574,7 @@
         <v>36541</v>
       </c>
       <c r="B17" t="n">
-        <v>5.353682604527974</v>
+        <v>2.848179804780232</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>36542</v>
       </c>
       <c r="B18" t="n">
-        <v>2.877518103721018</v>
+        <v>1.706738503425148</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>36543</v>
       </c>
       <c r="B19" t="n">
-        <v>1.669461797329997</v>
+        <v>0.9191987370371409</v>
       </c>
     </row>
     <row r="20">
@@ -622,7 +622,7 @@
         <v>36547</v>
       </c>
       <c r="B23" t="n">
-        <v>2.125559411564146</v>
+        <v>1.911483853314222</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>36548</v>
       </c>
       <c r="B24" t="n">
-        <v>6.5</v>
+        <v>4.502749416439997</v>
       </c>
     </row>
     <row r="25">
@@ -654,7 +654,7 @@
         <v>36551</v>
       </c>
       <c r="B27" t="n">
-        <v>5.400214361826349</v>
+        <v>5.071162833173536</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>36552</v>
       </c>
       <c r="B28" t="n">
-        <v>6.5</v>
+        <v>6.303675398979287</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>36553</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4986255515263168</v>
+        <v>0.2979418653311298</v>
       </c>
     </row>
     <row r="30">
@@ -702,7 +702,7 @@
         <v>36557</v>
       </c>
       <c r="B33" t="n">
-        <v>1.792015634746304</v>
+        <v>1.1029536333994</v>
       </c>
     </row>
     <row r="34">
@@ -726,7 +726,7 @@
         <v>36560</v>
       </c>
       <c r="B36" t="n">
-        <v>3.89775253188588</v>
+        <v>1.90717469037034</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +734,7 @@
         <v>36561</v>
       </c>
       <c r="B37" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -742,7 +742,7 @@
         <v>36562</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3530208979946936</v>
+        <v>0.3412832201067315</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>36563</v>
       </c>
       <c r="B39" t="n">
-        <v>5.760201912306312</v>
+        <v>5.776327842946551</v>
       </c>
     </row>
     <row r="40">
@@ -766,7 +766,7 @@
         <v>36565</v>
       </c>
       <c r="B41" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>36566</v>
       </c>
       <c r="B42" t="n">
-        <v>6.5</v>
+        <v>4.943602067702495</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>36567</v>
       </c>
       <c r="B43" t="n">
-        <v>5.414250277978089</v>
+        <v>3.89772134307336</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>36568</v>
       </c>
       <c r="B44" t="n">
-        <v>5.026999999999999</v>
+        <v>5.026999999999998</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>36569</v>
       </c>
       <c r="B45" t="n">
-        <v>5.303212650665537</v>
+        <v>5.30151404871111</v>
       </c>
     </row>
     <row r="46">
@@ -814,7 +814,7 @@
         <v>36571</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4375367244749534</v>
+        <v>0.3837336836866001</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +822,7 @@
         <v>36572</v>
       </c>
       <c r="B48" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="49">
@@ -846,7 +846,7 @@
         <v>36575</v>
       </c>
       <c r="B51" t="n">
-        <v>6.484100331550565</v>
+        <v>6.385862957819826</v>
       </c>
     </row>
     <row r="52">
@@ -854,7 +854,7 @@
         <v>36576</v>
       </c>
       <c r="B52" t="n">
-        <v>5.097680846555768</v>
+        <v>5.100164152896842</v>
       </c>
     </row>
     <row r="53">
@@ -862,7 +862,7 @@
         <v>36577</v>
       </c>
       <c r="B53" t="n">
-        <v>6.225089203605497</v>
+        <v>6.221893543942822</v>
       </c>
     </row>
     <row r="54">
@@ -878,7 +878,7 @@
         <v>36579</v>
       </c>
       <c r="B55" t="n">
-        <v>4.029067331865691</v>
+        <v>4.037630323827188</v>
       </c>
     </row>
     <row r="56">
@@ -886,7 +886,7 @@
         <v>36580</v>
       </c>
       <c r="B56" t="n">
-        <v>4.547268589337191</v>
+        <v>4.595480024328353</v>
       </c>
     </row>
     <row r="57">
@@ -902,7 +902,7 @@
         <v>36582</v>
       </c>
       <c r="B58" t="n">
-        <v>5.499711517047056</v>
+        <v>5.474809946424287</v>
       </c>
     </row>
     <row r="59">
@@ -910,7 +910,7 @@
         <v>36583</v>
       </c>
       <c r="B59" t="n">
-        <v>4.995085587254854</v>
+        <v>5.007566362189319</v>
       </c>
     </row>
     <row r="60">
@@ -942,7 +942,7 @@
         <v>36588</v>
       </c>
       <c r="B63" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="64">
@@ -950,7 +950,7 @@
         <v>36589</v>
       </c>
       <c r="B64" t="n">
-        <v>4.698048341903998</v>
+        <v>4.775682399664257</v>
       </c>
     </row>
     <row r="65">
@@ -958,7 +958,7 @@
         <v>36590</v>
       </c>
       <c r="B65" t="n">
-        <v>5.317409417923939</v>
+        <v>5.314392849353955</v>
       </c>
     </row>
     <row r="66">
@@ -974,7 +974,7 @@
         <v>36592</v>
       </c>
       <c r="B67" t="n">
-        <v>1.457078661254154</v>
+        <v>1.332687916451212</v>
       </c>
     </row>
     <row r="68">
@@ -982,7 +982,7 @@
         <v>36593</v>
       </c>
       <c r="B68" t="n">
-        <v>5.620508647115468</v>
+        <v>4.872520998221174</v>
       </c>
     </row>
     <row r="69">
@@ -998,7 +998,7 @@
         <v>36595</v>
       </c>
       <c r="B70" t="n">
-        <v>4.859855301003842</v>
+        <v>4.389625985360639</v>
       </c>
     </row>
     <row r="71">
@@ -1006,7 +1006,7 @@
         <v>36596</v>
       </c>
       <c r="B71" t="n">
-        <v>5.516783532822492</v>
+        <v>5.516476465218913</v>
       </c>
     </row>
     <row r="72">
@@ -1030,7 +1030,7 @@
         <v>36599</v>
       </c>
       <c r="B74" t="n">
-        <v>6.457530397434904</v>
+        <v>6.459000359066061</v>
       </c>
     </row>
     <row r="75">
@@ -1038,7 +1038,7 @@
         <v>36600</v>
       </c>
       <c r="B75" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="76">
@@ -1046,7 +1046,7 @@
         <v>36601</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0004552003226372253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1054,7 +1054,7 @@
         <v>36602</v>
       </c>
       <c r="B77" t="n">
-        <v>5.529482295016688</v>
+        <v>5.534284206895279</v>
       </c>
     </row>
     <row r="78">
@@ -1086,7 +1086,7 @@
         <v>36606</v>
       </c>
       <c r="B81" t="n">
-        <v>4.142959289606121</v>
+        <v>4.123131664388563</v>
       </c>
     </row>
     <row r="82">
@@ -1094,7 +1094,7 @@
         <v>36607</v>
       </c>
       <c r="B82" t="n">
-        <v>5.928645290553336</v>
+        <v>5.925568006958782</v>
       </c>
     </row>
     <row r="83">
@@ -1150,7 +1150,7 @@
         <v>36614</v>
       </c>
       <c r="B89" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="90">
@@ -1158,7 +1158,7 @@
         <v>36615</v>
       </c>
       <c r="B90" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="91">
@@ -1182,7 +1182,7 @@
         <v>36618</v>
       </c>
       <c r="B93" t="n">
-        <v>6.266090575450711</v>
+        <v>6.248073915325777</v>
       </c>
     </row>
     <row r="94">
@@ -1198,7 +1198,7 @@
         <v>36620</v>
       </c>
       <c r="B95" t="n">
-        <v>5.997310702749264</v>
+        <v>5.964720481412637</v>
       </c>
     </row>
     <row r="96">
@@ -1206,7 +1206,7 @@
         <v>36621</v>
       </c>
       <c r="B96" t="n">
-        <v>3.35367344315597</v>
+        <v>3.335</v>
       </c>
     </row>
     <row r="97">
@@ -1214,7 +1214,7 @@
         <v>36622</v>
       </c>
       <c r="B97" t="n">
-        <v>3.34038315947642</v>
+        <v>3.291083374381222</v>
       </c>
     </row>
     <row r="98">
@@ -1222,7 +1222,7 @@
         <v>36623</v>
       </c>
       <c r="B98" t="n">
-        <v>4.240060214322597</v>
+        <v>4.190128127514801</v>
       </c>
     </row>
     <row r="99">
@@ -1230,7 +1230,7 @@
         <v>36624</v>
       </c>
       <c r="B99" t="n">
-        <v>5.564115419570578</v>
+        <v>5.564073475818218</v>
       </c>
     </row>
     <row r="100">
@@ -1238,7 +1238,7 @@
         <v>36625</v>
       </c>
       <c r="B100" t="n">
-        <v>6.430805260877962</v>
+        <v>6.405238504198657</v>
       </c>
     </row>
     <row r="101">
@@ -1254,7 +1254,7 @@
         <v>36627</v>
       </c>
       <c r="B102" t="n">
-        <v>4.444094262294353</v>
+        <v>4.340682728049308</v>
       </c>
     </row>
     <row r="103">
@@ -1262,7 +1262,7 @@
         <v>36628</v>
       </c>
       <c r="B103" t="n">
-        <v>4.329089485110405</v>
+        <v>3.987775498935441</v>
       </c>
     </row>
     <row r="104">
@@ -1270,7 +1270,7 @@
         <v>36629</v>
       </c>
       <c r="B104" t="n">
-        <v>3.841268872011488</v>
+        <v>3.738926379490842</v>
       </c>
     </row>
     <row r="105">
@@ -1278,7 +1278,7 @@
         <v>36630</v>
       </c>
       <c r="B105" t="n">
-        <v>3.753316010902441</v>
+        <v>3.44785917501664</v>
       </c>
     </row>
     <row r="106">
@@ -1286,7 +1286,7 @@
         <v>36631</v>
       </c>
       <c r="B106" t="n">
-        <v>2.790175071217396</v>
+        <v>2.617912158990995</v>
       </c>
     </row>
     <row r="107">
@@ -1294,7 +1294,7 @@
         <v>36632</v>
       </c>
       <c r="B107" t="n">
-        <v>4.054293792608973</v>
+        <v>4.023247087673624</v>
       </c>
     </row>
     <row r="108">
@@ -1302,7 +1302,7 @@
         <v>36633</v>
       </c>
       <c r="B108" t="n">
-        <v>2.800111773260663</v>
+        <v>2.798</v>
       </c>
     </row>
     <row r="109">
@@ -1310,7 +1310,7 @@
         <v>36634</v>
       </c>
       <c r="B109" t="n">
-        <v>4.928321161636886</v>
+        <v>4.915657566267175</v>
       </c>
     </row>
     <row r="110">
@@ -1318,7 +1318,7 @@
         <v>36635</v>
       </c>
       <c r="B110" t="n">
-        <v>2.726801169935925</v>
+        <v>2.71579974383448</v>
       </c>
     </row>
     <row r="111">
@@ -1326,7 +1326,7 @@
         <v>36636</v>
       </c>
       <c r="B111" t="n">
-        <v>2.781033672285324</v>
+        <v>2.810904008047713</v>
       </c>
     </row>
     <row r="112">
@@ -1334,7 +1334,7 @@
         <v>36637</v>
       </c>
       <c r="B112" t="n">
-        <v>2.98213555106399</v>
+        <v>2.969943065621335</v>
       </c>
     </row>
     <row r="113">
@@ -1342,7 +1342,7 @@
         <v>36638</v>
       </c>
       <c r="B113" t="n">
-        <v>4.623672319037814</v>
+        <v>4.622357399956988</v>
       </c>
     </row>
     <row r="114">
@@ -1350,7 +1350,7 @@
         <v>36639</v>
       </c>
       <c r="B114" t="n">
-        <v>5.486792233441708</v>
+        <v>5.486850575496449</v>
       </c>
     </row>
     <row r="115">
@@ -1358,7 +1358,7 @@
         <v>36640</v>
       </c>
       <c r="B115" t="n">
-        <v>3.294402771793062</v>
+        <v>3.293675646617555</v>
       </c>
     </row>
     <row r="116">
@@ -1366,7 +1366,7 @@
         <v>36641</v>
       </c>
       <c r="B116" t="n">
-        <v>3.715000812953462</v>
+        <v>3.715240971839681</v>
       </c>
     </row>
     <row r="117">
@@ -1374,7 +1374,7 @@
         <v>36642</v>
       </c>
       <c r="B117" t="n">
-        <v>2.697150850640135</v>
+        <v>2.615</v>
       </c>
     </row>
     <row r="118">
@@ -1382,7 +1382,7 @@
         <v>36643</v>
       </c>
       <c r="B118" t="n">
-        <v>6.124263506452217</v>
+        <v>6.124921037468006</v>
       </c>
     </row>
     <row r="119">
@@ -1398,7 +1398,7 @@
         <v>36645</v>
       </c>
       <c r="B120" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="121">
@@ -1414,7 +1414,7 @@
         <v>36647</v>
       </c>
       <c r="B122" t="n">
-        <v>2.385768781888107</v>
+        <v>2.38415792981611</v>
       </c>
     </row>
     <row r="123">
@@ -1422,7 +1422,7 @@
         <v>36648</v>
       </c>
       <c r="B123" t="n">
-        <v>2.900922217242044</v>
+        <v>2.720434328656464</v>
       </c>
     </row>
     <row r="124">
@@ -1430,7 +1430,7 @@
         <v>36649</v>
       </c>
       <c r="B124" t="n">
-        <v>3.956918321491744</v>
+        <v>3.088871279022486</v>
       </c>
     </row>
     <row r="125">
@@ -1438,7 +1438,7 @@
         <v>36650</v>
       </c>
       <c r="B125" t="n">
-        <v>3.133443785737484</v>
+        <v>3.098</v>
       </c>
     </row>
     <row r="126">
@@ -1446,7 +1446,7 @@
         <v>36651</v>
       </c>
       <c r="B126" t="n">
-        <v>2.160950805344855</v>
+        <v>2.07024872464765</v>
       </c>
     </row>
     <row r="127">
@@ -1454,7 +1454,7 @@
         <v>36652</v>
       </c>
       <c r="B127" t="n">
-        <v>3.554783951666789</v>
+        <v>3.50299623821807</v>
       </c>
     </row>
     <row r="128">
@@ -1462,7 +1462,7 @@
         <v>36653</v>
       </c>
       <c r="B128" t="n">
-        <v>2.203319340469809</v>
+        <v>2.15021536277116</v>
       </c>
     </row>
     <row r="129">
@@ -1470,7 +1470,7 @@
         <v>36654</v>
       </c>
       <c r="B129" t="n">
-        <v>2.228301575519852</v>
+        <v>2.210999999999999</v>
       </c>
     </row>
     <row r="130">
@@ -1478,7 +1478,7 @@
         <v>36655</v>
       </c>
       <c r="B130" t="n">
-        <v>4.611624575733951</v>
+        <v>4.611623087848461</v>
       </c>
     </row>
     <row r="131">
@@ -1502,7 +1502,7 @@
         <v>36658</v>
       </c>
       <c r="B133" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="134">
@@ -1518,7 +1518,7 @@
         <v>36660</v>
       </c>
       <c r="B135" t="n">
-        <v>2.873020349958904</v>
+        <v>2.872040077464197</v>
       </c>
     </row>
     <row r="136">
@@ -1526,7 +1526,7 @@
         <v>36661</v>
       </c>
       <c r="B136" t="n">
-        <v>3.743631453394304</v>
+        <v>3.74429808290262</v>
       </c>
     </row>
     <row r="137">
@@ -1534,7 +1534,7 @@
         <v>36662</v>
       </c>
       <c r="B137" t="n">
-        <v>2.500259375682356</v>
+        <v>2.488533790338028</v>
       </c>
     </row>
     <row r="138">
@@ -1550,7 +1550,7 @@
         <v>36664</v>
       </c>
       <c r="B139" t="n">
-        <v>4.404593641582451</v>
+        <v>4.392567774245988</v>
       </c>
     </row>
     <row r="140">
@@ -1558,7 +1558,7 @@
         <v>36665</v>
       </c>
       <c r="B140" t="n">
-        <v>3.6945722927549</v>
+        <v>3.695651087731592</v>
       </c>
     </row>
     <row r="141">
@@ -1566,7 +1566,7 @@
         <v>36666</v>
       </c>
       <c r="B141" t="n">
-        <v>4.735394096404427</v>
+        <v>4.735390314921951</v>
       </c>
     </row>
     <row r="142">
@@ -1582,7 +1582,7 @@
         <v>36668</v>
       </c>
       <c r="B143" t="n">
-        <v>6.116260705760675</v>
+        <v>6.11676479230323</v>
       </c>
     </row>
     <row r="144">
@@ -1590,7 +1590,7 @@
         <v>36669</v>
       </c>
       <c r="B144" t="n">
-        <v>4.224734424148056</v>
+        <v>4.223179384485313</v>
       </c>
     </row>
     <row r="145">
@@ -1598,7 +1598,7 @@
         <v>36670</v>
       </c>
       <c r="B145" t="n">
-        <v>2.074169925417232</v>
+        <v>2.012</v>
       </c>
     </row>
     <row r="146">
@@ -1614,7 +1614,7 @@
         <v>36672</v>
       </c>
       <c r="B147" t="n">
-        <v>5.431770991041236</v>
+        <v>5.438554187859821</v>
       </c>
     </row>
     <row r="148">
@@ -1622,7 +1622,7 @@
         <v>36673</v>
       </c>
       <c r="B148" t="n">
-        <v>3.768535976591019</v>
+        <v>3.767932679781875</v>
       </c>
     </row>
     <row r="149">
@@ -1638,7 +1638,7 @@
         <v>36675</v>
       </c>
       <c r="B150" t="n">
-        <v>1.937485631417888</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="151">
@@ -1646,7 +1646,7 @@
         <v>36676</v>
       </c>
       <c r="B151" t="n">
-        <v>2.84944020329459</v>
+        <v>2.850096951524709</v>
       </c>
     </row>
     <row r="152">
@@ -1670,7 +1670,7 @@
         <v>36679</v>
       </c>
       <c r="B154" t="n">
-        <v>2.666470629004098</v>
+        <v>2.64150216528557</v>
       </c>
     </row>
     <row r="155">
@@ -1678,7 +1678,7 @@
         <v>36680</v>
       </c>
       <c r="B155" t="n">
-        <v>2.297823757118602</v>
+        <v>2.288164258000337</v>
       </c>
     </row>
     <row r="156">
@@ -1694,7 +1694,7 @@
         <v>36682</v>
       </c>
       <c r="B157" t="n">
-        <v>3.269206640059825</v>
+        <v>3.265</v>
       </c>
     </row>
     <row r="158">
@@ -1702,7 +1702,7 @@
         <v>36683</v>
       </c>
       <c r="B158" t="n">
-        <v>4.535307556310289</v>
+        <v>4.535536144161216</v>
       </c>
     </row>
     <row r="159">
@@ -1710,7 +1710,7 @@
         <v>36684</v>
       </c>
       <c r="B159" t="n">
-        <v>3.97439832329526</v>
+        <v>3.976106220453738</v>
       </c>
     </row>
     <row r="160">
@@ -1718,7 +1718,7 @@
         <v>36685</v>
       </c>
       <c r="B160" t="n">
-        <v>3.539931704914867</v>
+        <v>3.536412424301602</v>
       </c>
     </row>
     <row r="161">
@@ -1726,7 +1726,7 @@
         <v>36686</v>
       </c>
       <c r="B161" t="n">
-        <v>5.186696026090332</v>
+        <v>5.185737315397258</v>
       </c>
     </row>
     <row r="162">
@@ -1734,7 +1734,7 @@
         <v>36687</v>
       </c>
       <c r="B162" t="n">
-        <v>3.820999999999999</v>
+        <v>3.821</v>
       </c>
     </row>
     <row r="163">
@@ -1750,7 +1750,7 @@
         <v>36689</v>
       </c>
       <c r="B164" t="n">
-        <v>4.499473394265671</v>
+        <v>4.243722073856629</v>
       </c>
     </row>
     <row r="165">
@@ -1758,7 +1758,7 @@
         <v>36690</v>
       </c>
       <c r="B165" t="n">
-        <v>4.980086</v>
+        <v>4.980085999999999</v>
       </c>
     </row>
     <row r="166">
@@ -1766,7 +1766,7 @@
         <v>36691</v>
       </c>
       <c r="B166" t="n">
-        <v>3.883899396748658</v>
+        <v>3.832139993698872</v>
       </c>
     </row>
     <row r="167">
@@ -1774,7 +1774,7 @@
         <v>36692</v>
       </c>
       <c r="B167" t="n">
-        <v>3.797475309517413</v>
+        <v>3.781092970140138</v>
       </c>
     </row>
     <row r="168">
@@ -1782,7 +1782,7 @@
         <v>36693</v>
       </c>
       <c r="B168" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="169">
@@ -1790,7 +1790,7 @@
         <v>36694</v>
       </c>
       <c r="B169" t="n">
-        <v>4.659590293646032</v>
+        <v>4.56877751676671</v>
       </c>
     </row>
     <row r="170">
@@ -1814,7 +1814,7 @@
         <v>36697</v>
       </c>
       <c r="B172" t="n">
-        <v>4.057203457947383</v>
+        <v>4.057667029304417</v>
       </c>
     </row>
     <row r="173">
@@ -1822,7 +1822,7 @@
         <v>36698</v>
       </c>
       <c r="B173" t="n">
-        <v>3.559301886205658</v>
+        <v>3.558769498318112</v>
       </c>
     </row>
     <row r="174">
@@ -1838,7 +1838,7 @@
         <v>36700</v>
       </c>
       <c r="B175" t="n">
-        <v>4.06053877916131</v>
+        <v>3.796362603429127</v>
       </c>
     </row>
     <row r="176">
@@ -1854,7 +1854,7 @@
         <v>36702</v>
       </c>
       <c r="B177" t="n">
-        <v>1.977847132182449</v>
+        <v>1.981119023286594</v>
       </c>
     </row>
     <row r="178">
@@ -1862,7 +1862,7 @@
         <v>36703</v>
       </c>
       <c r="B178" t="n">
-        <v>3.06440149215584</v>
+        <v>3.042628498181009</v>
       </c>
     </row>
     <row r="179">
@@ -1870,7 +1870,7 @@
         <v>36704</v>
       </c>
       <c r="B179" t="n">
-        <v>4.358804172504891</v>
+        <v>4.359685644245078</v>
       </c>
     </row>
     <row r="180">
@@ -1878,7 +1878,7 @@
         <v>36705</v>
       </c>
       <c r="B180" t="n">
-        <v>4.725608266079051</v>
+        <v>4.634321634475326</v>
       </c>
     </row>
     <row r="181">
@@ -1894,7 +1894,7 @@
         <v>36707</v>
       </c>
       <c r="B182" t="n">
-        <v>0.7025937990392521</v>
+        <v>0.6986080821381027</v>
       </c>
     </row>
     <row r="183">
@@ -1902,7 +1902,7 @@
         <v>36708</v>
       </c>
       <c r="B183" t="n">
-        <v>3.907454292182719</v>
+        <v>3.882613298790826</v>
       </c>
     </row>
     <row r="184">
@@ -1926,7 +1926,7 @@
         <v>36711</v>
       </c>
       <c r="B186" t="n">
-        <v>2.156810401851028</v>
+        <v>2.131092967932826</v>
       </c>
     </row>
     <row r="187">
@@ -1934,7 +1934,7 @@
         <v>36712</v>
       </c>
       <c r="B187" t="n">
-        <v>2.449842426296927</v>
+        <v>2.434921094761463</v>
       </c>
     </row>
     <row r="188">
@@ -1942,7 +1942,7 @@
         <v>36713</v>
       </c>
       <c r="B188" t="n">
-        <v>2.551482864201977</v>
+        <v>2.524481147968648</v>
       </c>
     </row>
     <row r="189">
@@ -1950,7 +1950,7 @@
         <v>36714</v>
       </c>
       <c r="B189" t="n">
-        <v>2.097719169211556</v>
+        <v>2.071718883965604</v>
       </c>
     </row>
     <row r="190">
@@ -1958,7 +1958,7 @@
         <v>36715</v>
       </c>
       <c r="B190" t="n">
-        <v>3.118449267297686</v>
+        <v>3.101565761986096</v>
       </c>
     </row>
     <row r="191">
@@ -1966,7 +1966,7 @@
         <v>36716</v>
       </c>
       <c r="B191" t="n">
-        <v>5.469840180837463</v>
+        <v>5.412323048648014</v>
       </c>
     </row>
     <row r="192">
@@ -1974,7 +1974,7 @@
         <v>36717</v>
       </c>
       <c r="B192" t="n">
-        <v>2.576400956613839</v>
+        <v>2.950471589411329</v>
       </c>
     </row>
     <row r="193">
@@ -1982,7 +1982,7 @@
         <v>36718</v>
       </c>
       <c r="B193" t="n">
-        <v>2.8672681825118</v>
+        <v>2.867975877442503</v>
       </c>
     </row>
     <row r="194">
@@ -1990,7 +1990,7 @@
         <v>36719</v>
       </c>
       <c r="B194" t="n">
-        <v>2.883469998208677</v>
+        <v>2.858384129207317</v>
       </c>
     </row>
     <row r="195">
@@ -1998,7 +1998,7 @@
         <v>36720</v>
       </c>
       <c r="B195" t="n">
-        <v>2.483283177307979</v>
+        <v>2.439</v>
       </c>
     </row>
     <row r="196">
@@ -2006,7 +2006,7 @@
         <v>36721</v>
       </c>
       <c r="B196" t="n">
-        <v>2.693451033385674</v>
+        <v>2.53870152274473</v>
       </c>
     </row>
     <row r="197">
@@ -2030,7 +2030,7 @@
         <v>36724</v>
       </c>
       <c r="B199" t="n">
-        <v>2.278244330028381</v>
+        <v>2.27176970671099</v>
       </c>
     </row>
     <row r="200">
@@ -2038,7 +2038,7 @@
         <v>36725</v>
       </c>
       <c r="B200" t="n">
-        <v>2.274546462543622</v>
+        <v>2.274922360096097</v>
       </c>
     </row>
     <row r="201">
@@ -2046,7 +2046,7 @@
         <v>36726</v>
       </c>
       <c r="B201" t="n">
-        <v>3.09264035658502</v>
+        <v>3.092933452192248</v>
       </c>
     </row>
     <row r="202">
@@ -2054,7 +2054,7 @@
         <v>36727</v>
       </c>
       <c r="B202" t="n">
-        <v>3.639056858182664</v>
+        <v>3.630894123220717</v>
       </c>
     </row>
     <row r="203">
@@ -2062,7 +2062,7 @@
         <v>36728</v>
       </c>
       <c r="B203" t="n">
-        <v>4.40822746913291</v>
+        <v>4.380960971905725</v>
       </c>
     </row>
     <row r="204">
@@ -2070,7 +2070,7 @@
         <v>36729</v>
       </c>
       <c r="B204" t="n">
-        <v>3.875602829435755</v>
+        <v>3.877408938576518</v>
       </c>
     </row>
     <row r="205">
@@ -2078,7 +2078,7 @@
         <v>36730</v>
       </c>
       <c r="B205" t="n">
-        <v>3.927595021149252</v>
+        <v>3.940469058925492</v>
       </c>
     </row>
     <row r="206">
@@ -2086,7 +2086,7 @@
         <v>36731</v>
       </c>
       <c r="B206" t="n">
-        <v>5.078306628907443</v>
+        <v>5.071005614923773</v>
       </c>
     </row>
     <row r="207">
@@ -2094,7 +2094,7 @@
         <v>36732</v>
       </c>
       <c r="B207" t="n">
-        <v>3.406717172066451</v>
+        <v>3.378698107584757</v>
       </c>
     </row>
     <row r="208">
@@ -2102,7 +2102,7 @@
         <v>36733</v>
       </c>
       <c r="B208" t="n">
-        <v>2.896840821824942</v>
+        <v>2.887</v>
       </c>
     </row>
     <row r="209">
@@ -2110,7 +2110,7 @@
         <v>36734</v>
       </c>
       <c r="B209" t="n">
-        <v>3.761397947594192</v>
+        <v>3.690662661050019</v>
       </c>
     </row>
     <row r="210">
@@ -2118,7 +2118,7 @@
         <v>36735</v>
       </c>
       <c r="B210" t="n">
-        <v>3.877138252717915</v>
+        <v>3.885641709401948</v>
       </c>
     </row>
     <row r="211">
@@ -2126,7 +2126,7 @@
         <v>36736</v>
       </c>
       <c r="B211" t="n">
-        <v>2.467841419919617</v>
+        <v>2.390981500978942</v>
       </c>
     </row>
     <row r="212">
@@ -2134,7 +2134,7 @@
         <v>36737</v>
       </c>
       <c r="B212" t="n">
-        <v>3.405207164584978</v>
+        <v>3.404543642503903</v>
       </c>
     </row>
     <row r="213">
@@ -2150,7 +2150,7 @@
         <v>36739</v>
       </c>
       <c r="B214" t="n">
-        <v>3.474576189717189</v>
+        <v>3.45222285106853</v>
       </c>
     </row>
     <row r="215">
@@ -2158,7 +2158,7 @@
         <v>36740</v>
       </c>
       <c r="B215" t="n">
-        <v>2.929492517356402</v>
+        <v>2.893</v>
       </c>
     </row>
     <row r="216">
@@ -2166,7 +2166,7 @@
         <v>36741</v>
       </c>
       <c r="B216" t="n">
-        <v>3.021376331171378</v>
+        <v>3.019</v>
       </c>
     </row>
     <row r="217">
@@ -2182,7 +2182,7 @@
         <v>36743</v>
       </c>
       <c r="B218" t="n">
-        <v>2.973271501973443</v>
+        <v>2.939543685054841</v>
       </c>
     </row>
     <row r="219">
@@ -2198,7 +2198,7 @@
         <v>36745</v>
       </c>
       <c r="B220" t="n">
-        <v>3.059986030082742</v>
+        <v>3.032211407960512</v>
       </c>
     </row>
     <row r="221">
@@ -2206,7 +2206,7 @@
         <v>36746</v>
       </c>
       <c r="B221" t="n">
-        <v>6.303099719243935</v>
+        <v>6.30225213477097</v>
       </c>
     </row>
     <row r="222">
@@ -2222,7 +2222,7 @@
         <v>36748</v>
       </c>
       <c r="B223" t="n">
-        <v>2.81897862233745</v>
+        <v>2.781</v>
       </c>
     </row>
     <row r="224">
@@ -2238,7 +2238,7 @@
         <v>36750</v>
       </c>
       <c r="B225" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="226">
@@ -2246,7 +2246,7 @@
         <v>36751</v>
       </c>
       <c r="B226" t="n">
-        <v>4.787536791780327</v>
+        <v>4.788136338643788</v>
       </c>
     </row>
     <row r="227">
@@ -2254,7 +2254,7 @@
         <v>36752</v>
       </c>
       <c r="B227" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="228">
@@ -2278,7 +2278,7 @@
         <v>36755</v>
       </c>
       <c r="B230" t="n">
-        <v>3.20187813464231</v>
+        <v>3.168</v>
       </c>
     </row>
     <row r="231">
@@ -2286,7 +2286,7 @@
         <v>36756</v>
       </c>
       <c r="B231" t="n">
-        <v>2.722579613413622</v>
+        <v>2.720957264099205</v>
       </c>
     </row>
     <row r="232">
@@ -2294,7 +2294,7 @@
         <v>36757</v>
       </c>
       <c r="B232" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="233">
@@ -2302,7 +2302,7 @@
         <v>36758</v>
       </c>
       <c r="B233" t="n">
-        <v>0.6507432051934863</v>
+        <v>0.6117297718098098</v>
       </c>
     </row>
     <row r="234">
@@ -2310,7 +2310,7 @@
         <v>36759</v>
       </c>
       <c r="B234" t="n">
-        <v>2.775760616119213</v>
+        <v>2.766</v>
       </c>
     </row>
     <row r="235">
@@ -2318,7 +2318,7 @@
         <v>36760</v>
       </c>
       <c r="B235" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="236">
@@ -2326,7 +2326,7 @@
         <v>36761</v>
       </c>
       <c r="B236" t="n">
-        <v>3.882191955244699</v>
+        <v>3.964855028465358</v>
       </c>
     </row>
     <row r="237">
@@ -2334,7 +2334,7 @@
         <v>36762</v>
       </c>
       <c r="B237" t="n">
-        <v>6.050946388965793</v>
+        <v>6.034807187861849</v>
       </c>
     </row>
     <row r="238">
@@ -2350,7 +2350,7 @@
         <v>36764</v>
       </c>
       <c r="B239" t="n">
-        <v>5.895235244805091</v>
+        <v>5.904358191996391</v>
       </c>
     </row>
     <row r="240">
@@ -2358,7 +2358,7 @@
         <v>36765</v>
       </c>
       <c r="B240" t="n">
-        <v>3.675019200140734</v>
+        <v>3.676289106258425</v>
       </c>
     </row>
     <row r="241">
@@ -2382,7 +2382,7 @@
         <v>36768</v>
       </c>
       <c r="B243" t="n">
-        <v>3.122890841112186</v>
+        <v>3.116043669349922</v>
       </c>
     </row>
     <row r="244">
@@ -2390,7 +2390,7 @@
         <v>36769</v>
       </c>
       <c r="B244" t="n">
-        <v>3.269067487186914</v>
+        <v>3.219299446294815</v>
       </c>
     </row>
     <row r="245">
@@ -2398,7 +2398,7 @@
         <v>36770</v>
       </c>
       <c r="B245" t="n">
-        <v>3.800038408098172</v>
+        <v>3.768532344181624</v>
       </c>
     </row>
     <row r="246">
@@ -2430,7 +2430,7 @@
         <v>36774</v>
       </c>
       <c r="B249" t="n">
-        <v>5.923352665266925</v>
+        <v>5.929042393788235</v>
       </c>
     </row>
     <row r="250">
@@ -2438,7 +2438,7 @@
         <v>36775</v>
       </c>
       <c r="B250" t="n">
-        <v>4.504185425350189</v>
+        <v>4.501534114078424</v>
       </c>
     </row>
     <row r="251">
@@ -2454,7 +2454,7 @@
         <v>36777</v>
       </c>
       <c r="B252" t="n">
-        <v>3.961189355916409</v>
+        <v>3.951540856086093</v>
       </c>
     </row>
     <row r="253">
@@ -2462,7 +2462,7 @@
         <v>36778</v>
       </c>
       <c r="B253" t="n">
-        <v>3.708388431824222</v>
+        <v>3.709877799808505</v>
       </c>
     </row>
     <row r="254">
@@ -2470,7 +2470,7 @@
         <v>36779</v>
       </c>
       <c r="B254" t="n">
-        <v>4.032320486113242</v>
+        <v>4.028</v>
       </c>
     </row>
     <row r="255">
@@ -2478,7 +2478,7 @@
         <v>36780</v>
       </c>
       <c r="B255" t="n">
-        <v>5.668948372913846</v>
+        <v>5.666610101584077</v>
       </c>
     </row>
     <row r="256">
@@ -2486,7 +2486,7 @@
         <v>36781</v>
       </c>
       <c r="B256" t="n">
-        <v>5.313965722661988</v>
+        <v>5.316818482618724</v>
       </c>
     </row>
     <row r="257">
@@ -2494,7 +2494,7 @@
         <v>36782</v>
       </c>
       <c r="B257" t="n">
-        <v>5.414962283654043</v>
+        <v>5.414970541389127</v>
       </c>
     </row>
     <row r="258">
@@ -2502,7 +2502,7 @@
         <v>36783</v>
       </c>
       <c r="B258" t="n">
-        <v>4.938279358912932</v>
+        <v>4.938523208522549</v>
       </c>
     </row>
     <row r="259">
@@ -2510,7 +2510,7 @@
         <v>36784</v>
       </c>
       <c r="B259" t="n">
-        <v>3.138</v>
+        <v>3.137999999999999</v>
       </c>
     </row>
     <row r="260">
@@ -2526,7 +2526,7 @@
         <v>36786</v>
       </c>
       <c r="B261" t="n">
-        <v>2.965820220510496</v>
+        <v>2.965465868430393</v>
       </c>
     </row>
     <row r="262">
@@ -2550,7 +2550,7 @@
         <v>36789</v>
       </c>
       <c r="B264" t="n">
-        <v>4.000642888941043</v>
+        <v>4.000646119269518</v>
       </c>
     </row>
     <row r="265">
@@ -2558,7 +2558,7 @@
         <v>36790</v>
       </c>
       <c r="B265" t="n">
-        <v>6.487</v>
+        <v>6.486999999999999</v>
       </c>
     </row>
     <row r="266">
@@ -2566,7 +2566,7 @@
         <v>36791</v>
       </c>
       <c r="B266" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="267">
@@ -2582,7 +2582,7 @@
         <v>36793</v>
       </c>
       <c r="B268" t="n">
-        <v>3.433262077113389</v>
+        <v>3.434059413512038</v>
       </c>
     </row>
     <row r="269">
@@ -2606,7 +2606,7 @@
         <v>36796</v>
       </c>
       <c r="B271" t="n">
-        <v>5.601631384301907</v>
+        <v>5.602550010038376</v>
       </c>
     </row>
     <row r="272">
@@ -2614,7 +2614,7 @@
         <v>36797</v>
       </c>
       <c r="B272" t="n">
-        <v>4.155676777726699</v>
+        <v>4.179030450375876</v>
       </c>
     </row>
     <row r="273">
@@ -2630,7 +2630,7 @@
         <v>36799</v>
       </c>
       <c r="B274" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="275">
@@ -2638,7 +2638,7 @@
         <v>36800</v>
       </c>
       <c r="B275" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="276">
@@ -2646,7 +2646,7 @@
         <v>36801</v>
       </c>
       <c r="B276" t="n">
-        <v>2.665994505509937</v>
+        <v>1.929671036743716</v>
       </c>
     </row>
     <row r="277">
@@ -2678,7 +2678,7 @@
         <v>36805</v>
       </c>
       <c r="B280" t="n">
-        <v>5.97753167274886</v>
+        <v>5.983427470765495</v>
       </c>
     </row>
     <row r="281">
@@ -2710,7 +2710,7 @@
         <v>36809</v>
       </c>
       <c r="B284" t="n">
-        <v>5.703563001319333</v>
+        <v>5.703742668564807</v>
       </c>
     </row>
     <row r="285">
@@ -2718,7 +2718,7 @@
         <v>36810</v>
       </c>
       <c r="B285" t="n">
-        <v>4.503</v>
+        <v>4.502999999999999</v>
       </c>
     </row>
     <row r="286">
@@ -2726,7 +2726,7 @@
         <v>36811</v>
       </c>
       <c r="B286" t="n">
-        <v>4.130171188472344</v>
+        <v>4.240327964974597</v>
       </c>
     </row>
     <row r="287">
@@ -2734,7 +2734,7 @@
         <v>36812</v>
       </c>
       <c r="B287" t="n">
-        <v>3.979376841269981</v>
+        <v>3.980746064655432</v>
       </c>
     </row>
     <row r="288">
@@ -2742,7 +2742,7 @@
         <v>36813</v>
       </c>
       <c r="B288" t="n">
-        <v>4.629</v>
+        <v>4.631058841745944</v>
       </c>
     </row>
     <row r="289">
@@ -2766,7 +2766,7 @@
         <v>36816</v>
       </c>
       <c r="B291" t="n">
-        <v>5.42179388203824</v>
+        <v>5.422284912387934</v>
       </c>
     </row>
     <row r="292">
@@ -2774,7 +2774,7 @@
         <v>36817</v>
       </c>
       <c r="B292" t="n">
-        <v>4.698182615127211</v>
+        <v>4.698352814906751</v>
       </c>
     </row>
     <row r="293">
@@ -2782,7 +2782,7 @@
         <v>36818</v>
       </c>
       <c r="B293" t="n">
-        <v>3.956811922265544</v>
+        <v>3.914583586455955</v>
       </c>
     </row>
     <row r="294">
@@ -2790,7 +2790,7 @@
         <v>36819</v>
       </c>
       <c r="B294" t="n">
-        <v>4.781000000000001</v>
+        <v>4.821381742648479</v>
       </c>
     </row>
     <row r="295">
@@ -2798,7 +2798,7 @@
         <v>36820</v>
       </c>
       <c r="B295" t="n">
-        <v>4.95573484196952</v>
+        <v>4.957775182262507</v>
       </c>
     </row>
     <row r="296">
@@ -2806,7 +2806,7 @@
         <v>36821</v>
       </c>
       <c r="B296" t="n">
-        <v>6.144293155325782</v>
+        <v>6.144409169620978</v>
       </c>
     </row>
     <row r="297">
@@ -2822,7 +2822,7 @@
         <v>36823</v>
       </c>
       <c r="B298" t="n">
-        <v>1.661967129383016</v>
+        <v>0.9067055496333831</v>
       </c>
     </row>
     <row r="299">
@@ -2838,7 +2838,7 @@
         <v>36825</v>
       </c>
       <c r="B300" t="n">
-        <v>0.3089782068105625</v>
+        <v>0.2673015448966753</v>
       </c>
     </row>
     <row r="301">
@@ -2846,7 +2846,7 @@
         <v>36826</v>
       </c>
       <c r="B301" t="n">
-        <v>5.600021172889898</v>
+        <v>5.64111559379127</v>
       </c>
     </row>
     <row r="302">
@@ -2878,7 +2878,7 @@
         <v>36830</v>
       </c>
       <c r="B305" t="n">
-        <v>6.5</v>
+        <v>6.119579474724277</v>
       </c>
     </row>
     <row r="306">
@@ -2894,7 +2894,7 @@
         <v>36832</v>
       </c>
       <c r="B307" t="n">
-        <v>4.211021686749636</v>
+        <v>4.213517701096352</v>
       </c>
     </row>
     <row r="308">
@@ -2902,7 +2902,7 @@
         <v>36833</v>
       </c>
       <c r="B308" t="n">
-        <v>6.029553531137053</v>
+        <v>6.031814516619455</v>
       </c>
     </row>
     <row r="309">
@@ -2910,7 +2910,7 @@
         <v>36834</v>
       </c>
       <c r="B309" t="n">
-        <v>4.887</v>
+        <v>4.886999999999999</v>
       </c>
     </row>
     <row r="310">
@@ -2918,7 +2918,7 @@
         <v>36835</v>
       </c>
       <c r="B310" t="n">
-        <v>4.523713895038066</v>
+        <v>4.636318779751404</v>
       </c>
     </row>
     <row r="311">
@@ -2934,7 +2934,7 @@
         <v>36837</v>
       </c>
       <c r="B312" t="n">
-        <v>1.236806364415852</v>
+        <v>0.941291509702461</v>
       </c>
     </row>
     <row r="313">
@@ -2950,7 +2950,7 @@
         <v>36839</v>
       </c>
       <c r="B314" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="315">
@@ -2958,7 +2958,7 @@
         <v>36840</v>
       </c>
       <c r="B315" t="n">
-        <v>0.1883518090069483</v>
+        <v>0.1367470850162827</v>
       </c>
     </row>
     <row r="316">
@@ -2966,7 +2966,7 @@
         <v>36841</v>
       </c>
       <c r="B316" t="n">
-        <v>4.322736804501601</v>
+        <v>2.890590690551149</v>
       </c>
     </row>
     <row r="317">
@@ -3006,7 +3006,7 @@
         <v>36846</v>
       </c>
       <c r="B321" t="n">
-        <v>4.364380624273964</v>
+        <v>4.497497230745173</v>
       </c>
     </row>
     <row r="322">
@@ -3022,7 +3022,7 @@
         <v>36848</v>
       </c>
       <c r="B323" t="n">
-        <v>6.5</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="324">
@@ -3030,7 +3030,7 @@
         <v>36849</v>
       </c>
       <c r="B324" t="n">
-        <v>4.965522844246165</v>
+        <v>2.557799143113935</v>
       </c>
     </row>
     <row r="325">
@@ -3046,7 +3046,7 @@
         <v>36851</v>
       </c>
       <c r="B326" t="n">
-        <v>1.942722061327985</v>
+        <v>1.347073522658651</v>
       </c>
     </row>
     <row r="327">
@@ -3054,7 +3054,7 @@
         <v>36852</v>
       </c>
       <c r="B327" t="n">
-        <v>6.338</v>
+        <v>6.337999999999999</v>
       </c>
     </row>
     <row r="328">
@@ -3062,7 +3062,7 @@
         <v>36853</v>
       </c>
       <c r="B328" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="329">
@@ -3094,7 +3094,7 @@
         <v>36857</v>
       </c>
       <c r="B332" t="n">
-        <v>0.7003624338485166</v>
+        <v>0.5654553099021276</v>
       </c>
     </row>
     <row r="333">
@@ -3118,7 +3118,7 @@
         <v>36860</v>
       </c>
       <c r="B335" t="n">
-        <v>2.498588468567455</v>
+        <v>1.543070112793614</v>
       </c>
     </row>
     <row r="336">
@@ -3126,7 +3126,7 @@
         <v>36861</v>
       </c>
       <c r="B336" t="n">
-        <v>2.346040822774272</v>
+        <v>1.365968838272295</v>
       </c>
     </row>
     <row r="337">
@@ -3142,7 +3142,7 @@
         <v>36863</v>
       </c>
       <c r="B338" t="n">
-        <v>1.853397710108198</v>
+        <v>1.188616026606981</v>
       </c>
     </row>
     <row r="339">
@@ -3150,7 +3150,7 @@
         <v>36864</v>
       </c>
       <c r="B339" t="n">
-        <v>6.5</v>
+        <v>5.041048864269568</v>
       </c>
     </row>
     <row r="340">
@@ -3158,7 +3158,7 @@
         <v>36865</v>
       </c>
       <c r="B340" t="n">
-        <v>1.2206362167419</v>
+        <v>0.5894606790560635</v>
       </c>
     </row>
     <row r="341">
@@ -3190,7 +3190,7 @@
         <v>36869</v>
       </c>
       <c r="B344" t="n">
-        <v>0.6071662295395066</v>
+        <v>0.2224134725671958</v>
       </c>
     </row>
     <row r="345">
@@ -3206,7 +3206,7 @@
         <v>36871</v>
       </c>
       <c r="B346" t="n">
-        <v>6.5</v>
+        <v>5.898200772076851</v>
       </c>
     </row>
     <row r="347">
@@ -3214,7 +3214,7 @@
         <v>36872</v>
       </c>
       <c r="B347" t="n">
-        <v>1.065799303721288</v>
+        <v>0.8318941374460342</v>
       </c>
     </row>
     <row r="348">
@@ -3222,7 +3222,7 @@
         <v>36873</v>
       </c>
       <c r="B348" t="n">
-        <v>6.5</v>
+        <v>5.969907521917043</v>
       </c>
     </row>
     <row r="349">
@@ -3230,7 +3230,7 @@
         <v>36874</v>
       </c>
       <c r="B349" t="n">
-        <v>0.1702288650014592</v>
+        <v>0.1640678956861868</v>
       </c>
     </row>
     <row r="350">
@@ -3238,7 +3238,7 @@
         <v>36875</v>
       </c>
       <c r="B350" t="n">
-        <v>0.3950979468413691</v>
+        <v>0.1619078555133487</v>
       </c>
     </row>
     <row r="351">
@@ -3246,7 +3246,7 @@
         <v>36876</v>
       </c>
       <c r="B351" t="n">
-        <v>1.170362770642413</v>
+        <v>0.4696396786931793</v>
       </c>
     </row>
     <row r="352">
@@ -3254,7 +3254,7 @@
         <v>36877</v>
       </c>
       <c r="B352" t="n">
-        <v>2.953463132366322</v>
+        <v>1.187584287994139</v>
       </c>
     </row>
     <row r="353">
@@ -3262,7 +3262,7 @@
         <v>36878</v>
       </c>
       <c r="B353" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="354">
@@ -3294,7 +3294,7 @@
         <v>36882</v>
       </c>
       <c r="B357" t="n">
-        <v>1.405362648734788</v>
+        <v>0.7770339298385228</v>
       </c>
     </row>
     <row r="358">
@@ -3310,7 +3310,7 @@
         <v>36884</v>
       </c>
       <c r="B359" t="n">
-        <v>6.5</v>
+        <v>4.275974798138236</v>
       </c>
     </row>
     <row r="360">
@@ -3318,7 +3318,7 @@
         <v>36885</v>
       </c>
       <c r="B360" t="n">
-        <v>6.5</v>
+        <v>5.264418134959207</v>
       </c>
     </row>
     <row r="361">
@@ -3326,7 +3326,7 @@
         <v>36886</v>
       </c>
       <c r="B361" t="n">
-        <v>5.588586941297038</v>
+        <v>5.681847858650733</v>
       </c>
     </row>
     <row r="362">
@@ -3334,7 +3334,7 @@
         <v>36887</v>
       </c>
       <c r="B362" t="n">
-        <v>6.499999999999999</v>
+        <v>3.884908832604929</v>
       </c>
     </row>
     <row r="363">
@@ -3358,7 +3358,7 @@
         <v>36890</v>
       </c>
       <c r="B365" t="n">
-        <v>0.1790005274505555</v>
+        <v>0.1135994079382856</v>
       </c>
     </row>
     <row r="366">

--- a/results/end_of_day_charge_levels.xlsx
+++ b/results/end_of_day_charge_levels.xlsx
@@ -454,7 +454,7 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>1.75323082413364</v>
+        <v>2.40078853016705</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>36527</v>
       </c>
       <c r="B3" t="n">
-        <v>0.593878134705203</v>
+        <v>0.7983476683815036</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>36528</v>
       </c>
       <c r="B4" t="n">
-        <v>0.08968573812503104</v>
+        <v>0.1369844091021699</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         <v>36530</v>
       </c>
       <c r="B6" t="n">
-        <v>0.697984212789899</v>
+        <v>0.9132964147695912</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>36531</v>
       </c>
       <c r="B7" t="n">
-        <v>1.46766230453241</v>
+        <v>2.101327880665513</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>36532</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1529174153094237</v>
+        <v>0.2286467691367796</v>
       </c>
     </row>
     <row r="9">
@@ -518,7 +518,7 @@
         <v>36534</v>
       </c>
       <c r="B10" t="n">
-        <v>0.13157929771114</v>
+        <v>0.1862038118957645</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>36535</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6509370398033711</v>
+        <v>0.888921299754214</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>36536</v>
       </c>
       <c r="B12" t="n">
-        <v>1.461328053379982</v>
+        <v>2.009663014611736</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>36537</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4288601029876928</v>
+        <v>0.677325128734616</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>36538</v>
       </c>
       <c r="B14" t="n">
-        <v>2.885157388118126</v>
+        <v>3.764970324012476</v>
       </c>
     </row>
     <row r="15">
@@ -574,7 +574,7 @@
         <v>36541</v>
       </c>
       <c r="B17" t="n">
-        <v>3.180972128531454</v>
+        <v>4.11172410454001</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>36542</v>
       </c>
       <c r="B18" t="n">
-        <v>1.719203426536505</v>
+        <v>2.308504283170631</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>36543</v>
       </c>
       <c r="B19" t="n">
-        <v>1.019312221171229</v>
+        <v>1.388278677397627</v>
       </c>
     </row>
     <row r="20">
@@ -622,7 +622,7 @@
         <v>36547</v>
       </c>
       <c r="B23" t="n">
-        <v>2.125499243304335</v>
+        <v>2.83862405413042</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>36548</v>
       </c>
       <c r="B24" t="n">
-        <v>4.98132897624707</v>
+        <v>6.361534153566128</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>36549</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.006859479396232757</v>
       </c>
     </row>
     <row r="26">
@@ -654,7 +654,7 @@
         <v>36551</v>
       </c>
       <c r="B27" t="n">
-        <v>5.585462082187729</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="28">
@@ -670,7 +670,7 @@
         <v>36553</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3623348664826305</v>
+        <v>0.6036711269523287</v>
       </c>
     </row>
     <row r="30">
@@ -702,7 +702,7 @@
         <v>36557</v>
       </c>
       <c r="B33" t="n">
-        <v>1.011616799548485</v>
+        <v>1.344270999435606</v>
       </c>
     </row>
     <row r="34">
@@ -726,7 +726,7 @@
         <v>36560</v>
       </c>
       <c r="B36" t="n">
-        <v>2.117756230182099</v>
+        <v>3.087386741077501</v>
       </c>
     </row>
     <row r="37">
@@ -742,7 +742,7 @@
         <v>36562</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3824165731505474</v>
+        <v>0.5247707164381843</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>36563</v>
       </c>
       <c r="B39" t="n">
-        <v>6.001613091751405</v>
+        <v>5.788516364689258</v>
       </c>
     </row>
     <row r="40">
@@ -774,7 +774,7 @@
         <v>36566</v>
       </c>
       <c r="B42" t="n">
-        <v>4.279384958374867</v>
+        <v>5.717985640685912</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>36567</v>
       </c>
       <c r="B43" t="n">
-        <v>3.989456209561919</v>
+        <v>5.3815702619524</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>36568</v>
       </c>
       <c r="B44" t="n">
-        <v>5.180046551487264</v>
+        <v>5.045207685960261</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>36569</v>
       </c>
       <c r="B45" t="n">
-        <v>5.327093543970744</v>
+        <v>5.32511692996343</v>
       </c>
     </row>
     <row r="46">
@@ -814,7 +814,7 @@
         <v>36571</v>
       </c>
       <c r="B47" t="n">
-        <v>0.3941827851409692</v>
+        <v>0.5629784814262113</v>
       </c>
     </row>
     <row r="48">
@@ -854,7 +854,7 @@
         <v>36576</v>
       </c>
       <c r="B52" t="n">
-        <v>5.242640594547494</v>
+        <v>5.128174202541984</v>
       </c>
     </row>
     <row r="53">
@@ -862,7 +862,7 @@
         <v>36577</v>
       </c>
       <c r="B53" t="n">
-        <v>6.32546949970615</v>
+        <v>6.301086874632688</v>
       </c>
     </row>
     <row r="54">
@@ -870,7 +870,7 @@
         <v>36578</v>
       </c>
       <c r="B54" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="55">
@@ -878,7 +878,7 @@
         <v>36579</v>
       </c>
       <c r="B55" t="n">
-        <v>4.416896219795638</v>
+        <v>4.274852926948935</v>
       </c>
     </row>
     <row r="56">
@@ -886,7 +886,7 @@
         <v>36580</v>
       </c>
       <c r="B56" t="n">
-        <v>4.985295114044147</v>
+        <v>4.803118892555184</v>
       </c>
     </row>
     <row r="57">
@@ -902,7 +902,7 @@
         <v>36582</v>
       </c>
       <c r="B58" t="n">
-        <v>5.607876193779111</v>
+        <v>5.576095242223889</v>
       </c>
     </row>
     <row r="59">
@@ -910,7 +910,7 @@
         <v>36583</v>
       </c>
       <c r="B59" t="n">
-        <v>5.224883744250866</v>
+        <v>5.153354680313583</v>
       </c>
     </row>
     <row r="60">
@@ -950,7 +950,7 @@
         <v>36589</v>
       </c>
       <c r="B64" t="n">
-        <v>4.882038890860946</v>
+        <v>4.68157928567709</v>
       </c>
     </row>
     <row r="65">
@@ -958,7 +958,7 @@
         <v>36590</v>
       </c>
       <c r="B65" t="n">
-        <v>5.301645943430302</v>
+        <v>5.167557429287877</v>
       </c>
     </row>
     <row r="66">
@@ -966,7 +966,7 @@
         <v>36591</v>
       </c>
       <c r="B66" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="67">
@@ -974,7 +974,7 @@
         <v>36592</v>
       </c>
       <c r="B67" t="n">
-        <v>1.480927694737103</v>
+        <v>1.955659618421378</v>
       </c>
     </row>
     <row r="68">
@@ -982,7 +982,7 @@
         <v>36593</v>
       </c>
       <c r="B68" t="n">
-        <v>4.416900120215068</v>
+        <v>5.827987100234001</v>
       </c>
     </row>
     <row r="69">
@@ -998,7 +998,7 @@
         <v>36595</v>
       </c>
       <c r="B70" t="n">
-        <v>4.878275420122094</v>
+        <v>6.416594275152619</v>
       </c>
     </row>
     <row r="71">
@@ -1006,7 +1006,7 @@
         <v>36596</v>
       </c>
       <c r="B71" t="n">
-        <v>5.512691675046884</v>
+        <v>5.495364593808604</v>
       </c>
     </row>
     <row r="72">
@@ -1030,7 +1030,7 @@
         <v>36599</v>
       </c>
       <c r="B74" t="n">
-        <v>6.447732601969108</v>
+        <v>6.409415752461385</v>
       </c>
     </row>
     <row r="75">
@@ -1046,7 +1046,7 @@
         <v>36601</v>
       </c>
       <c r="B76" t="n">
-        <v>0.004237524799288225</v>
+        <v>0.02104690599911027</v>
       </c>
     </row>
     <row r="77">
@@ -1054,7 +1054,7 @@
         <v>36602</v>
       </c>
       <c r="B77" t="n">
-        <v>5.493014486947958</v>
+        <v>5.419</v>
       </c>
     </row>
     <row r="78">
@@ -1086,7 +1086,7 @@
         <v>36606</v>
       </c>
       <c r="B81" t="n">
-        <v>4.053253894559314</v>
+        <v>3.929799837058727</v>
       </c>
     </row>
     <row r="82">
@@ -1094,7 +1094,7 @@
         <v>36607</v>
       </c>
       <c r="B82" t="n">
-        <v>5.91282359601155</v>
+        <v>5.853779495014439</v>
       </c>
     </row>
     <row r="83">
@@ -1126,7 +1126,7 @@
         <v>36611</v>
       </c>
       <c r="B86" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="87">
@@ -1134,7 +1134,7 @@
         <v>36612</v>
       </c>
       <c r="B87" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="88">
@@ -1150,7 +1150,7 @@
         <v>36614</v>
       </c>
       <c r="B89" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="90">
@@ -1158,7 +1158,7 @@
         <v>36615</v>
       </c>
       <c r="B90" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="91">
@@ -1182,7 +1182,7 @@
         <v>36618</v>
       </c>
       <c r="B93" t="n">
-        <v>6.223517661429053</v>
+        <v>6.145918368945955</v>
       </c>
     </row>
     <row r="94">
@@ -1190,7 +1190,7 @@
         <v>36619</v>
       </c>
       <c r="B94" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="95">
@@ -1198,7 +1198,7 @@
         <v>36620</v>
       </c>
       <c r="B95" t="n">
-        <v>5.983257616255213</v>
+        <v>5.938176882609632</v>
       </c>
     </row>
     <row r="96">
@@ -1214,7 +1214,7 @@
         <v>36622</v>
       </c>
       <c r="B97" t="n">
-        <v>3.2910192860222</v>
+        <v>3.28627410752775</v>
       </c>
     </row>
     <row r="98">
@@ -1222,7 +1222,7 @@
         <v>36623</v>
       </c>
       <c r="B98" t="n">
-        <v>4.212989154599317</v>
+        <v>4.017736443249147</v>
       </c>
     </row>
     <row r="99">
@@ -1230,7 +1230,7 @@
         <v>36624</v>
       </c>
       <c r="B99" t="n">
-        <v>5.556557721086364</v>
+        <v>5.536247400370842</v>
       </c>
     </row>
     <row r="100">
@@ -1238,7 +1238,7 @@
         <v>36625</v>
       </c>
       <c r="B100" t="n">
-        <v>6.390895085499244</v>
+        <v>6.263234970000906</v>
       </c>
     </row>
     <row r="101">
@@ -1246,7 +1246,7 @@
         <v>36626</v>
       </c>
       <c r="B101" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="102">
@@ -1254,7 +1254,7 @@
         <v>36627</v>
       </c>
       <c r="B102" t="n">
-        <v>4.72393411385799</v>
+        <v>6.057334429747376</v>
       </c>
     </row>
     <row r="103">
@@ -1262,7 +1262,7 @@
         <v>36628</v>
       </c>
       <c r="B103" t="n">
-        <v>4.184269007564974</v>
+        <v>3.955584998549207</v>
       </c>
     </row>
     <row r="104">
@@ -1270,7 +1270,7 @@
         <v>36629</v>
       </c>
       <c r="B104" t="n">
-        <v>3.768798404860517</v>
+        <v>3.659661408770528</v>
       </c>
     </row>
     <row r="105">
@@ -1278,7 +1278,7 @@
         <v>36630</v>
       </c>
       <c r="B105" t="n">
-        <v>3.391166711702847</v>
+        <v>3.375208389628559</v>
       </c>
     </row>
     <row r="106">
@@ -1286,7 +1286,7 @@
         <v>36631</v>
       </c>
       <c r="B106" t="n">
-        <v>2.633368639603769</v>
+        <v>2.613500081197449</v>
       </c>
     </row>
     <row r="107">
@@ -1294,7 +1294,7 @@
         <v>36632</v>
       </c>
       <c r="B107" t="n">
-        <v>4.031269129118354</v>
+        <v>4.018612910903791</v>
       </c>
     </row>
     <row r="108">
@@ -1310,7 +1310,7 @@
         <v>36634</v>
       </c>
       <c r="B109" t="n">
-        <v>4.922688653510757</v>
+        <v>4.913610816888446</v>
       </c>
     </row>
     <row r="110">
@@ -1318,7 +1318,7 @@
         <v>36635</v>
       </c>
       <c r="B110" t="n">
-        <v>2.718567606921198</v>
+        <v>2.696959508651497</v>
       </c>
     </row>
     <row r="111">
@@ -1326,7 +1326,7 @@
         <v>36636</v>
       </c>
       <c r="B111" t="n">
-        <v>2.796395348412831</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="112">
@@ -1334,7 +1334,7 @@
         <v>36637</v>
       </c>
       <c r="B112" t="n">
-        <v>2.96970345753415</v>
+        <v>2.935438413148481</v>
       </c>
     </row>
     <row r="113">
@@ -1342,7 +1342,7 @@
         <v>36638</v>
       </c>
       <c r="B113" t="n">
-        <v>4.621063439093168</v>
+        <v>4.613329298866459</v>
       </c>
     </row>
     <row r="114">
@@ -1350,7 +1350,7 @@
         <v>36639</v>
       </c>
       <c r="B114" t="n">
-        <v>5.482694263147616</v>
+        <v>5.46836782893452</v>
       </c>
     </row>
     <row r="115">
@@ -1358,7 +1358,7 @@
         <v>36640</v>
       </c>
       <c r="B115" t="n">
-        <v>3.290559822929019</v>
+        <v>3.275699778661274</v>
       </c>
     </row>
     <row r="116">
@@ -1366,7 +1366,7 @@
         <v>36641</v>
       </c>
       <c r="B116" t="n">
-        <v>3.711202357991163</v>
+        <v>3.697252947488955</v>
       </c>
     </row>
     <row r="117">
@@ -1382,7 +1382,7 @@
         <v>36643</v>
       </c>
       <c r="B118" t="n">
-        <v>6.107298143348973</v>
+        <v>6.049111504335697</v>
       </c>
     </row>
     <row r="119">
@@ -1390,7 +1390,7 @@
         <v>36644</v>
       </c>
       <c r="B119" t="n">
-        <v>5.303999999999999</v>
+        <v>5.304</v>
       </c>
     </row>
     <row r="120">
@@ -1398,7 +1398,7 @@
         <v>36645</v>
       </c>
       <c r="B120" t="n">
-        <v>6.5</v>
+        <v>6.418841334106983</v>
       </c>
     </row>
     <row r="121">
@@ -1414,7 +1414,7 @@
         <v>36647</v>
       </c>
       <c r="B122" t="n">
-        <v>2.382897585949476</v>
+        <v>2.374371982436845</v>
       </c>
     </row>
     <row r="123">
@@ -1422,7 +1422,7 @@
         <v>36648</v>
       </c>
       <c r="B123" t="n">
-        <v>2.726350900484053</v>
+        <v>2.713938625605067</v>
       </c>
     </row>
     <row r="124">
@@ -1430,7 +1430,7 @@
         <v>36649</v>
       </c>
       <c r="B124" t="n">
-        <v>3.296525059359096</v>
+        <v>3.26665632419887</v>
       </c>
     </row>
     <row r="125">
@@ -1446,7 +1446,7 @@
         <v>36651</v>
       </c>
       <c r="B126" t="n">
-        <v>2.095299261791831</v>
+        <v>2.075874077239789</v>
       </c>
     </row>
     <row r="127">
@@ -1454,7 +1454,7 @@
         <v>36652</v>
       </c>
       <c r="B127" t="n">
-        <v>3.52598070963579</v>
+        <v>3.505975887044737</v>
       </c>
     </row>
     <row r="128">
@@ -1462,7 +1462,7 @@
         <v>36653</v>
       </c>
       <c r="B128" t="n">
-        <v>2.158755695703205</v>
+        <v>2.141194619629005</v>
       </c>
     </row>
     <row r="129">
@@ -1470,7 +1470,7 @@
         <v>36654</v>
       </c>
       <c r="B129" t="n">
-        <v>2.211</v>
+        <v>2.210999999999999</v>
       </c>
     </row>
     <row r="130">
@@ -1478,7 +1478,7 @@
         <v>36655</v>
       </c>
       <c r="B130" t="n">
-        <v>4.609178817901248</v>
+        <v>4.60072352237656</v>
       </c>
     </row>
     <row r="131">
@@ -1518,7 +1518,7 @@
         <v>36660</v>
       </c>
       <c r="B135" t="n">
-        <v>2.869598785692724</v>
+        <v>2.867</v>
       </c>
     </row>
     <row r="136">
@@ -1526,7 +1526,7 @@
         <v>36661</v>
       </c>
       <c r="B136" t="n">
-        <v>3.733926068544354</v>
+        <v>3.698657585680443</v>
       </c>
     </row>
     <row r="137">
@@ -1534,7 +1534,7 @@
         <v>36662</v>
       </c>
       <c r="B137" t="n">
-        <v>2.491099629125877</v>
+        <v>2.486</v>
       </c>
     </row>
     <row r="138">
@@ -1550,7 +1550,7 @@
         <v>36664</v>
       </c>
       <c r="B139" t="n">
-        <v>4.388152686699636</v>
+        <v>4.372940858374545</v>
       </c>
     </row>
     <row r="140">
@@ -1558,7 +1558,7 @@
         <v>36665</v>
       </c>
       <c r="B140" t="n">
-        <v>3.686628407119373</v>
+        <v>3.657785508899216</v>
       </c>
     </row>
     <row r="141">
@@ -1566,7 +1566,7 @@
         <v>36666</v>
       </c>
       <c r="B141" t="n">
-        <v>4.73440896867808</v>
+        <v>4.7310112108476</v>
       </c>
     </row>
     <row r="142">
@@ -1582,7 +1582,7 @@
         <v>36668</v>
       </c>
       <c r="B143" t="n">
-        <v>6.106486304736308</v>
+        <v>6.071857880920384</v>
       </c>
     </row>
     <row r="144">
@@ -1590,7 +1590,7 @@
         <v>36669</v>
       </c>
       <c r="B144" t="n">
-        <v>4.22216473908081</v>
+        <v>4.214705923851013</v>
       </c>
     </row>
     <row r="145">
@@ -1598,7 +1598,7 @@
         <v>36670</v>
       </c>
       <c r="B145" t="n">
-        <v>2.058509860869954</v>
+        <v>2.051887326087443</v>
       </c>
     </row>
     <row r="146">
@@ -1614,7 +1614,7 @@
         <v>36672</v>
       </c>
       <c r="B147" t="n">
-        <v>5.375024692524104</v>
+        <v>5.201497655175229</v>
       </c>
     </row>
     <row r="148">
@@ -1622,7 +1622,7 @@
         <v>36673</v>
       </c>
       <c r="B148" t="n">
-        <v>3.765357521821772</v>
+        <v>3.755999999999999</v>
       </c>
     </row>
     <row r="149">
@@ -1646,7 +1646,7 @@
         <v>36676</v>
       </c>
       <c r="B151" t="n">
-        <v>2.838500620682117</v>
+        <v>2.803375775852646</v>
       </c>
     </row>
     <row r="152">
@@ -1670,7 +1670,7 @@
         <v>36679</v>
       </c>
       <c r="B154" t="n">
-        <v>2.602479626523839</v>
+        <v>2.431849533154799</v>
       </c>
     </row>
     <row r="155">
@@ -1678,7 +1678,7 @@
         <v>36680</v>
       </c>
       <c r="B155" t="n">
-        <v>2.277165808020566</v>
+        <v>2.240457260025708</v>
       </c>
     </row>
     <row r="156">
@@ -1702,7 +1702,7 @@
         <v>36683</v>
       </c>
       <c r="B158" t="n">
-        <v>4.521706952262554</v>
+        <v>4.494021953490208</v>
       </c>
     </row>
     <row r="159">
@@ -1710,7 +1710,7 @@
         <v>36684</v>
       </c>
       <c r="B159" t="n">
-        <v>3.93631822478903</v>
+        <v>3.846675770326396</v>
       </c>
     </row>
     <row r="160">
@@ -1718,7 +1718,7 @@
         <v>36685</v>
       </c>
       <c r="B160" t="n">
-        <v>3.528180810152646</v>
+        <v>3.526</v>
       </c>
     </row>
     <row r="161">
@@ -1726,7 +1726,7 @@
         <v>36686</v>
       </c>
       <c r="B161" t="n">
-        <v>5.134845534731742</v>
+        <v>4.959556918414678</v>
       </c>
     </row>
     <row r="162">
@@ -1750,7 +1750,7 @@
         <v>36689</v>
       </c>
       <c r="B164" t="n">
-        <v>4.69029160799869</v>
+        <v>5.934114509998363</v>
       </c>
     </row>
     <row r="165">
@@ -1766,7 +1766,7 @@
         <v>36691</v>
       </c>
       <c r="B166" t="n">
-        <v>3.833214649831274</v>
+        <v>3.787999999999999</v>
       </c>
     </row>
     <row r="167">
@@ -1774,7 +1774,7 @@
         <v>36692</v>
       </c>
       <c r="B167" t="n">
-        <v>3.75232667076972</v>
+        <v>3.63040833846215</v>
       </c>
     </row>
     <row r="168">
@@ -1790,7 +1790,7 @@
         <v>36694</v>
       </c>
       <c r="B169" t="n">
-        <v>4.546111837191987</v>
+        <v>4.431323292137038</v>
       </c>
     </row>
     <row r="170">
@@ -1814,7 +1814,7 @@
         <v>36697</v>
       </c>
       <c r="B172" t="n">
-        <v>3.996664440276822</v>
+        <v>3.787080550346028</v>
       </c>
     </row>
     <row r="173">
@@ -1822,7 +1822,7 @@
         <v>36698</v>
       </c>
       <c r="B173" t="n">
-        <v>3.558384820623041</v>
+        <v>3.556231025778801</v>
       </c>
     </row>
     <row r="174">
@@ -1838,7 +1838,7 @@
         <v>36700</v>
       </c>
       <c r="B175" t="n">
-        <v>4.268272615011075</v>
+        <v>5.588840768763844</v>
       </c>
     </row>
     <row r="176">
@@ -1862,7 +1862,7 @@
         <v>36703</v>
       </c>
       <c r="B178" t="n">
-        <v>3.035546272999886</v>
+        <v>2.986361521264099</v>
       </c>
     </row>
     <row r="179">
@@ -1870,7 +1870,7 @@
         <v>36704</v>
       </c>
       <c r="B179" t="n">
-        <v>4.342496770170804</v>
+        <v>4.332243817134432</v>
       </c>
     </row>
     <row r="180">
@@ -1878,7 +1878,7 @@
         <v>36705</v>
       </c>
       <c r="B180" t="n">
-        <v>4.594949431029585</v>
+        <v>4.364224641487763</v>
       </c>
     </row>
     <row r="181">
@@ -1886,7 +1886,7 @@
         <v>36706</v>
       </c>
       <c r="B181" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="182">
@@ -1894,7 +1894,7 @@
         <v>36707</v>
       </c>
       <c r="B182" t="n">
-        <v>0.7867491859389353</v>
+        <v>1.087186482423669</v>
       </c>
     </row>
     <row r="183">
@@ -1902,7 +1902,7 @@
         <v>36708</v>
       </c>
       <c r="B183" t="n">
-        <v>3.88872454095453</v>
+        <v>3.875655676193163</v>
       </c>
     </row>
     <row r="184">
@@ -1926,7 +1926,7 @@
         <v>36711</v>
       </c>
       <c r="B186" t="n">
-        <v>2.137549081758495</v>
+        <v>2.123936352198118</v>
       </c>
     </row>
     <row r="187">
@@ -1934,7 +1934,7 @@
         <v>36712</v>
       </c>
       <c r="B187" t="n">
-        <v>2.434000696123499</v>
+        <v>2.431999999999999</v>
       </c>
     </row>
     <row r="188">
@@ -1942,7 +1942,7 @@
         <v>36713</v>
       </c>
       <c r="B188" t="n">
-        <v>2.517002665493935</v>
+        <v>2.495748784209425</v>
       </c>
     </row>
     <row r="189">
@@ -1950,7 +1950,7 @@
         <v>36714</v>
       </c>
       <c r="B189" t="n">
-        <v>2.078787009878513</v>
+        <v>2.066233762348141</v>
       </c>
     </row>
     <row r="190">
@@ -1958,7 +1958,7 @@
         <v>36715</v>
       </c>
       <c r="B190" t="n">
-        <v>3.100181237233242</v>
+        <v>3.094976546541552</v>
       </c>
     </row>
     <row r="191">
@@ -1966,7 +1966,7 @@
         <v>36716</v>
       </c>
       <c r="B191" t="n">
-        <v>5.400611909858816</v>
+        <v>5.338294212719054</v>
       </c>
     </row>
     <row r="192">
@@ -1974,7 +1974,7 @@
         <v>36717</v>
       </c>
       <c r="B192" t="n">
-        <v>3.099972594829565</v>
+        <v>4.145</v>
       </c>
     </row>
     <row r="193">
@@ -1982,7 +1982,7 @@
         <v>36718</v>
       </c>
       <c r="B193" t="n">
-        <v>2.860814873441919</v>
+        <v>2.850268591802399</v>
       </c>
     </row>
     <row r="194">
@@ -1990,7 +1990,7 @@
         <v>36719</v>
       </c>
       <c r="B194" t="n">
-        <v>2.853865221582792</v>
+        <v>2.838581526978491</v>
       </c>
     </row>
     <row r="195">
@@ -2006,7 +2006,7 @@
         <v>36721</v>
       </c>
       <c r="B196" t="n">
-        <v>2.544403752610612</v>
+        <v>2.524</v>
       </c>
     </row>
     <row r="197">
@@ -2030,7 +2030,7 @@
         <v>36724</v>
       </c>
       <c r="B199" t="n">
-        <v>2.267228905373648</v>
+        <v>2.255786131717061</v>
       </c>
     </row>
     <row r="200">
@@ -2038,7 +2038,7 @@
         <v>36725</v>
       </c>
       <c r="B200" t="n">
-        <v>2.271070497519683</v>
+        <v>2.258088121899604</v>
       </c>
     </row>
     <row r="201">
@@ -2054,7 +2054,7 @@
         <v>36727</v>
       </c>
       <c r="B202" t="n">
-        <v>3.5959518021042</v>
+        <v>3.490963645467026</v>
       </c>
     </row>
     <row r="203">
@@ -2062,7 +2062,7 @@
         <v>36728</v>
       </c>
       <c r="B203" t="n">
-        <v>4.381814385033317</v>
+        <v>4.356267981291646</v>
       </c>
     </row>
     <row r="204">
@@ -2070,7 +2070,7 @@
         <v>36729</v>
       </c>
       <c r="B204" t="n">
-        <v>3.855125107721157</v>
+        <v>3.795131424497962</v>
       </c>
     </row>
     <row r="205">
@@ -2078,7 +2078,7 @@
         <v>36730</v>
       </c>
       <c r="B205" t="n">
-        <v>3.915982978422686</v>
+        <v>3.855912143600102</v>
       </c>
     </row>
     <row r="206">
@@ -2086,7 +2086,7 @@
         <v>36731</v>
       </c>
       <c r="B206" t="n">
-        <v>5.067156759376449</v>
+        <v>5.043723835895239</v>
       </c>
     </row>
     <row r="207">
@@ -2094,7 +2094,7 @@
         <v>36732</v>
       </c>
       <c r="B207" t="n">
-        <v>3.381407334492144</v>
+        <v>3.342509168115181</v>
       </c>
     </row>
     <row r="208">
@@ -2110,7 +2110,7 @@
         <v>36734</v>
       </c>
       <c r="B209" t="n">
-        <v>3.703713761963026</v>
+        <v>3.627392202453783</v>
       </c>
     </row>
     <row r="210">
@@ -2118,7 +2118,7 @@
         <v>36735</v>
       </c>
       <c r="B210" t="n">
-        <v>3.849738191829139</v>
+        <v>3.734422739786424</v>
       </c>
     </row>
     <row r="211">
@@ -2126,7 +2126,7 @@
         <v>36736</v>
       </c>
       <c r="B211" t="n">
-        <v>2.418964346731651</v>
+        <v>2.38559582525388</v>
       </c>
     </row>
     <row r="212">
@@ -2134,7 +2134,7 @@
         <v>36737</v>
       </c>
       <c r="B212" t="n">
-        <v>3.403498979560506</v>
+        <v>3.398623724450633</v>
       </c>
     </row>
     <row r="213">
@@ -2150,7 +2150,7 @@
         <v>36739</v>
       </c>
       <c r="B214" t="n">
-        <v>3.439901785604669</v>
+        <v>3.357877232005837</v>
       </c>
     </row>
     <row r="215">
@@ -2182,7 +2182,7 @@
         <v>36743</v>
       </c>
       <c r="B218" t="n">
-        <v>2.944844096865218</v>
+        <v>2.926555121081522</v>
       </c>
     </row>
     <row r="219">
@@ -2198,7 +2198,7 @@
         <v>36745</v>
       </c>
       <c r="B220" t="n">
-        <v>3.036624696647573</v>
+        <v>3.009439191801546</v>
       </c>
     </row>
     <row r="221">
@@ -2206,7 +2206,7 @@
         <v>36746</v>
       </c>
       <c r="B221" t="n">
-        <v>6.301374513035061</v>
+        <v>6.295968141293828</v>
       </c>
     </row>
     <row r="222">
@@ -2222,7 +2222,7 @@
         <v>36748</v>
       </c>
       <c r="B223" t="n">
-        <v>2.787634460886159</v>
+        <v>2.781</v>
       </c>
     </row>
     <row r="224">
@@ -2238,7 +2238,7 @@
         <v>36750</v>
       </c>
       <c r="B225" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="226">
@@ -2254,7 +2254,7 @@
         <v>36752</v>
       </c>
       <c r="B227" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="228">
@@ -2302,7 +2302,7 @@
         <v>36758</v>
       </c>
       <c r="B233" t="n">
-        <v>0.7058538671941408</v>
+        <v>1.005067333992676</v>
       </c>
     </row>
     <row r="234">
@@ -2326,7 +2326,7 @@
         <v>36761</v>
       </c>
       <c r="B236" t="n">
-        <v>3.899223157068549</v>
+        <v>3.759729561003882</v>
       </c>
     </row>
     <row r="237">
@@ -2334,7 +2334,7 @@
         <v>36762</v>
       </c>
       <c r="B237" t="n">
-        <v>6.03094585578769</v>
+        <v>5.960932319734612</v>
       </c>
     </row>
     <row r="238">
@@ -2350,7 +2350,7 @@
         <v>36764</v>
       </c>
       <c r="B239" t="n">
-        <v>5.878382118723782</v>
+        <v>5.787727648404729</v>
       </c>
     </row>
     <row r="240">
@@ -2358,7 +2358,7 @@
         <v>36765</v>
       </c>
       <c r="B240" t="n">
-        <v>3.648384166768749</v>
+        <v>3.597703541592426</v>
       </c>
     </row>
     <row r="241">
@@ -2366,7 +2366,7 @@
         <v>36766</v>
       </c>
       <c r="B241" t="n">
-        <v>6.5</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="242">
@@ -2382,7 +2382,7 @@
         <v>36768</v>
       </c>
       <c r="B243" t="n">
-        <v>3.117223096324448</v>
+        <v>3.09152887040556</v>
       </c>
     </row>
     <row r="244">
@@ -2390,7 +2390,7 @@
         <v>36769</v>
       </c>
       <c r="B244" t="n">
-        <v>3.237908246603894</v>
+        <v>3.189635308254867</v>
       </c>
     </row>
     <row r="245">
@@ -2398,7 +2398,7 @@
         <v>36770</v>
       </c>
       <c r="B245" t="n">
-        <v>3.809397353122729</v>
+        <v>3.749148288178942</v>
       </c>
     </row>
     <row r="246">
@@ -2406,7 +2406,7 @@
         <v>36771</v>
       </c>
       <c r="B246" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="247">
@@ -2430,7 +2430,7 @@
         <v>36774</v>
       </c>
       <c r="B249" t="n">
-        <v>5.925528234541262</v>
+        <v>5.900431735516001</v>
       </c>
     </row>
     <row r="250">
@@ -2438,7 +2438,7 @@
         <v>36775</v>
       </c>
       <c r="B250" t="n">
-        <v>4.500809397958678</v>
+        <v>4.484261747448347</v>
       </c>
     </row>
     <row r="251">
@@ -2454,7 +2454,7 @@
         <v>36777</v>
       </c>
       <c r="B252" t="n">
-        <v>3.993845343996571</v>
+        <v>3.935327585102178</v>
       </c>
     </row>
     <row r="253">
@@ -2462,7 +2462,7 @@
         <v>36778</v>
       </c>
       <c r="B253" t="n">
-        <v>3.685960438041121</v>
+        <v>3.603950547551401</v>
       </c>
     </row>
     <row r="254">
@@ -2470,7 +2470,7 @@
         <v>36779</v>
       </c>
       <c r="B254" t="n">
-        <v>4.035933215900355</v>
+        <v>4.028</v>
       </c>
     </row>
     <row r="255">
@@ -2478,7 +2478,7 @@
         <v>36780</v>
       </c>
       <c r="B255" t="n">
-        <v>5.665006245683011</v>
+        <v>5.656000000000001</v>
       </c>
     </row>
     <row r="256">
@@ -2486,7 +2486,7 @@
         <v>36781</v>
       </c>
       <c r="B256" t="n">
-        <v>5.295846697997722</v>
+        <v>5.246529190506834</v>
       </c>
     </row>
     <row r="257">
@@ -2494,7 +2494,7 @@
         <v>36782</v>
       </c>
       <c r="B257" t="n">
-        <v>5.412316621281295</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="258">
@@ -2502,7 +2502,7 @@
         <v>36783</v>
       </c>
       <c r="B258" t="n">
-        <v>4.923563581961506</v>
+        <v>4.871954477451883</v>
       </c>
     </row>
     <row r="259">
@@ -2526,7 +2526,7 @@
         <v>36786</v>
       </c>
       <c r="B261" t="n">
-        <v>2.96674026275348</v>
+        <v>2.96042532844185</v>
       </c>
     </row>
     <row r="262">
@@ -2550,7 +2550,7 @@
         <v>36789</v>
       </c>
       <c r="B264" t="n">
-        <v>3.997110127993469</v>
+        <v>3.984887659991837</v>
       </c>
     </row>
     <row r="265">
@@ -2566,7 +2566,7 @@
         <v>36791</v>
       </c>
       <c r="B266" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="267">
@@ -2582,7 +2582,7 @@
         <v>36793</v>
       </c>
       <c r="B268" t="n">
-        <v>3.428282221400732</v>
+        <v>3.408602776750914</v>
       </c>
     </row>
     <row r="269">
@@ -2606,7 +2606,7 @@
         <v>36796</v>
       </c>
       <c r="B271" t="n">
-        <v>5.599293838991882</v>
+        <v>5.586617298739851</v>
       </c>
     </row>
     <row r="272">
@@ -2614,7 +2614,7 @@
         <v>36797</v>
       </c>
       <c r="B272" t="n">
-        <v>4.202272471268873</v>
+        <v>4.159840589086093</v>
       </c>
     </row>
     <row r="273">
@@ -2622,7 +2622,7 @@
         <v>36798</v>
       </c>
       <c r="B273" t="n">
-        <v>5.877000000000001</v>
+        <v>5.877</v>
       </c>
     </row>
     <row r="274">
@@ -2638,7 +2638,7 @@
         <v>36800</v>
       </c>
       <c r="B275" t="n">
-        <v>6.499999999999998</v>
+        <v>6.498673099906346</v>
       </c>
     </row>
     <row r="276">
@@ -2646,7 +2646,7 @@
         <v>36801</v>
       </c>
       <c r="B276" t="n">
-        <v>2.136225066639862</v>
+        <v>2.866031333299827</v>
       </c>
     </row>
     <row r="277">
@@ -2678,7 +2678,7 @@
         <v>36805</v>
       </c>
       <c r="B280" t="n">
-        <v>5.980884090163888</v>
+        <v>5.957999999999999</v>
       </c>
     </row>
     <row r="281">
@@ -2686,7 +2686,7 @@
         <v>36806</v>
       </c>
       <c r="B281" t="n">
-        <v>4.608999999999999</v>
+        <v>4.609</v>
       </c>
     </row>
     <row r="282">
@@ -2710,7 +2710,7 @@
         <v>36809</v>
       </c>
       <c r="B284" t="n">
-        <v>5.698776219969703</v>
+        <v>5.674470274962129</v>
       </c>
     </row>
     <row r="285">
@@ -2726,7 +2726,7 @@
         <v>36811</v>
       </c>
       <c r="B286" t="n">
-        <v>4.438578038393056</v>
+        <v>4.31347254799132</v>
       </c>
     </row>
     <row r="287">
@@ -2734,7 +2734,7 @@
         <v>36812</v>
       </c>
       <c r="B287" t="n">
-        <v>4.036204293551966</v>
+        <v>3.96449175411601</v>
       </c>
     </row>
     <row r="288">
@@ -2742,7 +2742,7 @@
         <v>36813</v>
       </c>
       <c r="B288" t="n">
-        <v>4.648124313599697</v>
+        <v>4.629</v>
       </c>
     </row>
     <row r="289">
@@ -2750,7 +2750,7 @@
         <v>36814</v>
       </c>
       <c r="B289" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="290">
@@ -2758,7 +2758,7 @@
         <v>36815</v>
       </c>
       <c r="B290" t="n">
-        <v>5.446999999999999</v>
+        <v>5.446999999999998</v>
       </c>
     </row>
     <row r="291">
@@ -2766,7 +2766,7 @@
         <v>36816</v>
       </c>
       <c r="B291" t="n">
-        <v>5.413875016794361</v>
+        <v>5.383843770992949</v>
       </c>
     </row>
     <row r="292">
@@ -2774,7 +2774,7 @@
         <v>36817</v>
       </c>
       <c r="B292" t="n">
-        <v>4.695445226975006</v>
+        <v>4.685306533718758</v>
       </c>
     </row>
     <row r="293">
@@ -2782,7 +2782,7 @@
         <v>36818</v>
       </c>
       <c r="B293" t="n">
-        <v>4.111944365501063</v>
+        <v>4.021180456876328</v>
       </c>
     </row>
     <row r="294">
@@ -2790,7 +2790,7 @@
         <v>36819</v>
       </c>
       <c r="B294" t="n">
-        <v>4.838742409796261</v>
+        <v>4.804050456013103</v>
       </c>
     </row>
     <row r="295">
@@ -2798,7 +2798,7 @@
         <v>36820</v>
       </c>
       <c r="B295" t="n">
-        <v>4.954659635722962</v>
+        <v>4.944324544653703</v>
       </c>
     </row>
     <row r="296">
@@ -2806,7 +2806,7 @@
         <v>36821</v>
       </c>
       <c r="B296" t="n">
-        <v>6.142604617888133</v>
+        <v>6.136255772360168</v>
       </c>
     </row>
     <row r="297">
@@ -2822,7 +2822,7 @@
         <v>36823</v>
       </c>
       <c r="B298" t="n">
-        <v>1.079922354428133</v>
+        <v>1.574902943035166</v>
       </c>
     </row>
     <row r="299">
@@ -2838,7 +2838,7 @@
         <v>36825</v>
       </c>
       <c r="B300" t="n">
-        <v>0.2954329609967254</v>
+        <v>0.3840412012459067</v>
       </c>
     </row>
     <row r="301">
@@ -2846,7 +2846,7 @@
         <v>36826</v>
       </c>
       <c r="B301" t="n">
-        <v>5.57533324085217</v>
+        <v>5.449832221539018</v>
       </c>
     </row>
     <row r="302">
@@ -2894,7 +2894,7 @@
         <v>36832</v>
       </c>
       <c r="B307" t="n">
-        <v>4.228388099962972</v>
+        <v>4.202142994980752</v>
       </c>
     </row>
     <row r="308">
@@ -2902,7 +2902,7 @@
         <v>36833</v>
       </c>
       <c r="B308" t="n">
-        <v>6.141401323980609</v>
+        <v>6.09125165497576</v>
       </c>
     </row>
     <row r="309">
@@ -2918,7 +2918,7 @@
         <v>36835</v>
       </c>
       <c r="B310" t="n">
-        <v>4.651408124903043</v>
+        <v>4.586760156128804</v>
       </c>
     </row>
     <row r="311">
@@ -2934,7 +2934,7 @@
         <v>36837</v>
       </c>
       <c r="B312" t="n">
-        <v>0.5649935200846222</v>
+        <v>0.7717419001057777</v>
       </c>
     </row>
     <row r="313">
@@ -2958,7 +2958,7 @@
         <v>36840</v>
       </c>
       <c r="B315" t="n">
-        <v>0.1261379158801073</v>
+        <v>0.1769223948501341</v>
       </c>
     </row>
     <row r="316">
@@ -2966,7 +2966,7 @@
         <v>36841</v>
       </c>
       <c r="B316" t="n">
-        <v>2.893638743036341</v>
+        <v>3.785548428795425</v>
       </c>
     </row>
     <row r="317">
@@ -2990,7 +2990,7 @@
         <v>36844</v>
       </c>
       <c r="B319" t="n">
-        <v>4.474096581856786</v>
+        <v>4.436620727320983</v>
       </c>
     </row>
     <row r="320">
@@ -2998,7 +2998,7 @@
         <v>36845</v>
       </c>
       <c r="B320" t="n">
-        <v>5.987</v>
+        <v>5.986999999999999</v>
       </c>
     </row>
     <row r="321">
@@ -3006,7 +3006,7 @@
         <v>36846</v>
       </c>
       <c r="B321" t="n">
-        <v>4.716738263096357</v>
+        <v>4.623770189111678</v>
       </c>
     </row>
     <row r="322">
@@ -3014,7 +3014,7 @@
         <v>36847</v>
       </c>
       <c r="B322" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="323">
@@ -3030,7 +3030,7 @@
         <v>36849</v>
       </c>
       <c r="B324" t="n">
-        <v>2.517950806855025</v>
+        <v>3.347188508568781</v>
       </c>
     </row>
     <row r="325">
@@ -3046,7 +3046,7 @@
         <v>36851</v>
       </c>
       <c r="B326" t="n">
-        <v>1.495255541802358</v>
+        <v>1.962069427252948</v>
       </c>
     </row>
     <row r="327">
@@ -3062,7 +3062,7 @@
         <v>36853</v>
       </c>
       <c r="B328" t="n">
-        <v>6.5</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="329">
@@ -3094,7 +3094,7 @@
         <v>36857</v>
       </c>
       <c r="B332" t="n">
-        <v>0.6121332598989789</v>
+        <v>0.7959165748737237</v>
       </c>
     </row>
     <row r="333">
@@ -3118,7 +3118,7 @@
         <v>36860</v>
       </c>
       <c r="B335" t="n">
-        <v>1.624900315127488</v>
+        <v>2.161063612883068</v>
       </c>
     </row>
     <row r="336">
@@ -3126,7 +3126,7 @@
         <v>36861</v>
       </c>
       <c r="B336" t="n">
-        <v>1.414514450828</v>
+        <v>1.895296209257002</v>
       </c>
     </row>
     <row r="337">
@@ -3142,7 +3142,7 @@
         <v>36863</v>
       </c>
       <c r="B338" t="n">
-        <v>1.311938891107031</v>
+        <v>1.803495396778483</v>
       </c>
     </row>
     <row r="339">
@@ -3150,7 +3150,7 @@
         <v>36864</v>
       </c>
       <c r="B339" t="n">
-        <v>5.457503252430285</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="340">
@@ -3158,7 +3158,7 @@
         <v>36865</v>
       </c>
       <c r="B340" t="n">
-        <v>0.6774912530848223</v>
+        <v>0.9178640663560278</v>
       </c>
     </row>
     <row r="341">
@@ -3190,7 +3190,7 @@
         <v>36869</v>
       </c>
       <c r="B344" t="n">
-        <v>0.2554484366547911</v>
+        <v>0.4155605458184888</v>
       </c>
     </row>
     <row r="345">
@@ -3206,7 +3206,7 @@
         <v>36871</v>
       </c>
       <c r="B346" t="n">
-        <v>6.373802938066352</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="347">
@@ -3214,7 +3214,7 @@
         <v>36872</v>
       </c>
       <c r="B347" t="n">
-        <v>0.8836384728745603</v>
+        <v>1.1915480910932</v>
       </c>
     </row>
     <row r="348">
@@ -3222,7 +3222,7 @@
         <v>36873</v>
       </c>
       <c r="B348" t="n">
-        <v>5.851808341956299</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="349">
@@ -3230,7 +3230,7 @@
         <v>36874</v>
       </c>
       <c r="B349" t="n">
-        <v>0.1890014943191278</v>
+        <v>0.2813672591988701</v>
       </c>
     </row>
     <row r="350">
@@ -3238,7 +3238,7 @@
         <v>36875</v>
       </c>
       <c r="B350" t="n">
-        <v>0.1674215479693945</v>
+        <v>0.3102716082140978</v>
       </c>
     </row>
     <row r="351">
@@ -3246,7 +3246,7 @@
         <v>36876</v>
       </c>
       <c r="B351" t="n">
-        <v>0.5700562775760289</v>
+        <v>0.8535703469700364</v>
       </c>
     </row>
     <row r="352">
@@ -3254,7 +3254,7 @@
         <v>36877</v>
       </c>
       <c r="B352" t="n">
-        <v>1.119989480329731</v>
+        <v>1.478736850412164</v>
       </c>
     </row>
     <row r="353">
@@ -3262,7 +3262,7 @@
         <v>36878</v>
       </c>
       <c r="B353" t="n">
-        <v>6.499999999999999</v>
+        <v>6.499999999999997</v>
       </c>
     </row>
     <row r="354">
@@ -3294,7 +3294,7 @@
         <v>36882</v>
       </c>
       <c r="B357" t="n">
-        <v>0.8823698774254276</v>
+        <v>1.224962346781784</v>
       </c>
     </row>
     <row r="358">
@@ -3310,7 +3310,7 @@
         <v>36884</v>
       </c>
       <c r="B359" t="n">
-        <v>4.208896489910449</v>
+        <v>5.587120612388062</v>
       </c>
     </row>
     <row r="360">
@@ -3318,7 +3318,7 @@
         <v>36885</v>
       </c>
       <c r="B360" t="n">
-        <v>5.177317777931807</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="361">
@@ -3326,7 +3326,7 @@
         <v>36886</v>
       </c>
       <c r="B361" t="n">
-        <v>5.620187224147601</v>
+        <v>5.531305287840645</v>
       </c>
     </row>
     <row r="362">
@@ -3334,7 +3334,7 @@
         <v>36887</v>
       </c>
       <c r="B362" t="n">
-        <v>4.381479864277414</v>
+        <v>6.174921088002913</v>
       </c>
     </row>
     <row r="363">
@@ -3358,7 +3358,7 @@
         <v>36890</v>
       </c>
       <c r="B365" t="n">
-        <v>0.1210095868742612</v>
+        <v>0.1975119835928265</v>
       </c>
     </row>
     <row r="366">

--- a/results/end_of_day_charge_levels.xlsx
+++ b/results/end_of_day_charge_levels.xlsx
@@ -454,7 +454,7 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>1.761558754488767</v>
+        <v>1.761613241209058</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>36527</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5919837269039552</v>
+        <v>0.5919845985996208</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>36528</v>
       </c>
       <c r="B4" t="n">
-        <v>0.09026060662080225</v>
+        <v>0.09026532027770591</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         <v>36530</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6969636844637308</v>
+        <v>0.6969607949361963</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>36531</v>
       </c>
       <c r="B7" t="n">
-        <v>1.463102453982562</v>
+        <v>1.463101999229971</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>36532</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1526624679208584</v>
+        <v>0.1526614780050928</v>
       </c>
     </row>
     <row r="9">
@@ -518,7 +518,7 @@
         <v>36534</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1318796712544059</v>
+        <v>0.1318776644104936</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>36535</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6494838447711613</v>
+        <v>0.6494840946561433</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>36536</v>
       </c>
       <c r="B12" t="n">
-        <v>1.457929903010341</v>
+        <v>1.457919626458243</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>36537</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4281739098008951</v>
+        <v>0.4281735148343131</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>36538</v>
       </c>
       <c r="B14" t="n">
-        <v>2.887180786484054</v>
+        <v>2.887152857021649</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>36539</v>
       </c>
       <c r="B15" t="n">
-        <v>6.5</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="16">
@@ -574,7 +574,7 @@
         <v>36541</v>
       </c>
       <c r="B17" t="n">
-        <v>3.178224974659674</v>
+        <v>3.178204203976048</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>36542</v>
       </c>
       <c r="B18" t="n">
-        <v>1.724516863368592</v>
+        <v>1.724465305440395</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>36543</v>
       </c>
       <c r="B19" t="n">
-        <v>1.022268815190919</v>
+        <v>1.022270768065247</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>36544</v>
       </c>
       <c r="B20" t="n">
-        <v>6.499999999999999</v>
+        <v>6.499999999999996</v>
       </c>
     </row>
     <row r="21">
@@ -614,7 +614,7 @@
         <v>36546</v>
       </c>
       <c r="B22" t="n">
-        <v>6.5</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>36547</v>
       </c>
       <c r="B23" t="n">
-        <v>2.117246429547663</v>
+        <v>2.117245224472298</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>36548</v>
       </c>
       <c r="B24" t="n">
-        <v>4.968907956799848</v>
+        <v>4.968900283905088</v>
       </c>
     </row>
     <row r="25">
@@ -654,7 +654,7 @@
         <v>36551</v>
       </c>
       <c r="B27" t="n">
-        <v>5.56470969881572</v>
+        <v>5.564708984318357</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>36552</v>
       </c>
       <c r="B28" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>36553</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3601256801955068</v>
+        <v>0.3601203644862209</v>
       </c>
     </row>
     <row r="30">
@@ -686,7 +686,7 @@
         <v>36555</v>
       </c>
       <c r="B31" t="n">
-        <v>6.5</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="32">
@@ -702,7 +702,7 @@
         <v>36557</v>
       </c>
       <c r="B33" t="n">
-        <v>1.01442450953996</v>
+        <v>1.014383207618612</v>
       </c>
     </row>
     <row r="34">
@@ -726,7 +726,7 @@
         <v>36560</v>
       </c>
       <c r="B36" t="n">
-        <v>2.116374568009162</v>
+        <v>2.116471896716609</v>
       </c>
     </row>
     <row r="37">
@@ -742,7 +742,7 @@
         <v>36562</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3803687972247771</v>
+        <v>0.3803682650801067</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>36563</v>
       </c>
       <c r="B39" t="n">
-        <v>5.988341035762289</v>
+        <v>5.988435593856955</v>
       </c>
     </row>
     <row r="40">
@@ -774,7 +774,7 @@
         <v>36566</v>
       </c>
       <c r="B42" t="n">
-        <v>4.298043087089617</v>
+        <v>4.297736765208668</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>36567</v>
       </c>
       <c r="B43" t="n">
-        <v>3.982464840635263</v>
+        <v>3.982351441515012</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>36568</v>
       </c>
       <c r="B44" t="n">
-        <v>5.166132682341855</v>
+        <v>5.166047149276534</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>36569</v>
       </c>
       <c r="B45" t="n">
-        <v>5.32674175588443</v>
+        <v>5.326737657637537</v>
       </c>
     </row>
     <row r="46">
@@ -814,7 +814,7 @@
         <v>36571</v>
       </c>
       <c r="B47" t="n">
-        <v>0.3939073162291987</v>
+        <v>0.3938982781151951</v>
       </c>
     </row>
     <row r="48">
@@ -854,7 +854,7 @@
         <v>36576</v>
       </c>
       <c r="B52" t="n">
-        <v>5.238711802891488</v>
+        <v>5.238647863662007</v>
       </c>
     </row>
     <row r="53">
@@ -862,7 +862,7 @@
         <v>36577</v>
       </c>
       <c r="B53" t="n">
-        <v>6.32395394990471</v>
+        <v>6.323932513919157</v>
       </c>
     </row>
     <row r="54">
@@ -878,7 +878,7 @@
         <v>36579</v>
       </c>
       <c r="B55" t="n">
-        <v>4.408403302277126</v>
+        <v>4.408298658251478</v>
       </c>
     </row>
     <row r="56">
@@ -886,7 +886,7 @@
         <v>36580</v>
       </c>
       <c r="B56" t="n">
-        <v>4.977469535499524</v>
+        <v>4.977344930799317</v>
       </c>
     </row>
     <row r="57">
@@ -902,7 +902,7 @@
         <v>36582</v>
       </c>
       <c r="B58" t="n">
-        <v>5.606057259053725</v>
+        <v>5.606081267208938</v>
       </c>
     </row>
     <row r="59">
@@ -910,7 +910,7 @@
         <v>36583</v>
       </c>
       <c r="B59" t="n">
-        <v>5.222092501127499</v>
+        <v>5.222046494169011</v>
       </c>
     </row>
     <row r="60">
@@ -950,7 +950,7 @@
         <v>36589</v>
       </c>
       <c r="B64" t="n">
-        <v>4.880075756792978</v>
+        <v>4.879969991247708</v>
       </c>
     </row>
     <row r="65">
@@ -958,7 +958,7 @@
         <v>36590</v>
       </c>
       <c r="B65" t="n">
-        <v>5.302695159223387</v>
+        <v>5.302690087583295</v>
       </c>
     </row>
     <row r="66">
@@ -966,7 +966,7 @@
         <v>36591</v>
       </c>
       <c r="B66" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="67">
@@ -974,7 +974,7 @@
         <v>36592</v>
       </c>
       <c r="B67" t="n">
-        <v>1.467494900788176</v>
+        <v>1.467498476229398</v>
       </c>
     </row>
     <row r="68">
@@ -982,7 +982,7 @@
         <v>36593</v>
       </c>
       <c r="B68" t="n">
-        <v>4.405614327015656</v>
+        <v>4.405543305401626</v>
       </c>
     </row>
     <row r="69">
@@ -998,7 +998,7 @@
         <v>36595</v>
       </c>
       <c r="B70" t="n">
-        <v>4.830811311099026</v>
+        <v>4.830815443024694</v>
       </c>
     </row>
     <row r="71">
@@ -1006,7 +1006,7 @@
         <v>36596</v>
       </c>
       <c r="B71" t="n">
-        <v>5.512838401356478</v>
+        <v>5.512838639023949</v>
       </c>
     </row>
     <row r="72">
@@ -1014,7 +1014,7 @@
         <v>36597</v>
       </c>
       <c r="B72" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="73">
@@ -1030,7 +1030,7 @@
         <v>36599</v>
       </c>
       <c r="B74" t="n">
-        <v>6.448747374352511</v>
+        <v>6.448747302078543</v>
       </c>
     </row>
     <row r="75">
@@ -1038,7 +1038,7 @@
         <v>36600</v>
       </c>
       <c r="B75" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="76">
@@ -1046,7 +1046,7 @@
         <v>36601</v>
       </c>
       <c r="B76" t="n">
-        <v>0.004119762450467856</v>
+        <v>0.004119785894098463</v>
       </c>
     </row>
     <row r="77">
@@ -1054,7 +1054,7 @@
         <v>36602</v>
       </c>
       <c r="B77" t="n">
-        <v>5.496698946411588</v>
+        <v>5.496697910994037</v>
       </c>
     </row>
     <row r="78">
@@ -1086,7 +1086,7 @@
         <v>36606</v>
       </c>
       <c r="B81" t="n">
-        <v>4.060976854660392</v>
+        <v>4.060954937060499</v>
       </c>
     </row>
     <row r="82">
@@ -1094,7 +1094,7 @@
         <v>36607</v>
       </c>
       <c r="B82" t="n">
-        <v>5.91344622174625</v>
+        <v>5.913448352883874</v>
       </c>
     </row>
     <row r="83">
@@ -1110,7 +1110,7 @@
         <v>36609</v>
       </c>
       <c r="B84" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="85">
@@ -1134,7 +1134,7 @@
         <v>36612</v>
       </c>
       <c r="B87" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="88">
@@ -1158,7 +1158,7 @@
         <v>36615</v>
       </c>
       <c r="B90" t="n">
-        <v>6.5</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="91">
@@ -1182,7 +1182,7 @@
         <v>36618</v>
       </c>
       <c r="B93" t="n">
-        <v>6.225259266707055</v>
+        <v>6.225237460240701</v>
       </c>
     </row>
     <row r="94">
@@ -1190,7 +1190,7 @@
         <v>36619</v>
       </c>
       <c r="B94" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="95">
@@ -1198,7 +1198,7 @@
         <v>36620</v>
       </c>
       <c r="B95" t="n">
-        <v>5.983717789340084</v>
+        <v>5.983718602991887</v>
       </c>
     </row>
     <row r="96">
@@ -1214,7 +1214,7 @@
         <v>36622</v>
       </c>
       <c r="B97" t="n">
-        <v>3.291020061837286</v>
+        <v>3.291020396945952</v>
       </c>
     </row>
     <row r="98">
@@ -1222,7 +1222,7 @@
         <v>36623</v>
       </c>
       <c r="B98" t="n">
-        <v>4.217611169551014</v>
+        <v>4.217589553270633</v>
       </c>
     </row>
     <row r="99">
@@ -1230,7 +1230,7 @@
         <v>36624</v>
       </c>
       <c r="B99" t="n">
-        <v>5.556966877270733</v>
+        <v>5.556966871432552</v>
       </c>
     </row>
     <row r="100">
@@ -1238,7 +1238,7 @@
         <v>36625</v>
       </c>
       <c r="B100" t="n">
-        <v>6.394150188952741</v>
+        <v>6.394145933822813</v>
       </c>
     </row>
     <row r="101">
@@ -1246,7 +1246,7 @@
         <v>36626</v>
       </c>
       <c r="B101" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="102">
@@ -1254,7 +1254,7 @@
         <v>36627</v>
       </c>
       <c r="B102" t="n">
-        <v>4.697832763482324</v>
+        <v>4.697821722830087</v>
       </c>
     </row>
     <row r="103">
@@ -1262,7 +1262,7 @@
         <v>36628</v>
       </c>
       <c r="B103" t="n">
-        <v>4.188454769999115</v>
+        <v>4.188408462864027</v>
       </c>
     </row>
     <row r="104">
@@ -1270,7 +1270,7 @@
         <v>36629</v>
       </c>
       <c r="B104" t="n">
-        <v>3.775714817398942</v>
+        <v>3.775696467096934</v>
       </c>
     </row>
     <row r="105">
@@ -1278,7 +1278,7 @@
         <v>36630</v>
       </c>
       <c r="B105" t="n">
-        <v>3.391383260527237</v>
+        <v>3.3913832644868</v>
       </c>
     </row>
     <row r="106">
@@ -1286,7 +1286,7 @@
         <v>36631</v>
       </c>
       <c r="B106" t="n">
-        <v>2.637693465425537</v>
+        <v>2.637632065606352</v>
       </c>
     </row>
     <row r="107">
@@ -1294,7 +1294,7 @@
         <v>36632</v>
       </c>
       <c r="B107" t="n">
-        <v>4.032593290573087</v>
+        <v>4.032574899950845</v>
       </c>
     </row>
     <row r="108">
@@ -1310,7 +1310,7 @@
         <v>36634</v>
       </c>
       <c r="B109" t="n">
-        <v>4.922715759572826</v>
+        <v>4.92271795161323</v>
       </c>
     </row>
     <row r="110">
@@ -1318,7 +1318,7 @@
         <v>36635</v>
       </c>
       <c r="B110" t="n">
-        <v>2.71862046624198</v>
+        <v>2.718622793072087</v>
       </c>
     </row>
     <row r="111">
@@ -1326,7 +1326,7 @@
         <v>36636</v>
       </c>
       <c r="B111" t="n">
-        <v>2.797453808395691</v>
+        <v>2.797477680259285</v>
       </c>
     </row>
     <row r="112">
@@ -1334,7 +1334,7 @@
         <v>36637</v>
       </c>
       <c r="B112" t="n">
-        <v>2.969883720439358</v>
+        <v>2.96988634202408</v>
       </c>
     </row>
     <row r="113">
@@ -1342,7 +1342,7 @@
         <v>36638</v>
       </c>
       <c r="B113" t="n">
-        <v>4.621094795594402</v>
+        <v>4.621094810008643</v>
       </c>
     </row>
     <row r="114">
@@ -1350,7 +1350,7 @@
         <v>36639</v>
       </c>
       <c r="B114" t="n">
-        <v>5.483139325154973</v>
+        <v>5.483139319927444</v>
       </c>
     </row>
     <row r="115">
@@ -1358,7 +1358,7 @@
         <v>36640</v>
       </c>
       <c r="B115" t="n">
-        <v>3.290603201564602</v>
+        <v>3.290603874085091</v>
       </c>
     </row>
     <row r="116">
@@ -1366,7 +1366,7 @@
         <v>36641</v>
       </c>
       <c r="B116" t="n">
-        <v>3.711334384028845</v>
+        <v>3.711334461614049</v>
       </c>
     </row>
     <row r="117">
@@ -1382,7 +1382,7 @@
         <v>36643</v>
       </c>
       <c r="B118" t="n">
-        <v>6.108973764358923</v>
+        <v>6.108973774315583</v>
       </c>
     </row>
     <row r="119">
@@ -1414,7 +1414,7 @@
         <v>36647</v>
       </c>
       <c r="B122" t="n">
-        <v>2.382939125994121</v>
+        <v>2.382939598883244</v>
       </c>
     </row>
     <row r="123">
@@ -1422,7 +1422,7 @@
         <v>36648</v>
       </c>
       <c r="B123" t="n">
-        <v>2.726473874930035</v>
+        <v>2.726474915283803</v>
       </c>
     </row>
     <row r="124">
@@ -1430,7 +1430,7 @@
         <v>36649</v>
       </c>
       <c r="B124" t="n">
-        <v>3.299973733595619</v>
+        <v>3.29994396306973</v>
       </c>
     </row>
     <row r="125">
@@ -1446,7 +1446,7 @@
         <v>36651</v>
       </c>
       <c r="B126" t="n">
-        <v>2.095591699200098</v>
+        <v>2.095599288009516</v>
       </c>
     </row>
     <row r="127">
@@ -1454,7 +1454,7 @@
         <v>36652</v>
       </c>
       <c r="B127" t="n">
-        <v>3.526268013179531</v>
+        <v>3.526275221495588</v>
       </c>
     </row>
     <row r="128">
@@ -1462,7 +1462,7 @@
         <v>36653</v>
       </c>
       <c r="B128" t="n">
-        <v>2.158913707110504</v>
+        <v>2.158917170693512</v>
       </c>
     </row>
     <row r="129">
@@ -1478,7 +1478,7 @@
         <v>36655</v>
       </c>
       <c r="B130" t="n">
-        <v>4.609251967170532</v>
+        <v>4.60925196915194</v>
       </c>
     </row>
     <row r="131">
@@ -1494,7 +1494,7 @@
         <v>36657</v>
       </c>
       <c r="B132" t="n">
-        <v>4.03</v>
+        <v>4.029999999999999</v>
       </c>
     </row>
     <row r="133">
@@ -1518,7 +1518,7 @@
         <v>36660</v>
       </c>
       <c r="B135" t="n">
-        <v>2.869819240579775</v>
+        <v>2.869819130835674</v>
       </c>
     </row>
     <row r="136">
@@ -1526,7 +1526,7 @@
         <v>36661</v>
       </c>
       <c r="B136" t="n">
-        <v>3.734937567817868</v>
+        <v>3.734937581804862</v>
       </c>
     </row>
     <row r="137">
@@ -1534,7 +1534,7 @@
         <v>36662</v>
       </c>
       <c r="B137" t="n">
-        <v>2.49134547154879</v>
+        <v>2.491344148851118</v>
       </c>
     </row>
     <row r="138">
@@ -1550,7 +1550,7 @@
         <v>36664</v>
       </c>
       <c r="B139" t="n">
-        <v>4.388658871918074</v>
+        <v>4.388658865916103</v>
       </c>
     </row>
     <row r="140">
@@ -1558,7 +1558,7 @@
         <v>36665</v>
       </c>
       <c r="B140" t="n">
-        <v>3.686896925165887</v>
+        <v>3.686898583243935</v>
       </c>
     </row>
     <row r="141">
@@ -1566,7 +1566,7 @@
         <v>36666</v>
       </c>
       <c r="B141" t="n">
-        <v>4.734433007363913</v>
+        <v>4.734433011283649</v>
       </c>
     </row>
     <row r="142">
@@ -1582,7 +1582,7 @@
         <v>36668</v>
       </c>
       <c r="B143" t="n">
-        <v>6.107253085287804</v>
+        <v>6.107253253852954</v>
       </c>
     </row>
     <row r="144">
@@ -1590,7 +1590,7 @@
         <v>36669</v>
       </c>
       <c r="B144" t="n">
-        <v>4.222244815083167</v>
+        <v>4.222244618864764</v>
       </c>
     </row>
     <row r="145">
@@ -1598,7 +1598,7 @@
         <v>36670</v>
       </c>
       <c r="B145" t="n">
-        <v>2.060314363227832</v>
+        <v>2.060302057113496</v>
       </c>
     </row>
     <row r="146">
@@ -1614,7 +1614,7 @@
         <v>36672</v>
       </c>
       <c r="B147" t="n">
-        <v>5.380804865201541</v>
+        <v>5.380804929371994</v>
       </c>
     </row>
     <row r="148">
@@ -1622,7 +1622,7 @@
         <v>36673</v>
       </c>
       <c r="B148" t="n">
-        <v>3.765472983211892</v>
+        <v>3.765472912149526</v>
       </c>
     </row>
     <row r="149">
@@ -1646,7 +1646,7 @@
         <v>36676</v>
       </c>
       <c r="B151" t="n">
-        <v>2.838770435334074</v>
+        <v>2.838771500773973</v>
       </c>
     </row>
     <row r="152">
@@ -1670,7 +1670,7 @@
         <v>36679</v>
       </c>
       <c r="B154" t="n">
-        <v>2.607272970993514</v>
+        <v>2.607276051033921</v>
       </c>
     </row>
     <row r="155">
@@ -1678,7 +1678,7 @@
         <v>36680</v>
       </c>
       <c r="B155" t="n">
-        <v>2.277929116089534</v>
+        <v>2.277929232915716</v>
       </c>
     </row>
     <row r="156">
@@ -1686,7 +1686,7 @@
         <v>36681</v>
       </c>
       <c r="B156" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="157">
@@ -1702,7 +1702,7 @@
         <v>36683</v>
       </c>
       <c r="B158" t="n">
-        <v>4.52355392476108</v>
+        <v>4.523553936853068</v>
       </c>
     </row>
     <row r="159">
@@ -1710,7 +1710,7 @@
         <v>36684</v>
       </c>
       <c r="B159" t="n">
-        <v>3.941991032814138</v>
+        <v>3.941990861923727</v>
       </c>
     </row>
     <row r="160">
@@ -1718,7 +1718,7 @@
         <v>36685</v>
       </c>
       <c r="B160" t="n">
-        <v>3.528863767316024</v>
+        <v>3.528864800949543</v>
       </c>
     </row>
     <row r="161">
@@ -1726,7 +1726,7 @@
         <v>36686</v>
       </c>
       <c r="B161" t="n">
-        <v>5.142201415084878</v>
+        <v>5.142201956720797</v>
       </c>
     </row>
     <row r="162">
@@ -1750,7 +1750,7 @@
         <v>36689</v>
       </c>
       <c r="B164" t="n">
-        <v>4.6176471383699</v>
+        <v>4.617621699904802</v>
       </c>
     </row>
     <row r="165">
@@ -1758,7 +1758,7 @@
         <v>36690</v>
       </c>
       <c r="B165" t="n">
-        <v>4.980085999999999</v>
+        <v>4.980086</v>
       </c>
     </row>
     <row r="166">
@@ -1766,7 +1766,7 @@
         <v>36691</v>
       </c>
       <c r="B166" t="n">
-        <v>3.83405229764475</v>
+        <v>3.834059506421009</v>
       </c>
     </row>
     <row r="167">
@@ -1774,7 +1774,7 @@
         <v>36692</v>
       </c>
       <c r="B167" t="n">
-        <v>3.755396561512751</v>
+        <v>3.755398846494022</v>
       </c>
     </row>
     <row r="168">
@@ -1782,7 +1782,7 @@
         <v>36693</v>
       </c>
       <c r="B168" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="169">
@@ -1790,7 +1790,7 @@
         <v>36694</v>
       </c>
       <c r="B169" t="n">
-        <v>4.548450774204453</v>
+        <v>4.548458764102713</v>
       </c>
     </row>
     <row r="170">
@@ -1814,7 +1814,7 @@
         <v>36697</v>
       </c>
       <c r="B172" t="n">
-        <v>4.004893758146084</v>
+        <v>4.004894304035109</v>
       </c>
     </row>
     <row r="173">
@@ -1822,7 +1822,7 @@
         <v>36698</v>
       </c>
       <c r="B173" t="n">
-        <v>3.55839259377381</v>
+        <v>3.558392653269646</v>
       </c>
     </row>
     <row r="174">
@@ -1830,7 +1830,7 @@
         <v>36699</v>
       </c>
       <c r="B174" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="175">
@@ -1838,7 +1838,7 @@
         <v>36700</v>
       </c>
       <c r="B175" t="n">
-        <v>4.192872431985356</v>
+        <v>4.192845853697283</v>
       </c>
     </row>
     <row r="176">
@@ -1862,7 +1862,7 @@
         <v>36703</v>
       </c>
       <c r="B178" t="n">
-        <v>3.036758246996648</v>
+        <v>3.036761204258902</v>
       </c>
     </row>
     <row r="179">
@@ -1870,7 +1870,7 @@
         <v>36704</v>
       </c>
       <c r="B179" t="n">
-        <v>4.34291492666234</v>
+        <v>4.342914889263116</v>
       </c>
     </row>
     <row r="180">
@@ -1878,7 +1878,7 @@
         <v>36705</v>
       </c>
       <c r="B180" t="n">
-        <v>4.599230432341949</v>
+        <v>4.599248917876637</v>
       </c>
     </row>
     <row r="181">
@@ -1894,7 +1894,7 @@
         <v>36707</v>
       </c>
       <c r="B182" t="n">
-        <v>0.772830841700103</v>
+        <v>0.7728307681239006</v>
       </c>
     </row>
     <row r="183">
@@ -1902,7 +1902,7 @@
         <v>36708</v>
       </c>
       <c r="B183" t="n">
-        <v>3.888942489696471</v>
+        <v>3.888945291854755</v>
       </c>
     </row>
     <row r="184">
@@ -1926,7 +1926,7 @@
         <v>36711</v>
       </c>
       <c r="B186" t="n">
-        <v>2.137774232794265</v>
+        <v>2.137777138803505</v>
       </c>
     </row>
     <row r="187">
@@ -1934,7 +1934,7 @@
         <v>36712</v>
       </c>
       <c r="B187" t="n">
-        <v>2.434196710964608</v>
+        <v>2.434198676500064</v>
       </c>
     </row>
     <row r="188">
@@ -1942,7 +1942,7 @@
         <v>36713</v>
       </c>
       <c r="B188" t="n">
-        <v>2.517395706758889</v>
+        <v>2.517398324703565</v>
       </c>
     </row>
     <row r="189">
@@ -1950,7 +1950,7 @@
         <v>36714</v>
       </c>
       <c r="B189" t="n">
-        <v>2.079009216220833</v>
+        <v>2.079012153748208</v>
       </c>
     </row>
     <row r="190">
@@ -1958,7 +1958,7 @@
         <v>36715</v>
       </c>
       <c r="B190" t="n">
-        <v>3.10023859300407</v>
+        <v>3.100238712472489</v>
       </c>
     </row>
     <row r="191">
@@ -1966,7 +1966,7 @@
         <v>36716</v>
       </c>
       <c r="B191" t="n">
-        <v>5.401945418251751</v>
+        <v>5.401949344457437</v>
       </c>
     </row>
     <row r="192">
@@ -1974,7 +1974,7 @@
         <v>36717</v>
       </c>
       <c r="B192" t="n">
-        <v>3.065240227726152</v>
+        <v>3.065244812457825</v>
       </c>
     </row>
     <row r="193">
@@ -1982,7 +1982,7 @@
         <v>36718</v>
       </c>
       <c r="B193" t="n">
-        <v>2.860941773364741</v>
+        <v>2.860941770991216</v>
       </c>
     </row>
     <row r="194">
@@ -1990,7 +1990,7 @@
         <v>36719</v>
       </c>
       <c r="B194" t="n">
-        <v>2.854033335068434</v>
+        <v>2.854033418920856</v>
       </c>
     </row>
     <row r="195">
@@ -2006,7 +2006,7 @@
         <v>36721</v>
       </c>
       <c r="B196" t="n">
-        <v>2.545902474463744</v>
+        <v>2.545934348922384</v>
       </c>
     </row>
     <row r="197">
@@ -2030,7 +2030,7 @@
         <v>36724</v>
       </c>
       <c r="B199" t="n">
-        <v>2.267480261862727</v>
+        <v>2.267480556514722</v>
       </c>
     </row>
     <row r="200">
@@ -2038,7 +2038,7 @@
         <v>36725</v>
       </c>
       <c r="B200" t="n">
-        <v>2.271474279235741</v>
+        <v>2.271474270997951</v>
       </c>
     </row>
     <row r="201">
@@ -2054,7 +2054,7 @@
         <v>36727</v>
       </c>
       <c r="B202" t="n">
-        <v>3.599863144752334</v>
+        <v>3.599860623826811</v>
       </c>
     </row>
     <row r="203">
@@ -2062,7 +2062,7 @@
         <v>36728</v>
       </c>
       <c r="B203" t="n">
-        <v>4.382083903612514</v>
+        <v>4.382088030648497</v>
       </c>
     </row>
     <row r="204">
@@ -2070,7 +2070,7 @@
         <v>36729</v>
       </c>
       <c r="B204" t="n">
-        <v>3.858005471466779</v>
+        <v>3.858005519411273</v>
       </c>
     </row>
     <row r="205">
@@ -2078,7 +2078,7 @@
         <v>36730</v>
       </c>
       <c r="B205" t="n">
-        <v>3.917669005343001</v>
+        <v>3.917671610978068</v>
       </c>
     </row>
     <row r="206">
@@ -2086,7 +2086,7 @@
         <v>36731</v>
       </c>
       <c r="B206" t="n">
-        <v>5.067261352392013</v>
+        <v>5.067264008008578</v>
       </c>
     </row>
     <row r="207">
@@ -2094,7 +2094,7 @@
         <v>36732</v>
       </c>
       <c r="B207" t="n">
-        <v>3.381774590711574</v>
+        <v>3.381778935480396</v>
       </c>
     </row>
     <row r="208">
@@ -2110,7 +2110,7 @@
         <v>36734</v>
       </c>
       <c r="B209" t="n">
-        <v>3.704693585016021</v>
+        <v>3.704703734263448</v>
       </c>
     </row>
     <row r="210">
@@ -2118,7 +2118,7 @@
         <v>36735</v>
       </c>
       <c r="B210" t="n">
-        <v>3.855698385891915</v>
+        <v>3.855697287253109</v>
       </c>
     </row>
     <row r="211">
@@ -2126,7 +2126,7 @@
         <v>36736</v>
       </c>
       <c r="B211" t="n">
-        <v>2.419728952906964</v>
+        <v>2.41973743863259</v>
       </c>
     </row>
     <row r="212">
@@ -2134,7 +2134,7 @@
         <v>36737</v>
       </c>
       <c r="B212" t="n">
-        <v>3.403555883463525</v>
+        <v>3.40355580725026</v>
       </c>
     </row>
     <row r="213">
@@ -2150,7 +2150,7 @@
         <v>36739</v>
       </c>
       <c r="B214" t="n">
-        <v>3.441702231035392</v>
+        <v>3.441705761817002</v>
       </c>
     </row>
     <row r="215">
@@ -2182,7 +2182,7 @@
         <v>36743</v>
       </c>
       <c r="B218" t="n">
-        <v>2.944961200832889</v>
+        <v>2.944964031219414</v>
       </c>
     </row>
     <row r="219">
@@ -2198,7 +2198,7 @@
         <v>36745</v>
       </c>
       <c r="B220" t="n">
-        <v>3.037282768944523</v>
+        <v>3.037287352357633</v>
       </c>
     </row>
     <row r="221">
@@ -2206,7 +2206,7 @@
         <v>36746</v>
       </c>
       <c r="B221" t="n">
-        <v>6.3014274375998</v>
+        <v>6.301427756141774</v>
       </c>
     </row>
     <row r="222">
@@ -2222,7 +2222,7 @@
         <v>36748</v>
       </c>
       <c r="B223" t="n">
-        <v>2.787862169939257</v>
+        <v>2.787871925889192</v>
       </c>
     </row>
     <row r="224">
@@ -2254,7 +2254,7 @@
         <v>36752</v>
       </c>
       <c r="B227" t="n">
-        <v>6.499999999999999</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="228">
@@ -2294,7 +2294,7 @@
         <v>36757</v>
       </c>
       <c r="B232" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="233">
@@ -2302,7 +2302,7 @@
         <v>36758</v>
       </c>
       <c r="B233" t="n">
-        <v>0.6947963162982242</v>
+        <v>0.6947941989852841</v>
       </c>
     </row>
     <row r="234">
@@ -2326,7 +2326,7 @@
         <v>36761</v>
       </c>
       <c r="B236" t="n">
-        <v>3.905169895513403</v>
+        <v>3.905168380340188</v>
       </c>
     </row>
     <row r="237">
@@ -2334,7 +2334,7 @@
         <v>36762</v>
       </c>
       <c r="B237" t="n">
-        <v>6.031840234613925</v>
+        <v>6.031846152659302</v>
       </c>
     </row>
     <row r="238">
@@ -2350,7 +2350,7 @@
         <v>36764</v>
       </c>
       <c r="B239" t="n">
-        <v>5.880407880586388</v>
+        <v>5.880408176492825</v>
       </c>
     </row>
     <row r="240">
@@ -2358,7 +2358,7 @@
         <v>36765</v>
       </c>
       <c r="B240" t="n">
-        <v>3.651946021168485</v>
+        <v>3.651945889148166</v>
       </c>
     </row>
     <row r="241">
@@ -2382,7 +2382,7 @@
         <v>36768</v>
       </c>
       <c r="B243" t="n">
-        <v>3.117318391450012</v>
+        <v>3.117320750501105</v>
       </c>
     </row>
     <row r="244">
@@ -2390,7 +2390,7 @@
         <v>36769</v>
       </c>
       <c r="B244" t="n">
-        <v>3.237769481965123</v>
+        <v>3.237778681826236</v>
       </c>
     </row>
     <row r="245">
@@ -2398,7 +2398,7 @@
         <v>36770</v>
       </c>
       <c r="B245" t="n">
-        <v>3.808953332721739</v>
+        <v>3.808973793385333</v>
       </c>
     </row>
     <row r="246">
@@ -2406,7 +2406,7 @@
         <v>36771</v>
       </c>
       <c r="B246" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="247">
@@ -2430,7 +2430,7 @@
         <v>36774</v>
       </c>
       <c r="B249" t="n">
-        <v>5.925828472720331</v>
+        <v>5.925834261649912</v>
       </c>
     </row>
     <row r="250">
@@ -2438,7 +2438,7 @@
         <v>36775</v>
       </c>
       <c r="B250" t="n">
-        <v>4.501031576707536</v>
+        <v>4.501032570726371</v>
       </c>
     </row>
     <row r="251">
@@ -2454,7 +2454,7 @@
         <v>36777</v>
       </c>
       <c r="B252" t="n">
-        <v>3.993247719343845</v>
+        <v>3.993268370247011</v>
       </c>
     </row>
     <row r="253">
@@ -2462,7 +2462,7 @@
         <v>36778</v>
       </c>
       <c r="B253" t="n">
-        <v>3.688525376471673</v>
+        <v>3.688525310257439</v>
       </c>
     </row>
     <row r="254">
@@ -2470,7 +2470,7 @@
         <v>36779</v>
       </c>
       <c r="B254" t="n">
-        <v>4.035726662721341</v>
+        <v>4.035731880565836</v>
       </c>
     </row>
     <row r="255">
@@ -2478,7 +2478,7 @@
         <v>36780</v>
       </c>
       <c r="B255" t="n">
-        <v>5.665235111738973</v>
+        <v>5.665234588504529</v>
       </c>
     </row>
     <row r="256">
@@ -2486,7 +2486,7 @@
         <v>36781</v>
       </c>
       <c r="B256" t="n">
-        <v>5.298081596253003</v>
+        <v>5.298081695808655</v>
       </c>
     </row>
     <row r="257">
@@ -2494,7 +2494,7 @@
         <v>36782</v>
       </c>
       <c r="B257" t="n">
-        <v>5.412501893365623</v>
+        <v>5.412501893541934</v>
       </c>
     </row>
     <row r="258">
@@ -2502,7 +2502,7 @@
         <v>36783</v>
       </c>
       <c r="B258" t="n">
-        <v>4.925089908689711</v>
+        <v>4.925089914798103</v>
       </c>
     </row>
     <row r="259">
@@ -2526,7 +2526,7 @@
         <v>36786</v>
       </c>
       <c r="B261" t="n">
-        <v>2.966697812711008</v>
+        <v>2.966698630463583</v>
       </c>
     </row>
     <row r="262">
@@ -2550,7 +2550,7 @@
         <v>36789</v>
       </c>
       <c r="B264" t="n">
-        <v>3.99743789658323</v>
+        <v>3.997437896440418</v>
       </c>
     </row>
     <row r="265">
@@ -2558,7 +2558,7 @@
         <v>36790</v>
       </c>
       <c r="B265" t="n">
-        <v>6.486999999999999</v>
+        <v>6.487</v>
       </c>
     </row>
     <row r="266">
@@ -2566,7 +2566,7 @@
         <v>36791</v>
       </c>
       <c r="B266" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="267">
@@ -2582,7 +2582,7 @@
         <v>36793</v>
       </c>
       <c r="B268" t="n">
-        <v>3.428426441679281</v>
+        <v>3.4284263763891</v>
       </c>
     </row>
     <row r="269">
@@ -2606,7 +2606,7 @@
         <v>36796</v>
       </c>
       <c r="B271" t="n">
-        <v>5.59935206615785</v>
+        <v>5.599352248956297</v>
       </c>
     </row>
     <row r="272">
@@ -2614,7 +2614,7 @@
         <v>36797</v>
       </c>
       <c r="B272" t="n">
-        <v>4.201537346740495</v>
+        <v>4.201547573175034</v>
       </c>
     </row>
     <row r="273">
@@ -2638,7 +2638,7 @@
         <v>36800</v>
       </c>
       <c r="B275" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="276">
@@ -2646,7 +2646,7 @@
         <v>36801</v>
       </c>
       <c r="B276" t="n">
-        <v>2.130074373292783</v>
+        <v>2.130013596118428</v>
       </c>
     </row>
     <row r="277">
@@ -2654,7 +2654,7 @@
         <v>36802</v>
       </c>
       <c r="B277" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="278">
@@ -2678,7 +2678,7 @@
         <v>36805</v>
       </c>
       <c r="B280" t="n">
-        <v>5.980803665281964</v>
+        <v>5.980805333134611</v>
       </c>
     </row>
     <row r="281">
@@ -2710,7 +2710,7 @@
         <v>36809</v>
       </c>
       <c r="B284" t="n">
-        <v>5.69905933106458</v>
+        <v>5.699058912561958</v>
       </c>
     </row>
     <row r="285">
@@ -2726,7 +2726,7 @@
         <v>36811</v>
       </c>
       <c r="B286" t="n">
-        <v>4.432647999285921</v>
+        <v>4.432568730851585</v>
       </c>
     </row>
     <row r="287">
@@ -2734,7 +2734,7 @@
         <v>36812</v>
       </c>
       <c r="B287" t="n">
-        <v>4.028251545873799</v>
+        <v>4.028076065125143</v>
       </c>
     </row>
     <row r="288">
@@ -2742,7 +2742,7 @@
         <v>36813</v>
       </c>
       <c r="B288" t="n">
-        <v>4.64728758074246</v>
+        <v>4.647294408921598</v>
       </c>
     </row>
     <row r="289">
@@ -2766,7 +2766,7 @@
         <v>36816</v>
       </c>
       <c r="B291" t="n">
-        <v>5.414347282875879</v>
+        <v>5.414347216647496</v>
       </c>
     </row>
     <row r="292">
@@ -2774,7 +2774,7 @@
         <v>36817</v>
       </c>
       <c r="B292" t="n">
-        <v>4.69565899973839</v>
+        <v>4.695658983598448</v>
       </c>
     </row>
     <row r="293">
@@ -2782,7 +2782,7 @@
         <v>36818</v>
       </c>
       <c r="B293" t="n">
-        <v>4.11043789376312</v>
+        <v>4.110401880438967</v>
       </c>
     </row>
     <row r="294">
@@ -2790,7 +2790,7 @@
         <v>36819</v>
       </c>
       <c r="B294" t="n">
-        <v>4.836633716931826</v>
+        <v>4.836649010452272</v>
       </c>
     </row>
     <row r="295">
@@ -2798,7 +2798,7 @@
         <v>36820</v>
       </c>
       <c r="B295" t="n">
-        <v>4.954744932823717</v>
+        <v>4.95474484012031</v>
       </c>
     </row>
     <row r="296">
@@ -2806,7 +2806,7 @@
         <v>36821</v>
       </c>
       <c r="B296" t="n">
-        <v>6.142682403681197</v>
+        <v>6.142682390752019</v>
       </c>
     </row>
     <row r="297">
@@ -2822,7 +2822,7 @@
         <v>36823</v>
       </c>
       <c r="B298" t="n">
-        <v>1.063331432994028</v>
+        <v>1.063348393495428</v>
       </c>
     </row>
     <row r="299">
@@ -2838,7 +2838,7 @@
         <v>36825</v>
       </c>
       <c r="B300" t="n">
-        <v>0.2943768733575121</v>
+        <v>0.2943761420542469</v>
       </c>
     </row>
     <row r="301">
@@ -2846,7 +2846,7 @@
         <v>36826</v>
       </c>
       <c r="B301" t="n">
-        <v>5.579170798785707</v>
+        <v>5.579169413890433</v>
       </c>
     </row>
     <row r="302">
@@ -2878,7 +2878,7 @@
         <v>36830</v>
       </c>
       <c r="B305" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="306">
@@ -2894,7 +2894,7 @@
         <v>36832</v>
       </c>
       <c r="B307" t="n">
-        <v>4.227940181601699</v>
+        <v>4.227939820192869</v>
       </c>
     </row>
     <row r="308">
@@ -2902,7 +2902,7 @@
         <v>36833</v>
       </c>
       <c r="B308" t="n">
-        <v>6.138116428692291</v>
+        <v>6.138135132345361</v>
       </c>
     </row>
     <row r="309">
@@ -2918,7 +2918,7 @@
         <v>36835</v>
       </c>
       <c r="B310" t="n">
-        <v>4.649882740372137</v>
+        <v>4.649871726109403</v>
       </c>
     </row>
     <row r="311">
@@ -2934,7 +2934,7 @@
         <v>36837</v>
       </c>
       <c r="B312" t="n">
-        <v>0.572980328742442</v>
+        <v>0.5730599518409627</v>
       </c>
     </row>
     <row r="313">
@@ -2942,7 +2942,7 @@
         <v>36838</v>
       </c>
       <c r="B313" t="n">
-        <v>6.499999999999998</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="314">
@@ -2950,7 +2950,7 @@
         <v>36839</v>
       </c>
       <c r="B314" t="n">
-        <v>6.5</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="315">
@@ -2958,7 +2958,7 @@
         <v>36840</v>
       </c>
       <c r="B315" t="n">
-        <v>0.1267501256858627</v>
+        <v>0.1267443996849951</v>
       </c>
     </row>
     <row r="316">
@@ -2966,7 +2966,7 @@
         <v>36841</v>
       </c>
       <c r="B316" t="n">
-        <v>2.891388724667282</v>
+        <v>2.891485080991422</v>
       </c>
     </row>
     <row r="317">
@@ -2982,7 +2982,7 @@
         <v>36843</v>
       </c>
       <c r="B318" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="319">
@@ -2990,7 +2990,7 @@
         <v>36844</v>
       </c>
       <c r="B319" t="n">
-        <v>4.468517086712012</v>
+        <v>4.468523002785833</v>
       </c>
     </row>
     <row r="320">
@@ -2998,7 +2998,7 @@
         <v>36845</v>
       </c>
       <c r="B320" t="n">
-        <v>5.987</v>
+        <v>5.986999999999999</v>
       </c>
     </row>
     <row r="321">
@@ -3006,7 +3006,7 @@
         <v>36846</v>
       </c>
       <c r="B321" t="n">
-        <v>4.705200555553783</v>
+        <v>4.705120974025649</v>
       </c>
     </row>
     <row r="322">
@@ -3030,7 +3030,7 @@
         <v>36849</v>
       </c>
       <c r="B324" t="n">
-        <v>2.529653753081088</v>
+        <v>2.529540566308586</v>
       </c>
     </row>
     <row r="325">
@@ -3046,7 +3046,7 @@
         <v>36851</v>
       </c>
       <c r="B326" t="n">
-        <v>1.493206619950081</v>
+        <v>1.493209408810832</v>
       </c>
     </row>
     <row r="327">
@@ -3054,7 +3054,7 @@
         <v>36852</v>
       </c>
       <c r="B327" t="n">
-        <v>6.338</v>
+        <v>6.337999999999999</v>
       </c>
     </row>
     <row r="328">
@@ -3094,7 +3094,7 @@
         <v>36857</v>
       </c>
       <c r="B332" t="n">
-        <v>0.611268247079251</v>
+        <v>0.6112741891946165</v>
       </c>
     </row>
     <row r="333">
@@ -3118,7 +3118,7 @@
         <v>36860</v>
       </c>
       <c r="B335" t="n">
-        <v>1.628049758908789</v>
+        <v>1.628054240519556</v>
       </c>
     </row>
     <row r="336">
@@ -3126,7 +3126,7 @@
         <v>36861</v>
       </c>
       <c r="B336" t="n">
-        <v>1.417106259361311</v>
+        <v>1.417151519761687</v>
       </c>
     </row>
     <row r="337">
@@ -3142,7 +3142,7 @@
         <v>36863</v>
       </c>
       <c r="B338" t="n">
-        <v>1.310898957190282</v>
+        <v>1.31090706884663</v>
       </c>
     </row>
     <row r="339">
@@ -3150,7 +3150,7 @@
         <v>36864</v>
       </c>
       <c r="B339" t="n">
-        <v>5.486159285185395</v>
+        <v>5.486251911395063</v>
       </c>
     </row>
     <row r="340">
@@ -3158,7 +3158,7 @@
         <v>36865</v>
       </c>
       <c r="B340" t="n">
-        <v>0.6791608805090072</v>
+        <v>0.6791696317333129</v>
       </c>
     </row>
     <row r="341">
@@ -3190,7 +3190,7 @@
         <v>36869</v>
       </c>
       <c r="B344" t="n">
-        <v>0.2584388000202474</v>
+        <v>0.2584264564409955</v>
       </c>
     </row>
     <row r="345">
@@ -3206,7 +3206,7 @@
         <v>36871</v>
       </c>
       <c r="B346" t="n">
-        <v>6.432585984482005</v>
+        <v>6.432650610636871</v>
       </c>
     </row>
     <row r="347">
@@ -3214,7 +3214,7 @@
         <v>36872</v>
       </c>
       <c r="B347" t="n">
-        <v>0.8854208533855804</v>
+        <v>0.8854337137624242</v>
       </c>
     </row>
     <row r="348">
@@ -3222,7 +3222,7 @@
         <v>36873</v>
       </c>
       <c r="B348" t="n">
-        <v>5.929052910279313</v>
+        <v>5.929039963340119</v>
       </c>
     </row>
     <row r="349">
@@ -3230,7 +3230,7 @@
         <v>36874</v>
       </c>
       <c r="B349" t="n">
-        <v>0.1887192333028802</v>
+        <v>0.1887196648467258</v>
       </c>
     </row>
     <row r="350">
@@ -3238,7 +3238,7 @@
         <v>36875</v>
       </c>
       <c r="B350" t="n">
-        <v>0.1691075555851096</v>
+        <v>0.1690994852528138</v>
       </c>
     </row>
     <row r="351">
@@ -3246,7 +3246,7 @@
         <v>36876</v>
       </c>
       <c r="B351" t="n">
-        <v>0.5728296657620806</v>
+        <v>0.5728402243761959</v>
       </c>
     </row>
     <row r="352">
@@ -3254,7 +3254,7 @@
         <v>36877</v>
       </c>
       <c r="B352" t="n">
-        <v>1.135162555819855</v>
+        <v>1.135100862620721</v>
       </c>
     </row>
     <row r="353">
@@ -3262,7 +3262,7 @@
         <v>36878</v>
       </c>
       <c r="B353" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="354">
@@ -3294,7 +3294,7 @@
         <v>36882</v>
       </c>
       <c r="B357" t="n">
-        <v>0.8842509689967748</v>
+        <v>0.8842481994722022</v>
       </c>
     </row>
     <row r="358">
@@ -3310,7 +3310,7 @@
         <v>36884</v>
       </c>
       <c r="B359" t="n">
-        <v>4.27671206157713</v>
+        <v>4.276550684756547</v>
       </c>
     </row>
     <row r="360">
@@ -3318,7 +3318,7 @@
         <v>36885</v>
       </c>
       <c r="B360" t="n">
-        <v>5.239697994141324</v>
+        <v>5.239572660613996</v>
       </c>
     </row>
     <row r="361">
@@ -3326,7 +3326,7 @@
         <v>36886</v>
       </c>
       <c r="B361" t="n">
-        <v>5.619014616586254</v>
+        <v>5.619012260768555</v>
       </c>
     </row>
     <row r="362">
@@ -3334,7 +3334,7 @@
         <v>36887</v>
       </c>
       <c r="B362" t="n">
-        <v>4.395952214671079</v>
+        <v>4.395980383100534</v>
       </c>
     </row>
     <row r="363">
@@ -3342,7 +3342,7 @@
         <v>36888</v>
       </c>
       <c r="B363" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="364">
@@ -3358,7 +3358,7 @@
         <v>36890</v>
       </c>
       <c r="B365" t="n">
-        <v>0.1214728879609586</v>
+        <v>0.1214770649065416</v>
       </c>
     </row>
     <row r="366">

--- a/results/end_of_day_charge_levels.xlsx
+++ b/results/end_of_day_charge_levels.xlsx
@@ -454,7 +454,7 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>2.40078853016705</v>
+        <v>1.605982525823343</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>36527</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7983476683815036</v>
+        <v>0.5330476534700397</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>36528</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1369844091021699</v>
+        <v>0.0916910589638706</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         <v>36530</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9132964147695912</v>
+        <v>0.6344765447378493</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>36531</v>
       </c>
       <c r="B7" t="n">
-        <v>2.101327880665513</v>
+        <v>1.283787880932522</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>36532</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2286467691367796</v>
+        <v>0.1298143359505849</v>
       </c>
     </row>
     <row r="9">
@@ -518,7 +518,7 @@
         <v>36534</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1862038118957645</v>
+        <v>0.126871433736816</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>36535</v>
       </c>
       <c r="B11" t="n">
-        <v>0.888921299754214</v>
+        <v>0.5701775747175443</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>36536</v>
       </c>
       <c r="B12" t="n">
-        <v>2.009663014611736</v>
+        <v>1.310271955338907</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>36537</v>
       </c>
       <c r="B13" t="n">
-        <v>0.677325128734616</v>
+        <v>0.3663928257902206</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>36538</v>
       </c>
       <c r="B14" t="n">
-        <v>3.764970324012476</v>
+        <v>2.615465871047163</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>36539</v>
       </c>
       <c r="B15" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="16">
@@ -574,7 +574,7 @@
         <v>36541</v>
       </c>
       <c r="B17" t="n">
-        <v>4.11172410454001</v>
+        <v>2.848179804780232</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>36542</v>
       </c>
       <c r="B18" t="n">
-        <v>2.308504283170631</v>
+        <v>1.706738503425148</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>36543</v>
       </c>
       <c r="B19" t="n">
-        <v>1.388278677397627</v>
+        <v>0.9191987370371409</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>36544</v>
       </c>
       <c r="B20" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="21">
@@ -614,7 +614,7 @@
         <v>36546</v>
       </c>
       <c r="B22" t="n">
-        <v>6.5</v>
+        <v>5.849999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>36547</v>
       </c>
       <c r="B23" t="n">
-        <v>2.83862405413042</v>
+        <v>1.911483853314222</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>36548</v>
       </c>
       <c r="B24" t="n">
-        <v>6.361534153566128</v>
+        <v>4.502749416439996</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>36549</v>
       </c>
       <c r="B25" t="n">
-        <v>0.006859479396232757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -654,7 +654,7 @@
         <v>36551</v>
       </c>
       <c r="B27" t="n">
-        <v>6.5</v>
+        <v>5.071162833173536</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>36552</v>
       </c>
       <c r="B28" t="n">
-        <v>6.5</v>
+        <v>5.849999999999998</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>36553</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6036711269523287</v>
+        <v>0.2979418653311297</v>
       </c>
     </row>
     <row r="30">
@@ -686,7 +686,7 @@
         <v>36555</v>
       </c>
       <c r="B31" t="n">
-        <v>6.5</v>
+        <v>5.849999999999999</v>
       </c>
     </row>
     <row r="32">
@@ -702,7 +702,7 @@
         <v>36557</v>
       </c>
       <c r="B33" t="n">
-        <v>1.344270999435606</v>
+        <v>1.1029536333994</v>
       </c>
     </row>
     <row r="34">
@@ -726,7 +726,7 @@
         <v>36560</v>
       </c>
       <c r="B36" t="n">
-        <v>3.087386741077501</v>
+        <v>1.90717469037034</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +734,7 @@
         <v>36561</v>
       </c>
       <c r="B37" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="38">
@@ -742,7 +742,7 @@
         <v>36562</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5247707164381843</v>
+        <v>0.3412832201067314</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>36563</v>
       </c>
       <c r="B39" t="n">
-        <v>5.788516364689258</v>
+        <v>5.776327842946551</v>
       </c>
     </row>
     <row r="40">
@@ -758,7 +758,7 @@
         <v>36564</v>
       </c>
       <c r="B40" t="n">
-        <v>6.491</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>36565</v>
       </c>
       <c r="B41" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>36566</v>
       </c>
       <c r="B42" t="n">
-        <v>5.717985640685912</v>
+        <v>4.943602067702495</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>36567</v>
       </c>
       <c r="B43" t="n">
-        <v>5.3815702619524</v>
+        <v>3.89772134307336</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>36568</v>
       </c>
       <c r="B44" t="n">
-        <v>5.045207685960261</v>
+        <v>5.026999999999998</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>36569</v>
       </c>
       <c r="B45" t="n">
-        <v>5.32511692996343</v>
+        <v>5.30151404871111</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +806,7 @@
         <v>36570</v>
       </c>
       <c r="B46" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +814,7 @@
         <v>36571</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5629784814262113</v>
+        <v>0.3837336836866</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +822,7 @@
         <v>36572</v>
       </c>
       <c r="B48" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="49">
@@ -830,7 +830,7 @@
         <v>36573</v>
       </c>
       <c r="B49" t="n">
-        <v>6.5</v>
+        <v>5.849999999999999</v>
       </c>
     </row>
     <row r="50">
@@ -838,7 +838,7 @@
         <v>36574</v>
       </c>
       <c r="B50" t="n">
-        <v>6.499999999999999</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="51">
@@ -846,7 +846,7 @@
         <v>36575</v>
       </c>
       <c r="B51" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="52">
@@ -854,7 +854,7 @@
         <v>36576</v>
       </c>
       <c r="B52" t="n">
-        <v>5.128174202541984</v>
+        <v>5.100164152896842</v>
       </c>
     </row>
     <row r="53">
@@ -862,7 +862,7 @@
         <v>36577</v>
       </c>
       <c r="B53" t="n">
-        <v>6.301086874632688</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="54">
@@ -870,7 +870,7 @@
         <v>36578</v>
       </c>
       <c r="B54" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="55">
@@ -878,7 +878,7 @@
         <v>36579</v>
       </c>
       <c r="B55" t="n">
-        <v>4.274852926948935</v>
+        <v>4.037630323827188</v>
       </c>
     </row>
     <row r="56">
@@ -886,7 +886,7 @@
         <v>36580</v>
       </c>
       <c r="B56" t="n">
-        <v>4.803118892555184</v>
+        <v>4.595480024328353</v>
       </c>
     </row>
     <row r="57">
@@ -894,7 +894,7 @@
         <v>36581</v>
       </c>
       <c r="B57" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="58">
@@ -902,7 +902,7 @@
         <v>36582</v>
       </c>
       <c r="B58" t="n">
-        <v>5.576095242223889</v>
+        <v>5.474809946424287</v>
       </c>
     </row>
     <row r="59">
@@ -910,7 +910,7 @@
         <v>36583</v>
       </c>
       <c r="B59" t="n">
-        <v>5.153354680313583</v>
+        <v>5.007566362189319</v>
       </c>
     </row>
     <row r="60">
@@ -918,7 +918,7 @@
         <v>36584</v>
       </c>
       <c r="B60" t="n">
-        <v>6.462</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="61">
@@ -926,7 +926,7 @@
         <v>36586</v>
       </c>
       <c r="B61" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="62">
@@ -942,7 +942,7 @@
         <v>36588</v>
       </c>
       <c r="B63" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="64">
@@ -950,7 +950,7 @@
         <v>36589</v>
       </c>
       <c r="B64" t="n">
-        <v>4.68157928567709</v>
+        <v>4.775682399664257</v>
       </c>
     </row>
     <row r="65">
@@ -958,7 +958,7 @@
         <v>36590</v>
       </c>
       <c r="B65" t="n">
-        <v>5.167557429287877</v>
+        <v>5.314392849353955</v>
       </c>
     </row>
     <row r="66">
@@ -966,7 +966,7 @@
         <v>36591</v>
       </c>
       <c r="B66" t="n">
-        <v>6.499999999999999</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="67">
@@ -974,7 +974,7 @@
         <v>36592</v>
       </c>
       <c r="B67" t="n">
-        <v>1.955659618421378</v>
+        <v>1.332687916451212</v>
       </c>
     </row>
     <row r="68">
@@ -982,7 +982,7 @@
         <v>36593</v>
       </c>
       <c r="B68" t="n">
-        <v>5.827987100234001</v>
+        <v>4.872520998221174</v>
       </c>
     </row>
     <row r="69">
@@ -990,7 +990,7 @@
         <v>36594</v>
       </c>
       <c r="B69" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="70">
@@ -998,7 +998,7 @@
         <v>36595</v>
       </c>
       <c r="B70" t="n">
-        <v>6.416594275152619</v>
+        <v>4.38962598536064</v>
       </c>
     </row>
     <row r="71">
@@ -1006,7 +1006,7 @@
         <v>36596</v>
       </c>
       <c r="B71" t="n">
-        <v>5.495364593808604</v>
+        <v>5.516476465218913</v>
       </c>
     </row>
     <row r="72">
@@ -1014,7 +1014,7 @@
         <v>36597</v>
       </c>
       <c r="B72" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="73">
@@ -1030,7 +1030,7 @@
         <v>36599</v>
       </c>
       <c r="B74" t="n">
-        <v>6.409415752461385</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="75">
@@ -1038,7 +1038,7 @@
         <v>36600</v>
       </c>
       <c r="B75" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="76">
@@ -1046,7 +1046,7 @@
         <v>36601</v>
       </c>
       <c r="B76" t="n">
-        <v>0.02104690599911027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1054,7 +1054,7 @@
         <v>36602</v>
       </c>
       <c r="B77" t="n">
-        <v>5.419</v>
+        <v>5.534284206895279</v>
       </c>
     </row>
     <row r="78">
@@ -1062,7 +1062,7 @@
         <v>36603</v>
       </c>
       <c r="B78" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="79">
@@ -1086,7 +1086,7 @@
         <v>36606</v>
       </c>
       <c r="B81" t="n">
-        <v>3.929799837058727</v>
+        <v>4.123131664388564</v>
       </c>
     </row>
     <row r="82">
@@ -1094,7 +1094,7 @@
         <v>36607</v>
       </c>
       <c r="B82" t="n">
-        <v>5.853779495014439</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="83">
@@ -1102,7 +1102,7 @@
         <v>36608</v>
       </c>
       <c r="B83" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="84">
@@ -1110,7 +1110,7 @@
         <v>36609</v>
       </c>
       <c r="B84" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="85">
@@ -1126,7 +1126,7 @@
         <v>36611</v>
       </c>
       <c r="B86" t="n">
-        <v>6.499999999999999</v>
+        <v>5.849999999999999</v>
       </c>
     </row>
     <row r="87">
@@ -1134,7 +1134,7 @@
         <v>36612</v>
       </c>
       <c r="B87" t="n">
-        <v>6.499999999999999</v>
+        <v>5.849999999999999</v>
       </c>
     </row>
     <row r="88">
@@ -1150,7 +1150,7 @@
         <v>36614</v>
       </c>
       <c r="B89" t="n">
-        <v>6.5</v>
+        <v>5.849999999999999</v>
       </c>
     </row>
     <row r="90">
@@ -1158,7 +1158,7 @@
         <v>36615</v>
       </c>
       <c r="B90" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="91">
@@ -1182,7 +1182,7 @@
         <v>36618</v>
       </c>
       <c r="B93" t="n">
-        <v>6.145918368945955</v>
+        <v>5.849999999999999</v>
       </c>
     </row>
     <row r="94">
@@ -1190,7 +1190,7 @@
         <v>36619</v>
       </c>
       <c r="B94" t="n">
-        <v>6.499999999999999</v>
+        <v>5.849999999999999</v>
       </c>
     </row>
     <row r="95">
@@ -1198,7 +1198,7 @@
         <v>36620</v>
       </c>
       <c r="B95" t="n">
-        <v>5.938176882609632</v>
+        <v>5.849999999999999</v>
       </c>
     </row>
     <row r="96">
@@ -1214,7 +1214,7 @@
         <v>36622</v>
       </c>
       <c r="B97" t="n">
-        <v>3.28627410752775</v>
+        <v>3.291083374381222</v>
       </c>
     </row>
     <row r="98">
@@ -1222,7 +1222,7 @@
         <v>36623</v>
       </c>
       <c r="B98" t="n">
-        <v>4.017736443249147</v>
+        <v>4.190128127514801</v>
       </c>
     </row>
     <row r="99">
@@ -1230,7 +1230,7 @@
         <v>36624</v>
       </c>
       <c r="B99" t="n">
-        <v>5.536247400370842</v>
+        <v>5.564073475818218</v>
       </c>
     </row>
     <row r="100">
@@ -1238,7 +1238,7 @@
         <v>36625</v>
       </c>
       <c r="B100" t="n">
-        <v>6.263234970000906</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="101">
@@ -1246,7 +1246,7 @@
         <v>36626</v>
       </c>
       <c r="B101" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="102">
@@ -1254,7 +1254,7 @@
         <v>36627</v>
       </c>
       <c r="B102" t="n">
-        <v>6.057334429747376</v>
+        <v>4.340682728049308</v>
       </c>
     </row>
     <row r="103">
@@ -1262,7 +1262,7 @@
         <v>36628</v>
       </c>
       <c r="B103" t="n">
-        <v>3.955584998549207</v>
+        <v>3.987775498935441</v>
       </c>
     </row>
     <row r="104">
@@ -1270,7 +1270,7 @@
         <v>36629</v>
       </c>
       <c r="B104" t="n">
-        <v>3.659661408770528</v>
+        <v>3.738926379490842</v>
       </c>
     </row>
     <row r="105">
@@ -1278,7 +1278,7 @@
         <v>36630</v>
       </c>
       <c r="B105" t="n">
-        <v>3.375208389628559</v>
+        <v>3.44785917501664</v>
       </c>
     </row>
     <row r="106">
@@ -1286,7 +1286,7 @@
         <v>36631</v>
       </c>
       <c r="B106" t="n">
-        <v>2.613500081197449</v>
+        <v>2.617912158990995</v>
       </c>
     </row>
     <row r="107">
@@ -1294,7 +1294,7 @@
         <v>36632</v>
       </c>
       <c r="B107" t="n">
-        <v>4.018612910903791</v>
+        <v>4.023247087673624</v>
       </c>
     </row>
     <row r="108">
@@ -1310,7 +1310,7 @@
         <v>36634</v>
       </c>
       <c r="B109" t="n">
-        <v>4.913610816888446</v>
+        <v>4.915657566267175</v>
       </c>
     </row>
     <row r="110">
@@ -1318,7 +1318,7 @@
         <v>36635</v>
       </c>
       <c r="B110" t="n">
-        <v>2.696959508651497</v>
+        <v>2.71579974383448</v>
       </c>
     </row>
     <row r="111">
@@ -1326,7 +1326,7 @@
         <v>36636</v>
       </c>
       <c r="B111" t="n">
-        <v>2.77</v>
+        <v>2.810904008047713</v>
       </c>
     </row>
     <row r="112">
@@ -1334,7 +1334,7 @@
         <v>36637</v>
       </c>
       <c r="B112" t="n">
-        <v>2.935438413148481</v>
+        <v>2.969943065621335</v>
       </c>
     </row>
     <row r="113">
@@ -1342,7 +1342,7 @@
         <v>36638</v>
       </c>
       <c r="B113" t="n">
-        <v>4.613329298866459</v>
+        <v>4.622357399956988</v>
       </c>
     </row>
     <row r="114">
@@ -1350,7 +1350,7 @@
         <v>36639</v>
       </c>
       <c r="B114" t="n">
-        <v>5.46836782893452</v>
+        <v>5.486850575496449</v>
       </c>
     </row>
     <row r="115">
@@ -1358,7 +1358,7 @@
         <v>36640</v>
       </c>
       <c r="B115" t="n">
-        <v>3.275699778661274</v>
+        <v>3.293675646617555</v>
       </c>
     </row>
     <row r="116">
@@ -1366,7 +1366,7 @@
         <v>36641</v>
       </c>
       <c r="B116" t="n">
-        <v>3.697252947488955</v>
+        <v>3.715240971839681</v>
       </c>
     </row>
     <row r="117">
@@ -1382,7 +1382,7 @@
         <v>36643</v>
       </c>
       <c r="B118" t="n">
-        <v>6.049111504335697</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="119">
@@ -1390,7 +1390,7 @@
         <v>36644</v>
       </c>
       <c r="B119" t="n">
-        <v>5.304</v>
+        <v>5.303999999999999</v>
       </c>
     </row>
     <row r="120">
@@ -1398,7 +1398,7 @@
         <v>36645</v>
       </c>
       <c r="B120" t="n">
-        <v>6.418841334106983</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="121">
@@ -1414,7 +1414,7 @@
         <v>36647</v>
       </c>
       <c r="B122" t="n">
-        <v>2.374371982436845</v>
+        <v>2.38415792981611</v>
       </c>
     </row>
     <row r="123">
@@ -1422,7 +1422,7 @@
         <v>36648</v>
       </c>
       <c r="B123" t="n">
-        <v>2.713938625605067</v>
+        <v>2.720434328656464</v>
       </c>
     </row>
     <row r="124">
@@ -1430,7 +1430,7 @@
         <v>36649</v>
       </c>
       <c r="B124" t="n">
-        <v>3.26665632419887</v>
+        <v>3.088871279022486</v>
       </c>
     </row>
     <row r="125">
@@ -1446,7 +1446,7 @@
         <v>36651</v>
       </c>
       <c r="B126" t="n">
-        <v>2.075874077239789</v>
+        <v>2.07024872464765</v>
       </c>
     </row>
     <row r="127">
@@ -1454,7 +1454,7 @@
         <v>36652</v>
       </c>
       <c r="B127" t="n">
-        <v>3.505975887044737</v>
+        <v>3.50299623821807</v>
       </c>
     </row>
     <row r="128">
@@ -1462,7 +1462,7 @@
         <v>36653</v>
       </c>
       <c r="B128" t="n">
-        <v>2.141194619629005</v>
+        <v>2.15021536277116</v>
       </c>
     </row>
     <row r="129">
@@ -1470,7 +1470,7 @@
         <v>36654</v>
       </c>
       <c r="B129" t="n">
-        <v>2.210999999999999</v>
+        <v>2.211</v>
       </c>
     </row>
     <row r="130">
@@ -1478,7 +1478,7 @@
         <v>36655</v>
       </c>
       <c r="B130" t="n">
-        <v>4.60072352237656</v>
+        <v>4.611623087848461</v>
       </c>
     </row>
     <row r="131">
@@ -1502,7 +1502,7 @@
         <v>36658</v>
       </c>
       <c r="B133" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="134">
@@ -1518,7 +1518,7 @@
         <v>36660</v>
       </c>
       <c r="B135" t="n">
-        <v>2.867</v>
+        <v>2.872040077464197</v>
       </c>
     </row>
     <row r="136">
@@ -1526,7 +1526,7 @@
         <v>36661</v>
       </c>
       <c r="B136" t="n">
-        <v>3.698657585680443</v>
+        <v>3.74429808290262</v>
       </c>
     </row>
     <row r="137">
@@ -1534,7 +1534,7 @@
         <v>36662</v>
       </c>
       <c r="B137" t="n">
-        <v>2.486</v>
+        <v>2.488533790338028</v>
       </c>
     </row>
     <row r="138">
@@ -1550,7 +1550,7 @@
         <v>36664</v>
       </c>
       <c r="B139" t="n">
-        <v>4.372940858374545</v>
+        <v>4.392567774245988</v>
       </c>
     </row>
     <row r="140">
@@ -1558,7 +1558,7 @@
         <v>36665</v>
       </c>
       <c r="B140" t="n">
-        <v>3.657785508899216</v>
+        <v>3.695651087731592</v>
       </c>
     </row>
     <row r="141">
@@ -1566,7 +1566,7 @@
         <v>36666</v>
       </c>
       <c r="B141" t="n">
-        <v>4.7310112108476</v>
+        <v>4.735390314921951</v>
       </c>
     </row>
     <row r="142">
@@ -1582,7 +1582,7 @@
         <v>36668</v>
       </c>
       <c r="B143" t="n">
-        <v>6.071857880920384</v>
+        <v>5.849999999999999</v>
       </c>
     </row>
     <row r="144">
@@ -1590,7 +1590,7 @@
         <v>36669</v>
       </c>
       <c r="B144" t="n">
-        <v>4.214705923851013</v>
+        <v>4.223179384485313</v>
       </c>
     </row>
     <row r="145">
@@ -1598,7 +1598,7 @@
         <v>36670</v>
       </c>
       <c r="B145" t="n">
-        <v>2.051887326087443</v>
+        <v>2.012</v>
       </c>
     </row>
     <row r="146">
@@ -1614,7 +1614,7 @@
         <v>36672</v>
       </c>
       <c r="B147" t="n">
-        <v>5.201497655175229</v>
+        <v>5.438554187859822</v>
       </c>
     </row>
     <row r="148">
@@ -1622,7 +1622,7 @@
         <v>36673</v>
       </c>
       <c r="B148" t="n">
-        <v>3.755999999999999</v>
+        <v>3.767932679781875</v>
       </c>
     </row>
     <row r="149">
@@ -1646,7 +1646,7 @@
         <v>36676</v>
       </c>
       <c r="B151" t="n">
-        <v>2.803375775852646</v>
+        <v>2.850096951524709</v>
       </c>
     </row>
     <row r="152">
@@ -1654,7 +1654,7 @@
         <v>36677</v>
       </c>
       <c r="B152" t="n">
-        <v>6.101000000000001</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="153">
@@ -1670,7 +1670,7 @@
         <v>36679</v>
       </c>
       <c r="B154" t="n">
-        <v>2.431849533154799</v>
+        <v>2.64150216528557</v>
       </c>
     </row>
     <row r="155">
@@ -1678,7 +1678,7 @@
         <v>36680</v>
       </c>
       <c r="B155" t="n">
-        <v>2.240457260025708</v>
+        <v>2.288164258000337</v>
       </c>
     </row>
     <row r="156">
@@ -1686,7 +1686,7 @@
         <v>36681</v>
       </c>
       <c r="B156" t="n">
-        <v>6.5</v>
+        <v>5.849999999999999</v>
       </c>
     </row>
     <row r="157">
@@ -1702,7 +1702,7 @@
         <v>36683</v>
       </c>
       <c r="B158" t="n">
-        <v>4.494021953490208</v>
+        <v>4.535536144161216</v>
       </c>
     </row>
     <row r="159">
@@ -1710,7 +1710,7 @@
         <v>36684</v>
       </c>
       <c r="B159" t="n">
-        <v>3.846675770326396</v>
+        <v>3.976106220453738</v>
       </c>
     </row>
     <row r="160">
@@ -1718,7 +1718,7 @@
         <v>36685</v>
       </c>
       <c r="B160" t="n">
-        <v>3.526</v>
+        <v>3.536412424301602</v>
       </c>
     </row>
     <row r="161">
@@ -1726,7 +1726,7 @@
         <v>36686</v>
       </c>
       <c r="B161" t="n">
-        <v>4.959556918414678</v>
+        <v>5.185737315397258</v>
       </c>
     </row>
     <row r="162">
@@ -1742,7 +1742,7 @@
         <v>36688</v>
       </c>
       <c r="B163" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="164">
@@ -1750,7 +1750,7 @@
         <v>36689</v>
       </c>
       <c r="B164" t="n">
-        <v>5.934114509998363</v>
+        <v>4.243722073856629</v>
       </c>
     </row>
     <row r="165">
@@ -1766,7 +1766,7 @@
         <v>36691</v>
       </c>
       <c r="B166" t="n">
-        <v>3.787999999999999</v>
+        <v>3.832139993698872</v>
       </c>
     </row>
     <row r="167">
@@ -1774,7 +1774,7 @@
         <v>36692</v>
       </c>
       <c r="B167" t="n">
-        <v>3.63040833846215</v>
+        <v>3.781092970140138</v>
       </c>
     </row>
     <row r="168">
@@ -1782,7 +1782,7 @@
         <v>36693</v>
       </c>
       <c r="B168" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="169">
@@ -1790,7 +1790,7 @@
         <v>36694</v>
       </c>
       <c r="B169" t="n">
-        <v>4.431323292137038</v>
+        <v>4.56877751676671</v>
       </c>
     </row>
     <row r="170">
@@ -1798,7 +1798,7 @@
         <v>36695</v>
       </c>
       <c r="B170" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="171">
@@ -1814,7 +1814,7 @@
         <v>36697</v>
       </c>
       <c r="B172" t="n">
-        <v>3.787080550346028</v>
+        <v>4.057667029304417</v>
       </c>
     </row>
     <row r="173">
@@ -1822,7 +1822,7 @@
         <v>36698</v>
       </c>
       <c r="B173" t="n">
-        <v>3.556231025778801</v>
+        <v>3.558769498318112</v>
       </c>
     </row>
     <row r="174">
@@ -1830,7 +1830,7 @@
         <v>36699</v>
       </c>
       <c r="B174" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="175">
@@ -1838,7 +1838,7 @@
         <v>36700</v>
       </c>
       <c r="B175" t="n">
-        <v>5.588840768763844</v>
+        <v>3.796362603429127</v>
       </c>
     </row>
     <row r="176">
@@ -1854,7 +1854,7 @@
         <v>36702</v>
       </c>
       <c r="B177" t="n">
-        <v>1.975</v>
+        <v>1.981119023286594</v>
       </c>
     </row>
     <row r="178">
@@ -1862,7 +1862,7 @@
         <v>36703</v>
       </c>
       <c r="B178" t="n">
-        <v>2.986361521264099</v>
+        <v>3.042628498181009</v>
       </c>
     </row>
     <row r="179">
@@ -1870,7 +1870,7 @@
         <v>36704</v>
       </c>
       <c r="B179" t="n">
-        <v>4.332243817134432</v>
+        <v>4.359685644245078</v>
       </c>
     </row>
     <row r="180">
@@ -1878,7 +1878,7 @@
         <v>36705</v>
       </c>
       <c r="B180" t="n">
-        <v>4.364224641487763</v>
+        <v>4.634321634475326</v>
       </c>
     </row>
     <row r="181">
@@ -1886,7 +1886,7 @@
         <v>36706</v>
       </c>
       <c r="B181" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="182">
@@ -1894,7 +1894,7 @@
         <v>36707</v>
       </c>
       <c r="B182" t="n">
-        <v>1.087186482423669</v>
+        <v>0.6986080821381027</v>
       </c>
     </row>
     <row r="183">
@@ -1902,7 +1902,7 @@
         <v>36708</v>
       </c>
       <c r="B183" t="n">
-        <v>3.875655676193163</v>
+        <v>3.882613298790826</v>
       </c>
     </row>
     <row r="184">
@@ -1926,7 +1926,7 @@
         <v>36711</v>
       </c>
       <c r="B186" t="n">
-        <v>2.123936352198118</v>
+        <v>2.131092967932826</v>
       </c>
     </row>
     <row r="187">
@@ -1934,7 +1934,7 @@
         <v>36712</v>
       </c>
       <c r="B187" t="n">
-        <v>2.431999999999999</v>
+        <v>2.434921094761463</v>
       </c>
     </row>
     <row r="188">
@@ -1942,7 +1942,7 @@
         <v>36713</v>
       </c>
       <c r="B188" t="n">
-        <v>2.495748784209425</v>
+        <v>2.524481147968648</v>
       </c>
     </row>
     <row r="189">
@@ -1950,7 +1950,7 @@
         <v>36714</v>
       </c>
       <c r="B189" t="n">
-        <v>2.066233762348141</v>
+        <v>2.071718883965604</v>
       </c>
     </row>
     <row r="190">
@@ -1958,7 +1958,7 @@
         <v>36715</v>
       </c>
       <c r="B190" t="n">
-        <v>3.094976546541552</v>
+        <v>3.101565761986096</v>
       </c>
     </row>
     <row r="191">
@@ -1966,7 +1966,7 @@
         <v>36716</v>
       </c>
       <c r="B191" t="n">
-        <v>5.338294212719054</v>
+        <v>5.412323048648014</v>
       </c>
     </row>
     <row r="192">
@@ -1974,7 +1974,7 @@
         <v>36717</v>
       </c>
       <c r="B192" t="n">
-        <v>4.145</v>
+        <v>2.95047158941133</v>
       </c>
     </row>
     <row r="193">
@@ -1982,7 +1982,7 @@
         <v>36718</v>
       </c>
       <c r="B193" t="n">
-        <v>2.850268591802399</v>
+        <v>2.867975877442503</v>
       </c>
     </row>
     <row r="194">
@@ -1990,7 +1990,7 @@
         <v>36719</v>
       </c>
       <c r="B194" t="n">
-        <v>2.838581526978491</v>
+        <v>2.858384129207317</v>
       </c>
     </row>
     <row r="195">
@@ -2006,7 +2006,7 @@
         <v>36721</v>
       </c>
       <c r="B196" t="n">
-        <v>2.524</v>
+        <v>2.53870152274473</v>
       </c>
     </row>
     <row r="197">
@@ -2030,7 +2030,7 @@
         <v>36724</v>
       </c>
       <c r="B199" t="n">
-        <v>2.255786131717061</v>
+        <v>2.27176970671099</v>
       </c>
     </row>
     <row r="200">
@@ -2038,7 +2038,7 @@
         <v>36725</v>
       </c>
       <c r="B200" t="n">
-        <v>2.258088121899604</v>
+        <v>2.274922360096097</v>
       </c>
     </row>
     <row r="201">
@@ -2046,7 +2046,7 @@
         <v>36726</v>
       </c>
       <c r="B201" t="n">
-        <v>3.09</v>
+        <v>3.092933452192248</v>
       </c>
     </row>
     <row r="202">
@@ -2054,7 +2054,7 @@
         <v>36727</v>
       </c>
       <c r="B202" t="n">
-        <v>3.490963645467026</v>
+        <v>3.630894123220717</v>
       </c>
     </row>
     <row r="203">
@@ -2062,7 +2062,7 @@
         <v>36728</v>
       </c>
       <c r="B203" t="n">
-        <v>4.356267981291646</v>
+        <v>4.380960971905724</v>
       </c>
     </row>
     <row r="204">
@@ -2070,7 +2070,7 @@
         <v>36729</v>
       </c>
       <c r="B204" t="n">
-        <v>3.795131424497962</v>
+        <v>3.877408938576518</v>
       </c>
     </row>
     <row r="205">
@@ -2078,7 +2078,7 @@
         <v>36730</v>
       </c>
       <c r="B205" t="n">
-        <v>3.855912143600102</v>
+        <v>3.940469058925492</v>
       </c>
     </row>
     <row r="206">
@@ -2086,7 +2086,7 @@
         <v>36731</v>
       </c>
       <c r="B206" t="n">
-        <v>5.043723835895239</v>
+        <v>5.071005614923773</v>
       </c>
     </row>
     <row r="207">
@@ -2094,7 +2094,7 @@
         <v>36732</v>
       </c>
       <c r="B207" t="n">
-        <v>3.342509168115181</v>
+        <v>3.378698107584757</v>
       </c>
     </row>
     <row r="208">
@@ -2110,7 +2110,7 @@
         <v>36734</v>
       </c>
       <c r="B209" t="n">
-        <v>3.627392202453783</v>
+        <v>3.69066266105002</v>
       </c>
     </row>
     <row r="210">
@@ -2118,7 +2118,7 @@
         <v>36735</v>
       </c>
       <c r="B210" t="n">
-        <v>3.734422739786424</v>
+        <v>3.885641709401948</v>
       </c>
     </row>
     <row r="211">
@@ -2126,7 +2126,7 @@
         <v>36736</v>
       </c>
       <c r="B211" t="n">
-        <v>2.38559582525388</v>
+        <v>2.390981500978942</v>
       </c>
     </row>
     <row r="212">
@@ -2134,7 +2134,7 @@
         <v>36737</v>
       </c>
       <c r="B212" t="n">
-        <v>3.398623724450633</v>
+        <v>3.404543642503903</v>
       </c>
     </row>
     <row r="213">
@@ -2150,7 +2150,7 @@
         <v>36739</v>
       </c>
       <c r="B214" t="n">
-        <v>3.357877232005837</v>
+        <v>3.45222285106853</v>
       </c>
     </row>
     <row r="215">
@@ -2182,7 +2182,7 @@
         <v>36743</v>
       </c>
       <c r="B218" t="n">
-        <v>2.926555121081522</v>
+        <v>2.939543685054841</v>
       </c>
     </row>
     <row r="219">
@@ -2198,7 +2198,7 @@
         <v>36745</v>
       </c>
       <c r="B220" t="n">
-        <v>3.009439191801546</v>
+        <v>3.032211407960512</v>
       </c>
     </row>
     <row r="221">
@@ -2206,7 +2206,7 @@
         <v>36746</v>
       </c>
       <c r="B221" t="n">
-        <v>6.295968141293828</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="222">
@@ -2238,7 +2238,7 @@
         <v>36750</v>
       </c>
       <c r="B225" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="226">
@@ -2246,7 +2246,7 @@
         <v>36751</v>
       </c>
       <c r="B226" t="n">
-        <v>4.785</v>
+        <v>4.788136338643788</v>
       </c>
     </row>
     <row r="227">
@@ -2254,7 +2254,7 @@
         <v>36752</v>
       </c>
       <c r="B227" t="n">
-        <v>6.499999999999999</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="228">
@@ -2286,7 +2286,7 @@
         <v>36756</v>
       </c>
       <c r="B231" t="n">
-        <v>2.715</v>
+        <v>2.720957264099205</v>
       </c>
     </row>
     <row r="232">
@@ -2294,7 +2294,7 @@
         <v>36757</v>
       </c>
       <c r="B232" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="233">
@@ -2302,7 +2302,7 @@
         <v>36758</v>
       </c>
       <c r="B233" t="n">
-        <v>1.005067333992676</v>
+        <v>0.6117297718098098</v>
       </c>
     </row>
     <row r="234">
@@ -2318,7 +2318,7 @@
         <v>36760</v>
       </c>
       <c r="B235" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="236">
@@ -2326,7 +2326,7 @@
         <v>36761</v>
       </c>
       <c r="B236" t="n">
-        <v>3.759729561003882</v>
+        <v>3.964855028465358</v>
       </c>
     </row>
     <row r="237">
@@ -2334,7 +2334,7 @@
         <v>36762</v>
       </c>
       <c r="B237" t="n">
-        <v>5.960932319734612</v>
+        <v>5.849999999999999</v>
       </c>
     </row>
     <row r="238">
@@ -2350,7 +2350,7 @@
         <v>36764</v>
       </c>
       <c r="B239" t="n">
-        <v>5.787727648404729</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="240">
@@ -2358,7 +2358,7 @@
         <v>36765</v>
       </c>
       <c r="B240" t="n">
-        <v>3.597703541592426</v>
+        <v>3.676289106258425</v>
       </c>
     </row>
     <row r="241">
@@ -2366,7 +2366,7 @@
         <v>36766</v>
       </c>
       <c r="B241" t="n">
-        <v>6.499999999999998</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="242">
@@ -2382,7 +2382,7 @@
         <v>36768</v>
       </c>
       <c r="B243" t="n">
-        <v>3.09152887040556</v>
+        <v>3.116043669349922</v>
       </c>
     </row>
     <row r="244">
@@ -2390,7 +2390,7 @@
         <v>36769</v>
       </c>
       <c r="B244" t="n">
-        <v>3.189635308254867</v>
+        <v>3.219299446294815</v>
       </c>
     </row>
     <row r="245">
@@ -2398,7 +2398,7 @@
         <v>36770</v>
       </c>
       <c r="B245" t="n">
-        <v>3.749148288178942</v>
+        <v>3.768532344181624</v>
       </c>
     </row>
     <row r="246">
@@ -2406,7 +2406,7 @@
         <v>36771</v>
       </c>
       <c r="B246" t="n">
-        <v>6.5</v>
+        <v>5.849999999999999</v>
       </c>
     </row>
     <row r="247">
@@ -2430,7 +2430,7 @@
         <v>36774</v>
       </c>
       <c r="B249" t="n">
-        <v>5.900431735516001</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="250">
@@ -2438,7 +2438,7 @@
         <v>36775</v>
       </c>
       <c r="B250" t="n">
-        <v>4.484261747448347</v>
+        <v>4.501534114078424</v>
       </c>
     </row>
     <row r="251">
@@ -2454,7 +2454,7 @@
         <v>36777</v>
       </c>
       <c r="B252" t="n">
-        <v>3.935327585102178</v>
+        <v>3.951540856086093</v>
       </c>
     </row>
     <row r="253">
@@ -2462,7 +2462,7 @@
         <v>36778</v>
       </c>
       <c r="B253" t="n">
-        <v>3.603950547551401</v>
+        <v>3.709877799808505</v>
       </c>
     </row>
     <row r="254">
@@ -2478,7 +2478,7 @@
         <v>36780</v>
       </c>
       <c r="B255" t="n">
-        <v>5.656000000000001</v>
+        <v>5.666610101584077</v>
       </c>
     </row>
     <row r="256">
@@ -2486,7 +2486,7 @@
         <v>36781</v>
       </c>
       <c r="B256" t="n">
-        <v>5.246529190506834</v>
+        <v>5.316818482618725</v>
       </c>
     </row>
     <row r="257">
@@ -2494,7 +2494,7 @@
         <v>36782</v>
       </c>
       <c r="B257" t="n">
-        <v>5.41</v>
+        <v>5.414970541389127</v>
       </c>
     </row>
     <row r="258">
@@ -2502,7 +2502,7 @@
         <v>36783</v>
       </c>
       <c r="B258" t="n">
-        <v>4.871954477451883</v>
+        <v>4.938523208522548</v>
       </c>
     </row>
     <row r="259">
@@ -2510,7 +2510,7 @@
         <v>36784</v>
       </c>
       <c r="B259" t="n">
-        <v>3.138</v>
+        <v>3.137999999999999</v>
       </c>
     </row>
     <row r="260">
@@ -2526,7 +2526,7 @@
         <v>36786</v>
       </c>
       <c r="B261" t="n">
-        <v>2.96042532844185</v>
+        <v>2.965465868430393</v>
       </c>
     </row>
     <row r="262">
@@ -2550,7 +2550,7 @@
         <v>36789</v>
       </c>
       <c r="B264" t="n">
-        <v>3.984887659991837</v>
+        <v>4.000646119269518</v>
       </c>
     </row>
     <row r="265">
@@ -2558,7 +2558,7 @@
         <v>36790</v>
       </c>
       <c r="B265" t="n">
-        <v>6.487</v>
+        <v>5.849999999999999</v>
       </c>
     </row>
     <row r="266">
@@ -2566,7 +2566,7 @@
         <v>36791</v>
       </c>
       <c r="B266" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="267">
@@ -2582,7 +2582,7 @@
         <v>36793</v>
       </c>
       <c r="B268" t="n">
-        <v>3.408602776750914</v>
+        <v>3.434059413512038</v>
       </c>
     </row>
     <row r="269">
@@ -2606,7 +2606,7 @@
         <v>36796</v>
       </c>
       <c r="B271" t="n">
-        <v>5.586617298739851</v>
+        <v>5.602550010038375</v>
       </c>
     </row>
     <row r="272">
@@ -2614,7 +2614,7 @@
         <v>36797</v>
       </c>
       <c r="B272" t="n">
-        <v>4.159840589086093</v>
+        <v>4.179030450375876</v>
       </c>
     </row>
     <row r="273">
@@ -2622,7 +2622,7 @@
         <v>36798</v>
       </c>
       <c r="B273" t="n">
-        <v>5.877</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="274">
@@ -2630,7 +2630,7 @@
         <v>36799</v>
       </c>
       <c r="B274" t="n">
-        <v>6.5</v>
+        <v>5.849999999999999</v>
       </c>
     </row>
     <row r="275">
@@ -2638,7 +2638,7 @@
         <v>36800</v>
       </c>
       <c r="B275" t="n">
-        <v>6.498673099906346</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="276">
@@ -2646,7 +2646,7 @@
         <v>36801</v>
       </c>
       <c r="B276" t="n">
-        <v>2.866031333299827</v>
+        <v>1.929671036743716</v>
       </c>
     </row>
     <row r="277">
@@ -2654,7 +2654,7 @@
         <v>36802</v>
       </c>
       <c r="B277" t="n">
-        <v>6.499999999999999</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="278">
@@ -2678,7 +2678,7 @@
         <v>36805</v>
       </c>
       <c r="B280" t="n">
-        <v>5.957999999999999</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="281">
@@ -2710,7 +2710,7 @@
         <v>36809</v>
       </c>
       <c r="B284" t="n">
-        <v>5.674470274962129</v>
+        <v>5.703742668564807</v>
       </c>
     </row>
     <row r="285">
@@ -2726,7 +2726,7 @@
         <v>36811</v>
       </c>
       <c r="B286" t="n">
-        <v>4.31347254799132</v>
+        <v>4.240327964974597</v>
       </c>
     </row>
     <row r="287">
@@ -2734,7 +2734,7 @@
         <v>36812</v>
       </c>
       <c r="B287" t="n">
-        <v>3.96449175411601</v>
+        <v>3.980746064655432</v>
       </c>
     </row>
     <row r="288">
@@ -2742,7 +2742,7 @@
         <v>36813</v>
       </c>
       <c r="B288" t="n">
-        <v>4.629</v>
+        <v>4.631058841745944</v>
       </c>
     </row>
     <row r="289">
@@ -2750,7 +2750,7 @@
         <v>36814</v>
       </c>
       <c r="B289" t="n">
-        <v>6.5</v>
+        <v>5.849999999999998</v>
       </c>
     </row>
     <row r="290">
@@ -2758,7 +2758,7 @@
         <v>36815</v>
       </c>
       <c r="B290" t="n">
-        <v>5.446999999999998</v>
+        <v>5.446999999999999</v>
       </c>
     </row>
     <row r="291">
@@ -2766,7 +2766,7 @@
         <v>36816</v>
       </c>
       <c r="B291" t="n">
-        <v>5.383843770992949</v>
+        <v>5.422284912387933</v>
       </c>
     </row>
     <row r="292">
@@ -2774,7 +2774,7 @@
         <v>36817</v>
       </c>
       <c r="B292" t="n">
-        <v>4.685306533718758</v>
+        <v>4.698352814906751</v>
       </c>
     </row>
     <row r="293">
@@ -2782,7 +2782,7 @@
         <v>36818</v>
       </c>
       <c r="B293" t="n">
-        <v>4.021180456876328</v>
+        <v>3.914583586455955</v>
       </c>
     </row>
     <row r="294">
@@ -2790,7 +2790,7 @@
         <v>36819</v>
       </c>
       <c r="B294" t="n">
-        <v>4.804050456013103</v>
+        <v>4.821381742648479</v>
       </c>
     </row>
     <row r="295">
@@ -2798,7 +2798,7 @@
         <v>36820</v>
       </c>
       <c r="B295" t="n">
-        <v>4.944324544653703</v>
+        <v>4.957775182262507</v>
       </c>
     </row>
     <row r="296">
@@ -2806,7 +2806,7 @@
         <v>36821</v>
       </c>
       <c r="B296" t="n">
-        <v>6.136255772360168</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="297">
@@ -2814,7 +2814,7 @@
         <v>36822</v>
       </c>
       <c r="B297" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="298">
@@ -2822,7 +2822,7 @@
         <v>36823</v>
       </c>
       <c r="B298" t="n">
-        <v>1.574902943035166</v>
+        <v>0.9067055496333831</v>
       </c>
     </row>
     <row r="299">
@@ -2838,7 +2838,7 @@
         <v>36825</v>
       </c>
       <c r="B300" t="n">
-        <v>0.3840412012459067</v>
+        <v>0.2673015448966753</v>
       </c>
     </row>
     <row r="301">
@@ -2846,7 +2846,7 @@
         <v>36826</v>
       </c>
       <c r="B301" t="n">
-        <v>5.449832221539018</v>
+        <v>5.64111559379127</v>
       </c>
     </row>
     <row r="302">
@@ -2854,7 +2854,7 @@
         <v>36827</v>
       </c>
       <c r="B302" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="303">
@@ -2878,7 +2878,7 @@
         <v>36830</v>
       </c>
       <c r="B305" t="n">
-        <v>6.499999999999999</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="306">
@@ -2894,7 +2894,7 @@
         <v>36832</v>
       </c>
       <c r="B307" t="n">
-        <v>4.202142994980752</v>
+        <v>4.213517701096352</v>
       </c>
     </row>
     <row r="308">
@@ -2902,7 +2902,7 @@
         <v>36833</v>
       </c>
       <c r="B308" t="n">
-        <v>6.09125165497576</v>
+        <v>5.849999999999999</v>
       </c>
     </row>
     <row r="309">
@@ -2918,7 +2918,7 @@
         <v>36835</v>
       </c>
       <c r="B310" t="n">
-        <v>4.586760156128804</v>
+        <v>4.636318779751404</v>
       </c>
     </row>
     <row r="311">
@@ -2926,7 +2926,7 @@
         <v>36836</v>
       </c>
       <c r="B311" t="n">
-        <v>6.5</v>
+        <v>5.849999999999999</v>
       </c>
     </row>
     <row r="312">
@@ -2934,7 +2934,7 @@
         <v>36837</v>
       </c>
       <c r="B312" t="n">
-        <v>0.7717419001057777</v>
+        <v>0.9412915097024611</v>
       </c>
     </row>
     <row r="313">
@@ -2942,7 +2942,7 @@
         <v>36838</v>
       </c>
       <c r="B313" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="314">
@@ -2950,7 +2950,7 @@
         <v>36839</v>
       </c>
       <c r="B314" t="n">
-        <v>6.499999999999999</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="315">
@@ -2958,7 +2958,7 @@
         <v>36840</v>
       </c>
       <c r="B315" t="n">
-        <v>0.1769223948501341</v>
+        <v>0.1367470850162827</v>
       </c>
     </row>
     <row r="316">
@@ -2966,7 +2966,7 @@
         <v>36841</v>
       </c>
       <c r="B316" t="n">
-        <v>3.785548428795425</v>
+        <v>2.890590690551149</v>
       </c>
     </row>
     <row r="317">
@@ -2982,7 +2982,7 @@
         <v>36843</v>
       </c>
       <c r="B318" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="319">
@@ -2990,7 +2990,7 @@
         <v>36844</v>
       </c>
       <c r="B319" t="n">
-        <v>4.436620727320983</v>
+        <v>4.388999999999999</v>
       </c>
     </row>
     <row r="320">
@@ -2998,7 +2998,7 @@
         <v>36845</v>
       </c>
       <c r="B320" t="n">
-        <v>5.986999999999999</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="321">
@@ -3006,7 +3006,7 @@
         <v>36846</v>
       </c>
       <c r="B321" t="n">
-        <v>4.623770189111678</v>
+        <v>4.497497230745172</v>
       </c>
     </row>
     <row r="322">
@@ -3014,7 +3014,7 @@
         <v>36847</v>
       </c>
       <c r="B322" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="323">
@@ -3022,7 +3022,7 @@
         <v>36848</v>
       </c>
       <c r="B323" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="324">
@@ -3030,7 +3030,7 @@
         <v>36849</v>
       </c>
       <c r="B324" t="n">
-        <v>3.347188508568781</v>
+        <v>2.557799143113935</v>
       </c>
     </row>
     <row r="325">
@@ -3046,7 +3046,7 @@
         <v>36851</v>
       </c>
       <c r="B326" t="n">
-        <v>1.962069427252948</v>
+        <v>1.347073522658651</v>
       </c>
     </row>
     <row r="327">
@@ -3054,7 +3054,7 @@
         <v>36852</v>
       </c>
       <c r="B327" t="n">
-        <v>6.338</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="328">
@@ -3062,7 +3062,7 @@
         <v>36853</v>
       </c>
       <c r="B328" t="n">
-        <v>6.499999999999998</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="329">
@@ -3094,7 +3094,7 @@
         <v>36857</v>
       </c>
       <c r="B332" t="n">
-        <v>0.7959165748737237</v>
+        <v>0.5654553099021276</v>
       </c>
     </row>
     <row r="333">
@@ -3118,7 +3118,7 @@
         <v>36860</v>
       </c>
       <c r="B335" t="n">
-        <v>2.161063612883068</v>
+        <v>1.543070112793614</v>
       </c>
     </row>
     <row r="336">
@@ -3126,7 +3126,7 @@
         <v>36861</v>
       </c>
       <c r="B336" t="n">
-        <v>1.895296209257002</v>
+        <v>1.365968838272295</v>
       </c>
     </row>
     <row r="337">
@@ -3142,7 +3142,7 @@
         <v>36863</v>
       </c>
       <c r="B338" t="n">
-        <v>1.803495396778483</v>
+        <v>1.188616026606981</v>
       </c>
     </row>
     <row r="339">
@@ -3150,7 +3150,7 @@
         <v>36864</v>
       </c>
       <c r="B339" t="n">
-        <v>6.5</v>
+        <v>5.041048864269567</v>
       </c>
     </row>
     <row r="340">
@@ -3158,7 +3158,7 @@
         <v>36865</v>
       </c>
       <c r="B340" t="n">
-        <v>0.9178640663560278</v>
+        <v>0.5894606790560635</v>
       </c>
     </row>
     <row r="341">
@@ -3190,7 +3190,7 @@
         <v>36869</v>
       </c>
       <c r="B344" t="n">
-        <v>0.4155605458184888</v>
+        <v>0.2224134725671958</v>
       </c>
     </row>
     <row r="345">
@@ -3198,7 +3198,7 @@
         <v>36870</v>
       </c>
       <c r="B345" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="346">
@@ -3206,7 +3206,7 @@
         <v>36871</v>
       </c>
       <c r="B346" t="n">
-        <v>6.499999999999999</v>
+        <v>5.849999999999999</v>
       </c>
     </row>
     <row r="347">
@@ -3214,7 +3214,7 @@
         <v>36872</v>
       </c>
       <c r="B347" t="n">
-        <v>1.1915480910932</v>
+        <v>0.8318941374460342</v>
       </c>
     </row>
     <row r="348">
@@ -3222,7 +3222,7 @@
         <v>36873</v>
       </c>
       <c r="B348" t="n">
-        <v>6.499999999999999</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="349">
@@ -3230,7 +3230,7 @@
         <v>36874</v>
       </c>
       <c r="B349" t="n">
-        <v>0.2813672591988701</v>
+        <v>0.1640678956861868</v>
       </c>
     </row>
     <row r="350">
@@ -3238,7 +3238,7 @@
         <v>36875</v>
       </c>
       <c r="B350" t="n">
-        <v>0.3102716082140978</v>
+        <v>0.1619078555133486</v>
       </c>
     </row>
     <row r="351">
@@ -3246,7 +3246,7 @@
         <v>36876</v>
       </c>
       <c r="B351" t="n">
-        <v>0.8535703469700364</v>
+        <v>0.4696396786931792</v>
       </c>
     </row>
     <row r="352">
@@ -3254,7 +3254,7 @@
         <v>36877</v>
       </c>
       <c r="B352" t="n">
-        <v>1.478736850412164</v>
+        <v>1.187584287994139</v>
       </c>
     </row>
     <row r="353">
@@ -3262,7 +3262,7 @@
         <v>36878</v>
       </c>
       <c r="B353" t="n">
-        <v>6.499999999999997</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="354">
@@ -3294,7 +3294,7 @@
         <v>36882</v>
       </c>
       <c r="B357" t="n">
-        <v>1.224962346781784</v>
+        <v>0.7770339298385227</v>
       </c>
     </row>
     <row r="358">
@@ -3310,7 +3310,7 @@
         <v>36884</v>
       </c>
       <c r="B359" t="n">
-        <v>5.587120612388062</v>
+        <v>4.275974798138236</v>
       </c>
     </row>
     <row r="360">
@@ -3318,7 +3318,7 @@
         <v>36885</v>
       </c>
       <c r="B360" t="n">
-        <v>6.5</v>
+        <v>5.264418134959207</v>
       </c>
     </row>
     <row r="361">
@@ -3326,7 +3326,7 @@
         <v>36886</v>
       </c>
       <c r="B361" t="n">
-        <v>5.531305287840645</v>
+        <v>5.681847858650732</v>
       </c>
     </row>
     <row r="362">
@@ -3334,7 +3334,7 @@
         <v>36887</v>
       </c>
       <c r="B362" t="n">
-        <v>6.174921088002913</v>
+        <v>3.88490883260493</v>
       </c>
     </row>
     <row r="363">
@@ -3342,7 +3342,7 @@
         <v>36888</v>
       </c>
       <c r="B363" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="364">
@@ -3358,7 +3358,7 @@
         <v>36890</v>
       </c>
       <c r="B365" t="n">
-        <v>0.1975119835928265</v>
+        <v>0.1135994079382856</v>
       </c>
     </row>
     <row r="366">

--- a/results/end_of_day_charge_levels.xlsx
+++ b/results/end_of_day_charge_levels.xlsx
@@ -454,7 +454,7 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>2.40078853016705</v>
+        <v>0.570730445118332</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>36527</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7983476683815036</v>
+        <v>0.1545238267350198</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>36528</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1369844091021699</v>
+        <v>0.0103455294819353</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         <v>36530</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9132964147695912</v>
+        <v>0.2542382723689247</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>36531</v>
       </c>
       <c r="B7" t="n">
-        <v>2.101327880665513</v>
+        <v>0.2355611702282289</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>36532</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2286467691367796</v>
+        <v>0.006877203218656841</v>
       </c>
     </row>
     <row r="9">
@@ -518,7 +518,7 @@
         <v>36534</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1862038118957645</v>
+        <v>0.02393571686840798</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>36535</v>
       </c>
       <c r="B11" t="n">
-        <v>0.888921299754214</v>
+        <v>0.1504659246340058</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>36536</v>
       </c>
       <c r="B12" t="n">
-        <v>2.009663014611736</v>
+        <v>0.3998799384615382</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>36537</v>
       </c>
       <c r="B13" t="n">
-        <v>0.677325128734616</v>
+        <v>0.04119005807208814</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>36538</v>
       </c>
       <c r="B14" t="n">
-        <v>3.764970324012476</v>
+        <v>1.044990374202177</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>36539</v>
       </c>
       <c r="B15" t="n">
-        <v>6.5</v>
+        <v>2.580558800508166</v>
       </c>
     </row>
     <row r="16">
@@ -574,7 +574,7 @@
         <v>36541</v>
       </c>
       <c r="B17" t="n">
-        <v>4.11172410454001</v>
+        <v>1.174289823455044</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>36542</v>
       </c>
       <c r="B18" t="n">
-        <v>2.308504283170631</v>
+        <v>0.6357858354106976</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>36543</v>
       </c>
       <c r="B19" t="n">
-        <v>1.388278677397627</v>
+        <v>0.2457774822073949</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>36544</v>
       </c>
       <c r="B20" t="n">
-        <v>6.5</v>
+        <v>3.393841082282272</v>
       </c>
     </row>
     <row r="21">
@@ -614,7 +614,7 @@
         <v>36546</v>
       </c>
       <c r="B22" t="n">
-        <v>6.5</v>
+        <v>2.931988094502461</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>36547</v>
       </c>
       <c r="B23" t="n">
-        <v>2.83862405413042</v>
+        <v>0.6844683783872497</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>36548</v>
       </c>
       <c r="B24" t="n">
-        <v>6.361534153566128</v>
+        <v>1.997874708219998</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>36549</v>
       </c>
       <c r="B25" t="n">
-        <v>0.006859479396232757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -654,7 +654,7 @@
         <v>36551</v>
       </c>
       <c r="B27" t="n">
-        <v>6.5</v>
+        <v>1.949947236282766</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>36552</v>
       </c>
       <c r="B28" t="n">
-        <v>6.5</v>
+        <v>2.264739617454836</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>36553</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6036711269523287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -686,7 +686,7 @@
         <v>36555</v>
       </c>
       <c r="B31" t="n">
-        <v>6.5</v>
+        <v>5.104616621180281</v>
       </c>
     </row>
     <row r="32">
@@ -702,7 +702,7 @@
         <v>36557</v>
       </c>
       <c r="B33" t="n">
-        <v>1.344270999435606</v>
+        <v>0.3964380906563196</v>
       </c>
     </row>
     <row r="34">
@@ -726,7 +726,7 @@
         <v>36560</v>
       </c>
       <c r="B36" t="n">
-        <v>3.087386741077501</v>
+        <v>0.2668675000352045</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +734,7 @@
         <v>36561</v>
       </c>
       <c r="B37" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -742,7 +742,7 @@
         <v>36562</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5247707164381843</v>
+        <v>0.08937870635718191</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>36563</v>
       </c>
       <c r="B39" t="n">
-        <v>5.788516364689258</v>
+        <v>6.499141744888099</v>
       </c>
     </row>
     <row r="40">
@@ -758,7 +758,7 @@
         <v>36564</v>
       </c>
       <c r="B40" t="n">
-        <v>6.491</v>
+        <v>5.012018041232684</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>36565</v>
       </c>
       <c r="B41" t="n">
-        <v>6.5</v>
+        <v>4.608675640450069</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>36566</v>
       </c>
       <c r="B42" t="n">
-        <v>5.717985640685912</v>
+        <v>1.91717400991726</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>36567</v>
       </c>
       <c r="B43" t="n">
-        <v>5.3815702619524</v>
+        <v>1.15936067153668</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>36568</v>
       </c>
       <c r="B44" t="n">
-        <v>5.045207685960261</v>
+        <v>2.790129684562499</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>36569</v>
       </c>
       <c r="B45" t="n">
-        <v>5.32511692996343</v>
+        <v>5.479237024744646</v>
       </c>
     </row>
     <row r="46">
@@ -814,7 +814,7 @@
         <v>36571</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5629784814262113</v>
+        <v>0.1243130054976789</v>
       </c>
     </row>
     <row r="48">
@@ -838,7 +838,7 @@
         <v>36574</v>
       </c>
       <c r="B50" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="51">
@@ -846,7 +846,7 @@
         <v>36575</v>
       </c>
       <c r="B51" t="n">
-        <v>6.5</v>
+        <v>2.488888788229757</v>
       </c>
     </row>
     <row r="52">
@@ -854,7 +854,7 @@
         <v>36576</v>
       </c>
       <c r="B52" t="n">
-        <v>5.128174202541984</v>
+        <v>5.088449055664098</v>
       </c>
     </row>
     <row r="53">
@@ -862,7 +862,7 @@
         <v>36577</v>
       </c>
       <c r="B53" t="n">
-        <v>6.301086874632688</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="54">
@@ -878,7 +878,7 @@
         <v>36579</v>
       </c>
       <c r="B55" t="n">
-        <v>4.274852926948935</v>
+        <v>4.589666686022392</v>
       </c>
     </row>
     <row r="56">
@@ -886,7 +886,7 @@
         <v>36580</v>
       </c>
       <c r="B56" t="n">
-        <v>4.803118892555184</v>
+        <v>6.03699129517409</v>
       </c>
     </row>
     <row r="57">
@@ -902,7 +902,7 @@
         <v>36582</v>
       </c>
       <c r="B58" t="n">
-        <v>5.576095242223889</v>
+        <v>5.631270153327007</v>
       </c>
     </row>
     <row r="59">
@@ -910,7 +910,7 @@
         <v>36583</v>
       </c>
       <c r="B59" t="n">
-        <v>5.153354680313583</v>
+        <v>5.535687774735129</v>
       </c>
     </row>
     <row r="60">
@@ -926,7 +926,7 @@
         <v>36586</v>
       </c>
       <c r="B61" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="62">
@@ -950,7 +950,7 @@
         <v>36589</v>
       </c>
       <c r="B64" t="n">
-        <v>4.68157928567709</v>
+        <v>4.358519453800037</v>
       </c>
     </row>
     <row r="65">
@@ -958,7 +958,7 @@
         <v>36590</v>
       </c>
       <c r="B65" t="n">
-        <v>5.167557429287877</v>
+        <v>5.615063136842243</v>
       </c>
     </row>
     <row r="66">
@@ -966,7 +966,7 @@
         <v>36591</v>
       </c>
       <c r="B66" t="n">
-        <v>6.499999999999999</v>
+        <v>6.078432022099849</v>
       </c>
     </row>
     <row r="67">
@@ -974,7 +974,7 @@
         <v>36592</v>
       </c>
       <c r="B67" t="n">
-        <v>1.955659618421378</v>
+        <v>0.4581016152987771</v>
       </c>
     </row>
     <row r="68">
@@ -982,7 +982,7 @@
         <v>36593</v>
       </c>
       <c r="B68" t="n">
-        <v>5.827987100234001</v>
+        <v>1.885553637548378</v>
       </c>
     </row>
     <row r="69">
@@ -990,7 +990,7 @@
         <v>36594</v>
       </c>
       <c r="B69" t="n">
-        <v>6.5</v>
+        <v>3.727229887521758</v>
       </c>
     </row>
     <row r="70">
@@ -998,7 +998,7 @@
         <v>36595</v>
       </c>
       <c r="B70" t="n">
-        <v>6.416594275152619</v>
+        <v>1.663784540582429</v>
       </c>
     </row>
     <row r="71">
@@ -1006,7 +1006,7 @@
         <v>36596</v>
       </c>
       <c r="B71" t="n">
-        <v>5.495364593808604</v>
+        <v>3.27651810897745</v>
       </c>
     </row>
     <row r="72">
@@ -1014,7 +1014,7 @@
         <v>36597</v>
       </c>
       <c r="B72" t="n">
-        <v>6.5</v>
+        <v>5.035636228498917</v>
       </c>
     </row>
     <row r="73">
@@ -1030,7 +1030,7 @@
         <v>36599</v>
       </c>
       <c r="B74" t="n">
-        <v>6.409415752461385</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="75">
@@ -1038,7 +1038,7 @@
         <v>36600</v>
       </c>
       <c r="B75" t="n">
-        <v>6.5</v>
+        <v>2.829583303416574</v>
       </c>
     </row>
     <row r="76">
@@ -1046,7 +1046,7 @@
         <v>36601</v>
       </c>
       <c r="B76" t="n">
-        <v>0.02104690599911027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1054,7 +1054,7 @@
         <v>36602</v>
       </c>
       <c r="B77" t="n">
-        <v>5.419</v>
+        <v>6.455846638141166</v>
       </c>
     </row>
     <row r="78">
@@ -1062,7 +1062,7 @@
         <v>36603</v>
       </c>
       <c r="B78" t="n">
-        <v>6.5</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="79">
@@ -1086,7 +1086,7 @@
         <v>36606</v>
       </c>
       <c r="B81" t="n">
-        <v>3.929799837058727</v>
+        <v>4.822899556371568</v>
       </c>
     </row>
     <row r="82">
@@ -1094,7 +1094,7 @@
         <v>36607</v>
       </c>
       <c r="B82" t="n">
-        <v>5.853779495014439</v>
+        <v>4.653625789769298</v>
       </c>
     </row>
     <row r="83">
@@ -1102,7 +1102,7 @@
         <v>36608</v>
       </c>
       <c r="B83" t="n">
-        <v>6.5</v>
+        <v>2.267953598454669</v>
       </c>
     </row>
     <row r="84">
@@ -1110,7 +1110,7 @@
         <v>36609</v>
       </c>
       <c r="B84" t="n">
-        <v>6.5</v>
+        <v>5.264370987828343</v>
       </c>
     </row>
     <row r="85">
@@ -1126,7 +1126,7 @@
         <v>36611</v>
       </c>
       <c r="B86" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="87">
@@ -1134,7 +1134,7 @@
         <v>36612</v>
       </c>
       <c r="B87" t="n">
-        <v>6.499999999999999</v>
+        <v>3.13447784797106</v>
       </c>
     </row>
     <row r="88">
@@ -1150,7 +1150,7 @@
         <v>36614</v>
       </c>
       <c r="B89" t="n">
-        <v>6.5</v>
+        <v>6.499999999999998</v>
       </c>
     </row>
     <row r="90">
@@ -1182,7 +1182,7 @@
         <v>36618</v>
       </c>
       <c r="B93" t="n">
-        <v>6.145918368945955</v>
+        <v>3.73616406133753</v>
       </c>
     </row>
     <row r="94">
@@ -1190,7 +1190,7 @@
         <v>36619</v>
       </c>
       <c r="B94" t="n">
-        <v>6.499999999999999</v>
+        <v>5.257347007157556</v>
       </c>
     </row>
     <row r="95">
@@ -1198,7 +1198,7 @@
         <v>36620</v>
       </c>
       <c r="B95" t="n">
-        <v>5.938176882609632</v>
+        <v>2.482844814565948</v>
       </c>
     </row>
     <row r="96">
@@ -1214,7 +1214,7 @@
         <v>36622</v>
       </c>
       <c r="B97" t="n">
-        <v>3.28627410752775</v>
+        <v>3.408934591101851</v>
       </c>
     </row>
     <row r="98">
@@ -1222,7 +1222,7 @@
         <v>36623</v>
       </c>
       <c r="B98" t="n">
-        <v>4.017736443249147</v>
+        <v>4.747794791909868</v>
       </c>
     </row>
     <row r="99">
@@ -1230,7 +1230,7 @@
         <v>36624</v>
       </c>
       <c r="B99" t="n">
-        <v>5.536247400370842</v>
+        <v>5.825768149686722</v>
       </c>
     </row>
     <row r="100">
@@ -1238,7 +1238,7 @@
         <v>36625</v>
       </c>
       <c r="B100" t="n">
-        <v>6.263234970000906</v>
+        <v>4.090590379484881</v>
       </c>
     </row>
     <row r="101">
@@ -1254,7 +1254,7 @@
         <v>36627</v>
       </c>
       <c r="B102" t="n">
-        <v>6.057334429747376</v>
+        <v>1.605841364024654</v>
       </c>
     </row>
     <row r="103">
@@ -1262,7 +1262,7 @@
         <v>36628</v>
       </c>
       <c r="B103" t="n">
-        <v>3.955584998549207</v>
+        <v>3.289693833841362</v>
       </c>
     </row>
     <row r="104">
@@ -1270,7 +1270,7 @@
         <v>36629</v>
       </c>
       <c r="B104" t="n">
-        <v>3.659661408770528</v>
+        <v>4.612368400251574</v>
       </c>
     </row>
     <row r="105">
@@ -1278,7 +1278,7 @@
         <v>36630</v>
       </c>
       <c r="B105" t="n">
-        <v>3.375208389628559</v>
+        <v>4.33652447573408</v>
       </c>
     </row>
     <row r="106">
@@ -1286,7 +1286,7 @@
         <v>36631</v>
       </c>
       <c r="B106" t="n">
-        <v>2.613500081197449</v>
+        <v>2.796630067484198</v>
       </c>
     </row>
     <row r="107">
@@ -1294,7 +1294,7 @@
         <v>36632</v>
       </c>
       <c r="B107" t="n">
-        <v>4.018612910903791</v>
+        <v>4.045720705305261</v>
       </c>
     </row>
     <row r="108">
@@ -1302,7 +1302,7 @@
         <v>36633</v>
       </c>
       <c r="B108" t="n">
-        <v>2.798</v>
+        <v>2.864025565077762</v>
       </c>
     </row>
     <row r="109">
@@ -1310,7 +1310,7 @@
         <v>36634</v>
       </c>
       <c r="B109" t="n">
-        <v>4.913610816888446</v>
+        <v>4.951718142097363</v>
       </c>
     </row>
     <row r="110">
@@ -1318,7 +1318,7 @@
         <v>36635</v>
       </c>
       <c r="B110" t="n">
-        <v>2.696959508651497</v>
+        <v>2.763575020062349</v>
       </c>
     </row>
     <row r="111">
@@ -1326,7 +1326,7 @@
         <v>36636</v>
       </c>
       <c r="B111" t="n">
-        <v>2.77</v>
+        <v>3.241661946329119</v>
       </c>
     </row>
     <row r="112">
@@ -1334,7 +1334,7 @@
         <v>36637</v>
       </c>
       <c r="B112" t="n">
-        <v>2.935438413148481</v>
+        <v>3.235308141702625</v>
       </c>
     </row>
     <row r="113">
@@ -1342,7 +1342,7 @@
         <v>36638</v>
       </c>
       <c r="B113" t="n">
-        <v>4.613329298866459</v>
+        <v>4.857257850993139</v>
       </c>
     </row>
     <row r="114">
@@ -1350,7 +1350,7 @@
         <v>36639</v>
       </c>
       <c r="B114" t="n">
-        <v>5.46836782893452</v>
+        <v>5.555546969949702</v>
       </c>
     </row>
     <row r="115">
@@ -1358,7 +1358,7 @@
         <v>36640</v>
       </c>
       <c r="B115" t="n">
-        <v>3.275699778661274</v>
+        <v>3.766471945925124</v>
       </c>
     </row>
     <row r="116">
@@ -1366,7 +1366,7 @@
         <v>36641</v>
       </c>
       <c r="B116" t="n">
-        <v>3.697252947488955</v>
+        <v>3.819497206445824</v>
       </c>
     </row>
     <row r="117">
@@ -1374,7 +1374,7 @@
         <v>36642</v>
       </c>
       <c r="B117" t="n">
-        <v>2.615</v>
+        <v>2.975734565098005</v>
       </c>
     </row>
     <row r="118">
@@ -1382,7 +1382,7 @@
         <v>36643</v>
       </c>
       <c r="B118" t="n">
-        <v>6.049111504335697</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="119">
@@ -1390,7 +1390,7 @@
         <v>36644</v>
       </c>
       <c r="B119" t="n">
-        <v>5.304</v>
+        <v>4.698249087342534</v>
       </c>
     </row>
     <row r="120">
@@ -1398,7 +1398,7 @@
         <v>36645</v>
       </c>
       <c r="B120" t="n">
-        <v>6.418841334106983</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="121">
@@ -1406,7 +1406,7 @@
         <v>36646</v>
       </c>
       <c r="B121" t="n">
-        <v>3.39</v>
+        <v>3.466881348032234</v>
       </c>
     </row>
     <row r="122">
@@ -1414,7 +1414,7 @@
         <v>36647</v>
       </c>
       <c r="B122" t="n">
-        <v>2.374371982436845</v>
+        <v>2.400578964908055</v>
       </c>
     </row>
     <row r="123">
@@ -1422,7 +1422,7 @@
         <v>36648</v>
       </c>
       <c r="B123" t="n">
-        <v>2.713938625605067</v>
+        <v>2.748217164328232</v>
       </c>
     </row>
     <row r="124">
@@ -1430,7 +1430,7 @@
         <v>36649</v>
       </c>
       <c r="B124" t="n">
-        <v>3.26665632419887</v>
+        <v>3.504295831247791</v>
       </c>
     </row>
     <row r="125">
@@ -1438,7 +1438,7 @@
         <v>36650</v>
       </c>
       <c r="B125" t="n">
-        <v>3.098</v>
+        <v>3.146124020757135</v>
       </c>
     </row>
     <row r="126">
@@ -1446,7 +1446,7 @@
         <v>36651</v>
       </c>
       <c r="B126" t="n">
-        <v>2.075874077239789</v>
+        <v>2.163653307578032</v>
       </c>
     </row>
     <row r="127">
@@ -1454,7 +1454,7 @@
         <v>36652</v>
       </c>
       <c r="B127" t="n">
-        <v>3.505975887044737</v>
+        <v>3.55982055899505</v>
       </c>
     </row>
     <row r="128">
@@ -1462,7 +1462,7 @@
         <v>36653</v>
       </c>
       <c r="B128" t="n">
-        <v>2.141194619629005</v>
+        <v>2.267346557909286</v>
       </c>
     </row>
     <row r="129">
@@ -1470,7 +1470,7 @@
         <v>36654</v>
       </c>
       <c r="B129" t="n">
-        <v>2.210999999999999</v>
+        <v>2.314281192481276</v>
       </c>
     </row>
     <row r="130">
@@ -1478,7 +1478,7 @@
         <v>36655</v>
       </c>
       <c r="B130" t="n">
-        <v>4.60072352237656</v>
+        <v>4.827314374730746</v>
       </c>
     </row>
     <row r="131">
@@ -1486,7 +1486,7 @@
         <v>36656</v>
       </c>
       <c r="B131" t="n">
-        <v>2.145</v>
+        <v>2.186414909568875</v>
       </c>
     </row>
     <row r="132">
@@ -1494,7 +1494,7 @@
         <v>36657</v>
       </c>
       <c r="B132" t="n">
-        <v>4.03</v>
+        <v>4.171754556266444</v>
       </c>
     </row>
     <row r="133">
@@ -1518,7 +1518,7 @@
         <v>36660</v>
       </c>
       <c r="B135" t="n">
-        <v>2.867</v>
+        <v>2.891020038732099</v>
       </c>
     </row>
     <row r="136">
@@ -1526,7 +1526,7 @@
         <v>36661</v>
       </c>
       <c r="B136" t="n">
-        <v>3.698657585680443</v>
+        <v>3.869226380817136</v>
       </c>
     </row>
     <row r="137">
@@ -1534,7 +1534,7 @@
         <v>36662</v>
       </c>
       <c r="B137" t="n">
-        <v>2.486</v>
+        <v>2.52393979242075</v>
       </c>
     </row>
     <row r="138">
@@ -1542,7 +1542,7 @@
         <v>36663</v>
       </c>
       <c r="B138" t="n">
-        <v>2.895</v>
+        <v>2.907054072538124</v>
       </c>
     </row>
     <row r="139">
@@ -1550,7 +1550,7 @@
         <v>36664</v>
       </c>
       <c r="B139" t="n">
-        <v>4.372940858374545</v>
+        <v>4.487927360396902</v>
       </c>
     </row>
     <row r="140">
@@ -1558,7 +1558,7 @@
         <v>36665</v>
       </c>
       <c r="B140" t="n">
-        <v>3.657785508899216</v>
+        <v>3.748825543865796</v>
       </c>
     </row>
     <row r="141">
@@ -1566,7 +1566,7 @@
         <v>36666</v>
       </c>
       <c r="B141" t="n">
-        <v>4.7310112108476</v>
+        <v>4.741695157460976</v>
       </c>
     </row>
     <row r="142">
@@ -1574,7 +1574,7 @@
         <v>36667</v>
       </c>
       <c r="B142" t="n">
-        <v>3.669</v>
+        <v>3.712716919563997</v>
       </c>
     </row>
     <row r="143">
@@ -1582,7 +1582,7 @@
         <v>36668</v>
       </c>
       <c r="B143" t="n">
-        <v>6.071857880920384</v>
+        <v>6.408197411003577</v>
       </c>
     </row>
     <row r="144">
@@ -1590,7 +1590,7 @@
         <v>36669</v>
       </c>
       <c r="B144" t="n">
-        <v>4.214705923851013</v>
+        <v>4.307757996921106</v>
       </c>
     </row>
     <row r="145">
@@ -1598,7 +1598,7 @@
         <v>36670</v>
       </c>
       <c r="B145" t="n">
-        <v>2.051887326087443</v>
+        <v>2.055787554026998</v>
       </c>
     </row>
     <row r="146">
@@ -1606,7 +1606,7 @@
         <v>36671</v>
       </c>
       <c r="B146" t="n">
-        <v>2.525</v>
+        <v>2.659983700281168</v>
       </c>
     </row>
     <row r="147">
@@ -1614,7 +1614,7 @@
         <v>36672</v>
       </c>
       <c r="B147" t="n">
-        <v>5.201497655175229</v>
+        <v>5.993027227315564</v>
       </c>
     </row>
     <row r="148">
@@ -1622,7 +1622,7 @@
         <v>36673</v>
       </c>
       <c r="B148" t="n">
-        <v>3.755999999999999</v>
+        <v>3.786966339890938</v>
       </c>
     </row>
     <row r="149">
@@ -1630,7 +1630,7 @@
         <v>36674</v>
       </c>
       <c r="B149" t="n">
-        <v>3.501</v>
+        <v>3.535508095228192</v>
       </c>
     </row>
     <row r="150">
@@ -1638,7 +1638,7 @@
         <v>36675</v>
       </c>
       <c r="B150" t="n">
-        <v>1.93</v>
+        <v>1.990397396429179</v>
       </c>
     </row>
     <row r="151">
@@ -1646,7 +1646,7 @@
         <v>36676</v>
       </c>
       <c r="B151" t="n">
-        <v>2.803375775852646</v>
+        <v>2.973319162685586</v>
       </c>
     </row>
     <row r="152">
@@ -1670,7 +1670,7 @@
         <v>36679</v>
       </c>
       <c r="B154" t="n">
-        <v>2.431849533154799</v>
+        <v>3.04169803475921</v>
       </c>
     </row>
     <row r="155">
@@ -1678,7 +1678,7 @@
         <v>36680</v>
       </c>
       <c r="B155" t="n">
-        <v>2.240457260025708</v>
+        <v>2.594122938395358</v>
       </c>
     </row>
     <row r="156">
@@ -1694,7 +1694,7 @@
         <v>36682</v>
       </c>
       <c r="B157" t="n">
-        <v>3.265</v>
+        <v>3.296377912641445</v>
       </c>
     </row>
     <row r="158">
@@ -1702,7 +1702,7 @@
         <v>36683</v>
       </c>
       <c r="B158" t="n">
-        <v>4.494021953490208</v>
+        <v>4.8454529139016</v>
       </c>
     </row>
     <row r="159">
@@ -1710,7 +1710,7 @@
         <v>36684</v>
       </c>
       <c r="B159" t="n">
-        <v>3.846675770326396</v>
+        <v>4.366327350507747</v>
       </c>
     </row>
     <row r="160">
@@ -1718,7 +1718,7 @@
         <v>36685</v>
       </c>
       <c r="B160" t="n">
-        <v>3.526</v>
+        <v>3.604636192243633</v>
       </c>
     </row>
     <row r="161">
@@ -1726,7 +1726,7 @@
         <v>36686</v>
       </c>
       <c r="B161" t="n">
-        <v>4.959556918414678</v>
+        <v>5.674532601620268</v>
       </c>
     </row>
     <row r="162">
@@ -1734,7 +1734,7 @@
         <v>36687</v>
       </c>
       <c r="B162" t="n">
-        <v>3.821</v>
+        <v>3.841374186809253</v>
       </c>
     </row>
     <row r="163">
@@ -1750,7 +1750,7 @@
         <v>36689</v>
       </c>
       <c r="B164" t="n">
-        <v>5.934114509998363</v>
+        <v>1.979361036928315</v>
       </c>
     </row>
     <row r="165">
@@ -1758,7 +1758,7 @@
         <v>36690</v>
       </c>
       <c r="B165" t="n">
-        <v>4.980086</v>
+        <v>2.32968546838192</v>
       </c>
     </row>
     <row r="166">
@@ -1766,7 +1766,7 @@
         <v>36691</v>
       </c>
       <c r="B166" t="n">
-        <v>3.787999999999999</v>
+        <v>4.053195847378367</v>
       </c>
     </row>
     <row r="167">
@@ -1774,7 +1774,7 @@
         <v>36692</v>
       </c>
       <c r="B167" t="n">
-        <v>3.63040833846215</v>
+        <v>4.03286118136815</v>
       </c>
     </row>
     <row r="168">
@@ -1790,7 +1790,7 @@
         <v>36694</v>
       </c>
       <c r="B169" t="n">
-        <v>4.431323292137038</v>
+        <v>5.201900769487601</v>
       </c>
     </row>
     <row r="170">
@@ -1798,7 +1798,7 @@
         <v>36695</v>
       </c>
       <c r="B170" t="n">
-        <v>6.5</v>
+        <v>2.516122348660363</v>
       </c>
     </row>
     <row r="171">
@@ -1814,7 +1814,7 @@
         <v>36697</v>
       </c>
       <c r="B172" t="n">
-        <v>3.787080550346028</v>
+        <v>4.446333514652209</v>
       </c>
     </row>
     <row r="173">
@@ -1822,7 +1822,7 @@
         <v>36698</v>
       </c>
       <c r="B173" t="n">
-        <v>3.556231025778801</v>
+        <v>3.562884749159056</v>
       </c>
     </row>
     <row r="174">
@@ -1838,7 +1838,7 @@
         <v>36700</v>
       </c>
       <c r="B175" t="n">
-        <v>5.588840768763844</v>
+        <v>1.493361036928315</v>
       </c>
     </row>
     <row r="176">
@@ -1846,7 +1846,7 @@
         <v>36701</v>
       </c>
       <c r="B176" t="n">
-        <v>4.045999999999999</v>
+        <v>2.271409116305901</v>
       </c>
     </row>
     <row r="177">
@@ -1854,7 +1854,7 @@
         <v>36702</v>
       </c>
       <c r="B177" t="n">
-        <v>1.975</v>
+        <v>2.167316217860516</v>
       </c>
     </row>
     <row r="178">
@@ -1862,7 +1862,7 @@
         <v>36703</v>
       </c>
       <c r="B178" t="n">
-        <v>2.986361521264099</v>
+        <v>3.171455661331446</v>
       </c>
     </row>
     <row r="179">
@@ -1870,7 +1870,7 @@
         <v>36704</v>
       </c>
       <c r="B179" t="n">
-        <v>4.332243817134432</v>
+        <v>4.624879273245805</v>
       </c>
     </row>
     <row r="180">
@@ -1878,7 +1878,7 @@
         <v>36705</v>
       </c>
       <c r="B180" t="n">
-        <v>4.364224641487763</v>
+        <v>5.440159251815726</v>
       </c>
     </row>
     <row r="181">
@@ -1886,7 +1886,7 @@
         <v>36706</v>
       </c>
       <c r="B181" t="n">
-        <v>6.5</v>
+        <v>3.290989580510754</v>
       </c>
     </row>
     <row r="182">
@@ -1894,7 +1894,7 @@
         <v>36707</v>
       </c>
       <c r="B182" t="n">
-        <v>1.087186482423669</v>
+        <v>0.1705206594227076</v>
       </c>
     </row>
     <row r="183">
@@ -1902,7 +1902,7 @@
         <v>36708</v>
       </c>
       <c r="B183" t="n">
-        <v>3.875655676193163</v>
+        <v>3.957592659050289</v>
       </c>
     </row>
     <row r="184">
@@ -1910,7 +1910,7 @@
         <v>36709</v>
       </c>
       <c r="B184" t="n">
-        <v>3.149</v>
+        <v>3.181052371593419</v>
       </c>
     </row>
     <row r="185">
@@ -1918,7 +1918,7 @@
         <v>36710</v>
       </c>
       <c r="B185" t="n">
-        <v>3.637999999999999</v>
+        <v>3.647803139728508</v>
       </c>
     </row>
     <row r="186">
@@ -1926,7 +1926,7 @@
         <v>36711</v>
       </c>
       <c r="B186" t="n">
-        <v>2.123936352198118</v>
+        <v>2.324535023310159</v>
       </c>
     </row>
     <row r="187">
@@ -1934,7 +1934,7 @@
         <v>36712</v>
       </c>
       <c r="B187" t="n">
-        <v>2.431999999999999</v>
+        <v>2.521202200685102</v>
       </c>
     </row>
     <row r="188">
@@ -1942,7 +1942,7 @@
         <v>36713</v>
       </c>
       <c r="B188" t="n">
-        <v>2.495748784209425</v>
+        <v>2.625740573984324</v>
       </c>
     </row>
     <row r="189">
@@ -1950,7 +1950,7 @@
         <v>36714</v>
       </c>
       <c r="B189" t="n">
-        <v>2.066233762348141</v>
+        <v>2.100359441982802</v>
       </c>
     </row>
     <row r="190">
@@ -1958,7 +1958,7 @@
         <v>36715</v>
       </c>
       <c r="B190" t="n">
-        <v>3.094976546541552</v>
+        <v>3.125774931310835</v>
       </c>
     </row>
     <row r="191">
@@ -1966,7 +1966,7 @@
         <v>36716</v>
       </c>
       <c r="B191" t="n">
-        <v>5.338294212719054</v>
+        <v>5.730132188802097</v>
       </c>
     </row>
     <row r="192">
@@ -1974,7 +1974,7 @@
         <v>36717</v>
       </c>
       <c r="B192" t="n">
-        <v>4.145</v>
+        <v>1.055206459183755</v>
       </c>
     </row>
     <row r="193">
@@ -1982,7 +1982,7 @@
         <v>36718</v>
       </c>
       <c r="B193" t="n">
-        <v>2.850268591802399</v>
+        <v>2.947956246260215</v>
       </c>
     </row>
     <row r="194">
@@ -1990,7 +1990,7 @@
         <v>36719</v>
       </c>
       <c r="B194" t="n">
-        <v>2.838581526978491</v>
+        <v>3.052303841707854</v>
       </c>
     </row>
     <row r="195">
@@ -1998,7 +1998,7 @@
         <v>36720</v>
       </c>
       <c r="B195" t="n">
-        <v>2.439</v>
+        <v>2.497466916115453</v>
       </c>
     </row>
     <row r="196">
@@ -2006,7 +2006,7 @@
         <v>36721</v>
       </c>
       <c r="B196" t="n">
-        <v>2.524</v>
+        <v>2.904024895714108</v>
       </c>
     </row>
     <row r="197">
@@ -2022,7 +2022,7 @@
         <v>36723</v>
       </c>
       <c r="B198" t="n">
-        <v>1.953</v>
+        <v>1.957776251196767</v>
       </c>
     </row>
     <row r="199">
@@ -2030,7 +2030,7 @@
         <v>36724</v>
       </c>
       <c r="B199" t="n">
-        <v>2.255786131717061</v>
+        <v>2.317289918300189</v>
       </c>
     </row>
     <row r="200">
@@ -2038,7 +2038,7 @@
         <v>36725</v>
       </c>
       <c r="B200" t="n">
-        <v>2.258088121899604</v>
+        <v>2.316782192644035</v>
       </c>
     </row>
     <row r="201">
@@ -2046,7 +2046,7 @@
         <v>36726</v>
       </c>
       <c r="B201" t="n">
-        <v>3.09</v>
+        <v>3.134466726096124</v>
       </c>
     </row>
     <row r="202">
@@ -2054,7 +2054,7 @@
         <v>36727</v>
       </c>
       <c r="B202" t="n">
-        <v>3.490963645467026</v>
+        <v>3.941509648724668</v>
       </c>
     </row>
     <row r="203">
@@ -2062,7 +2062,7 @@
         <v>36728</v>
       </c>
       <c r="B203" t="n">
-        <v>4.356267981291646</v>
+        <v>4.596505910034377</v>
       </c>
     </row>
     <row r="204">
@@ -2070,7 +2070,7 @@
         <v>36729</v>
       </c>
       <c r="B204" t="n">
-        <v>3.795131424497962</v>
+        <v>4.164866979605027</v>
       </c>
     </row>
     <row r="205">
@@ -2078,7 +2078,7 @@
         <v>36730</v>
       </c>
       <c r="B205" t="n">
-        <v>3.855912143600102</v>
+        <v>4.212883319198321</v>
       </c>
     </row>
     <row r="206">
@@ -2086,7 +2086,7 @@
         <v>36731</v>
       </c>
       <c r="B206" t="n">
-        <v>5.043723835895239</v>
+        <v>5.479365380822077</v>
       </c>
     </row>
     <row r="207">
@@ -2094,7 +2094,7 @@
         <v>36732</v>
       </c>
       <c r="B207" t="n">
-        <v>3.342509168115181</v>
+        <v>3.464261556978907</v>
       </c>
     </row>
     <row r="208">
@@ -2102,7 +2102,7 @@
         <v>36733</v>
       </c>
       <c r="B208" t="n">
-        <v>2.887</v>
+        <v>2.91899090389417</v>
       </c>
     </row>
     <row r="209">
@@ -2110,7 +2110,7 @@
         <v>36734</v>
       </c>
       <c r="B209" t="n">
-        <v>3.627392202453783</v>
+        <v>4.04154692594693</v>
       </c>
     </row>
     <row r="210">
@@ -2118,7 +2118,7 @@
         <v>36735</v>
       </c>
       <c r="B210" t="n">
-        <v>3.734422739786424</v>
+        <v>4.158996878275454</v>
       </c>
     </row>
     <row r="211">
@@ -2126,7 +2126,7 @@
         <v>36736</v>
       </c>
       <c r="B211" t="n">
-        <v>2.38559582525388</v>
+        <v>2.515859549654925</v>
       </c>
     </row>
     <row r="212">
@@ -2134,7 +2134,7 @@
         <v>36737</v>
       </c>
       <c r="B212" t="n">
-        <v>3.398623724450633</v>
+        <v>4.120436236601942</v>
       </c>
     </row>
     <row r="213">
@@ -2150,7 +2150,7 @@
         <v>36739</v>
       </c>
       <c r="B214" t="n">
-        <v>3.357877232005837</v>
+        <v>3.610111425534265</v>
       </c>
     </row>
     <row r="215">
@@ -2158,7 +2158,7 @@
         <v>36740</v>
       </c>
       <c r="B215" t="n">
-        <v>2.893</v>
+        <v>2.933824892048394</v>
       </c>
     </row>
     <row r="216">
@@ -2166,7 +2166,7 @@
         <v>36741</v>
       </c>
       <c r="B216" t="n">
-        <v>3.019</v>
+        <v>3.14859554593412</v>
       </c>
     </row>
     <row r="217">
@@ -2174,7 +2174,7 @@
         <v>36742</v>
       </c>
       <c r="B217" t="n">
-        <v>2.693000000000001</v>
+        <v>2.715893437871825</v>
       </c>
     </row>
     <row r="218">
@@ -2182,7 +2182,7 @@
         <v>36743</v>
       </c>
       <c r="B218" t="n">
-        <v>2.926555121081522</v>
+        <v>3.02834344692405</v>
       </c>
     </row>
     <row r="219">
@@ -2198,7 +2198,7 @@
         <v>36745</v>
       </c>
       <c r="B220" t="n">
-        <v>3.009439191801546</v>
+        <v>3.202111639258571</v>
       </c>
     </row>
     <row r="221">
@@ -2206,7 +2206,7 @@
         <v>36746</v>
       </c>
       <c r="B221" t="n">
-        <v>6.295968141293828</v>
+        <v>6.340765719647852</v>
       </c>
     </row>
     <row r="222">
@@ -2222,7 +2222,7 @@
         <v>36748</v>
       </c>
       <c r="B223" t="n">
-        <v>2.781</v>
+        <v>3.068826342540813</v>
       </c>
     </row>
     <row r="224">
@@ -2230,7 +2230,7 @@
         <v>36749</v>
       </c>
       <c r="B224" t="n">
-        <v>3.372</v>
+        <v>3.404190157081179</v>
       </c>
     </row>
     <row r="225">
@@ -2238,7 +2238,7 @@
         <v>36750</v>
       </c>
       <c r="B225" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="226">
@@ -2246,7 +2246,7 @@
         <v>36751</v>
       </c>
       <c r="B226" t="n">
-        <v>4.785</v>
+        <v>4.488571024078862</v>
       </c>
     </row>
     <row r="227">
@@ -2254,7 +2254,7 @@
         <v>36752</v>
       </c>
       <c r="B227" t="n">
-        <v>6.499999999999999</v>
+        <v>4.480935193166048</v>
       </c>
     </row>
     <row r="228">
@@ -2262,7 +2262,7 @@
         <v>36753</v>
       </c>
       <c r="B228" t="n">
-        <v>3.249</v>
+        <v>3.320670942438398</v>
       </c>
     </row>
     <row r="229">
@@ -2278,7 +2278,7 @@
         <v>36755</v>
       </c>
       <c r="B230" t="n">
-        <v>3.168</v>
+        <v>3.654168262378188</v>
       </c>
     </row>
     <row r="231">
@@ -2286,7 +2286,7 @@
         <v>36756</v>
       </c>
       <c r="B231" t="n">
-        <v>2.715</v>
+        <v>2.83701935554696</v>
       </c>
     </row>
     <row r="232">
@@ -2302,7 +2302,7 @@
         <v>36758</v>
       </c>
       <c r="B233" t="n">
-        <v>1.005067333992676</v>
+        <v>0.1019138236378031</v>
       </c>
     </row>
     <row r="234">
@@ -2310,7 +2310,7 @@
         <v>36759</v>
       </c>
       <c r="B234" t="n">
-        <v>2.766</v>
+        <v>2.786870360127081</v>
       </c>
     </row>
     <row r="235">
@@ -2326,7 +2326,7 @@
         <v>36761</v>
       </c>
       <c r="B236" t="n">
-        <v>3.759729561003882</v>
+        <v>4.319702877845755</v>
       </c>
     </row>
     <row r="237">
@@ -2334,7 +2334,7 @@
         <v>36762</v>
       </c>
       <c r="B237" t="n">
-        <v>5.960932319734612</v>
+        <v>6.231862798418515</v>
       </c>
     </row>
     <row r="238">
@@ -2350,7 +2350,7 @@
         <v>36764</v>
       </c>
       <c r="B239" t="n">
-        <v>5.787727648404729</v>
+        <v>6.458636151352543</v>
       </c>
     </row>
     <row r="240">
@@ -2358,7 +2358,7 @@
         <v>36765</v>
       </c>
       <c r="B240" t="n">
-        <v>3.597703541592426</v>
+        <v>3.986304566904302</v>
       </c>
     </row>
     <row r="241">
@@ -2366,7 +2366,7 @@
         <v>36766</v>
       </c>
       <c r="B241" t="n">
-        <v>6.499999999999998</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="242">
@@ -2374,7 +2374,7 @@
         <v>36767</v>
       </c>
       <c r="B242" t="n">
-        <v>2.797</v>
+        <v>3.088311911385473</v>
       </c>
     </row>
     <row r="243">
@@ -2382,7 +2382,7 @@
         <v>36768</v>
       </c>
       <c r="B243" t="n">
-        <v>3.09152887040556</v>
+        <v>3.229579926877083</v>
       </c>
     </row>
     <row r="244">
@@ -2390,7 +2390,7 @@
         <v>36769</v>
       </c>
       <c r="B244" t="n">
-        <v>3.189635308254867</v>
+        <v>3.329431505428978</v>
       </c>
     </row>
     <row r="245">
@@ -2398,7 +2398,7 @@
         <v>36770</v>
       </c>
       <c r="B245" t="n">
-        <v>3.749148288178942</v>
+        <v>3.990360005281992</v>
       </c>
     </row>
     <row r="246">
@@ -2406,7 +2406,7 @@
         <v>36771</v>
       </c>
       <c r="B246" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="247">
@@ -2414,7 +2414,7 @@
         <v>36772</v>
       </c>
       <c r="B247" t="n">
-        <v>3.716</v>
+        <v>2.385890649565592</v>
       </c>
     </row>
     <row r="248">
@@ -2422,7 +2422,7 @@
         <v>36773</v>
       </c>
       <c r="B248" t="n">
-        <v>4.824</v>
+        <v>4.88637425544628</v>
       </c>
     </row>
     <row r="249">
@@ -2430,7 +2430,7 @@
         <v>36774</v>
       </c>
       <c r="B249" t="n">
-        <v>5.900431735516001</v>
+        <v>6.132525859610059</v>
       </c>
     </row>
     <row r="250">
@@ -2438,7 +2438,7 @@
         <v>36775</v>
       </c>
       <c r="B250" t="n">
-        <v>4.484261747448347</v>
+        <v>2.45323138865581</v>
       </c>
     </row>
     <row r="251">
@@ -2446,7 +2446,7 @@
         <v>36776</v>
       </c>
       <c r="B251" t="n">
-        <v>4.336</v>
+        <v>4.515543157759653</v>
       </c>
     </row>
     <row r="252">
@@ -2454,7 +2454,7 @@
         <v>36777</v>
       </c>
       <c r="B252" t="n">
-        <v>3.935327585102178</v>
+        <v>4.198816464439494</v>
       </c>
     </row>
     <row r="253">
@@ -2462,7 +2462,7 @@
         <v>36778</v>
       </c>
       <c r="B253" t="n">
-        <v>3.603950547551401</v>
+        <v>3.891706449059179</v>
       </c>
     </row>
     <row r="254">
@@ -2470,7 +2470,7 @@
         <v>36779</v>
       </c>
       <c r="B254" t="n">
-        <v>4.028</v>
+        <v>4.073454779868557</v>
       </c>
     </row>
     <row r="255">
@@ -2478,7 +2478,7 @@
         <v>36780</v>
       </c>
       <c r="B255" t="n">
-        <v>5.656000000000001</v>
+        <v>6.03297928754178</v>
       </c>
     </row>
     <row r="256">
@@ -2486,7 +2486,7 @@
         <v>36781</v>
       </c>
       <c r="B256" t="n">
-        <v>5.246529190506834</v>
+        <v>2.610885760397299</v>
       </c>
     </row>
     <row r="257">
@@ -2494,7 +2494,7 @@
         <v>36782</v>
       </c>
       <c r="B257" t="n">
-        <v>5.41</v>
+        <v>3.415088524954168</v>
       </c>
     </row>
     <row r="258">
@@ -2502,7 +2502,7 @@
         <v>36783</v>
       </c>
       <c r="B258" t="n">
-        <v>4.871954477451883</v>
+        <v>5.122884358478085</v>
       </c>
     </row>
     <row r="259">
@@ -2510,7 +2510,7 @@
         <v>36784</v>
       </c>
       <c r="B259" t="n">
-        <v>3.138</v>
+        <v>3.142465286024258</v>
       </c>
     </row>
     <row r="260">
@@ -2518,7 +2518,7 @@
         <v>36785</v>
       </c>
       <c r="B260" t="n">
-        <v>3.004</v>
+        <v>3.158166996365641</v>
       </c>
     </row>
     <row r="261">
@@ -2526,7 +2526,7 @@
         <v>36786</v>
       </c>
       <c r="B261" t="n">
-        <v>2.96042532844185</v>
+        <v>2.978732934215197</v>
       </c>
     </row>
     <row r="262">
@@ -2534,7 +2534,7 @@
         <v>36787</v>
       </c>
       <c r="B262" t="n">
-        <v>3.052</v>
+        <v>3.051999999999999</v>
       </c>
     </row>
     <row r="263">
@@ -2550,7 +2550,7 @@
         <v>36789</v>
       </c>
       <c r="B264" t="n">
-        <v>3.984887659991837</v>
+        <v>4.071780344145774</v>
       </c>
     </row>
     <row r="265">
@@ -2558,7 +2558,7 @@
         <v>36790</v>
       </c>
       <c r="B265" t="n">
-        <v>6.487</v>
+        <v>6.355925712345649</v>
       </c>
     </row>
     <row r="266">
@@ -2566,7 +2566,7 @@
         <v>36791</v>
       </c>
       <c r="B266" t="n">
-        <v>6.5</v>
+        <v>4.015046467339533</v>
       </c>
     </row>
     <row r="267">
@@ -2582,7 +2582,7 @@
         <v>36793</v>
       </c>
       <c r="B268" t="n">
-        <v>3.408602776750914</v>
+        <v>3.51394494266704</v>
       </c>
     </row>
     <row r="269">
@@ -2598,7 +2598,7 @@
         <v>36795</v>
       </c>
       <c r="B270" t="n">
-        <v>3.538</v>
+        <v>3.544610588545978</v>
       </c>
     </row>
     <row r="271">
@@ -2606,7 +2606,7 @@
         <v>36796</v>
       </c>
       <c r="B271" t="n">
-        <v>5.586617298739851</v>
+        <v>5.626275005019188</v>
       </c>
     </row>
     <row r="272">
@@ -2614,7 +2614,7 @@
         <v>36797</v>
       </c>
       <c r="B272" t="n">
-        <v>4.159840589086093</v>
+        <v>2.071550935126711</v>
       </c>
     </row>
     <row r="273">
@@ -2622,7 +2622,7 @@
         <v>36798</v>
       </c>
       <c r="B273" t="n">
-        <v>5.877</v>
+        <v>6.032190203622235</v>
       </c>
     </row>
     <row r="274">
@@ -2638,7 +2638,7 @@
         <v>36800</v>
       </c>
       <c r="B275" t="n">
-        <v>6.498673099906346</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="276">
@@ -2646,7 +2646,7 @@
         <v>36801</v>
       </c>
       <c r="B276" t="n">
-        <v>2.866031333299827</v>
+        <v>0.6171176465402676</v>
       </c>
     </row>
     <row r="277">
@@ -2654,7 +2654,7 @@
         <v>36802</v>
       </c>
       <c r="B277" t="n">
-        <v>6.499999999999999</v>
+        <v>6.499999999999997</v>
       </c>
     </row>
     <row r="278">
@@ -2662,7 +2662,7 @@
         <v>36803</v>
       </c>
       <c r="B278" t="n">
-        <v>4.191</v>
+        <v>4.131810308521066</v>
       </c>
     </row>
     <row r="279">
@@ -2670,7 +2670,7 @@
         <v>36804</v>
       </c>
       <c r="B279" t="n">
-        <v>3.329</v>
+        <v>3.501175829153194</v>
       </c>
     </row>
     <row r="280">
@@ -2678,7 +2678,7 @@
         <v>36805</v>
       </c>
       <c r="B280" t="n">
-        <v>5.957999999999999</v>
+        <v>6.339526226452262</v>
       </c>
     </row>
     <row r="281">
@@ -2686,7 +2686,7 @@
         <v>36806</v>
       </c>
       <c r="B281" t="n">
-        <v>4.609</v>
+        <v>4.617193107320094</v>
       </c>
     </row>
     <row r="282">
@@ -2702,7 +2702,7 @@
         <v>36808</v>
       </c>
       <c r="B283" t="n">
-        <v>3.964</v>
+        <v>4.408793521852058</v>
       </c>
     </row>
     <row r="284">
@@ -2710,7 +2710,7 @@
         <v>36809</v>
       </c>
       <c r="B284" t="n">
-        <v>5.674470274962129</v>
+        <v>5.823125625029762</v>
       </c>
     </row>
     <row r="285">
@@ -2718,7 +2718,7 @@
         <v>36810</v>
       </c>
       <c r="B285" t="n">
-        <v>4.503</v>
+        <v>4.527447412874892</v>
       </c>
     </row>
     <row r="286">
@@ -2726,7 +2726,7 @@
         <v>36811</v>
       </c>
       <c r="B286" t="n">
-        <v>4.31347254799132</v>
+        <v>4.54964585481903</v>
       </c>
     </row>
     <row r="287">
@@ -2734,7 +2734,7 @@
         <v>36812</v>
       </c>
       <c r="B287" t="n">
-        <v>3.96449175411601</v>
+        <v>4.032313333837434</v>
       </c>
     </row>
     <row r="288">
@@ -2742,7 +2742,7 @@
         <v>36813</v>
       </c>
       <c r="B288" t="n">
-        <v>4.629</v>
+        <v>4.940038547080036</v>
       </c>
     </row>
     <row r="289">
@@ -2758,7 +2758,7 @@
         <v>36815</v>
       </c>
       <c r="B290" t="n">
-        <v>5.446999999999998</v>
+        <v>5.666801422816921</v>
       </c>
     </row>
     <row r="291">
@@ -2766,7 +2766,7 @@
         <v>36816</v>
       </c>
       <c r="B291" t="n">
-        <v>5.383843770992949</v>
+        <v>5.549866501805836</v>
       </c>
     </row>
     <row r="292">
@@ -2774,7 +2774,7 @@
         <v>36817</v>
       </c>
       <c r="B292" t="n">
-        <v>4.685306533718758</v>
+        <v>3.259203955625915</v>
       </c>
     </row>
     <row r="293">
@@ -2782,7 +2782,7 @@
         <v>36818</v>
       </c>
       <c r="B293" t="n">
-        <v>4.021180456876328</v>
+        <v>4.288679595709755</v>
       </c>
     </row>
     <row r="294">
@@ -2790,7 +2790,7 @@
         <v>36819</v>
       </c>
       <c r="B294" t="n">
-        <v>4.804050456013103</v>
+        <v>5.243562271408173</v>
       </c>
     </row>
     <row r="295">
@@ -2798,7 +2798,7 @@
         <v>36820</v>
       </c>
       <c r="B295" t="n">
-        <v>4.944324544653703</v>
+        <v>5.020209628737909</v>
       </c>
     </row>
     <row r="296">
@@ -2806,7 +2806,7 @@
         <v>36821</v>
       </c>
       <c r="B296" t="n">
-        <v>6.136255772360168</v>
+        <v>4.229173769836296</v>
       </c>
     </row>
     <row r="297">
@@ -2814,7 +2814,7 @@
         <v>36822</v>
       </c>
       <c r="B297" t="n">
-        <v>6.5</v>
+        <v>3.498852247347339</v>
       </c>
     </row>
     <row r="298">
@@ -2822,7 +2822,7 @@
         <v>36823</v>
       </c>
       <c r="B298" t="n">
-        <v>1.574902943035166</v>
+        <v>0.3468527748166916</v>
       </c>
     </row>
     <row r="299">
@@ -2838,7 +2838,7 @@
         <v>36825</v>
       </c>
       <c r="B300" t="n">
-        <v>0.3840412012459067</v>
+        <v>0.1041507724483377</v>
       </c>
     </row>
     <row r="301">
@@ -2846,7 +2846,7 @@
         <v>36826</v>
       </c>
       <c r="B301" t="n">
-        <v>5.449832221539018</v>
+        <v>3.526245667516129</v>
       </c>
     </row>
     <row r="302">
@@ -2854,7 +2854,7 @@
         <v>36827</v>
       </c>
       <c r="B302" t="n">
-        <v>6.5</v>
+        <v>3.773991329380099</v>
       </c>
     </row>
     <row r="303">
@@ -2878,7 +2878,7 @@
         <v>36830</v>
       </c>
       <c r="B305" t="n">
-        <v>6.499999999999999</v>
+        <v>2.710580492081911</v>
       </c>
     </row>
     <row r="306">
@@ -2894,7 +2894,7 @@
         <v>36832</v>
       </c>
       <c r="B307" t="n">
-        <v>4.202142994980752</v>
+        <v>4.836924219789318</v>
       </c>
     </row>
     <row r="308">
@@ -2902,7 +2902,7 @@
         <v>36833</v>
       </c>
       <c r="B308" t="n">
-        <v>6.09125165497576</v>
+        <v>4.670354647803737</v>
       </c>
     </row>
     <row r="309">
@@ -2910,7 +2910,7 @@
         <v>36834</v>
       </c>
       <c r="B309" t="n">
-        <v>4.887</v>
+        <v>4.47696797779303</v>
       </c>
     </row>
     <row r="310">
@@ -2918,7 +2918,7 @@
         <v>36835</v>
       </c>
       <c r="B310" t="n">
-        <v>4.586760156128804</v>
+        <v>5.142795609584776</v>
       </c>
     </row>
     <row r="311">
@@ -2926,7 +2926,7 @@
         <v>36836</v>
       </c>
       <c r="B311" t="n">
-        <v>6.5</v>
+        <v>3.712149257555073</v>
       </c>
     </row>
     <row r="312">
@@ -2934,7 +2934,7 @@
         <v>36837</v>
       </c>
       <c r="B312" t="n">
-        <v>0.7717419001057777</v>
+        <v>0.3515103270344534</v>
       </c>
     </row>
     <row r="313">
@@ -2942,7 +2942,7 @@
         <v>36838</v>
       </c>
       <c r="B313" t="n">
-        <v>6.5</v>
+        <v>6.499999999999999</v>
       </c>
     </row>
     <row r="314">
@@ -2950,7 +2950,7 @@
         <v>36839</v>
       </c>
       <c r="B314" t="n">
-        <v>6.499999999999999</v>
+        <v>2.860208421935497</v>
       </c>
     </row>
     <row r="315">
@@ -2958,7 +2958,7 @@
         <v>36840</v>
       </c>
       <c r="B315" t="n">
-        <v>0.1769223948501341</v>
+        <v>0.02987354250814138</v>
       </c>
     </row>
     <row r="316">
@@ -2966,7 +2966,7 @@
         <v>36841</v>
       </c>
       <c r="B316" t="n">
-        <v>3.785548428795425</v>
+        <v>1.195329938227828</v>
       </c>
     </row>
     <row r="317">
@@ -2982,7 +2982,7 @@
         <v>36843</v>
       </c>
       <c r="B318" t="n">
-        <v>6.5</v>
+        <v>2.588303411970019</v>
       </c>
     </row>
     <row r="319">
@@ -2990,7 +2990,7 @@
         <v>36844</v>
       </c>
       <c r="B319" t="n">
-        <v>4.436620727320983</v>
+        <v>4.891470185721015</v>
       </c>
     </row>
     <row r="320">
@@ -2998,7 +2998,7 @@
         <v>36845</v>
       </c>
       <c r="B320" t="n">
-        <v>5.986999999999999</v>
+        <v>4.830035656144092</v>
       </c>
     </row>
     <row r="321">
@@ -3006,7 +3006,7 @@
         <v>36846</v>
       </c>
       <c r="B321" t="n">
-        <v>4.623770189111678</v>
+        <v>4.936681961410991</v>
       </c>
     </row>
     <row r="322">
@@ -3014,7 +3014,7 @@
         <v>36847</v>
       </c>
       <c r="B322" t="n">
-        <v>6.5</v>
+        <v>4.70575237591359</v>
       </c>
     </row>
     <row r="323">
@@ -3022,7 +3022,7 @@
         <v>36848</v>
       </c>
       <c r="B323" t="n">
-        <v>6.5</v>
+        <v>4.359794074401115</v>
       </c>
     </row>
     <row r="324">
@@ -3030,7 +3030,7 @@
         <v>36849</v>
       </c>
       <c r="B324" t="n">
-        <v>3.347188508568781</v>
+        <v>0.9293143224515878</v>
       </c>
     </row>
     <row r="325">
@@ -3046,7 +3046,7 @@
         <v>36851</v>
       </c>
       <c r="B326" t="n">
-        <v>1.962069427252948</v>
+        <v>0.4990853909449437</v>
       </c>
     </row>
     <row r="327">
@@ -3054,7 +3054,7 @@
         <v>36852</v>
       </c>
       <c r="B327" t="n">
-        <v>6.338</v>
+        <v>3.466129037365504</v>
       </c>
     </row>
     <row r="328">
@@ -3062,7 +3062,7 @@
         <v>36853</v>
       </c>
       <c r="B328" t="n">
-        <v>6.499999999999998</v>
+        <v>4.062869508397881</v>
       </c>
     </row>
     <row r="329">
@@ -3094,7 +3094,7 @@
         <v>36857</v>
       </c>
       <c r="B332" t="n">
-        <v>0.7959165748737237</v>
+        <v>0.2256986898606177</v>
       </c>
     </row>
     <row r="333">
@@ -3118,7 +3118,7 @@
         <v>36860</v>
       </c>
       <c r="B335" t="n">
-        <v>2.161063612883068</v>
+        <v>0.5380350563968069</v>
       </c>
     </row>
     <row r="336">
@@ -3126,7 +3126,7 @@
         <v>36861</v>
       </c>
       <c r="B336" t="n">
-        <v>1.895296209257002</v>
+        <v>0.5268187122616272</v>
       </c>
     </row>
     <row r="337">
@@ -3142,7 +3142,7 @@
         <v>36863</v>
       </c>
       <c r="B338" t="n">
-        <v>1.803495396778483</v>
+        <v>0.3995861607098932</v>
       </c>
     </row>
     <row r="339">
@@ -3150,7 +3150,7 @@
         <v>36864</v>
       </c>
       <c r="B339" t="n">
-        <v>6.5</v>
+        <v>1.971103984136306</v>
       </c>
     </row>
     <row r="340">
@@ -3158,7 +3158,7 @@
         <v>36865</v>
       </c>
       <c r="B340" t="n">
-        <v>0.9178640663560278</v>
+        <v>0.1527303395280317</v>
       </c>
     </row>
     <row r="341">
@@ -3190,7 +3190,7 @@
         <v>36869</v>
       </c>
       <c r="B344" t="n">
-        <v>0.4155605458184888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
@@ -3198,7 +3198,7 @@
         <v>36870</v>
       </c>
       <c r="B345" t="n">
-        <v>6.5</v>
+        <v>3.020130763424836</v>
       </c>
     </row>
     <row r="346">
@@ -3206,7 +3206,7 @@
         <v>36871</v>
       </c>
       <c r="B346" t="n">
-        <v>6.499999999999999</v>
+        <v>2.492100386038426</v>
       </c>
     </row>
     <row r="347">
@@ -3214,7 +3214,7 @@
         <v>36872</v>
       </c>
       <c r="B347" t="n">
-        <v>1.1915480910932</v>
+        <v>0.293047196066119</v>
       </c>
     </row>
     <row r="348">
@@ -3222,7 +3222,7 @@
         <v>36873</v>
       </c>
       <c r="B348" t="n">
-        <v>6.499999999999999</v>
+        <v>1.916429828200646</v>
       </c>
     </row>
     <row r="349">
@@ -3230,7 +3230,7 @@
         <v>36874</v>
       </c>
       <c r="B349" t="n">
-        <v>0.2813672591988701</v>
+        <v>0.03104554307592242</v>
       </c>
     </row>
     <row r="350">
@@ -3238,7 +3238,7 @@
         <v>36875</v>
       </c>
       <c r="B350" t="n">
-        <v>0.3102716082140978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
@@ -3246,7 +3246,7 @@
         <v>36876</v>
       </c>
       <c r="B351" t="n">
-        <v>0.8535703469700364</v>
+        <v>0.1371695418621529</v>
       </c>
     </row>
     <row r="352">
@@ -3254,7 +3254,7 @@
         <v>36877</v>
       </c>
       <c r="B352" t="n">
-        <v>1.478736850412164</v>
+        <v>0.4965982617682244</v>
       </c>
     </row>
     <row r="353">
@@ -3262,7 +3262,7 @@
         <v>36878</v>
       </c>
       <c r="B353" t="n">
-        <v>6.499999999999997</v>
+        <v>2.78139889246605</v>
       </c>
     </row>
     <row r="354">
@@ -3294,7 +3294,7 @@
         <v>36882</v>
       </c>
       <c r="B357" t="n">
-        <v>1.224962346781784</v>
+        <v>0.1995906846898233</v>
       </c>
     </row>
     <row r="358">
@@ -3310,7 +3310,7 @@
         <v>36884</v>
       </c>
       <c r="B359" t="n">
-        <v>5.587120612388062</v>
+        <v>1.571451254029844</v>
       </c>
     </row>
     <row r="360">
@@ -3318,7 +3318,7 @@
         <v>36885</v>
       </c>
       <c r="B360" t="n">
-        <v>6.5</v>
+        <v>1.776686154089677</v>
       </c>
     </row>
     <row r="361">
@@ -3326,7 +3326,7 @@
         <v>36886</v>
       </c>
       <c r="B361" t="n">
-        <v>5.531305287840645</v>
+        <v>2.758469999845305</v>
       </c>
     </row>
     <row r="362">
@@ -3334,7 +3334,7 @@
         <v>36887</v>
       </c>
       <c r="B362" t="n">
-        <v>6.174921088002913</v>
+        <v>1.008019302187575</v>
       </c>
     </row>
     <row r="363">
@@ -3342,7 +3342,7 @@
         <v>36888</v>
       </c>
       <c r="B363" t="n">
-        <v>6.5</v>
+        <v>3.145693104538835</v>
       </c>
     </row>
     <row r="364">
@@ -3358,7 +3358,7 @@
         <v>36890</v>
       </c>
       <c r="B365" t="n">
-        <v>0.1975119835928265</v>
+        <v>0.002794131875397288</v>
       </c>
     </row>
     <row r="366">
